--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83ED508-B1C9-4F3D-85D4-7BA86145BFA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38795939-B03F-4EF1-BE57-4D7063E4DD2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,39 +460,21 @@
     <t>新手任务-15:通过第10关</t>
   </si>
   <si>
-    <t>新手任务-16:装备一个武器</t>
-  </si>
-  <si>
     <t>新手任务-17:通过第11关</t>
   </si>
   <si>
-    <t>新手任务-18:装备一个肩甲</t>
-  </si>
-  <si>
     <t>新手任务-19:通过12关</t>
   </si>
   <si>
-    <t>新手任务-20:装备一个衣服</t>
-  </si>
-  <si>
     <t>新手任务-21:通过13关</t>
   </si>
   <si>
-    <t>新手任务-22:装备一个裤子</t>
-  </si>
-  <si>
     <t>新手任务-23:通过14关</t>
   </si>
   <si>
-    <t>新手任务-24:装备一个鞋子</t>
-  </si>
-  <si>
     <t>新手任务-25:通过15关</t>
   </si>
   <si>
-    <t>新手任务-26:装备一个头盔</t>
-  </si>
-  <si>
     <t>新手任务-27:通过16关</t>
   </si>
   <si>
@@ -517,24 +499,15 @@
     <t>新手任务-34:通过20关</t>
   </si>
   <si>
-    <t>新手任务-35:装备一个项链</t>
-  </si>
-  <si>
     <t>新手任务-36:通过21关</t>
   </si>
   <si>
     <t>新手任务-37:军阶升到2阶</t>
   </si>
   <si>
-    <t>新手任务-38:装备一个戒指</t>
-  </si>
-  <si>
     <t>新手任务-39:通过22关</t>
   </si>
   <si>
-    <t>新手任务-40:把武器强化到10级</t>
-  </si>
-  <si>
     <t>新手任务-41:通过23关</t>
   </si>
   <si>
@@ -553,9 +526,6 @@
     <t>新手任务-46:进行一次合成</t>
   </si>
   <si>
-    <t>新手任务-47:装备1件2阶武器</t>
-  </si>
-  <si>
     <t>新手任务-48:通过26关</t>
   </si>
   <si>
@@ -598,9 +568,6 @@
     <t>新手任务-61:通过40关</t>
   </si>
   <si>
-    <t>新手任务-62:武器精炼到达1级</t>
-  </si>
-  <si>
     <t>新手任务-63:通过45关</t>
   </si>
   <si>
@@ -1026,6 +993,39 @@
   </si>
   <si>
     <t>头盔S4</t>
+  </si>
+  <si>
+    <t>新手任务-16:装备一个火力装置</t>
+  </si>
+  <si>
+    <t>新手任务-40:把火力装置强化到10级</t>
+  </si>
+  <si>
+    <t>新手任务-47:装备1件2阶火力装置</t>
+  </si>
+  <si>
+    <t>新手任务-62:火力装置精炼到达1级</t>
+  </si>
+  <si>
+    <t>新手任务-26:装备一个装甲附甲</t>
+  </si>
+  <si>
+    <t>新手任务-18:装备一个能量线圈</t>
+  </si>
+  <si>
+    <t>新手任务-20:装备一个电压附甲</t>
+  </si>
+  <si>
+    <t>新手任务-22:装备一个磁力稳定装置</t>
+  </si>
+  <si>
+    <t>新手任务-24:装备一个护盾阵列</t>
+  </si>
+  <si>
+    <t>新手任务-35:装备一个电磁增强器</t>
+  </si>
+  <si>
+    <t>新手任务-38:装备一个索敌增强器</t>
   </si>
 </sst>
 </file>
@@ -1615,20 +1615,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1636,20 +1636,20 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1688,7 +1688,7 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:N74"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1715,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
@@ -1886,12 +1886,12 @@
         <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1923,12 +1923,12 @@
         <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>121</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G6" s="3">
         <v>1000</v>
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
@@ -2001,12 +2001,12 @@
         <v>122</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>123</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -2079,12 +2079,12 @@
         <v>124</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -2116,12 +2116,12 @@
         <v>125</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -2153,12 +2153,12 @@
         <v>126</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -2190,12 +2190,12 @@
         <v>127</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>128</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G13" s="3">
         <v>1000</v>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>1000</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>129</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G14" s="3">
         <v>1000</v>
@@ -2283,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -2315,12 +2315,12 @@
         <v>130</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -2352,14 +2352,14 @@
         <v>131</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G16" s="3">
         <v>5000</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -2391,12 +2391,12 @@
         <v>132</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -2428,12 +2428,12 @@
         <v>133</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>1000</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -2468,15 +2468,15 @@
         <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -2505,15 +2505,15 @@
         <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>1000</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2548,15 +2548,15 @@
         <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>136</v>
+        <v>310</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -2585,15 +2585,15 @@
         <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>1000</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2628,15 +2628,15 @@
         <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>138</v>
+        <v>311</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2665,15 +2665,15 @@
         <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>1000</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2708,15 +2708,15 @@
         <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>140</v>
+        <v>312</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -2745,15 +2745,15 @@
         <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>1000</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2788,15 +2788,15 @@
         <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2825,15 +2825,15 @@
         <v>71</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2862,15 +2862,15 @@
         <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2899,15 +2899,15 @@
         <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -2936,15 +2936,15 @@
         <v>74</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
@@ -2973,15 +2973,15 @@
         <v>75</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -3010,15 +3010,15 @@
         <v>76</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -3047,15 +3047,15 @@
         <v>77</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>78</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G35" s="3">
         <v>1000</v>
@@ -3102,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -3131,15 +3131,15 @@
         <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -3168,15 +3168,15 @@
         <v>80</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -3205,15 +3205,15 @@
         <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -3242,15 +3242,15 @@
         <v>82</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -3279,17 +3279,17 @@
         <v>83</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G40" s="3">
         <v>5000</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -3318,15 +3318,15 @@
         <v>84</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -3355,15 +3355,15 @@
         <v>85</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G43" s="3">
         <v>2000</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3433,15 +3433,15 @@
         <v>87</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>88</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G45" s="3">
         <v>2000</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3511,15 +3511,15 @@
         <v>89</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3548,15 +3548,15 @@
         <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3585,15 +3585,15 @@
         <v>91</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3622,10 +3622,10 @@
         <v>92</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3663,15 +3663,15 @@
         <v>93</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -3700,15 +3700,15 @@
         <v>94</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G52" s="3">
         <v>6000</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>1000</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3784,15 +3784,15 @@
         <v>96</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -3821,15 +3821,15 @@
         <v>97</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3858,10 +3858,10 @@
         <v>98</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G55" s="3">
         <v>6000</v>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>1000</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M55" s="3">
         <v>0</v>
@@ -3905,15 +3905,15 @@
         <v>99</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
@@ -3942,15 +3942,15 @@
         <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3979,15 +3979,15 @@
         <v>101</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4016,17 +4016,17 @@
         <v>102</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G59" s="3">
         <v>5000</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -4055,15 +4055,15 @@
         <v>103</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -4092,15 +4092,15 @@
         <v>104</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4129,10 +4129,10 @@
         <v>105</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G62" s="3">
         <v>6000</v>
@@ -4141,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4170,15 +4170,15 @@
         <v>106</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
@@ -4207,15 +4207,15 @@
         <v>107</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J64" s="3">
         <v>0</v>
@@ -4244,10 +4244,10 @@
         <v>108</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>180</v>
+        <v>308</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G65" s="3">
         <v>2000</v>
@@ -4256,7 +4256,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -4285,15 +4285,15 @@
         <v>109</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -4322,17 +4322,17 @@
         <v>110</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G67" s="3">
         <v>5000</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -4361,15 +4361,15 @@
         <v>111</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -4398,10 +4398,10 @@
         <v>112</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G69" s="3">
         <v>1000</v>
@@ -4410,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J69" s="3">
         <v>0</v>
@@ -4439,15 +4439,15 @@
         <v>113</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4476,10 +4476,10 @@
         <v>114</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G71" s="3">
         <v>1000</v>
@@ -4488,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -4517,17 +4517,17 @@
         <v>115</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G72" s="3">
         <v>5000</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -4556,15 +4556,15 @@
         <v>116</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
@@ -4593,17 +4593,17 @@
         <v>117</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G74" s="3">
         <v>5000</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -4645,31 +4645,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>17</v>
@@ -4683,78 +4683,78 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>285</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38795939-B03F-4EF1-BE57-4D7063E4DD2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469219D3-3EB7-495F-B702-6904A88DAA8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1688,7 +1688,7 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1972,10 +1972,10 @@
         <v>297</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469219D3-3EB7-495F-B702-6904A88DAA8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD96F3EE-4BFB-48FA-A08A-2E310823A6BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,9 +992,6 @@
     <t>鞋子S1</t>
   </si>
   <si>
-    <t>头盔S4</t>
-  </si>
-  <si>
     <t>新手任务-16:装备一个火力装置</t>
   </si>
   <si>
@@ -1026,6 +1023,22 @@
   </si>
   <si>
     <t>新手任务-38:装备一个索敌增强器</t>
+  </si>
+  <si>
+    <r>
+      <t>头盔S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1687,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C981F84-6D9D-4A08-AD69-A2769E18D156}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2192,8 +2205,12 @@
       <c r="F12" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
       <c r="I12" s="3" t="s">
         <v>297</v>
       </c>
@@ -2229,12 +2246,8 @@
       <c r="F13" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
         <v>297</v>
       </c>
@@ -2242,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>298</v>
@@ -2468,7 +2481,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>193</v>
@@ -2548,7 +2561,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>195</v>
@@ -2628,7 +2641,7 @@
         <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>197</v>
@@ -2708,7 +2721,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>199</v>
@@ -2788,7 +2801,7 @@
         <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>201</v>
@@ -2841,7 +2854,9 @@
       <c r="K28" s="3">
         <v>1000</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2862,7 +2877,7 @@
         <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>203</v>
@@ -3205,7 +3220,7 @@
         <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>212</v>
@@ -3318,7 +3333,7 @@
         <v>84</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>215</v>
@@ -3392,7 +3407,7 @@
         <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>217</v>
@@ -3663,7 +3678,7 @@
         <v>93</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>224</v>
@@ -3878,15 +3893,9 @@
       <c r="K55" s="3">
         <v>1000</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="M55" s="3">
-        <v>0</v>
-      </c>
-      <c r="N55" s="3">
-        <v>1</v>
-      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
@@ -4244,7 +4253,7 @@
         <v>108</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>239</v>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD96F3EE-4BFB-48FA-A08A-2E310823A6BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB14D5-3F35-4015-886D-A72AC0514A1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C981F84-6D9D-4A08-AD69-A2769E18D156}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:Q47"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2857,8 +2857,12 @@
       <c r="L28" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB14D5-3F35-4015-886D-A72AC0514A1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C3DCBD-B87B-4174-8378-6DA8DC29F9D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,9 +721,6 @@
     <t>通过24关</t>
   </si>
   <si>
-    <t>战力达到50000</t>
-  </si>
-  <si>
     <t>通过25关</t>
   </si>
   <si>
@@ -1038,6 +1035,10 @@
       </rPr>
       <t>1</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力达到60000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1628,20 +1629,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1649,20 +1650,20 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1700,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C981F84-6D9D-4A08-AD69-A2769E18D156}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
@@ -1904,7 +1905,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1941,7 +1942,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -1982,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -2019,7 +2020,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -2051,7 +2052,7 @@
         <v>123</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
@@ -2060,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -2097,7 +2098,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -2134,7 +2135,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -2171,7 +2172,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -2212,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -2249,7 +2250,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2258,7 +2259,7 @@
         <v>5000</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -2296,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -2333,7 +2334,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -2372,7 +2373,7 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -2409,7 +2410,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -2446,7 +2447,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -2455,7 +2456,7 @@
         <v>1000</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -2481,7 +2482,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>193</v>
@@ -2489,7 +2490,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -2526,7 +2527,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2535,7 +2536,7 @@
         <v>1000</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2561,7 +2562,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>195</v>
@@ -2569,7 +2570,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -2606,7 +2607,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -2615,7 +2616,7 @@
         <v>1000</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2641,7 +2642,7 @@
         <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>197</v>
@@ -2649,7 +2650,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2686,7 +2687,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2695,7 +2696,7 @@
         <v>1000</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2721,7 +2722,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>199</v>
@@ -2729,7 +2730,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -2766,7 +2767,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2775,7 +2776,7 @@
         <v>1000</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2801,7 +2802,7 @@
         <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>201</v>
@@ -2809,7 +2810,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2846,7 +2847,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2855,7 +2856,7 @@
         <v>1000</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -2881,7 +2882,7 @@
         <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>203</v>
@@ -2889,7 +2890,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2926,7 +2927,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -2963,7 +2964,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
@@ -3000,7 +3001,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -3034,10 +3035,14 @@
       <c r="F33" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
       <c r="I33" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -3074,16 +3079,16 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -3121,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -3158,7 +3163,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -3195,7 +3200,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -3224,7 +3229,7 @@
         <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>212</v>
@@ -3232,7 +3237,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -3269,7 +3274,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -3308,7 +3313,7 @@
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -3337,7 +3342,7 @@
         <v>84</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>215</v>
@@ -3345,7 +3350,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -3382,7 +3387,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -3411,7 +3416,7 @@
         <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>217</v>
@@ -3423,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3460,7 +3465,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3501,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3538,7 +3543,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3569,13 +3574,13 @@
       <c r="E47" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>221</v>
+      <c r="F47" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3607,12 +3612,12 @@
         <v>154</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3644,7 +3649,7 @@
         <v>155</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
@@ -3653,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3682,15 +3687,15 @@
         <v>93</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -3722,12 +3727,12 @@
         <v>156</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
@@ -3759,7 +3764,7 @@
         <v>157</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G52" s="3">
         <v>6000</v>
@@ -3768,16 +3773,16 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3806,12 +3811,12 @@
         <v>158</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -3843,12 +3848,12 @@
         <v>159</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3880,7 +3885,7 @@
         <v>160</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G55" s="3">
         <v>6000</v>
@@ -3889,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -3921,12 +3926,12 @@
         <v>161</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
@@ -3958,12 +3963,12 @@
         <v>162</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3995,12 +4000,12 @@
         <v>163</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4032,14 +4037,14 @@
         <v>164</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G59" s="3">
         <v>5000</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -4071,12 +4076,12 @@
         <v>165</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -4108,12 +4113,12 @@
         <v>166</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4145,7 +4150,7 @@
         <v>167</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G62" s="3">
         <v>6000</v>
@@ -4154,7 +4159,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4186,12 +4191,12 @@
         <v>168</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
@@ -4223,12 +4228,12 @@
         <v>169</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J64" s="3">
         <v>0</v>
@@ -4257,10 +4262,10 @@
         <v>108</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G65" s="3">
         <v>2000</v>
@@ -4269,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -4301,12 +4306,12 @@
         <v>170</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -4338,14 +4343,14 @@
         <v>171</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G67" s="3">
         <v>5000</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -4377,12 +4382,12 @@
         <v>172</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -4414,7 +4419,7 @@
         <v>173</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G69" s="3">
         <v>1000</v>
@@ -4423,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J69" s="3">
         <v>0</v>
@@ -4455,12 +4460,12 @@
         <v>174</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4492,7 +4497,7 @@
         <v>175</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G71" s="3">
         <v>1000</v>
@@ -4501,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -4533,14 +4538,14 @@
         <v>176</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G72" s="3">
         <v>5000</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -4572,12 +4577,12 @@
         <v>177</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
@@ -4609,14 +4614,14 @@
         <v>178</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G74" s="3">
         <v>5000</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -4634,6 +4639,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4658,31 +4664,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>17</v>
@@ -4696,78 +4702,78 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="J2" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4779,7 +4785,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -4805,7 +4811,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -4831,7 +4837,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4857,7 +4863,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -4883,7 +4889,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4909,7 +4915,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -4935,7 +4941,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -4961,7 +4967,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -4987,7 +4993,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5013,7 +5019,7 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -5039,7 +5045,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C3DCBD-B87B-4174-8378-6DA8DC29F9D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E9A908-1800-4A07-8F41-E3C4D634EF48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,9 +427,6 @@
     <t>新手任务-4:通过第3关</t>
   </si>
   <si>
-    <t>新手任务-5:释放一次技能</t>
-  </si>
-  <si>
     <t>新手任务-6:通过第4关</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
   </si>
   <si>
     <t>新手任务-9:把主舰强化到10级</t>
-  </si>
-  <si>
-    <t>新手任务-10:通过第7关</t>
   </si>
   <si>
     <t>新手任务-11:主舰1突</t>
@@ -1039,6 +1033,26 @@
   </si>
   <si>
     <t>战力达到60000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务-10:通过第7关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新手任务-5:把主舰升级到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7级</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1629,20 +1643,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1650,20 +1664,20 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1701,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C981F84-6D9D-4A08-AD69-A2769E18D156}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1729,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
@@ -1900,12 +1914,12 @@
         <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1937,12 +1951,12 @@
         <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -1974,7 +1988,7 @@
         <v>121</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G6" s="3">
         <v>1000</v>
@@ -1983,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -2015,12 +2029,12 @@
         <v>122</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -2048,11 +2062,11 @@
       <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>123</v>
+      <c r="E8" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
@@ -2061,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -2090,15 +2104,15 @@
         <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -2127,15 +2141,15 @@
         <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -2164,15 +2178,15 @@
         <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -2201,10 +2215,10 @@
         <v>55</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
@@ -2213,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -2241,16 +2255,16 @@
       <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>128</v>
+      <c r="E13" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2259,7 +2273,7 @@
         <v>5000</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -2285,10 +2299,10 @@
         <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G14" s="3">
         <v>1000</v>
@@ -2297,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -2326,15 +2340,15 @@
         <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -2363,17 +2377,17 @@
         <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G16" s="3">
         <v>5000</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -2402,15 +2416,15 @@
         <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -2439,24 +2453,24 @@
         <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -2482,15 +2496,15 @@
         <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -2519,15 +2533,15 @@
         <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2536,7 +2550,7 @@
         <v>1000</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2562,15 +2576,15 @@
         <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -2599,15 +2613,15 @@
         <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -2616,7 +2630,7 @@
         <v>1000</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2642,15 +2656,15 @@
         <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2679,15 +2693,15 @@
         <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2696,7 +2710,7 @@
         <v>1000</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2722,15 +2736,15 @@
         <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -2759,15 +2773,15 @@
         <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2776,7 +2790,7 @@
         <v>1000</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2802,15 +2816,15 @@
         <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2839,15 +2853,15 @@
         <v>71</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2856,7 +2870,7 @@
         <v>1000</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -2882,15 +2896,15 @@
         <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2919,15 +2933,15 @@
         <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -2956,15 +2970,15 @@
         <v>74</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
@@ -2993,15 +3007,15 @@
         <v>75</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -3030,19 +3044,19 @@
         <v>76</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G33" s="3">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -3071,15 +3085,15 @@
         <v>77</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -3088,7 +3102,7 @@
         <v>1000</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -3114,19 +3128,19 @@
         <v>78</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G35" s="3">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H35" s="3">
         <v>2</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -3155,15 +3169,15 @@
         <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -3192,15 +3206,15 @@
         <v>80</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -3229,15 +3243,15 @@
         <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -3266,15 +3280,15 @@
         <v>82</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -3303,17 +3317,17 @@
         <v>83</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G40" s="3">
         <v>5000</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -3342,15 +3356,15 @@
         <v>84</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -3379,15 +3393,15 @@
         <v>85</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -3416,10 +3430,10 @@
         <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G43" s="3">
         <v>2000</v>
@@ -3428,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3457,15 +3471,15 @@
         <v>87</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3494,10 +3508,10 @@
         <v>88</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G45" s="3">
         <v>2000</v>
@@ -3506,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3535,15 +3549,15 @@
         <v>89</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3572,15 +3586,15 @@
         <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3609,15 +3623,15 @@
         <v>91</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3646,10 +3660,10 @@
         <v>92</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
@@ -3658,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3687,15 +3701,15 @@
         <v>93</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -3724,15 +3738,15 @@
         <v>94</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
@@ -3761,10 +3775,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G52" s="3">
         <v>6000</v>
@@ -3773,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3782,7 +3796,7 @@
         <v>1000</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3808,15 +3822,15 @@
         <v>96</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -3845,15 +3859,15 @@
         <v>97</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3882,10 +3896,10 @@
         <v>98</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G55" s="3">
         <v>6000</v>
@@ -3894,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -3923,15 +3937,15 @@
         <v>99</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
@@ -3960,15 +3974,15 @@
         <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3997,15 +4011,15 @@
         <v>101</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4034,17 +4048,17 @@
         <v>102</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G59" s="3">
         <v>5000</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -4073,15 +4087,15 @@
         <v>103</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -4110,15 +4124,15 @@
         <v>104</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4147,10 +4161,10 @@
         <v>105</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G62" s="3">
         <v>6000</v>
@@ -4159,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4188,15 +4202,15 @@
         <v>106</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
@@ -4225,15 +4239,15 @@
         <v>107</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J64" s="3">
         <v>0</v>
@@ -4262,10 +4276,10 @@
         <v>108</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G65" s="3">
         <v>2000</v>
@@ -4274,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -4303,15 +4317,15 @@
         <v>109</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -4340,17 +4354,17 @@
         <v>110</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G67" s="3">
         <v>5000</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -4379,15 +4393,15 @@
         <v>111</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -4416,10 +4430,10 @@
         <v>112</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G69" s="3">
         <v>1000</v>
@@ -4428,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J69" s="3">
         <v>0</v>
@@ -4457,15 +4471,15 @@
         <v>113</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4494,10 +4508,10 @@
         <v>114</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G71" s="3">
         <v>1000</v>
@@ -4506,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -4535,17 +4549,17 @@
         <v>115</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G72" s="3">
         <v>5000</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -4574,15 +4588,15 @@
         <v>116</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
@@ -4611,17 +4625,17 @@
         <v>117</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G74" s="3">
         <v>5000</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -4664,31 +4678,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>17</v>
@@ -4702,78 +4716,78 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="J2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4785,7 +4799,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -4811,7 +4825,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -4837,7 +4851,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4863,7 +4877,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -4889,7 +4903,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4915,7 +4929,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -4941,7 +4955,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -4967,7 +4981,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -4993,7 +5007,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5019,7 +5033,7 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -5045,7 +5059,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E9A908-1800-4A07-8F41-E3C4D634EF48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7073B36-DD2E-4672-A2B0-64080AAD4310}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,9 +532,6 @@
     <t>新手任务-51:通过27关</t>
   </si>
   <si>
-    <t>新手任务-52:引导装备抽奖励</t>
-  </si>
-  <si>
     <t>新手任务-53:通过28关</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
   </si>
   <si>
     <t>新手任务-58:通过32关</t>
-  </si>
-  <si>
-    <t>新手任务-59:进行一次符文抽将</t>
   </si>
   <si>
     <t>新手任务-60:通过35关</t>
@@ -1053,6 +1047,14 @@
       </rPr>
       <t>7级</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务-52:进行一次装备抽奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务-59:进行一次符文抽奖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1643,20 +1645,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1664,20 +1666,20 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1715,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C981F84-6D9D-4A08-AD69-A2769E18D156}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1743,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
@@ -1914,12 +1916,12 @@
         <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1951,12 +1953,12 @@
         <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -1988,7 +1990,7 @@
         <v>121</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G6" s="3">
         <v>1000</v>
@@ -1997,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -2029,12 +2031,12 @@
         <v>122</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -2063,10 +2065,10 @@
         <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
@@ -2075,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -2107,12 +2109,12 @@
         <v>123</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -2144,12 +2146,12 @@
         <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -2181,12 +2183,12 @@
         <v>125</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -2218,7 +2220,7 @@
         <v>126</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
@@ -2227,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -2256,15 +2258,15 @@
         <v>56</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2273,7 +2275,7 @@
         <v>5000</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>127</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G14" s="3">
         <v>1000</v>
@@ -2311,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -2343,12 +2345,12 @@
         <v>128</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -2380,14 +2382,14 @@
         <v>129</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G16" s="3">
         <v>5000</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -2419,12 +2421,12 @@
         <v>130</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -2456,21 +2458,21 @@
         <v>131</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -2496,15 +2498,15 @@
         <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -2536,12 +2538,12 @@
         <v>132</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2550,7 +2552,7 @@
         <v>1000</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2576,15 +2578,15 @@
         <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -2616,12 +2618,12 @@
         <v>133</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -2630,7 +2632,7 @@
         <v>1000</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2656,15 +2658,15 @@
         <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2696,12 +2698,12 @@
         <v>134</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         <v>1000</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2736,15 +2738,15 @@
         <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -2776,12 +2778,12 @@
         <v>135</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2790,7 +2792,7 @@
         <v>1000</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2816,15 +2818,15 @@
         <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2856,12 +2858,12 @@
         <v>136</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2870,7 +2872,7 @@
         <v>1000</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -2896,15 +2898,15 @@
         <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2936,12 +2938,12 @@
         <v>137</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -2973,12 +2975,12 @@
         <v>138</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
@@ -3010,12 +3012,12 @@
         <v>139</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G33" s="3">
         <v>1001</v>
@@ -3056,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -3088,12 +3090,12 @@
         <v>141</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -3102,7 +3104,7 @@
         <v>1000</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -3131,7 +3133,7 @@
         <v>142</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G35" s="3">
         <v>1001</v>
@@ -3140,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -3172,12 +3174,12 @@
         <v>143</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -3209,12 +3211,12 @@
         <v>144</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -3243,15 +3245,15 @@
         <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -3283,12 +3285,12 @@
         <v>145</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -3320,14 +3322,14 @@
         <v>146</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G40" s="3">
         <v>5000</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -3356,15 +3358,15 @@
         <v>84</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -3396,12 +3398,12 @@
         <v>147</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -3430,10 +3432,10 @@
         <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G43" s="3">
         <v>2000</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3474,12 +3476,12 @@
         <v>148</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3511,7 +3513,7 @@
         <v>149</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G45" s="3">
         <v>2000</v>
@@ -3520,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3552,12 +3554,12 @@
         <v>150</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3589,12 +3591,12 @@
         <v>151</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3626,12 +3628,12 @@
         <v>152</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3663,7 +3665,7 @@
         <v>153</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
@@ -3672,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3701,15 +3703,15 @@
         <v>93</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -3741,12 +3743,12 @@
         <v>154</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
@@ -3778,7 +3780,7 @@
         <v>155</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G52" s="3">
         <v>6000</v>
@@ -3787,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3796,7 +3798,7 @@
         <v>1000</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3825,12 +3827,16 @@
         <v>156</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
       <c r="I53" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -3862,12 +3868,12 @@
         <v>157</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3895,20 +3901,20 @@
       <c r="D55" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>158</v>
+      <c r="E55" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G55" s="3">
         <v>6000</v>
       </c>
       <c r="H55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -3937,15 +3943,15 @@
         <v>99</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
@@ -3974,15 +3980,15 @@
         <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -4011,15 +4017,15 @@
         <v>101</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4048,17 +4054,17 @@
         <v>102</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G59" s="3">
         <v>5000</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -4087,15 +4093,15 @@
         <v>103</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -4124,15 +4130,15 @@
         <v>104</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4160,20 +4166,20 @@
       <c r="D62" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>165</v>
+      <c r="E62" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G62" s="3">
         <v>6000</v>
       </c>
       <c r="H62" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4202,15 +4208,15 @@
         <v>106</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
@@ -4239,15 +4245,15 @@
         <v>107</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J64" s="3">
         <v>0</v>
@@ -4276,10 +4282,10 @@
         <v>108</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G65" s="3">
         <v>2000</v>
@@ -4288,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -4317,15 +4323,15 @@
         <v>109</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -4354,17 +4360,17 @@
         <v>110</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G67" s="3">
         <v>5000</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -4393,15 +4399,15 @@
         <v>111</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -4430,10 +4436,10 @@
         <v>112</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G69" s="3">
         <v>1000</v>
@@ -4442,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J69" s="3">
         <v>0</v>
@@ -4471,15 +4477,15 @@
         <v>113</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4508,10 +4514,10 @@
         <v>114</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G71" s="3">
         <v>1000</v>
@@ -4520,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -4549,17 +4555,17 @@
         <v>115</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G72" s="3">
         <v>5000</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -4588,15 +4594,15 @@
         <v>116</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
@@ -4625,17 +4631,17 @@
         <v>117</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G74" s="3">
         <v>5000</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -4678,31 +4684,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>17</v>
@@ -4716,78 +4722,78 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="J2" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4799,7 +4805,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -4825,7 +4831,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -4851,7 +4857,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4877,7 +4883,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -4903,7 +4909,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4929,7 +4935,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -4955,7 +4961,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -4981,7 +4987,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5007,7 +5013,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5033,7 +5039,7 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -5059,7 +5065,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7073B36-DD2E-4672-A2B0-64080AAD4310}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27ADFAB-0789-47BA-9FA5-09563FD9256E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="新手任务" sheetId="26" r:id="rId2"/>
     <sheet name="日常任务" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -703,9 +703,6 @@
     <t>通过23关</t>
   </si>
   <si>
-    <t>装备强化大师1</t>
-  </si>
-  <si>
     <t>通过24关</t>
   </si>
   <si>
@@ -758,9 +755,6 @@
   </si>
   <si>
     <t>通过40关</t>
-  </si>
-  <si>
-    <t>装备精炼到1级</t>
   </si>
   <si>
     <t>通过45关</t>
@@ -1057,12 +1051,19 @@
     <t>新手任务-59:进行一次符文抽奖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>装备全体强化+10</t>
+  </si>
+  <si>
+    <t>精炼大师beg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,6 +1163,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1207,7 +1214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1236,6 +1243,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1277,7 +1297,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1307,6 +1327,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="14">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1645,20 +1668,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1666,20 +1689,20 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1717,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C981F84-6D9D-4A08-AD69-A2769E18D156}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
@@ -1921,7 +1944,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1958,7 +1981,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -1999,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -2036,7 +2059,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -2065,10 +2088,10 @@
         <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
@@ -2077,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -2114,7 +2137,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -2151,7 +2174,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -2188,7 +2211,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -2229,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -2258,7 +2281,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>183</v>
@@ -2266,7 +2289,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2275,7 +2298,7 @@
         <v>5000</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -2313,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -2350,7 +2373,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -2389,7 +2412,7 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -2426,7 +2449,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -2463,16 +2486,16 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -2498,7 +2521,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>189</v>
@@ -2506,7 +2529,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -2543,7 +2566,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2552,7 +2575,7 @@
         <v>1000</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2578,7 +2601,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>191</v>
@@ -2586,7 +2609,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -2623,7 +2646,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -2632,7 +2655,7 @@
         <v>1000</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2658,7 +2681,7 @@
         <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>193</v>
@@ -2666,7 +2689,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2703,7 +2726,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2712,7 +2735,7 @@
         <v>1000</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2738,7 +2761,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>195</v>
@@ -2746,7 +2769,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -2783,7 +2806,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2792,7 +2815,7 @@
         <v>1000</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2818,7 +2841,7 @@
         <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>197</v>
@@ -2826,7 +2849,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2863,7 +2886,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2872,7 +2895,7 @@
         <v>1000</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -2898,7 +2921,7 @@
         <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>199</v>
@@ -2906,7 +2929,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2943,7 +2966,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -2980,7 +3003,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
@@ -3017,7 +3040,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -3058,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -3095,7 +3118,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -3104,7 +3127,7 @@
         <v>1000</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -3142,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -3179,7 +3202,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -3216,7 +3239,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -3245,7 +3268,7 @@
         <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>208</v>
@@ -3253,7 +3276,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -3290,7 +3313,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -3329,7 +3352,7 @@
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -3358,7 +3381,7 @@
         <v>84</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>211</v>
@@ -3366,7 +3389,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -3403,7 +3426,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -3432,7 +3455,7 @@
         <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>213</v>
@@ -3444,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3481,7 +3504,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3513,7 +3536,7 @@
         <v>149</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="G45" s="3">
         <v>2000</v>
@@ -3522,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3554,12 +3577,12 @@
         <v>150</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3591,12 +3614,12 @@
         <v>151</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3628,12 +3651,12 @@
         <v>152</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3665,7 +3688,7 @@
         <v>153</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
@@ -3674,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3703,15 +3726,15 @@
         <v>93</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -3743,12 +3766,12 @@
         <v>154</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
@@ -3780,7 +3803,7 @@
         <v>155</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G52" s="3">
         <v>6000</v>
@@ -3789,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3798,7 +3821,7 @@
         <v>1000</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3827,7 +3850,7 @@
         <v>156</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G53" s="3">
         <v>1000</v>
@@ -3836,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -3868,12 +3891,12 @@
         <v>157</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3902,10 +3925,10 @@
         <v>98</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G55" s="3">
         <v>6000</v>
@@ -3914,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -3946,12 +3969,12 @@
         <v>158</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
@@ -3983,12 +4006,12 @@
         <v>159</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -4020,12 +4043,12 @@
         <v>160</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4057,14 +4080,14 @@
         <v>161</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G59" s="3">
         <v>5000</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -4096,12 +4119,12 @@
         <v>162</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -4133,12 +4156,12 @@
         <v>163</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4167,10 +4190,10 @@
         <v>105</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G62" s="3">
         <v>6000</v>
@@ -4179,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4211,12 +4234,12 @@
         <v>164</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
@@ -4248,12 +4271,12 @@
         <v>165</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J64" s="3">
         <v>0</v>
@@ -4282,10 +4305,10 @@
         <v>108</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>234</v>
+        <v>300</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>315</v>
       </c>
       <c r="G65" s="3">
         <v>2000</v>
@@ -4294,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -4326,12 +4349,12 @@
         <v>166</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -4363,14 +4386,14 @@
         <v>167</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G67" s="3">
         <v>5000</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -4402,12 +4425,12 @@
         <v>168</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -4439,7 +4462,7 @@
         <v>169</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G69" s="3">
         <v>1000</v>
@@ -4448,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J69" s="3">
         <v>0</v>
@@ -4480,12 +4503,12 @@
         <v>170</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4517,7 +4540,7 @@
         <v>171</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G71" s="3">
         <v>1000</v>
@@ -4526,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -4558,14 +4581,14 @@
         <v>172</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G72" s="3">
         <v>5000</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -4597,12 +4620,12 @@
         <v>173</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
@@ -4634,14 +4657,14 @@
         <v>174</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G74" s="3">
         <v>5000</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -4684,31 +4707,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>17</v>
@@ -4722,78 +4745,78 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="J2" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4805,7 +4828,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -4831,7 +4854,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -4857,7 +4880,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4883,7 +4906,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -4909,7 +4932,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4935,7 +4958,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -4961,7 +4984,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -4987,7 +5010,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5013,7 +5036,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5039,7 +5062,7 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -5065,7 +5088,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C635E-FE91-44C3-BA57-BAF2DB9272AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="12015" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="302">
   <si>
     <t>sheet名</t>
   </si>
@@ -428,6 +434,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>头盔S</t>
@@ -437,6 +444,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -944,14 +952,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,6 +965,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -971,6 +974,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -978,6 +982,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -985,17 +990,53 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1003,184 +1044,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,43 +1071,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,91 +1083,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,78 +1095,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1449,104 +1139,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1556,290 +1148,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="59" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="16">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="62">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="14">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="34">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="34" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="56">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="15">
+    <cellStyle name="Grid" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Grid 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="Grid 2" xfId="12"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="18" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="19" builtinId="11"/>
-    <cellStyle name="标题" xfId="20" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
-    <cellStyle name="输出" xfId="28" builtinId="21"/>
-    <cellStyle name="计算" xfId="29" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="31" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="33" builtinId="24"/>
-    <cellStyle name="Grid" xfId="34"/>
-    <cellStyle name="汇总" xfId="35" builtinId="25"/>
-    <cellStyle name="好" xfId="36" builtinId="26"/>
-    <cellStyle name="适中" xfId="37" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="38" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="39" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="大标题" xfId="49"/>
-    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="51" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="54" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
-    <cellStyle name="Normal" xfId="56"/>
-    <cellStyle name="常规 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="常规 3" xfId="59"/>
-    <cellStyle name="超链接 2" xfId="60"/>
-    <cellStyle name="无效" xfId="61"/>
-    <cellStyle name="中文标题" xfId="62"/>
+    <cellStyle name="常规 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="超链接 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="中文标题" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="纵向标题" xfId="6" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2097,19 +1501,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2120,7 +1524,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -2164,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2194,7 +1598,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2203,26 +1607,25 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
@@ -2241,7 +1644,7 @@
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:17">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +1697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2347,7 +1750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:17">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -2400,7 +1803,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:17">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2437,7 +1840,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" ht="16.5" spans="1:17">
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -2474,7 +1877,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" ht="16.5" spans="1:17">
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -2515,7 +1918,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" ht="16.5" spans="1:17">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -2552,7 +1955,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" ht="16.5" spans="1:17">
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2593,7 +1996,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" ht="16.5" spans="1:17">
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -2630,7 +2033,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" ht="16.5" spans="1:17">
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -2667,7 +2070,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" ht="16.5" spans="1:17">
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -2704,7 +2107,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" ht="16.5" spans="1:17">
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -2745,7 +2148,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" ht="16.5" spans="1:17">
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -2788,7 +2191,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" ht="16.5" spans="1:17">
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -2811,7 +2214,7 @@
         <v>1000</v>
       </c>
       <c r="H14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>56</v>
@@ -2829,7 +2232,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" ht="16.5" spans="1:17">
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -2866,7 +2269,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" ht="16.5" spans="1:17">
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -2905,7 +2308,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" ht="16.5" spans="1:17">
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -2942,7 +2345,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" ht="16.5" spans="1:17">
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -2985,7 +2388,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" ht="16.5" spans="1:17">
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -3022,7 +2425,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" ht="16.5" spans="1:17">
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -3065,7 +2468,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" ht="16.5" spans="1:17">
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -3102,7 +2505,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" ht="16.5" spans="1:17">
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -3145,7 +2548,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" ht="16.5" spans="1:17">
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -3182,7 +2585,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" ht="16.5" spans="1:17">
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3225,7 +2628,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" ht="16.5" spans="1:17">
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -3262,7 +2665,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" ht="16.5" spans="1:17">
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -3305,7 +2708,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" ht="16.5" spans="1:17">
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -3342,7 +2745,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" ht="16.5" spans="1:17">
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -3385,7 +2788,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" ht="16.5" spans="1:17">
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -3422,7 +2825,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" ht="16.5" spans="1:17">
+    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -3459,7 +2862,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" ht="16.5" spans="1:17">
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -3496,7 +2899,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" ht="16.5" spans="1:17">
+    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -3533,7 +2936,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" ht="16.5" spans="1:17">
+    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -3574,7 +2977,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" ht="16.5" spans="1:17">
+    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -3617,7 +3020,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" ht="16.5" spans="1:17">
+    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -3640,7 +3043,7 @@
         <v>1001</v>
       </c>
       <c r="H35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>56</v>
@@ -3658,7 +3061,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" ht="16.5" spans="1:17">
+    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -3695,7 +3098,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" ht="16.5" spans="1:17">
+    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -3732,7 +3135,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" ht="16.5" spans="1:17">
+    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -3769,7 +3172,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" ht="16.5" spans="1:17">
+    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -3806,7 +3209,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" ht="16.5" spans="1:17">
+    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -3845,7 +3248,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" ht="16.5" spans="1:17">
+    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -3882,7 +3285,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" ht="16.5" spans="1:17">
+    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -3919,7 +3322,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" ht="16.5" spans="1:17">
+    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -3960,7 +3363,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" ht="16.5" spans="1:17">
+    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -3997,7 +3400,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" ht="16.5" spans="1:17">
+    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -4038,7 +3441,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
     </row>
-    <row r="46" ht="16.5" spans="1:17">
+    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -4075,7 +3478,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
     </row>
-    <row r="47" ht="16.5" spans="1:17">
+    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -4112,7 +3515,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" ht="16.5" spans="1:17">
+    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -4149,7 +3552,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
     </row>
-    <row r="49" ht="16.5" spans="1:17">
+    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -4190,7 +3593,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" ht="16.5" spans="1:17">
+    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -4227,7 +3630,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
     </row>
-    <row r="51" ht="16.5" spans="1:17">
+    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -4264,7 +3667,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
     </row>
-    <row r="52" ht="16.5" spans="1:17">
+    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -4311,7 +3714,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
     </row>
-    <row r="53" ht="16.5" spans="1:17">
+    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -4334,7 +3737,7 @@
         <v>1000</v>
       </c>
       <c r="H53" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>56</v>
@@ -4352,7 +3755,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
     </row>
-    <row r="54" ht="16.5" spans="1:17">
+    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -4389,7 +3792,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
     </row>
-    <row r="55" ht="16.5" spans="1:17">
+    <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -4430,7 +3833,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
     </row>
-    <row r="56" ht="16.5" spans="1:17">
+    <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -4467,7 +3870,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
     </row>
-    <row r="57" ht="16.5" spans="1:17">
+    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -4504,7 +3907,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" ht="16.5" spans="1:17">
+    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -4541,7 +3944,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
     </row>
-    <row r="59" ht="16.5" spans="1:17">
+    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -4580,7 +3983,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" ht="16.5" spans="1:17">
+    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -4617,7 +4020,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
     </row>
-    <row r="61" ht="16.5" spans="1:17">
+    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -4654,7 +4057,7 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
     </row>
-    <row r="62" ht="16.5" spans="1:17">
+    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -4695,7 +4098,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" ht="16.5" spans="1:17">
+    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -4732,7 +4135,7 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
     </row>
-    <row r="64" ht="16.5" spans="1:17">
+    <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -4769,7 +4172,7 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
     </row>
-    <row r="65" ht="16.5" spans="1:17">
+    <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -4810,7 +4213,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" ht="16.5" spans="1:17">
+    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -4847,7 +4250,7 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
     </row>
-    <row r="67" ht="16.5" spans="1:17">
+    <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -4886,7 +4289,7 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
     </row>
-    <row r="68" ht="16.5" spans="1:17">
+    <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -4923,7 +4326,7 @@
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
     </row>
-    <row r="69" ht="16.5" spans="1:17">
+    <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -4964,7 +4367,7 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
     </row>
-    <row r="70" ht="16.5" spans="1:17">
+    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -5001,7 +4404,7 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
     </row>
-    <row r="71" ht="16.5" spans="1:17">
+    <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -5024,7 +4427,7 @@
         <v>1000</v>
       </c>
       <c r="H71" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>56</v>
@@ -5042,7 +4445,7 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
     </row>
-    <row r="72" ht="16.5" spans="1:17">
+    <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>69</v>
       </c>
@@ -5081,7 +4484,7 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" ht="16.5" spans="1:17">
+    <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>70</v>
       </c>
@@ -5118,7 +4521,7 @@
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" ht="16.5" spans="1:17">
+    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>71</v>
       </c>
@@ -5158,22 +4561,21 @@
       <c r="Q74" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
@@ -5184,7 +4586,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:12">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5222,7 +4624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -5260,7 +4662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:12">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5298,7 +4700,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:12">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5324,7 +4726,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" ht="16.5" spans="1:12">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5350,7 +4752,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" ht="16.5" spans="1:12">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5376,7 +4778,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" ht="16.5" spans="1:12">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5402,7 +4804,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" ht="16.5" spans="1:12">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5428,7 +4830,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" ht="16.5" spans="1:12">
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -5454,7 +4856,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" ht="16.5" spans="1:12">
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -5480,7 +4882,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" ht="16.5" spans="1:12">
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -5506,7 +4908,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" ht="16.5" spans="1:12">
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -5532,7 +4934,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" ht="16.5" spans="1:12">
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -5558,7 +4960,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" ht="16.5" spans="1:12">
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -5585,8 +4987,8 @@
       <c r="L14" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C635E-FE91-44C3-BA57-BAF2DB9272AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0B7C3-9287-4888-86DE-35E6220B0A58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="新手任务" sheetId="26" r:id="rId2"/>
-    <sheet name="日常任务" sheetId="27" r:id="rId3"/>
+    <sheet name="新新手任务" sheetId="28" r:id="rId3"/>
+    <sheet name="日常任务" sheetId="27" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="363">
   <si>
     <t>sheet名</t>
   </si>
@@ -947,6 +948,250 @@
   </si>
   <si>
     <t>扫荡3次</t>
+  </si>
+  <si>
+    <t>主舰升级到5级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第3关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第1关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第2关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第4关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放1次技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第5关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第6关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰升级到10级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第7关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第8关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第9关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第10关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过11关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过12关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过13关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过14关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过15关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过16关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁导弹炮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过17关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮升级到5级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过18关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮升级到10级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过19关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过20关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁增强装置达到1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过21关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶晋升为一等兵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶升级到二等兵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过22关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>索敌增强器装置达到1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾阵列装置达到1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁力稳定器装置达到1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压附甲装置达到1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量线圈装置达到1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲附甲装置达到1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>火控系统装置达到1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰进阶到1代</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过23关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力装置升级到10级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过24关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过25关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次装备合成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过26关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>火控系统装置达到2阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过27关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮升级到20级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过28关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过29关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过30关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量线圈装置达到2阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过31关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次装备抽奖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过32关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶晋升为下士</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过33关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有装置强化到+20</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有装置强化到+10</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过34关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过35关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1621,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4568,6 +4813,1743 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA14BC4-7BFE-4ECA-964B-51DFC6516EC4}">
+  <dimension ref="A1:R74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+    </row>
+    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+    </row>
+    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+    </row>
+    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+    </row>
+    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+    </row>
+    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+    </row>
+    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+    </row>
+    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+    </row>
+    <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+    </row>
+    <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+    </row>
+    <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+    </row>
+    <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+    </row>
+    <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+    </row>
+    <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+    </row>
+    <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+    </row>
+    <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+    </row>
+    <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+    </row>
+    <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+    </row>
+    <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+    </row>
+    <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+    </row>
+    <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+    </row>
+    <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+    </row>
+    <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+    </row>
+    <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+    </row>
+    <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+    </row>
+    <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+    </row>
+    <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+    </row>
+    <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+    </row>
+    <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0B7C3-9287-4888-86DE-35E6220B0A58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084075B4-D13C-4C08-B292-22B3B2C752E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
     <sheet name="新新手任务" sheetId="28" r:id="rId3"/>
     <sheet name="日常任务" sheetId="27" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="473">
   <si>
     <t>sheet名</t>
   </si>
@@ -950,55 +950,348 @@
     <t>扫荡3次</t>
   </si>
   <si>
-    <t>主舰升级到5级</t>
+    <t>新手任务1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第3关</t>
+    <t>新手任务72</t>
+  </si>
+  <si>
+    <t>新手任务73</t>
+  </si>
+  <si>
+    <t>新手任务74</t>
+  </si>
+  <si>
+    <t>新手任务75</t>
+  </si>
+  <si>
+    <t>新手任务76</t>
+  </si>
+  <si>
+    <t>新手任务77</t>
+  </si>
+  <si>
+    <t>新手任务78</t>
+  </si>
+  <si>
+    <t>新手任务79</t>
+  </si>
+  <si>
+    <t>新手任务80</t>
+  </si>
+  <si>
+    <t>新手任务81</t>
+  </si>
+  <si>
+    <t>新手任务82</t>
+  </si>
+  <si>
+    <t>新手任务83</t>
+  </si>
+  <si>
+    <t>[nil]</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第1关</t>
+    <t>新手任务1：通过第1关</t>
+  </si>
+  <si>
+    <t>新手任务2：通过第2关</t>
+  </si>
+  <si>
+    <t>新手任务3：主舰升级到5级</t>
+  </si>
+  <si>
+    <t>新手任务4：通过第3关</t>
+  </si>
+  <si>
+    <t>新手任务5：通过第4关</t>
+  </si>
+  <si>
+    <t>新手任务6：释放1次技能</t>
+  </si>
+  <si>
+    <t>新手任务7：通过第5关</t>
+  </si>
+  <si>
+    <t>新手任务8：通过第6关</t>
+  </si>
+  <si>
+    <t>新手任务9：主舰升级到10级</t>
+  </si>
+  <si>
+    <t>新手任务10：通过第7关</t>
+  </si>
+  <si>
+    <t>新手任务11：通过第8关</t>
+  </si>
+  <si>
+    <t>新手任务12：主舰进阶到1代</t>
+  </si>
+  <si>
+    <t>新手任务13：通过第9关</t>
+  </si>
+  <si>
+    <t>新手任务14：通过第10关</t>
+  </si>
+  <si>
+    <t>新手任务15：火控系统装置达到1阶</t>
+  </si>
+  <si>
+    <t>新手任务16：军阶升级到二等兵</t>
+  </si>
+  <si>
+    <t>新手任务17：通过11关</t>
+  </si>
+  <si>
+    <t>新手任务18：装甲附甲装置达到1阶</t>
+  </si>
+  <si>
+    <t>新手任务19：通过12关</t>
+  </si>
+  <si>
+    <t>新手任务20：能量线圈装置达到1阶</t>
+  </si>
+  <si>
+    <t>新手任务21：通过13关</t>
+  </si>
+  <si>
+    <t>新手任务22：电压附甲装置达到1阶</t>
+  </si>
+  <si>
+    <t>新手任务23：通过14关</t>
+  </si>
+  <si>
+    <t>新手任务24：磁力稳定器装置达到1阶</t>
+  </si>
+  <si>
+    <t>新手任务25：通过15关</t>
+  </si>
+  <si>
+    <t>新手任务26：护盾阵列装置达到1阶</t>
+  </si>
+  <si>
+    <t>新手任务27：通过16关</t>
+  </si>
+  <si>
+    <t>新手任务28：解锁导弹炮</t>
+  </si>
+  <si>
+    <t>新手任务29：通过17关</t>
+  </si>
+  <si>
+    <t>新手任务30：导弹炮升级到5级</t>
+  </si>
+  <si>
+    <t>新手任务31：通过18关</t>
+  </si>
+  <si>
+    <t>新手任务32：导弹炮升级到10级</t>
+  </si>
+  <si>
+    <t>新手任务33：通过19关</t>
+  </si>
+  <si>
+    <t>新手任务34：通过20关</t>
+  </si>
+  <si>
+    <t>新手任务35：电磁增强装置达到1阶</t>
+  </si>
+  <si>
+    <t>新手任务36：通过21关</t>
+  </si>
+  <si>
+    <t>新手任务37：军阶晋升为一等兵</t>
+  </si>
+  <si>
+    <t>新手任务38：索敌增强器装置达到1阶</t>
+  </si>
+  <si>
+    <t>新手任务39：通过22关</t>
+  </si>
+  <si>
+    <t>新手任务40：通过23关</t>
+  </si>
+  <si>
+    <t>新手任务41：火力装置升级到10级</t>
+  </si>
+  <si>
+    <t>新手任务42：通过24关</t>
+  </si>
+  <si>
+    <t>新手任务43：通过25关</t>
+  </si>
+  <si>
+    <t>新手任务44：进行一次装备合成</t>
+  </si>
+  <si>
+    <t>新手任务45：火控系统装置达到2阶</t>
+  </si>
+  <si>
+    <t>新手任务46：通过26关</t>
+  </si>
+  <si>
+    <t>新手任务47：所有装置强化到+10</t>
+  </si>
+  <si>
+    <t>新手任务48：通过27关</t>
+  </si>
+  <si>
+    <t>新手任务49：导弹炮升级到20级</t>
+  </si>
+  <si>
+    <t>新手任务50：通过28关</t>
+  </si>
+  <si>
+    <t>新手任务51：通过29关</t>
+  </si>
+  <si>
+    <t>新手任务52：通过30关</t>
+  </si>
+  <si>
+    <t>新手任务53：能量线圈装置达到2阶</t>
+  </si>
+  <si>
+    <t>新手任务54：通过31关</t>
+  </si>
+  <si>
+    <t>新手任务55：进行一次装备抽奖</t>
+  </si>
+  <si>
+    <t>新手任务56：通过32关</t>
+  </si>
+  <si>
+    <t>新手任务57：军阶晋升为下士</t>
+  </si>
+  <si>
+    <t>新手任务58：通过33关</t>
+  </si>
+  <si>
+    <t>新手任务59：所有装置强化到+20</t>
+  </si>
+  <si>
+    <t>新手任务60：通过34关</t>
+  </si>
+  <si>
+    <t>新手任务61：通过35关</t>
+  </si>
+  <si>
+    <t>新手任务62：主舰核能+1</t>
+  </si>
+  <si>
+    <t>新手任务63：通过36关</t>
+  </si>
+  <si>
+    <t>新手任务64：主舰进阶到2代</t>
+  </si>
+  <si>
+    <t>新手任务65：通过37关</t>
+  </si>
+  <si>
+    <t>新手任务66：进行一次关卡扫荡</t>
+  </si>
+  <si>
+    <t>新手任务67：主舰升级到30级</t>
+  </si>
+  <si>
+    <t>新手任务68：通过38关</t>
+  </si>
+  <si>
+    <t>新手任务69：装备全部强化到40级</t>
+  </si>
+  <si>
+    <t>新手任务70：通过39关</t>
+  </si>
+  <si>
+    <t>新手任务71：通过40关</t>
+  </si>
+  <si>
+    <t>新手任务72：进行一次晶片单抽</t>
+  </si>
+  <si>
+    <t>新手任务73：军阶升级到中士</t>
+  </si>
+  <si>
+    <t>新手任务74：通过45关</t>
+  </si>
+  <si>
+    <t>新手任务75：主舰进阶到2代</t>
+  </si>
+  <si>
+    <t>新手任务76：主舰升级到40级</t>
+  </si>
+  <si>
+    <t>新手任务77：通过50关</t>
+  </si>
+  <si>
+    <t>新手任务78：军阶提升到参谋军士</t>
+  </si>
+  <si>
+    <t>新手任务79：把火控系统精炼到5级</t>
+  </si>
+  <si>
+    <t>新手任务80：通过55关</t>
+  </si>
+  <si>
+    <t>新手任务81：通过60关</t>
+  </si>
+  <si>
+    <t>新手任务82：军阶晋升为上士</t>
+  </si>
+  <si>
+    <t>新手任务83：军阶晋升为一级士官</t>
+  </si>
+  <si>
+    <t>通过3关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第2关</t>
+    <t>通过4关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第4关</t>
+    <t>释放技能1次</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>释放1次技能</t>
+    <t>通过5关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第5关</t>
+    <t>通过6关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第6关</t>
+    <t>主舰10级</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>主舰升级到10级</t>
+    <t>通过7关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第7关</t>
+    <t>通过8关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第8关</t>
+    <t>主舰1突</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第9关</t>
+    <t>通过9关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过第10关</t>
+    <t>通过10关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1006,27 +1299,47 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>头盔1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>通过12关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>肩甲1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>通过13关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>衣服1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>通过14关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>裤子1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>通过15关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>鞋子1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>通过16关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>解锁导弹炮</t>
+    <t>解锁僚炮1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1034,7 +1347,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>导弹炮升级到5级</t>
+    <t>导弹炮5级</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1042,7 +1355,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>导弹炮升级到10级</t>
+    <t>导弹炮10级</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1054,7 +1367,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>电磁增强装置达到1阶</t>
+    <t>项链1阶</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1062,11 +1375,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>军阶晋升为一等兵</t>
+    <t>进阶2阶</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>军阶升级到二等兵</t>
+    <t>戒指1阶</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1074,46 +1387,10 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>索敌增强器装置达到1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾阵列装置达到1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁力稳定器装置达到1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压附甲装置达到1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量线圈装置达到1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装甲附甲装置达到1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>火控系统装置达到1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰进阶到1代</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过23关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>火力装置升级到10级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过24关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1122,7 +1399,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>进行一次装备合成</t>
+    <t>武器2阶</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1130,31 +1407,27 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>火控系统装置达到2阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过27关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>导弹炮升级到20级</t>
+    <t>导弹炮20级</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过28关</t>
+    <t>通关28关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过29关</t>
+    <t>通关29关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过30关</t>
+    <t>通关30关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>能量线圈装置达到2阶</t>
+    <t>肩甲2阶</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1162,15 +1435,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>进行一次装备抽奖</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过32关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>军阶晋升为下士</t>
+    <t>军阶3</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1178,11 +1447,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>所有装置强化到+20</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有装置强化到+10</t>
+    <t>装备全体强化+20</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1191,6 +1456,84 @@
   </si>
   <si>
     <t>通过35关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰核能1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过36关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过37关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行1次扫荡</t>
+  </si>
+  <si>
+    <t>主舰30级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过38关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备全体强化+40</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过39关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过40关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过45关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰2突</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰40级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过50关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备精炼到5级</t>
+  </si>
+  <si>
+    <t>通过55关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过60关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶7</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1428,7 +1771,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1462,6 +1805,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1866,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4814,33 +5163,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA14BC4-7BFE-4ECA-964B-51DFC6516EC4}">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="5" max="5" width="34.375" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="16.125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -4853,48 +5201,47 @@
       <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -4907,47 +5254,47 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
       </c>
       <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -4960,56 +5307,65 @@
       <c r="D3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>302</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>316</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -5021,17 +5377,26 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1003</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="10"/>
+        <v>317</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -5043,19 +5408,32 @@
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+        <v>318</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -5065,17 +5443,26 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1005</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="E7" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>319</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>399</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -5087,17 +5474,26 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1006</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="E8" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" s="11"/>
+        <v>320</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>400</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -5109,17 +5505,26 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1007</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="E9" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>321</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>401</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -5131,17 +5536,26 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1008</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>322</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>402</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -5153,17 +5567,26 @@
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1009</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="E11" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>323</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>403</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -5175,19 +5598,32 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1010</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+        <v>324</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -5197,17 +5633,26 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1011</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>325</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>405</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -5219,17 +5664,26 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1012</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>326</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>406</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -5241,19 +5695,32 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1013</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="E15" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+        <v>327</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -5263,17 +5730,26 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1013</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1014</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>328</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -5285,17 +5761,26 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1014</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="E17" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F17" s="10"/>
+        <v>329</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -5307,17 +5792,26 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1015</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1016</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="F18" s="10"/>
+        <v>330</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>410</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -5329,17 +5823,26 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1017</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="E19" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>411</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -5351,17 +5854,26 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1017</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1018</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F20" s="10"/>
+        <v>332</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>412</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -5373,17 +5885,26 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1019</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E21" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F21" s="10"/>
+        <v>333</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>413</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -5395,17 +5916,26 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1019</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1020</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="E22" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="F22" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>414</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -5417,17 +5947,26 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1020</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1021</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="E23" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="F23" s="10"/>
+        <v>335</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>415</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -5439,17 +5978,26 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1021</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1022</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="E24" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="F24" s="10"/>
+        <v>336</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>416</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -5461,17 +6009,26 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1022</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1023</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="E25" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="F25" s="10"/>
+        <v>337</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>417</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -5483,17 +6040,26 @@
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>23</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1023</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1024</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="E26" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="F26" s="10"/>
+        <v>338</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>418</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5505,17 +6071,26 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1024</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1025</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="E27" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F27" s="10"/>
+        <v>339</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>419</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -5527,39 +6102,57 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1025</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1026</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="E28" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F28" s="10"/>
+        <v>340</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>420</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>26</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1026</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1027</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="E29" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="F29" s="10"/>
+        <v>341</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>421</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -5571,17 +6164,26 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>27</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1027</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1028</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="E30" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="F30" s="10"/>
+        <v>342</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>422</v>
+      </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -5593,17 +6195,26 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-    </row>
-    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>28</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1028</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1029</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="E31" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F31" s="10"/>
+        <v>343</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -5615,17 +6226,26 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-    </row>
-    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>29</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1029</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1030</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="E32" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>344</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>424</v>
+      </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -5637,19 +6257,32 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+    </row>
+    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1030</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1031</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="E33" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+        <v>345</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -5659,17 +6292,26 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-    </row>
-    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>31</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1031</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1032</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="E34" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F34" s="10"/>
+        <v>346</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>426</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -5681,19 +6323,32 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-    </row>
-    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>32</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1032</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1033</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="E35" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+        <v>347</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -5703,17 +6358,26 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-    </row>
-    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>33</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1033</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1034</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="E36" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="F36" s="10"/>
+        <v>348</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>428</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -5725,17 +6389,26 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-    </row>
-    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>34</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1034</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1035</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="E37" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F37" s="10"/>
+        <v>349</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>429</v>
+      </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -5747,17 +6420,26 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-    </row>
-    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+    </row>
+    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>35</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1035</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1036</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="E38" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="F38" s="10"/>
+        <v>350</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>430</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -5769,17 +6451,26 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-    </row>
-    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+    </row>
+    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>36</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1036</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1037</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="E39" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="F39" s="10"/>
+        <v>351</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>431</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -5791,17 +6482,26 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-    </row>
-    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>37</v>
+      </c>
+      <c r="B40" s="10">
+        <v>1037</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1038</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="E40" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F40" s="10"/>
+        <v>352</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>432</v>
+      </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -5813,17 +6513,26 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-    </row>
-    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+    </row>
+    <row r="41" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>38</v>
+      </c>
+      <c r="B41" s="10">
+        <v>1038</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1039</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="E41" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F41" s="10"/>
+        <v>353</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>433</v>
+      </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -5835,17 +6544,26 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-    </row>
-    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+    </row>
+    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>39</v>
+      </c>
+      <c r="B42" s="10">
+        <v>1039</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1040</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="E42" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F42" s="10"/>
+        <v>354</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>434</v>
+      </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -5857,17 +6575,26 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-    </row>
-    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+    </row>
+    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10">
+        <v>1040</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1041</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="E43" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="F43" s="10"/>
+        <v>355</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>435</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -5879,17 +6606,26 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-    </row>
-    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+    </row>
+    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>41</v>
+      </c>
+      <c r="B44" s="10">
+        <v>1041</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1042</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="E44" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F44" s="10"/>
+        <v>356</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -5901,17 +6637,26 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-    </row>
-    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+    </row>
+    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>42</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1042</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1043</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="E45" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F45" s="10"/>
+        <v>357</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>436</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -5923,17 +6668,26 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+    </row>
+    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>43</v>
+      </c>
+      <c r="B46" s="10">
+        <v>1043</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1044</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="E46" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F46" s="10"/>
+        <v>358</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>437</v>
+      </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -5945,18 +6699,27 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-    </row>
-    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+    </row>
+    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>44</v>
+      </c>
+      <c r="B47" s="10">
+        <v>1044</v>
+      </c>
+      <c r="C47" s="10">
+        <v>1045</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="E47" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
+        <v>359</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -5967,17 +6730,26 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-    </row>
-    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+    </row>
+    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>45</v>
+      </c>
+      <c r="B48" s="10">
+        <v>1045</v>
+      </c>
+      <c r="C48" s="10">
+        <v>1046</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="E48" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F48" s="10"/>
+        <v>360</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>438</v>
+      </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -5989,17 +6761,26 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-    </row>
-    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>46</v>
+      </c>
+      <c r="B49" s="10">
+        <v>1046</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1047</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="E49" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="F49" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>439</v>
+      </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -6011,17 +6792,26 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-    </row>
-    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>47</v>
+      </c>
+      <c r="B50" s="10">
+        <v>1047</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1048</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="E50" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="F50" s="10"/>
+        <v>362</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -6033,17 +6823,26 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-    </row>
-    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>48</v>
+      </c>
+      <c r="B51" s="10">
+        <v>1048</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1049</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="E51" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="F51" s="10"/>
+        <v>363</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>440</v>
+      </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -6055,17 +6854,26 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-    </row>
-    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>49</v>
+      </c>
+      <c r="B52" s="10">
+        <v>1049</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1050</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="E52" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F52" s="10"/>
+        <v>364</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>441</v>
+      </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -6077,17 +6885,26 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-    </row>
-    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+    </row>
+    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>50</v>
+      </c>
+      <c r="B53" s="10">
+        <v>1050</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1051</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="E53" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F53" s="10"/>
+        <v>365</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>442</v>
+      </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -6099,17 +6916,26 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-    </row>
-    <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+    </row>
+    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>51</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1051</v>
+      </c>
+      <c r="C54" s="10">
+        <v>1052</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="E54" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F54" s="10"/>
+        <v>366</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>443</v>
+      </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -6121,17 +6947,26 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-    </row>
-    <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+    </row>
+    <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>52</v>
+      </c>
+      <c r="B55" s="10">
+        <v>1052</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1053</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="E55" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F55" s="11"/>
+        <v>367</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>444</v>
+      </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -6143,17 +6978,26 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-    </row>
-    <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+    </row>
+    <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>53</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1053</v>
+      </c>
+      <c r="C56" s="10">
+        <v>1054</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="E56" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F56" s="10"/>
+        <v>368</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>445</v>
+      </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -6165,17 +7009,26 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-    </row>
-    <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+    </row>
+    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>54</v>
+      </c>
+      <c r="B57" s="10">
+        <v>1054</v>
+      </c>
+      <c r="C57" s="10">
+        <v>1055</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>220</v>
+      </c>
       <c r="E57" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="F57" s="10"/>
+        <v>369</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>446</v>
+      </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -6187,17 +7040,26 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-    </row>
-    <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>55</v>
+      </c>
+      <c r="B58" s="10">
+        <v>1055</v>
+      </c>
+      <c r="C58" s="10">
+        <v>1056</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="E58" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F58" s="10"/>
+        <v>370</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -6209,17 +7071,26 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-    </row>
-    <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+    </row>
+    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>56</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1056</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1057</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="E59" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="F59" s="10"/>
+        <v>371</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>447</v>
+      </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
@@ -6231,17 +7102,26 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-    </row>
-    <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+    </row>
+    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>57</v>
+      </c>
+      <c r="B60" s="10">
+        <v>1057</v>
+      </c>
+      <c r="C60" s="10">
+        <v>1058</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="E60" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="F60" s="10"/>
+        <v>372</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>448</v>
+      </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -6253,17 +7133,26 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-    </row>
-    <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+    </row>
+    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <v>58</v>
+      </c>
+      <c r="B61" s="10">
+        <v>1058</v>
+      </c>
+      <c r="C61" s="10">
+        <v>1059</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="E61" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="F61" s="10"/>
+        <v>373</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>449</v>
+      </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
@@ -6275,17 +7164,26 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-    </row>
-    <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>59</v>
+      </c>
+      <c r="B62" s="10">
+        <v>1059</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1060</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>235</v>
+      </c>
       <c r="E62" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F62" s="11"/>
+        <v>374</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>450</v>
+      </c>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
@@ -6297,17 +7195,26 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-    </row>
-    <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+    </row>
+    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
+        <v>60</v>
+      </c>
+      <c r="B63" s="10">
+        <v>1060</v>
+      </c>
+      <c r="C63" s="10">
+        <v>1061</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>238</v>
+      </c>
       <c r="E63" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="F63" s="10"/>
+        <v>375</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>451</v>
+      </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
@@ -6319,17 +7226,26 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-    </row>
-    <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+    </row>
+    <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>61</v>
+      </c>
+      <c r="B64" s="10">
+        <v>1061</v>
+      </c>
+      <c r="C64" s="10">
+        <v>1062</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="E64" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="F64" s="10"/>
+        <v>376</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>452</v>
+      </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
@@ -6341,16 +7257,27 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-    </row>
-    <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="12"/>
+    </row>
+    <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>62</v>
+      </c>
+      <c r="B65" s="10">
+        <v>1062</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1063</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
@@ -6361,15 +7288,26 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-    </row>
-    <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+    </row>
+    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>63</v>
+      </c>
+      <c r="B66" s="10">
+        <v>1063</v>
+      </c>
+      <c r="C66" s="10">
+        <v>1064</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -6381,15 +7319,26 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-    </row>
-    <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+    </row>
+    <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>64</v>
+      </c>
+      <c r="B67" s="10">
+        <v>1064</v>
+      </c>
+      <c r="C67" s="10">
+        <v>1065</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>407</v>
+      </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -6401,15 +7350,26 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-    </row>
-    <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+    </row>
+    <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>65</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1065</v>
+      </c>
+      <c r="C68" s="10">
+        <v>1066</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>455</v>
+      </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
@@ -6421,15 +7381,26 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-    </row>
-    <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+    </row>
+    <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <v>66</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1066</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1067</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>456</v>
+      </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
@@ -6441,15 +7412,26 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-    </row>
-    <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+    </row>
+    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>67</v>
+      </c>
+      <c r="B70" s="10">
+        <v>1067</v>
+      </c>
+      <c r="C70" s="10">
+        <v>1068</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
@@ -6461,15 +7443,26 @@
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-    </row>
-    <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+    </row>
+    <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>68</v>
+      </c>
+      <c r="B71" s="10">
+        <v>1068</v>
+      </c>
+      <c r="C71" s="10">
+        <v>1069</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>458</v>
+      </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
@@ -6481,15 +7474,26 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-    </row>
-    <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+    </row>
+    <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>69</v>
+      </c>
+      <c r="B72" s="10">
+        <v>1069</v>
+      </c>
+      <c r="C72" s="10">
+        <v>1070</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>459</v>
+      </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
@@ -6501,15 +7505,26 @@
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-    </row>
-    <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+    </row>
+    <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>70</v>
+      </c>
+      <c r="B73" s="10">
+        <v>1070</v>
+      </c>
+      <c r="C73" s="10">
+        <v>1071</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>460</v>
+      </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
@@ -6521,15 +7536,26 @@
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-    </row>
-    <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+    </row>
+    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>71</v>
+      </c>
+      <c r="B74" s="10">
+        <v>1071</v>
+      </c>
+      <c r="C74" s="10">
+        <v>1072</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -6541,11 +7567,915 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
+    </row>
+    <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <v>72</v>
+      </c>
+      <c r="B75" s="10">
+        <v>1072</v>
+      </c>
+      <c r="C75" s="10">
+        <v>1073</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+    </row>
+    <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>73</v>
+      </c>
+      <c r="B76" s="10">
+        <v>1073</v>
+      </c>
+      <c r="C76" s="10">
+        <v>1074</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+    </row>
+    <row r="77" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
+        <v>74</v>
+      </c>
+      <c r="B77" s="10">
+        <v>1074</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1075</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="78" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <v>75</v>
+      </c>
+      <c r="B78" s="10">
+        <v>1075</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1076</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+    </row>
+    <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
+        <v>76</v>
+      </c>
+      <c r="B79" s="10">
+        <v>1076</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1077</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+    </row>
+    <row r="80" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>77</v>
+      </c>
+      <c r="B80" s="10">
+        <v>1077</v>
+      </c>
+      <c r="C80" s="10">
+        <v>1078</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+    </row>
+    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>78</v>
+      </c>
+      <c r="B81" s="10">
+        <v>1078</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1079</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+    </row>
+    <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>79</v>
+      </c>
+      <c r="B82" s="10">
+        <v>1079</v>
+      </c>
+      <c r="C82" s="10">
+        <v>1080</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+    </row>
+    <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
+        <v>80</v>
+      </c>
+      <c r="B83" s="10">
+        <v>1080</v>
+      </c>
+      <c r="C83" s="10">
+        <v>1081</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+    </row>
+    <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
+        <v>81</v>
+      </c>
+      <c r="B84" s="10">
+        <v>1081</v>
+      </c>
+      <c r="C84" s="10">
+        <v>1082</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+    </row>
+    <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="10">
+        <v>82</v>
+      </c>
+      <c r="B85" s="10">
+        <v>1082</v>
+      </c>
+      <c r="C85" s="10">
+        <v>1083</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+    </row>
+    <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="10">
+        <v>83</v>
+      </c>
+      <c r="B86" s="10">
+        <v>1083</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+    </row>
+    <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+    </row>
+    <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+    </row>
+    <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+    </row>
+    <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+    </row>
+    <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+    </row>
+    <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+    </row>
+    <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+    </row>
+    <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+    </row>
+    <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+    </row>
+    <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+    </row>
+    <row r="97" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+    </row>
+    <row r="98" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+    </row>
+    <row r="99" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+    </row>
+    <row r="100" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+    </row>
+    <row r="101" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+    </row>
+    <row r="102" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+    </row>
+    <row r="103" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+    </row>
+    <row r="104" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+    </row>
+    <row r="105" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+    </row>
+    <row r="106" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+    </row>
+    <row r="107" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+    </row>
+    <row r="108" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+    </row>
+    <row r="109" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+    </row>
+    <row r="110" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+    </row>
+    <row r="111" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+    </row>
+    <row r="112" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+    </row>
+    <row r="113" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+    </row>
+    <row r="114" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084075B4-D13C-4C08-B292-22B3B2C752E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F2BE9C-AF26-490A-838C-2991B9FBA07C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="480">
   <si>
     <t>sheet名</t>
   </si>
@@ -1183,9 +1183,6 @@
     <t>新手任务63：通过36关</t>
   </si>
   <si>
-    <t>新手任务64：主舰进阶到2代</t>
-  </si>
-  <si>
     <t>新手任务65：通过37关</t>
   </si>
   <si>
@@ -1214,9 +1211,6 @@
   </si>
   <si>
     <t>新手任务74：通过45关</t>
-  </si>
-  <si>
-    <t>新手任务75：主舰进阶到2代</t>
   </si>
   <si>
     <t>新手任务76：主舰升级到40级</t>
@@ -1534,6 +1528,42 @@
   </si>
   <si>
     <t>军阶7</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务64：导弹炮进阶到2代</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务75：导弹炮进阶到2代</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮2突</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2215,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5165,8 +5195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA14BC4-7BFE-4ECA-964B-51DFC6516EC4}">
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5368,9 +5398,15 @@
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1000</v>
+      </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -5399,9 +5435,15 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>5</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -5434,9 +5476,15 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1000</v>
+      </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -5461,13 +5509,19 @@
         <v>319</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1000</v>
+      </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -5492,13 +5546,19 @@
         <v>320</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1000</v>
+      </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -5523,13 +5583,19 @@
         <v>321</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1000</v>
+      </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -5554,13 +5620,19 @@
         <v>322</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1000</v>
+      </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -5585,13 +5657,19 @@
         <v>323</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>5</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -5616,7 +5694,7 @@
         <v>324</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -5624,9 +5702,15 @@
       <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1000</v>
+      </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -5651,13 +5735,19 @@
         <v>325</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>5000</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -5682,16 +5772,28 @@
         <v>326</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>40</v>
+      </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -5713,7 +5815,7 @@
         <v>327</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G15" s="10">
         <v>1000</v>
@@ -5721,9 +5823,15 @@
       <c r="H15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1000</v>
+      </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -5748,13 +5856,19 @@
         <v>328</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1000</v>
+      </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -5779,13 +5893,19 @@
         <v>329</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1000</v>
+      </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -5810,13 +5930,19 @@
         <v>330</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1000</v>
+      </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
@@ -5841,13 +5967,23 @@
         <v>331</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+        <v>409</v>
+      </c>
+      <c r="G19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>2000</v>
+      </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -5872,16 +6008,28 @@
         <v>332</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="I20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>1</v>
+      </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -5903,13 +6051,19 @@
         <v>333</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="I21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>2000</v>
+      </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -5934,16 +6088,28 @@
         <v>334</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>1</v>
+      </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -5965,13 +6131,19 @@
         <v>335</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <v>2000</v>
+      </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -5996,16 +6168,28 @@
         <v>336</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <v>1</v>
+      </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
@@ -6027,13 +6211,19 @@
         <v>337</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <v>2000</v>
+      </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
@@ -6058,16 +6248,28 @@
         <v>338</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>1</v>
+      </c>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
@@ -6089,13 +6291,19 @@
         <v>339</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="I27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <v>2000</v>
+      </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
@@ -6120,16 +6328,28 @@
         <v>340</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="I28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>1</v>
+      </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -6151,13 +6371,19 @@
         <v>341</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <v>2000</v>
+      </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
@@ -6182,13 +6408,19 @@
         <v>342</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="I30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>10</v>
+      </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -6213,13 +6445,19 @@
         <v>343</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="I31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>2000</v>
+      </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -6244,13 +6482,19 @@
         <v>344</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="I32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2000</v>
+      </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -6275,7 +6519,7 @@
         <v>345</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G33" s="10">
         <v>1001</v>
@@ -6283,9 +6527,15 @@
       <c r="H33" s="10">
         <v>1</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="I33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <v>2000</v>
+      </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
@@ -6310,13 +6560,19 @@
         <v>346</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="I34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>2000</v>
+      </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
@@ -6341,7 +6597,7 @@
         <v>347</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -6349,9 +6605,15 @@
       <c r="H35" s="10">
         <v>1</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="I35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <v>2000</v>
+      </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
@@ -6376,13 +6638,19 @@
         <v>348</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="I36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10">
+        <v>2000</v>
+      </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
@@ -6407,13 +6675,19 @@
         <v>349</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="I37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0</v>
+      </c>
+      <c r="K37" s="10">
+        <v>2000</v>
+      </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
@@ -6438,13 +6712,19 @@
         <v>350</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="I38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0</v>
+      </c>
+      <c r="K38" s="10">
+        <v>2000</v>
+      </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
@@ -6469,13 +6749,19 @@
         <v>351</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="I39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <v>3000</v>
+      </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
@@ -6500,13 +6786,23 @@
         <v>352</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+        <v>430</v>
+      </c>
+      <c r="G40" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
+        <v>3000</v>
+      </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -6531,13 +6827,19 @@
         <v>353</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="I41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <v>3000</v>
+      </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -6562,13 +6864,19 @@
         <v>354</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
+      <c r="I42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <v>3000</v>
+      </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -6593,13 +6901,19 @@
         <v>355</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="I43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <v>3000</v>
+      </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
@@ -6626,11 +6940,21 @@
       <c r="F44" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
+      <c r="G44" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <v>3000</v>
+      </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
@@ -6655,13 +6979,19 @@
         <v>357</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="I45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <v>3000</v>
+      </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -6686,13 +7016,19 @@
         <v>358</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
+      <c r="I46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="10">
+        <v>3000</v>
+      </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -6719,11 +7055,21 @@
       <c r="F47" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
+      <c r="G47" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H47" s="10">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="10">
+        <v>3000</v>
+      </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
@@ -6748,13 +7094,19 @@
         <v>360</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
+      <c r="I48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0</v>
+      </c>
+      <c r="K48" s="10">
+        <v>3000</v>
+      </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -6779,13 +7131,19 @@
         <v>361</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
+      <c r="I49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="10">
+        <v>0</v>
+      </c>
+      <c r="K49" s="10">
+        <v>3000</v>
+      </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
@@ -6812,11 +7170,21 @@
       <c r="F50" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
+      <c r="G50" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10">
+        <v>3000</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -6841,13 +7209,19 @@
         <v>363</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
+      <c r="I51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <v>3000</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -6872,13 +7246,23 @@
         <v>364</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+        <v>439</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="10">
+        <v>0</v>
+      </c>
+      <c r="K52" s="10">
+        <v>3000</v>
+      </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -6903,13 +7287,19 @@
         <v>365</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
+      <c r="I53" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0</v>
+      </c>
+      <c r="K53" s="10">
+        <v>3000</v>
+      </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -6934,13 +7324,19 @@
         <v>366</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
+      <c r="I54" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="10">
+        <v>0</v>
+      </c>
+      <c r="K54" s="10">
+        <v>3000</v>
+      </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -6965,13 +7361,19 @@
         <v>367</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
+      <c r="I55" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0</v>
+      </c>
+      <c r="K55" s="10">
+        <v>3000</v>
+      </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -6996,13 +7398,19 @@
         <v>368</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
+      <c r="I56" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="10">
+        <v>0</v>
+      </c>
+      <c r="K56" s="10">
+        <v>3000</v>
+      </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -7027,13 +7435,19 @@
         <v>369</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
+      <c r="I57" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="10">
+        <v>0</v>
+      </c>
+      <c r="K57" s="10">
+        <v>4000</v>
+      </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
@@ -7060,11 +7474,21 @@
       <c r="F58" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
+      <c r="G58" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H58" s="10">
+        <v>2</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="10">
+        <v>0</v>
+      </c>
+      <c r="K58" s="10">
+        <v>4000</v>
+      </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -7089,13 +7513,19 @@
         <v>371</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
+      <c r="I59" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0</v>
+      </c>
+      <c r="K59" s="10">
+        <v>4000</v>
+      </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -7120,13 +7550,23 @@
         <v>372</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+        <v>446</v>
+      </c>
+      <c r="G60" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0</v>
+      </c>
+      <c r="K60" s="10">
+        <v>4000</v>
+      </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -7151,13 +7591,19 @@
         <v>373</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
+      <c r="I61" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="10">
+        <v>0</v>
+      </c>
+      <c r="K61" s="10">
+        <v>4000</v>
+      </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
@@ -7182,13 +7628,23 @@
         <v>374</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
+        <v>448</v>
+      </c>
+      <c r="G62" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" s="10">
+        <v>0</v>
+      </c>
+      <c r="K62" s="10">
+        <v>4000</v>
+      </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -7213,13 +7669,19 @@
         <v>375</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
+      <c r="I63" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" s="10">
+        <v>0</v>
+      </c>
+      <c r="K63" s="10">
+        <v>4000</v>
+      </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
@@ -7244,13 +7706,19 @@
         <v>376</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
+      <c r="I64" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="10">
+        <v>0</v>
+      </c>
+      <c r="K64" s="10">
+        <v>4000</v>
+      </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
@@ -7275,13 +7743,23 @@
         <v>377</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
+        <v>451</v>
+      </c>
+      <c r="G65" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="10">
+        <v>3</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="10">
+        <v>0</v>
+      </c>
+      <c r="K65" s="10">
+        <v>4000</v>
+      </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
@@ -7306,13 +7784,19 @@
         <v>378</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
+      <c r="I66" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="10">
+        <v>0</v>
+      </c>
+      <c r="K66" s="10">
+        <v>4000</v>
+      </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
@@ -7334,16 +7818,26 @@
         <v>250</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>379</v>
+        <v>477</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
+        <v>462</v>
+      </c>
+      <c r="G67" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="10">
+        <v>2</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" s="10">
+        <v>0</v>
+      </c>
+      <c r="K67" s="10">
+        <v>4000</v>
+      </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
@@ -7365,16 +7859,22 @@
         <v>253</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
+      <c r="I68" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" s="10">
+        <v>0</v>
+      </c>
+      <c r="K68" s="10">
+        <v>4000</v>
+      </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
@@ -7396,16 +7896,22 @@
         <v>256</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+      <c r="I69" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="10">
+        <v>0</v>
+      </c>
+      <c r="K69" s="10">
+        <v>4000</v>
+      </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
@@ -7427,16 +7933,22 @@
         <v>259</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
+      <c r="I70" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J70" s="10">
+        <v>0</v>
+      </c>
+      <c r="K70" s="10">
+        <v>4000</v>
+      </c>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
@@ -7458,16 +7970,22 @@
         <v>262</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
+      <c r="I71" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J71" s="10">
+        <v>0</v>
+      </c>
+      <c r="K71" s="10">
+        <v>4000</v>
+      </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
@@ -7489,16 +8007,26 @@
         <v>265</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
+        <v>457</v>
+      </c>
+      <c r="G72" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J72" s="10">
+        <v>0</v>
+      </c>
+      <c r="K72" s="10">
+        <v>4000</v>
+      </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
@@ -7520,16 +8048,22 @@
         <v>268</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
+      <c r="I73" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J73" s="10">
+        <v>0</v>
+      </c>
+      <c r="K73" s="10">
+        <v>4000</v>
+      </c>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
@@ -7551,16 +8085,22 @@
         <v>272</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
+      <c r="I74" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J74" s="10">
+        <v>0</v>
+      </c>
+      <c r="K74" s="10">
+        <v>5000</v>
+      </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
@@ -7582,16 +8122,26 @@
         <v>303</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
+      <c r="G75" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H75" s="10">
+        <v>1</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J75" s="10">
+        <v>0</v>
+      </c>
+      <c r="K75" s="10">
+        <v>5000</v>
+      </c>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
@@ -7613,16 +8163,26 @@
         <v>304</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
+        <v>460</v>
+      </c>
+      <c r="G76" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J76" s="10">
+        <v>0</v>
+      </c>
+      <c r="K76" s="10">
+        <v>5000</v>
+      </c>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
@@ -7644,19 +8204,31 @@
         <v>305</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
+      <c r="I77" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77" s="10">
+        <v>0</v>
+      </c>
+      <c r="K77" s="10">
+        <v>5000</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="M77" s="10">
+        <v>0</v>
+      </c>
+      <c r="N77" s="10">
+        <v>40</v>
+      </c>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
@@ -7675,16 +8247,26 @@
         <v>306</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>390</v>
+        <v>478</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
+        <v>479</v>
+      </c>
+      <c r="G78" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H78" s="10">
+        <v>2</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J78" s="10">
+        <v>0</v>
+      </c>
+      <c r="K78" s="10">
+        <v>5000</v>
+      </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
@@ -7706,16 +8288,22 @@
         <v>307</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
+      <c r="I79" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J79" s="10">
+        <v>1</v>
+      </c>
+      <c r="K79" s="10">
+        <v>10</v>
+      </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
@@ -7737,16 +8325,22 @@
         <v>308</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
+      <c r="I80" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J80" s="10">
+        <v>1</v>
+      </c>
+      <c r="K80" s="10">
+        <v>10</v>
+      </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
@@ -7768,16 +8362,26 @@
         <v>309</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
+        <v>465</v>
+      </c>
+      <c r="G81" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J81" s="10">
+        <v>1</v>
+      </c>
+      <c r="K81" s="10">
+        <v>10</v>
+      </c>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
@@ -7799,16 +8403,26 @@
         <v>310</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
+        <v>466</v>
+      </c>
+      <c r="G82" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H82" s="10">
+        <v>2</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J82" s="10">
+        <v>1</v>
+      </c>
+      <c r="K82" s="10">
+        <v>10</v>
+      </c>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
@@ -7830,16 +8444,22 @@
         <v>311</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
+      <c r="I83" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J83" s="10">
+        <v>1</v>
+      </c>
+      <c r="K83" s="10">
+        <v>10</v>
+      </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
@@ -7861,16 +8481,22 @@
         <v>312</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
+      <c r="I84" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J84" s="10">
+        <v>1</v>
+      </c>
+      <c r="K84" s="10">
+        <v>10</v>
+      </c>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
@@ -7892,16 +8518,26 @@
         <v>313</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
+        <v>469</v>
+      </c>
+      <c r="G85" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H85" s="10">
+        <v>0</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J85" s="10">
+        <v>1</v>
+      </c>
+      <c r="K85" s="10">
+        <v>10</v>
+      </c>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
@@ -7923,16 +8559,26 @@
         <v>314</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
+        <v>470</v>
+      </c>
+      <c r="G86" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J86" s="10">
+        <v>1</v>
+      </c>
+      <c r="K86" s="10">
+        <v>10</v>
+      </c>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F2BE9C-AF26-490A-838C-2991B9FBA07C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5EF93D-3904-4B00-BCEC-A27E4B49E053}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="477">
   <si>
     <t>sheet名</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>是否导出</t>
-  </si>
-  <si>
-    <t>新手任务</t>
   </si>
   <si>
     <t>newbieTask.json</t>
@@ -1293,10 +1290,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>头盔1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过12关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1369,10 +1362,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>进阶2阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>戒指1阶</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1409,18 +1398,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通关28关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关29关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关30关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>肩甲2阶</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1564,6 +1541,17 @@
   </si>
   <si>
     <t>导弹炮2突</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新新手任务</t>
+  </si>
+  <si>
+    <t>头盔1阶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶2</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2134,7 +2122,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2173,20 +2161,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="10" t="b">
         <v>1</v>
@@ -2194,20 +2182,20 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="10" t="b">
         <v>1</v>
@@ -2270,161 +2258,161 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
         <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -2438,18 +2426,18 @@
         <v>1002</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="10">
         <v>0</v>
@@ -2475,18 +2463,18 @@
         <v>1003</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" s="10">
         <v>0</v>
@@ -2512,13 +2500,13 @@
         <v>1004</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="G6" s="10">
         <v>1000</v>
@@ -2527,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="10">
         <v>1</v>
@@ -2553,18 +2541,18 @@
         <v>1005</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" s="10">
         <v>0</v>
@@ -2590,13 +2578,13 @@
         <v>1006</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="G8" s="10">
         <v>1000</v>
@@ -2605,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="10">
         <v>0</v>
@@ -2631,18 +2619,18 @@
         <v>1007</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="10">
         <v>0</v>
@@ -2668,18 +2656,18 @@
         <v>1008</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="10">
         <v>0</v>
@@ -2705,18 +2693,18 @@
         <v>1009</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="10">
         <v>0</v>
@@ -2742,13 +2730,13 @@
         <v>1010</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -2757,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="10">
         <v>0</v>
@@ -2783,18 +2771,18 @@
         <v>1011</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="10">
         <v>0</v>
@@ -2803,7 +2791,7 @@
         <v>5000</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="10">
         <v>0</v>
@@ -2826,13 +2814,13 @@
         <v>1012</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="G14" s="10">
         <v>1000</v>
@@ -2841,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="10">
         <v>0</v>
@@ -2867,18 +2855,18 @@
         <v>1013</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" s="10">
         <v>0</v>
@@ -2904,20 +2892,20 @@
         <v>1014</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="G16" s="10">
         <v>5000</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="10">
         <v>0</v>
@@ -2943,18 +2931,18 @@
         <v>1015</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" s="10">
         <v>0</v>
@@ -2980,18 +2968,18 @@
         <v>1016</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="10">
         <v>0</v>
@@ -3000,7 +2988,7 @@
         <v>1000</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M18" s="10">
         <v>0</v>
@@ -3023,18 +3011,18 @@
         <v>1017</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19" s="10">
         <v>0</v>
@@ -3060,18 +3048,18 @@
         <v>1018</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="10">
         <v>0</v>
@@ -3080,7 +3068,7 @@
         <v>1000</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -3103,18 +3091,18 @@
         <v>1019</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="10">
         <v>0</v>
@@ -3140,18 +3128,18 @@
         <v>1020</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="10">
         <v>0</v>
@@ -3160,7 +3148,7 @@
         <v>1000</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -3183,18 +3171,18 @@
         <v>1021</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="10">
         <v>0</v>
@@ -3220,18 +3208,18 @@
         <v>1022</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J24" s="10">
         <v>0</v>
@@ -3240,7 +3228,7 @@
         <v>1000</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -3263,18 +3251,18 @@
         <v>1023</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="10">
         <v>0</v>
@@ -3300,18 +3288,18 @@
         <v>1024</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J26" s="10">
         <v>0</v>
@@ -3320,7 +3308,7 @@
         <v>1000</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M26" s="10">
         <v>0</v>
@@ -3343,18 +3331,18 @@
         <v>1025</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J27" s="10">
         <v>0</v>
@@ -3380,18 +3368,18 @@
         <v>1026</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" s="10">
         <v>0</v>
@@ -3400,7 +3388,7 @@
         <v>1000</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M28" s="10">
         <v>0</v>
@@ -3423,18 +3411,18 @@
         <v>1027</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" s="10">
         <v>0</v>
@@ -3460,18 +3448,18 @@
         <v>1028</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" s="10">
         <v>0</v>
@@ -3497,18 +3485,18 @@
         <v>1029</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J31" s="10">
         <v>1</v>
@@ -3534,18 +3522,18 @@
         <v>1030</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J32" s="10">
         <v>0</v>
@@ -3571,13 +3559,13 @@
         <v>1031</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="G33" s="10">
         <v>1001</v>
@@ -3586,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" s="10">
         <v>0</v>
@@ -3612,18 +3600,18 @@
         <v>1032</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" s="10">
         <v>0</v>
@@ -3632,7 +3620,7 @@
         <v>1000</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M34" s="10">
         <v>0</v>
@@ -3655,13 +3643,13 @@
         <v>1033</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -3670,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J35" s="10">
         <v>0</v>
@@ -3696,18 +3684,18 @@
         <v>1034</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36" s="10">
         <v>0</v>
@@ -3733,18 +3721,18 @@
         <v>1035</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J37" s="10">
         <v>0</v>
@@ -3770,18 +3758,18 @@
         <v>1036</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
@@ -3807,18 +3795,18 @@
         <v>1037</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
@@ -3844,20 +3832,20 @@
         <v>1038</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="G40" s="10">
         <v>5000</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J40" s="10">
         <v>0</v>
@@ -3883,18 +3871,18 @@
         <v>1039</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
@@ -3920,18 +3908,18 @@
         <v>1040</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -3957,13 +3945,13 @@
         <v>1041</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="G43" s="10">
         <v>2000</v>
@@ -3972,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J43" s="10">
         <v>0</v>
@@ -3998,18 +3986,18 @@
         <v>1042</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J44" s="10">
         <v>0</v>
@@ -4035,13 +4023,13 @@
         <v>1043</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="G45" s="10">
         <v>2000</v>
@@ -4050,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45" s="10">
         <v>0</v>
@@ -4076,18 +4064,18 @@
         <v>1044</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J46" s="10">
         <v>0</v>
@@ -4113,18 +4101,18 @@
         <v>1045</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="F47" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J47" s="10">
         <v>0</v>
@@ -4150,18 +4138,18 @@
         <v>1046</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J48" s="10">
         <v>0</v>
@@ -4187,13 +4175,13 @@
         <v>1047</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="G49" s="10">
         <v>2000</v>
@@ -4202,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49" s="10">
         <v>0</v>
@@ -4228,18 +4216,18 @@
         <v>1048</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J50" s="10">
         <v>0</v>
@@ -4265,18 +4253,18 @@
         <v>1049</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J51" s="10">
         <v>0</v>
@@ -4302,13 +4290,13 @@
         <v>1050</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="G52" s="10">
         <v>6000</v>
@@ -4317,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J52" s="10">
         <v>0</v>
@@ -4326,7 +4314,7 @@
         <v>1000</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M52" s="10">
         <v>0</v>
@@ -4349,13 +4337,13 @@
         <v>1051</v>
       </c>
       <c r="D53" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="G53" s="10">
         <v>1000</v>
@@ -4364,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J53" s="10">
         <v>0</v>
@@ -4390,18 +4378,18 @@
         <v>1052</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J54" s="10">
         <v>0</v>
@@ -4427,13 +4415,13 @@
         <v>1053</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="G55" s="10">
         <v>6000</v>
@@ -4442,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J55" s="10">
         <v>0</v>
@@ -4468,18 +4456,18 @@
         <v>1054</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J56" s="10">
         <v>0</v>
@@ -4505,18 +4493,18 @@
         <v>1055</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J57" s="10">
         <v>0</v>
@@ -4542,18 +4530,18 @@
         <v>1056</v>
       </c>
       <c r="D58" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J58" s="10">
         <v>0</v>
@@ -4579,20 +4567,20 @@
         <v>1057</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="G59" s="10">
         <v>5000</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J59" s="10">
         <v>0</v>
@@ -4618,18 +4606,18 @@
         <v>1058</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J60" s="10">
         <v>0</v>
@@ -4655,18 +4643,18 @@
         <v>1059</v>
       </c>
       <c r="D61" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J61" s="10">
         <v>0</v>
@@ -4692,13 +4680,13 @@
         <v>1060</v>
       </c>
       <c r="D62" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="F62" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="G62" s="10">
         <v>6000</v>
@@ -4707,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J62" s="10">
         <v>0</v>
@@ -4733,18 +4721,18 @@
         <v>1061</v>
       </c>
       <c r="D63" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="F63" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J63" s="10">
         <v>0</v>
@@ -4770,18 +4758,18 @@
         <v>1062</v>
       </c>
       <c r="D64" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="F64" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J64" s="10">
         <v>0</v>
@@ -4807,13 +4795,13 @@
         <v>1063</v>
       </c>
       <c r="D65" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="F65" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="G65" s="10">
         <v>2000</v>
@@ -4822,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J65" s="10">
         <v>0</v>
@@ -4848,18 +4836,18 @@
         <v>1064</v>
       </c>
       <c r="D66" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="F66" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J66" s="10">
         <v>0</v>
@@ -4885,20 +4873,20 @@
         <v>1065</v>
       </c>
       <c r="D67" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="F67" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="G67" s="10">
         <v>5000</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J67" s="10">
         <v>0</v>
@@ -4924,18 +4912,18 @@
         <v>1066</v>
       </c>
       <c r="D68" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="F68" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J68" s="10">
         <v>0</v>
@@ -4961,13 +4949,13 @@
         <v>1067</v>
       </c>
       <c r="D69" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="F69" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="G69" s="10">
         <v>1000</v>
@@ -4976,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J69" s="10">
         <v>0</v>
@@ -5002,18 +4990,18 @@
         <v>1068</v>
       </c>
       <c r="D70" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="F70" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J70" s="10">
         <v>0</v>
@@ -5039,13 +5027,13 @@
         <v>1069</v>
       </c>
       <c r="D71" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="F71" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="G71" s="10">
         <v>1000</v>
@@ -5054,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J71" s="10">
         <v>0</v>
@@ -5080,20 +5068,20 @@
         <v>1070</v>
       </c>
       <c r="D72" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="F72" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="G72" s="10">
         <v>5000</v>
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J72" s="10">
         <v>0</v>
@@ -5119,18 +5107,18 @@
         <v>1071</v>
       </c>
       <c r="D73" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="F73" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J73" s="10">
         <v>0</v>
@@ -5153,23 +5141,23 @@
         <v>1071</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="F74" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="G74" s="10">
         <v>5000</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J74" s="10">
         <v>0</v>
@@ -5195,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA14BC4-7BFE-4ECA-964B-51DFC6516EC4}">
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M86" sqref="M86"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F25" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5220,161 +5208,161 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
         <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5388,18 +5376,18 @@
         <v>1002</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="10">
         <v>0</v>
@@ -5425,18 +5413,18 @@
         <v>1003</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" s="10">
         <v>1</v>
@@ -5462,13 +5450,13 @@
         <v>1004</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="10">
         <v>1000</v>
@@ -5477,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="10">
         <v>0</v>
@@ -5503,18 +5491,18 @@
         <v>1005</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" s="10">
         <v>0</v>
@@ -5540,18 +5528,18 @@
         <v>1006</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="10">
         <v>0</v>
@@ -5577,18 +5565,18 @@
         <v>1007</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="10">
         <v>0</v>
@@ -5614,18 +5602,18 @@
         <v>1008</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="10">
         <v>0</v>
@@ -5651,18 +5639,18 @@
         <v>1009</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="10">
         <v>1</v>
@@ -5688,13 +5676,13 @@
         <v>1010</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -5703,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="10">
         <v>0</v>
@@ -5729,18 +5717,18 @@
         <v>1011</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="10">
         <v>0</v>
@@ -5766,18 +5754,18 @@
         <v>1012</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="10">
         <v>0</v>
@@ -5786,7 +5774,7 @@
         <v>1000</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
@@ -5809,13 +5797,13 @@
         <v>1013</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G15" s="10">
         <v>1000</v>
@@ -5824,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" s="10">
         <v>0</v>
@@ -5850,18 +5838,18 @@
         <v>1014</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="10">
         <v>0</v>
@@ -5887,18 +5875,18 @@
         <v>1015</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" s="10">
         <v>0</v>
@@ -5924,18 +5912,18 @@
         <v>1016</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="10">
         <v>0</v>
@@ -5961,13 +5949,13 @@
         <v>1017</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G19" s="10">
         <v>5000</v>
@@ -5976,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19" s="10">
         <v>0</v>
@@ -6002,18 +5990,18 @@
         <v>1018</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="10">
         <v>0</v>
@@ -6022,7 +6010,7 @@
         <v>2000</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -6045,18 +6033,18 @@
         <v>1019</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="10">
         <v>0</v>
@@ -6082,18 +6070,18 @@
         <v>1020</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="10">
         <v>0</v>
@@ -6102,7 +6090,7 @@
         <v>2000</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -6125,18 +6113,18 @@
         <v>1021</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="10">
         <v>0</v>
@@ -6162,18 +6150,18 @@
         <v>1022</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J24" s="10">
         <v>0</v>
@@ -6182,7 +6170,7 @@
         <v>2000</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -6205,18 +6193,18 @@
         <v>1023</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="10">
         <v>0</v>
@@ -6242,18 +6230,18 @@
         <v>1024</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J26" s="10">
         <v>0</v>
@@ -6262,7 +6250,7 @@
         <v>2000</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M26" s="10">
         <v>0</v>
@@ -6285,18 +6273,18 @@
         <v>1025</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J27" s="10">
         <v>0</v>
@@ -6322,18 +6310,18 @@
         <v>1026</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" s="10">
         <v>0</v>
@@ -6342,7 +6330,7 @@
         <v>2000</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M28" s="10">
         <v>0</v>
@@ -6365,18 +6353,18 @@
         <v>1027</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" s="10">
         <v>0</v>
@@ -6402,18 +6390,18 @@
         <v>1028</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -6439,18 +6427,18 @@
         <v>1029</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J31" s="10">
         <v>0</v>
@@ -6476,18 +6464,18 @@
         <v>1030</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J32" s="10">
         <v>0</v>
@@ -6513,13 +6501,13 @@
         <v>1031</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G33" s="10">
         <v>1001</v>
@@ -6528,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" s="10">
         <v>0</v>
@@ -6554,18 +6542,18 @@
         <v>1032</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" s="10">
         <v>0</v>
@@ -6591,13 +6579,13 @@
         <v>1033</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -6606,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J35" s="10">
         <v>0</v>
@@ -6632,18 +6620,18 @@
         <v>1034</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36" s="10">
         <v>0</v>
@@ -6669,18 +6657,18 @@
         <v>1035</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J37" s="10">
         <v>0</v>
@@ -6706,18 +6694,18 @@
         <v>1036</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
@@ -6743,18 +6731,18 @@
         <v>1037</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
@@ -6780,13 +6768,13 @@
         <v>1038</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="G40" s="10">
         <v>5000</v>
@@ -6795,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J40" s="10">
         <v>0</v>
@@ -6821,18 +6809,18 @@
         <v>1039</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
@@ -6858,18 +6846,18 @@
         <v>1040</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -6895,18 +6883,18 @@
         <v>1041</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J43" s="10">
         <v>0</v>
@@ -6932,13 +6920,13 @@
         <v>1042</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G44" s="10">
         <v>2000</v>
@@ -6947,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J44" s="10">
         <v>0</v>
@@ -6973,18 +6961,18 @@
         <v>1043</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45" s="10">
         <v>0</v>
@@ -7010,18 +6998,18 @@
         <v>1044</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J46" s="10">
         <v>0</v>
@@ -7047,13 +7035,13 @@
         <v>1045</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G47" s="10">
         <v>2000</v>
@@ -7062,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J47" s="10">
         <v>0</v>
@@ -7088,18 +7076,18 @@
         <v>1046</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J48" s="10">
         <v>0</v>
@@ -7125,18 +7113,18 @@
         <v>1047</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49" s="10">
         <v>0</v>
@@ -7162,13 +7150,13 @@
         <v>1048</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G50" s="10">
         <v>2000</v>
@@ -7177,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J50" s="10">
         <v>0</v>
@@ -7203,18 +7191,18 @@
         <v>1049</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J51" s="10">
         <v>0</v>
@@ -7240,13 +7228,13 @@
         <v>1050</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G52" s="10">
         <v>1001</v>
@@ -7255,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J52" s="10">
         <v>0</v>
@@ -7281,18 +7269,18 @@
         <v>1051</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>440</v>
+        <v>218</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J53" s="10">
         <v>0</v>
@@ -7318,18 +7306,18 @@
         <v>1052</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>441</v>
+        <v>221</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J54" s="10">
         <v>0</v>
@@ -7355,18 +7343,18 @@
         <v>1053</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>442</v>
+        <v>224</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J55" s="10">
         <v>0</v>
@@ -7392,18 +7380,18 @@
         <v>1054</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J56" s="10">
         <v>0</v>
@@ -7429,18 +7417,18 @@
         <v>1055</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J57" s="10">
         <v>0</v>
@@ -7466,13 +7454,13 @@
         <v>1056</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G58" s="10">
         <v>6000</v>
@@ -7481,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J58" s="10">
         <v>0</v>
@@ -7507,18 +7495,18 @@
         <v>1057</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J59" s="10">
         <v>0</v>
@@ -7544,13 +7532,13 @@
         <v>1058</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G60" s="10">
         <v>5000</v>
@@ -7559,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J60" s="10">
         <v>0</v>
@@ -7585,18 +7573,18 @@
         <v>1059</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J61" s="10">
         <v>0</v>
@@ -7622,13 +7610,13 @@
         <v>1060</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G62" s="10">
         <v>2000</v>
@@ -7637,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J62" s="10">
         <v>0</v>
@@ -7663,18 +7651,18 @@
         <v>1061</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J63" s="10">
         <v>0</v>
@@ -7700,18 +7688,18 @@
         <v>1062</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J64" s="10">
         <v>0</v>
@@ -7737,13 +7725,13 @@
         <v>1063</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G65" s="10">
         <v>1000</v>
@@ -7752,7 +7740,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J65" s="10">
         <v>0</v>
@@ -7778,18 +7766,18 @@
         <v>1064</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J66" s="10">
         <v>0</v>
@@ -7815,13 +7803,13 @@
         <v>1065</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G67" s="10">
         <v>1000</v>
@@ -7830,7 +7818,7 @@
         <v>2</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J67" s="10">
         <v>0</v>
@@ -7856,18 +7844,18 @@
         <v>1066</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J68" s="10">
         <v>0</v>
@@ -7893,18 +7881,18 @@
         <v>1067</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J69" s="10">
         <v>0</v>
@@ -7930,18 +7918,18 @@
         <v>1068</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J70" s="10">
         <v>0</v>
@@ -7967,18 +7955,18 @@
         <v>1069</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J71" s="10">
         <v>0</v>
@@ -8004,13 +7992,13 @@
         <v>1070</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G72" s="10">
         <v>2000</v>
@@ -8019,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J72" s="10">
         <v>0</v>
@@ -8045,18 +8033,18 @@
         <v>1071</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J73" s="10">
         <v>0</v>
@@ -8082,18 +8070,18 @@
         <v>1072</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J74" s="10">
         <v>0</v>
@@ -8119,13 +8107,13 @@
         <v>1073</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G75" s="10">
         <v>6000</v>
@@ -8134,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J75" s="10">
         <v>0</v>
@@ -8160,13 +8148,13 @@
         <v>1074</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G76" s="10">
         <v>5000</v>
@@ -8175,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J76" s="10">
         <v>0</v>
@@ -8201,18 +8189,18 @@
         <v>1075</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J77" s="10">
         <v>0</v>
@@ -8221,7 +8209,7 @@
         <v>5000</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M77" s="10">
         <v>0</v>
@@ -8244,13 +8232,13 @@
         <v>1076</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G78" s="10">
         <v>1001</v>
@@ -8259,7 +8247,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J78" s="10">
         <v>0</v>
@@ -8285,18 +8273,18 @@
         <v>1077</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J79" s="10">
         <v>1</v>
@@ -8322,18 +8310,18 @@
         <v>1078</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J80" s="10">
         <v>1</v>
@@ -8359,13 +8347,13 @@
         <v>1079</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G81" s="10">
         <v>5000</v>
@@ -8374,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J81" s="10">
         <v>1</v>
@@ -8400,13 +8388,13 @@
         <v>1080</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G82" s="10">
         <v>2000</v>
@@ -8415,7 +8403,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J82" s="10">
         <v>1</v>
@@ -8441,18 +8429,18 @@
         <v>1081</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J83" s="10">
         <v>1</v>
@@ -8478,18 +8466,18 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J84" s="10">
         <v>1</v>
@@ -8515,13 +8503,13 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G85" s="10">
         <v>5000</v>
@@ -8530,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J85" s="10">
         <v>1</v>
@@ -8553,16 +8541,16 @@
         <v>1083</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G86" s="10">
         <v>5000</v>
@@ -8571,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J86" s="10">
         <v>1</v>
@@ -9146,116 +9134,116 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -9267,7 +9255,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -9293,7 +9281,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -9319,7 +9307,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -9345,7 +9333,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -9371,7 +9359,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -9397,7 +9385,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -9423,7 +9411,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -9449,7 +9437,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -9475,7 +9463,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -9501,7 +9489,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -9527,7 +9515,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5EF93D-3904-4B00-BCEC-A27E4B49E053}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB69E0-AFFF-495C-977E-82677240FBA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="480">
   <si>
     <t>sheet名</t>
   </si>
@@ -978,9 +978,6 @@
     <t>新手任务80</t>
   </si>
   <si>
-    <t>新手任务81</t>
-  </si>
-  <si>
     <t>新手任务82</t>
   </si>
   <si>
@@ -1015,9 +1012,6 @@
     <t>新手任务8：通过第6关</t>
   </si>
   <si>
-    <t>新手任务9：主舰升级到10级</t>
-  </si>
-  <si>
     <t>新手任务10：通过第7关</t>
   </si>
   <si>
@@ -1214,21 +1208,6 @@
   </si>
   <si>
     <t>新手任务77：通过50关</t>
-  </si>
-  <si>
-    <t>新手任务78：军阶提升到参谋军士</t>
-  </si>
-  <si>
-    <t>新手任务79：把火控系统精炼到5级</t>
-  </si>
-  <si>
-    <t>新手任务80：通过55关</t>
-  </si>
-  <si>
-    <t>新手任务81：通过60关</t>
-  </si>
-  <si>
-    <t>新手任务82：军阶晋升为上士</t>
   </si>
   <si>
     <t>新手任务83：军阶晋升为一级士官</t>
@@ -1254,10 +1233,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>主舰10级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过7关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1552,6 +1527,49 @@
   </si>
   <si>
     <t>军阶2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务84</t>
+  </si>
+  <si>
+    <t>新手任务81</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务81：激光炮升级到50级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮50级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务78：军阶提升到参谋军士</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务79：把火控系统精炼到5级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务80：通过55关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务81：通过60关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务82：军阶晋升为上士</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务9：主舰升级到9级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰9级</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2161,7 +2179,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
@@ -2182,7 +2200,7 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
@@ -5181,10 +5199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA14BC4-7BFE-4ECA-964B-51DFC6516EC4}">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F25" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5379,7 +5397,7 @@
         <v>301</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>54</v>
@@ -5416,7 +5434,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>58</v>
@@ -5453,7 +5471,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>61</v>
@@ -5494,10 +5512,10 @@
         <v>62</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5531,10 +5549,10 @@
         <v>65</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5568,10 +5586,10 @@
         <v>68</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -5605,10 +5623,10 @@
         <v>71</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5642,10 +5660,10 @@
         <v>74</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5679,10 +5697,10 @@
         <v>77</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>323</v>
+        <v>478</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -5720,10 +5738,10 @@
         <v>80</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5757,10 +5775,10 @@
         <v>84</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5774,7 +5792,7 @@
         <v>1000</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
@@ -5800,10 +5818,10 @@
         <v>87</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G15" s="10">
         <v>1000</v>
@@ -5841,10 +5859,10 @@
         <v>90</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5878,10 +5896,10 @@
         <v>93</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -5915,10 +5933,10 @@
         <v>96</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -5952,10 +5970,10 @@
         <v>100</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G19" s="10">
         <v>5000</v>
@@ -5993,10 +6011,10 @@
         <v>103</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -6010,7 +6028,7 @@
         <v>2000</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -6036,10 +6054,10 @@
         <v>107</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -6073,10 +6091,10 @@
         <v>110</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -6090,7 +6108,7 @@
         <v>2000</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -6116,10 +6134,10 @@
         <v>114</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -6153,10 +6171,10 @@
         <v>117</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -6170,7 +6188,7 @@
         <v>2000</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -6196,10 +6214,10 @@
         <v>121</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -6233,10 +6251,10 @@
         <v>124</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -6250,7 +6268,7 @@
         <v>2000</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="M26" s="10">
         <v>0</v>
@@ -6276,10 +6294,10 @@
         <v>128</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -6313,10 +6331,10 @@
         <v>131</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -6330,7 +6348,7 @@
         <v>2000</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M28" s="10">
         <v>0</v>
@@ -6356,10 +6374,10 @@
         <v>135</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -6393,10 +6411,10 @@
         <v>138</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -6430,10 +6448,10 @@
         <v>141</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -6467,10 +6485,10 @@
         <v>144</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -6504,10 +6522,10 @@
         <v>147</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G33" s="10">
         <v>1001</v>
@@ -6545,10 +6563,10 @@
         <v>150</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -6582,10 +6600,10 @@
         <v>153</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -6623,10 +6641,10 @@
         <v>156</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -6660,10 +6678,10 @@
         <v>159</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -6697,10 +6715,10 @@
         <v>162</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -6734,10 +6752,10 @@
         <v>165</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -6771,10 +6789,10 @@
         <v>168</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G40" s="10">
         <v>5000</v>
@@ -6812,10 +6830,10 @@
         <v>171</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -6849,10 +6867,10 @@
         <v>174</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -6886,10 +6904,10 @@
         <v>177</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -6923,7 +6941,7 @@
         <v>180</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>179</v>
@@ -6964,10 +6982,10 @@
         <v>183</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -7001,10 +7019,10 @@
         <v>186</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -7038,7 +7056,7 @@
         <v>189</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>197</v>
@@ -7079,10 +7097,10 @@
         <v>192</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -7116,10 +7134,10 @@
         <v>195</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -7153,7 +7171,7 @@
         <v>198</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>185</v>
@@ -7194,10 +7212,10 @@
         <v>201</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -7231,10 +7249,10 @@
         <v>204</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G52" s="10">
         <v>1001</v>
@@ -7272,7 +7290,7 @@
         <v>207</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>218</v>
@@ -7309,7 +7327,7 @@
         <v>210</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>221</v>
@@ -7346,7 +7364,7 @@
         <v>213</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>224</v>
@@ -7383,10 +7401,10 @@
         <v>216</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -7420,10 +7438,10 @@
         <v>219</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -7457,7 +7475,7 @@
         <v>222</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>215</v>
@@ -7498,10 +7516,10 @@
         <v>225</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -7535,10 +7553,10 @@
         <v>228</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G60" s="10">
         <v>5000</v>
@@ -7576,10 +7594,10 @@
         <v>231</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -7613,10 +7631,10 @@
         <v>234</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G62" s="10">
         <v>2000</v>
@@ -7654,10 +7672,10 @@
         <v>237</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -7691,10 +7709,10 @@
         <v>240</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -7728,10 +7746,10 @@
         <v>243</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G65" s="10">
         <v>1000</v>
@@ -7769,10 +7787,10 @@
         <v>246</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -7806,10 +7824,10 @@
         <v>249</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G67" s="10">
         <v>1000</v>
@@ -7847,10 +7865,10 @@
         <v>252</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -7884,10 +7902,10 @@
         <v>255</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -7921,10 +7939,10 @@
         <v>258</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -7958,10 +7976,10 @@
         <v>261</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -7995,10 +8013,10 @@
         <v>264</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G72" s="10">
         <v>2000</v>
@@ -8036,10 +8054,10 @@
         <v>267</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -8073,10 +8091,10 @@
         <v>271</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -8110,7 +8128,7 @@
         <v>302</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>236</v>
@@ -8151,10 +8169,10 @@
         <v>303</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G76" s="10">
         <v>5000</v>
@@ -8192,10 +8210,10 @@
         <v>304</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -8209,7 +8227,7 @@
         <v>5000</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M77" s="10">
         <v>0</v>
@@ -8235,10 +8253,10 @@
         <v>305</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G78" s="10">
         <v>1001</v>
@@ -8276,10 +8294,10 @@
         <v>306</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -8313,10 +8331,10 @@
         <v>307</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -8350,10 +8368,10 @@
         <v>308</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G81" s="10">
         <v>5000</v>
@@ -8391,10 +8409,10 @@
         <v>309</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>391</v>
+        <v>474</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G82" s="10">
         <v>2000</v>
@@ -8432,10 +8450,10 @@
         <v>310</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -8466,16 +8484,20 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>311</v>
+        <v>470</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+        <v>472</v>
+      </c>
+      <c r="G84" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H84" s="10">
+        <v>2</v>
+      </c>
       <c r="I84" s="10" t="s">
         <v>55</v>
       </c>
@@ -8503,20 +8525,16 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>394</v>
+        <v>476</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="G85" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H85" s="10">
-        <v>0</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
         <v>55</v>
       </c>
@@ -8540,17 +8558,17 @@
       <c r="B86" s="10">
         <v>1083</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>314</v>
+      <c r="C86" s="10">
+        <v>1084</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G86" s="10">
         <v>5000</v>
@@ -8575,17 +8593,39 @@
       <c r="Q86" s="10"/>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
+      <c r="A87" s="10">
+        <v>84</v>
+      </c>
+      <c r="B87" s="10">
+        <v>1084</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G87" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J87" s="10">
+        <v>1</v>
+      </c>
+      <c r="K87" s="10">
+        <v>10</v>
+      </c>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
@@ -9105,6 +9145,25 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
+    </row>
+    <row r="115" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB69E0-AFFF-495C-977E-82677240FBA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17940" windowHeight="11355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="新新手任务" sheetId="28" r:id="rId3"/>
     <sheet name="日常任务" sheetId="27" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420">
   <si>
     <t>sheet名</t>
   </si>
@@ -44,6 +38,9 @@
   </si>
   <si>
     <t>是否导出</t>
+  </si>
+  <si>
+    <t>新新手任务</t>
   </si>
   <si>
     <t>newbieTask.json</t>
@@ -432,7 +429,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>头盔S</t>
@@ -442,7 +438,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -866,6 +861,360 @@
     <t>军阶6</t>
   </si>
   <si>
+    <t>新手任务1：通过第1关</t>
+  </si>
+  <si>
+    <t>新手任务2：通过第2关</t>
+  </si>
+  <si>
+    <t>新手任务3：主舰升级至5级</t>
+  </si>
+  <si>
+    <t>新手任务4：通过第3关</t>
+  </si>
+  <si>
+    <t>新手任务5：通过第4关</t>
+  </si>
+  <si>
+    <t>新手任务6：释放1次技能</t>
+  </si>
+  <si>
+    <t>新手任务7：通过第5关</t>
+  </si>
+  <si>
+    <t>新手任务8：通过第6关</t>
+  </si>
+  <si>
+    <t>新手任务9：主舰升级至9级</t>
+  </si>
+  <si>
+    <t>主舰9级</t>
+  </si>
+  <si>
+    <t>新手任务10：通过第7关</t>
+  </si>
+  <si>
+    <t>新手任务11：通过第8关</t>
+  </si>
+  <si>
+    <t>新手任务12：主舰进阶至1代</t>
+  </si>
+  <si>
+    <t>新手任务13：通过第9关</t>
+  </si>
+  <si>
+    <t>新手任务14：通过第10关</t>
+  </si>
+  <si>
+    <t>新手任务15：装备火控系统装置</t>
+  </si>
+  <si>
+    <t>新手任务16：军阶升级至二等兵</t>
+  </si>
+  <si>
+    <t>新手任务17：通过11关</t>
+  </si>
+  <si>
+    <t>头盔S1</t>
+  </si>
+  <si>
+    <t>新手任务18：装备装甲附甲装置</t>
+  </si>
+  <si>
+    <t>新手任务19：通过12关</t>
+  </si>
+  <si>
+    <t>新手任务20：装备能量线圈装置</t>
+  </si>
+  <si>
+    <t>新手任务21：通过13关</t>
+  </si>
+  <si>
+    <t>新手任务22：装备电压附甲装置</t>
+  </si>
+  <si>
+    <t>新手任务23：通过14关</t>
+  </si>
+  <si>
+    <t>新手任务24：装备磁力稳定器装置</t>
+  </si>
+  <si>
+    <t>新手任务25：通过15关</t>
+  </si>
+  <si>
+    <t>新手任务26：装备护盾阵列装置</t>
+  </si>
+  <si>
+    <t>新手任务27：通过16关</t>
+  </si>
+  <si>
+    <t>新手任务28：解锁导弹炮</t>
+  </si>
+  <si>
+    <t>新手任务29：通过17关</t>
+  </si>
+  <si>
+    <t>新手任务30：导弹炮升级至5级</t>
+  </si>
+  <si>
+    <t>导弹炮5级</t>
+  </si>
+  <si>
+    <t>新手任务31：通过18关</t>
+  </si>
+  <si>
+    <t>新手任务32：导弹炮升级至10级</t>
+  </si>
+  <si>
+    <t>导弹炮10级</t>
+  </si>
+  <si>
+    <t>新手任务33：通过19关</t>
+  </si>
+  <si>
+    <t>新手任务34：通过20关</t>
+  </si>
+  <si>
+    <t>新手任务35：装备电磁增强装置</t>
+  </si>
+  <si>
+    <t>新手任务36：通过21关</t>
+  </si>
+  <si>
+    <t>新手任务37：军阶晋升至一等兵</t>
+  </si>
+  <si>
+    <t>新手任务38：装备索敌增强器装置</t>
+  </si>
+  <si>
+    <t>新手任务39：通过22关</t>
+  </si>
+  <si>
+    <t>新手任务40：火力装置升级至10级</t>
+  </si>
+  <si>
+    <t>新手任务41：通过23关</t>
+  </si>
+  <si>
+    <t>新手任务42：通过24关</t>
+  </si>
+  <si>
+    <t>新手任务43：通过25关</t>
+  </si>
+  <si>
+    <t>新手任务44：进行一次装备合成</t>
+  </si>
+  <si>
+    <t>新手任务45：火控系统装置达到2阶</t>
+  </si>
+  <si>
+    <t>新手任务46：通过26关</t>
+  </si>
+  <si>
+    <t>新手任务47：所有装置强化至10级</t>
+  </si>
+  <si>
+    <t>新手任务48：通过27关</t>
+  </si>
+  <si>
+    <t>新手任务49：导弹炮升级至20级</t>
+  </si>
+  <si>
+    <t>导弹炮20级</t>
+  </si>
+  <si>
+    <t>新手任务50：通过28关</t>
+  </si>
+  <si>
+    <t>新手任务51：通过29关</t>
+  </si>
+  <si>
+    <t>新手任务52：通过30关</t>
+  </si>
+  <si>
+    <t>新手任务53：能量线圈装置达到2阶</t>
+  </si>
+  <si>
+    <t>肩甲2阶</t>
+  </si>
+  <si>
+    <t>新手任务54：通过31关</t>
+  </si>
+  <si>
+    <t>新手任务55：进行一次装备抽取</t>
+  </si>
+  <si>
+    <t>新手任务56：通过32关</t>
+  </si>
+  <si>
+    <t>新手任务57：军阶晋升至下士</t>
+  </si>
+  <si>
+    <t>新手任务58：通过33关</t>
+  </si>
+  <si>
+    <t>通过33关</t>
+  </si>
+  <si>
+    <t>新手任务59：所有装置强化至20级</t>
+  </si>
+  <si>
+    <t>装备全体强化+20</t>
+  </si>
+  <si>
+    <t>新手任务60：通过34关</t>
+  </si>
+  <si>
+    <t>通过34关</t>
+  </si>
+  <si>
+    <t>新手任务61：通过35关</t>
+  </si>
+  <si>
+    <t>新手任务62：主舰核能升至1重</t>
+  </si>
+  <si>
+    <t>新手任务63：通过36关</t>
+  </si>
+  <si>
+    <t>通过36关</t>
+  </si>
+  <si>
+    <t>新手任务64：导弹炮进阶至2代</t>
+  </si>
+  <si>
+    <t>新手任务65：通过37关</t>
+  </si>
+  <si>
+    <t>通过37关</t>
+  </si>
+  <si>
+    <t>新手任务66：进行1次关卡扫荡</t>
+  </si>
+  <si>
+    <t>进行1次扫荡</t>
+  </si>
+  <si>
+    <t>新手任务67：主舰升级至30级</t>
+  </si>
+  <si>
+    <t>主舰30级</t>
+  </si>
+  <si>
+    <t>新手任务68：通过38关</t>
+  </si>
+  <si>
+    <t>通过38关</t>
+  </si>
+  <si>
+    <t>新手任务69：装备全部强化至40级</t>
+  </si>
+  <si>
+    <t>装备全体强化+40</t>
+  </si>
+  <si>
+    <t>新手任务70：通过39关</t>
+  </si>
+  <si>
+    <t>通过39关</t>
+  </si>
+  <si>
+    <t>新手任务71：通过40关</t>
+  </si>
+  <si>
+    <t>新手任务72</t>
+  </si>
+  <si>
+    <t>新手任务72：进行1次晶片抽取</t>
+  </si>
+  <si>
+    <t>新手任务73</t>
+  </si>
+  <si>
+    <t>新手任务73：军阶晋升至中士</t>
+  </si>
+  <si>
+    <t>新手任务74</t>
+  </si>
+  <si>
+    <t>新手任务74：通过45关</t>
+  </si>
+  <si>
+    <t>新手任务75</t>
+  </si>
+  <si>
+    <t>新手任务75：导弹炮进阶至2代</t>
+  </si>
+  <si>
+    <t>导弹炮2突</t>
+  </si>
+  <si>
+    <t>新手任务76</t>
+  </si>
+  <si>
+    <t>新手任务76：主舰升级至40级</t>
+  </si>
+  <si>
+    <t>主舰40级</t>
+  </si>
+  <si>
+    <t>新手任务77</t>
+  </si>
+  <si>
+    <t>新手任务77：通过50关</t>
+  </si>
+  <si>
+    <t>新手任务78</t>
+  </si>
+  <si>
+    <t>新手任务78：军阶晋升至参谋军士</t>
+  </si>
+  <si>
+    <t>新手任务79</t>
+  </si>
+  <si>
+    <t>新手任务79：火控系统精炼至5级</t>
+  </si>
+  <si>
+    <t>装备精炼到5级</t>
+  </si>
+  <si>
+    <t>新手任务80</t>
+  </si>
+  <si>
+    <t>新手任务80：通过55关</t>
+  </si>
+  <si>
+    <t>新手任务81</t>
+  </si>
+  <si>
+    <t>新手任务81：激光炮升级至50级</t>
+  </si>
+  <si>
+    <t>激光炮50级</t>
+  </si>
+  <si>
+    <t>新手任务82</t>
+  </si>
+  <si>
+    <t>新手任务82：通过60关</t>
+  </si>
+  <si>
+    <t>新手任务83</t>
+  </si>
+  <si>
+    <t>新手任务83：军阶晋升至上士</t>
+  </si>
+  <si>
+    <t>新手任务84</t>
+  </si>
+  <si>
+    <t>新手任务84：军阶晋升至一级士官</t>
+  </si>
+  <si>
+    <t>军阶7</t>
+  </si>
+  <si>
     <t>unlockAchiev</t>
   </si>
   <si>
@@ -945,640 +1294,35 @@
   </si>
   <si>
     <t>扫荡3次</t>
-  </si>
-  <si>
-    <t>新手任务1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务72</t>
-  </si>
-  <si>
-    <t>新手任务73</t>
-  </si>
-  <si>
-    <t>新手任务74</t>
-  </si>
-  <si>
-    <t>新手任务75</t>
-  </si>
-  <si>
-    <t>新手任务76</t>
-  </si>
-  <si>
-    <t>新手任务77</t>
-  </si>
-  <si>
-    <t>新手任务78</t>
-  </si>
-  <si>
-    <t>新手任务79</t>
-  </si>
-  <si>
-    <t>新手任务80</t>
-  </si>
-  <si>
-    <t>新手任务82</t>
-  </si>
-  <si>
-    <t>新手任务83</t>
-  </si>
-  <si>
-    <t>[nil]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务1：通过第1关</t>
-  </si>
-  <si>
-    <t>新手任务2：通过第2关</t>
-  </si>
-  <si>
-    <t>新手任务3：主舰升级到5级</t>
-  </si>
-  <si>
-    <t>新手任务4：通过第3关</t>
-  </si>
-  <si>
-    <t>新手任务5：通过第4关</t>
-  </si>
-  <si>
-    <t>新手任务6：释放1次技能</t>
-  </si>
-  <si>
-    <t>新手任务7：通过第5关</t>
-  </si>
-  <si>
-    <t>新手任务8：通过第6关</t>
-  </si>
-  <si>
-    <t>新手任务10：通过第7关</t>
-  </si>
-  <si>
-    <t>新手任务11：通过第8关</t>
-  </si>
-  <si>
-    <t>新手任务12：主舰进阶到1代</t>
-  </si>
-  <si>
-    <t>新手任务13：通过第9关</t>
-  </si>
-  <si>
-    <t>新手任务14：通过第10关</t>
-  </si>
-  <si>
-    <t>新手任务15：火控系统装置达到1阶</t>
-  </si>
-  <si>
-    <t>新手任务16：军阶升级到二等兵</t>
-  </si>
-  <si>
-    <t>新手任务17：通过11关</t>
-  </si>
-  <si>
-    <t>新手任务18：装甲附甲装置达到1阶</t>
-  </si>
-  <si>
-    <t>新手任务19：通过12关</t>
-  </si>
-  <si>
-    <t>新手任务20：能量线圈装置达到1阶</t>
-  </si>
-  <si>
-    <t>新手任务21：通过13关</t>
-  </si>
-  <si>
-    <t>新手任务22：电压附甲装置达到1阶</t>
-  </si>
-  <si>
-    <t>新手任务23：通过14关</t>
-  </si>
-  <si>
-    <t>新手任务24：磁力稳定器装置达到1阶</t>
-  </si>
-  <si>
-    <t>新手任务25：通过15关</t>
-  </si>
-  <si>
-    <t>新手任务26：护盾阵列装置达到1阶</t>
-  </si>
-  <si>
-    <t>新手任务27：通过16关</t>
-  </si>
-  <si>
-    <t>新手任务28：解锁导弹炮</t>
-  </si>
-  <si>
-    <t>新手任务29：通过17关</t>
-  </si>
-  <si>
-    <t>新手任务30：导弹炮升级到5级</t>
-  </si>
-  <si>
-    <t>新手任务31：通过18关</t>
-  </si>
-  <si>
-    <t>新手任务32：导弹炮升级到10级</t>
-  </si>
-  <si>
-    <t>新手任务33：通过19关</t>
-  </si>
-  <si>
-    <t>新手任务34：通过20关</t>
-  </si>
-  <si>
-    <t>新手任务35：电磁增强装置达到1阶</t>
-  </si>
-  <si>
-    <t>新手任务36：通过21关</t>
-  </si>
-  <si>
-    <t>新手任务37：军阶晋升为一等兵</t>
-  </si>
-  <si>
-    <t>新手任务38：索敌增强器装置达到1阶</t>
-  </si>
-  <si>
-    <t>新手任务39：通过22关</t>
-  </si>
-  <si>
-    <t>新手任务40：通过23关</t>
-  </si>
-  <si>
-    <t>新手任务41：火力装置升级到10级</t>
-  </si>
-  <si>
-    <t>新手任务42：通过24关</t>
-  </si>
-  <si>
-    <t>新手任务43：通过25关</t>
-  </si>
-  <si>
-    <t>新手任务44：进行一次装备合成</t>
-  </si>
-  <si>
-    <t>新手任务45：火控系统装置达到2阶</t>
-  </si>
-  <si>
-    <t>新手任务46：通过26关</t>
-  </si>
-  <si>
-    <t>新手任务47：所有装置强化到+10</t>
-  </si>
-  <si>
-    <t>新手任务48：通过27关</t>
-  </si>
-  <si>
-    <t>新手任务49：导弹炮升级到20级</t>
-  </si>
-  <si>
-    <t>新手任务50：通过28关</t>
-  </si>
-  <si>
-    <t>新手任务51：通过29关</t>
-  </si>
-  <si>
-    <t>新手任务52：通过30关</t>
-  </si>
-  <si>
-    <t>新手任务53：能量线圈装置达到2阶</t>
-  </si>
-  <si>
-    <t>新手任务54：通过31关</t>
-  </si>
-  <si>
-    <t>新手任务55：进行一次装备抽奖</t>
-  </si>
-  <si>
-    <t>新手任务56：通过32关</t>
-  </si>
-  <si>
-    <t>新手任务57：军阶晋升为下士</t>
-  </si>
-  <si>
-    <t>新手任务58：通过33关</t>
-  </si>
-  <si>
-    <t>新手任务59：所有装置强化到+20</t>
-  </si>
-  <si>
-    <t>新手任务60：通过34关</t>
-  </si>
-  <si>
-    <t>新手任务61：通过35关</t>
-  </si>
-  <si>
-    <t>新手任务62：主舰核能+1</t>
-  </si>
-  <si>
-    <t>新手任务63：通过36关</t>
-  </si>
-  <si>
-    <t>新手任务65：通过37关</t>
-  </si>
-  <si>
-    <t>新手任务66：进行一次关卡扫荡</t>
-  </si>
-  <si>
-    <t>新手任务67：主舰升级到30级</t>
-  </si>
-  <si>
-    <t>新手任务68：通过38关</t>
-  </si>
-  <si>
-    <t>新手任务69：装备全部强化到40级</t>
-  </si>
-  <si>
-    <t>新手任务70：通过39关</t>
-  </si>
-  <si>
-    <t>新手任务71：通过40关</t>
-  </si>
-  <si>
-    <t>新手任务72：进行一次晶片单抽</t>
-  </si>
-  <si>
-    <t>新手任务73：军阶升级到中士</t>
-  </si>
-  <si>
-    <t>新手任务74：通过45关</t>
-  </si>
-  <si>
-    <t>新手任务76：主舰升级到40级</t>
-  </si>
-  <si>
-    <t>新手任务77：通过50关</t>
-  </si>
-  <si>
-    <t>新手任务83：军阶晋升为一级士官</t>
-  </si>
-  <si>
-    <t>通过3关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过4关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能1次</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过5关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过6关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过7关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过8关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰1突</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过9关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过10关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过11关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过12关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩甲1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过13关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过14关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>裤子1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过15关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过16关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁僚炮1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过17关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮5级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过18关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮10级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过19关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过20关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>项链1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过21关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过22关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过23关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过24关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过25关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器2阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过26关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过27关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮20级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩甲2阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过31关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过32关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过33关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备全体强化+20</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过34关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过35关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰核能1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过36关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过37关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行1次扫荡</t>
-  </si>
-  <si>
-    <t>主舰30级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过38关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备全体强化+40</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过39关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过40关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过45关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰2突</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰40级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过50关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备精炼到5级</t>
-  </si>
-  <si>
-    <t>通过55关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过60关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶7</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破丹</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩甲S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>裤子S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务64：导弹炮进阶到2代</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务75：导弹炮进阶到2代</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮2突</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新新手任务</t>
-  </si>
-  <si>
-    <t>头盔1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务84</t>
-  </si>
-  <si>
-    <t>新手任务81</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务81：激光炮升级到50级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮50级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务78：军阶提升到参谋军士</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务79：把火控系统精炼到5级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务80：通过55关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务81：通过60关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务82：军阶晋升为上士</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务9：主舰升级到9级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰9级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1588,79 +1332,72 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1668,19 +1405,123 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1695,7 +1536,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +1644,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,12 +1692,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1761,6 +1782,104 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1772,108 +1891,296 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="58" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="14">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="62">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="56">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="Grid" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Grid 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+  <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="常规 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="超链接 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="无效" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="中文标题" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="纵向标题" xfId="6" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="Grid 2" xfId="12"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="16"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="18" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="19" builtinId="11"/>
+    <cellStyle name="标题" xfId="20" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
+    <cellStyle name="输出" xfId="28" builtinId="21"/>
+    <cellStyle name="计算" xfId="29" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="31" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="33" builtinId="24"/>
+    <cellStyle name="Grid" xfId="34"/>
+    <cellStyle name="汇总" xfId="35" builtinId="25"/>
+    <cellStyle name="好" xfId="36" builtinId="26"/>
+    <cellStyle name="适中" xfId="37" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="38" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="39" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
+    <cellStyle name="大标题" xfId="49"/>
+    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="51" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="54" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
+    <cellStyle name="Normal" xfId="56"/>
+    <cellStyle name="常规 2" xfId="57"/>
+    <cellStyle name="常规 3" xfId="58"/>
+    <cellStyle name="文本" xfId="59"/>
+    <cellStyle name="超链接 2" xfId="60"/>
+    <cellStyle name="无效" xfId="61"/>
+    <cellStyle name="中文标题" xfId="62"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2131,19 +2438,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2154,7 +2461,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2177,49 +2484,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="47.25" customHeight="1" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="57.75" customHeight="1" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="54" customHeight="1" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2228,7 +2535,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="55.5" customHeight="1" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2237,25 +2544,26 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:1">
+      <c r="A9" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
@@ -2274,166 +2582,166 @@
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:17">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
       <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:17">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2444,18 +2752,18 @@
         <v>1002</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J4" s="10">
         <v>0</v>
@@ -2470,7 +2778,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:17">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -2481,18 +2789,18 @@
         <v>1003</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" s="10">
         <v>0</v>
@@ -2507,7 +2815,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:17">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -2518,13 +2826,13 @@
         <v>1004</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="10">
         <v>1000</v>
@@ -2533,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" s="10">
         <v>1</v>
@@ -2548,7 +2856,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:17">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -2559,18 +2867,18 @@
         <v>1005</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" s="10">
         <v>0</v>
@@ -2585,7 +2893,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2596,13 +2904,13 @@
         <v>1006</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8" s="10">
         <v>1000</v>
@@ -2611,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="10">
         <v>0</v>
@@ -2626,7 +2934,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:17">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -2637,18 +2945,18 @@
         <v>1007</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="10">
         <v>0</v>
@@ -2663,7 +2971,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:17">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -2674,18 +2982,18 @@
         <v>1008</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="10">
         <v>0</v>
@@ -2700,7 +3008,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -2711,18 +3019,18 @@
         <v>1009</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J11" s="10">
         <v>0</v>
@@ -2737,7 +3045,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:17">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -2748,13 +3056,13 @@
         <v>1010</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -2763,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="10">
         <v>0</v>
@@ -2778,7 +3086,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:17">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -2789,18 +3097,18 @@
         <v>1011</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="10">
         <v>0</v>
@@ -2809,7 +3117,7 @@
         <v>5000</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="10">
         <v>0</v>
@@ -2821,7 +3129,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:17">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -2832,13 +3140,13 @@
         <v>1012</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="10">
         <v>1000</v>
@@ -2847,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="10">
         <v>0</v>
@@ -2862,7 +3170,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:17">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -2873,18 +3181,18 @@
         <v>1013</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" s="10">
         <v>0</v>
@@ -2899,7 +3207,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:17">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -2910,20 +3218,20 @@
         <v>1014</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="10">
         <v>5000</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16" s="10">
         <v>0</v>
@@ -2938,7 +3246,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:17">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -2949,18 +3257,18 @@
         <v>1015</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="10">
         <v>0</v>
@@ -2975,7 +3283,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:17">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -2986,18 +3294,18 @@
         <v>1016</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" s="10">
         <v>0</v>
@@ -3006,7 +3314,7 @@
         <v>1000</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M18" s="10">
         <v>0</v>
@@ -3018,7 +3326,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:17">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -3029,18 +3337,18 @@
         <v>1017</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19" s="10">
         <v>0</v>
@@ -3055,7 +3363,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -3066,18 +3374,18 @@
         <v>1018</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="10">
         <v>0</v>
@@ -3086,7 +3394,7 @@
         <v>1000</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -3098,7 +3406,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:17">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -3109,18 +3417,18 @@
         <v>1019</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="10">
         <v>0</v>
@@ -3135,7 +3443,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:17">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -3146,18 +3454,18 @@
         <v>1020</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="10">
         <v>0</v>
@@ -3166,7 +3474,7 @@
         <v>1000</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -3178,7 +3486,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -3189,18 +3497,18 @@
         <v>1021</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J23" s="10">
         <v>0</v>
@@ -3215,7 +3523,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:17">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3226,18 +3534,18 @@
         <v>1022</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J24" s="10">
         <v>0</v>
@@ -3246,7 +3554,7 @@
         <v>1000</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -3258,7 +3566,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:17">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -3269,18 +3577,18 @@
         <v>1023</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J25" s="10">
         <v>0</v>
@@ -3295,7 +3603,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:17">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -3306,18 +3614,18 @@
         <v>1024</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J26" s="10">
         <v>0</v>
@@ -3326,7 +3634,7 @@
         <v>1000</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M26" s="10">
         <v>0</v>
@@ -3338,7 +3646,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:17">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -3349,18 +3657,18 @@
         <v>1025</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J27" s="10">
         <v>0</v>
@@ -3375,7 +3683,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:17">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -3386,18 +3694,18 @@
         <v>1026</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28" s="10">
         <v>0</v>
@@ -3406,7 +3714,7 @@
         <v>1000</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M28" s="10">
         <v>0</v>
@@ -3418,7 +3726,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:17">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -3429,18 +3737,18 @@
         <v>1027</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29" s="10">
         <v>0</v>
@@ -3455,7 +3763,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:17">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -3466,18 +3774,18 @@
         <v>1028</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J30" s="10">
         <v>0</v>
@@ -3492,7 +3800,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:17">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -3503,18 +3811,18 @@
         <v>1029</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J31" s="10">
         <v>1</v>
@@ -3529,7 +3837,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:17">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -3540,18 +3848,18 @@
         <v>1030</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J32" s="10">
         <v>0</v>
@@ -3566,7 +3874,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:17">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -3577,13 +3885,13 @@
         <v>1031</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G33" s="10">
         <v>1001</v>
@@ -3592,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J33" s="10">
         <v>0</v>
@@ -3607,7 +3915,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:17">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -3618,18 +3926,18 @@
         <v>1032</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J34" s="10">
         <v>0</v>
@@ -3638,7 +3946,7 @@
         <v>1000</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M34" s="10">
         <v>0</v>
@@ -3650,7 +3958,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:17">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -3661,13 +3969,13 @@
         <v>1033</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -3676,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J35" s="10">
         <v>0</v>
@@ -3691,7 +3999,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:17">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -3702,18 +4010,18 @@
         <v>1034</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J36" s="10">
         <v>0</v>
@@ -3728,7 +4036,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:17">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -3739,18 +4047,18 @@
         <v>1035</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J37" s="10">
         <v>0</v>
@@ -3765,7 +4073,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:17">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -3776,18 +4084,18 @@
         <v>1036</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
@@ -3802,7 +4110,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:17">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -3813,18 +4121,18 @@
         <v>1037</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
@@ -3839,7 +4147,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:17">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -3850,20 +4158,20 @@
         <v>1038</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G40" s="10">
         <v>5000</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J40" s="10">
         <v>0</v>
@@ -3878,7 +4186,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:17">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -3889,18 +4197,18 @@
         <v>1039</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
@@ -3915,7 +4223,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="16.5" spans="1:17">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -3926,18 +4234,18 @@
         <v>1040</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -3952,7 +4260,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:17">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -3963,13 +4271,13 @@
         <v>1041</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G43" s="10">
         <v>2000</v>
@@ -3978,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J43" s="10">
         <v>0</v>
@@ -3993,7 +4301,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:17">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -4004,18 +4312,18 @@
         <v>1042</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J44" s="10">
         <v>0</v>
@@ -4030,7 +4338,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:17">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -4041,13 +4349,13 @@
         <v>1043</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G45" s="10">
         <v>2000</v>
@@ -4056,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J45" s="10">
         <v>0</v>
@@ -4071,7 +4379,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
     </row>
-    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:17">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -4082,18 +4390,18 @@
         <v>1044</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J46" s="10">
         <v>0</v>
@@ -4108,7 +4416,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
     </row>
-    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="16.5" spans="1:17">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -4119,18 +4427,18 @@
         <v>1045</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J47" s="10">
         <v>0</v>
@@ -4145,7 +4453,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="16.5" spans="1:17">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -4156,18 +4464,18 @@
         <v>1046</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J48" s="10">
         <v>0</v>
@@ -4182,7 +4490,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
     </row>
-    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" ht="16.5" spans="1:17">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -4193,13 +4501,13 @@
         <v>1047</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G49" s="10">
         <v>2000</v>
@@ -4208,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J49" s="10">
         <v>0</v>
@@ -4223,7 +4531,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" ht="16.5" spans="1:17">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -4234,18 +4542,18 @@
         <v>1048</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J50" s="10">
         <v>0</v>
@@ -4260,7 +4568,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
     </row>
-    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" ht="16.5" spans="1:17">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -4271,18 +4579,18 @@
         <v>1049</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J51" s="10">
         <v>0</v>
@@ -4297,7 +4605,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
     </row>
-    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" ht="16.5" spans="1:17">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -4308,13 +4616,13 @@
         <v>1050</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G52" s="10">
         <v>6000</v>
@@ -4323,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J52" s="10">
         <v>0</v>
@@ -4332,7 +4640,7 @@
         <v>1000</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M52" s="10">
         <v>0</v>
@@ -4344,7 +4652,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
     </row>
-    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" ht="16.5" spans="1:17">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -4355,13 +4663,13 @@
         <v>1051</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G53" s="10">
         <v>1000</v>
@@ -4370,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J53" s="10">
         <v>0</v>
@@ -4385,7 +4693,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
     </row>
-    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" ht="16.5" spans="1:17">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -4396,18 +4704,18 @@
         <v>1052</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J54" s="10">
         <v>0</v>
@@ -4422,7 +4730,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
     </row>
-    <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" ht="16.5" spans="1:17">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -4433,13 +4741,13 @@
         <v>1053</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G55" s="10">
         <v>6000</v>
@@ -4448,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J55" s="10">
         <v>0</v>
@@ -4463,7 +4771,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
     </row>
-    <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" ht="16.5" spans="1:17">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -4474,18 +4782,18 @@
         <v>1054</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J56" s="10">
         <v>0</v>
@@ -4500,7 +4808,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
     </row>
-    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" ht="16.5" spans="1:17">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -4511,18 +4819,18 @@
         <v>1055</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J57" s="10">
         <v>0</v>
@@ -4537,7 +4845,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" ht="16.5" spans="1:17">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -4548,18 +4856,18 @@
         <v>1056</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J58" s="10">
         <v>0</v>
@@ -4574,7 +4882,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
     </row>
-    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" ht="16.5" spans="1:17">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -4585,20 +4893,20 @@
         <v>1057</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G59" s="10">
         <v>5000</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J59" s="10">
         <v>0</v>
@@ -4613,7 +4921,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" ht="16.5" spans="1:17">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -4624,18 +4932,18 @@
         <v>1058</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J60" s="10">
         <v>0</v>
@@ -4650,7 +4958,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
     </row>
-    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" ht="16.5" spans="1:17">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -4661,18 +4969,18 @@
         <v>1059</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J61" s="10">
         <v>0</v>
@@ -4687,7 +4995,7 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
     </row>
-    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" ht="16.5" spans="1:17">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -4698,13 +5006,13 @@
         <v>1060</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G62" s="10">
         <v>6000</v>
@@ -4713,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J62" s="10">
         <v>0</v>
@@ -4728,7 +5036,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" ht="16.5" spans="1:17">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -4739,18 +5047,18 @@
         <v>1061</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J63" s="10">
         <v>0</v>
@@ -4765,7 +5073,7 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
     </row>
-    <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" ht="16.5" spans="1:17">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -4776,18 +5084,18 @@
         <v>1062</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J64" s="10">
         <v>0</v>
@@ -4802,7 +5110,7 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
     </row>
-    <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" ht="16.5" spans="1:17">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -4813,13 +5121,13 @@
         <v>1063</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G65" s="10">
         <v>2000</v>
@@ -4828,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J65" s="10">
         <v>0</v>
@@ -4843,7 +5151,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" ht="16.5" spans="1:17">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -4854,18 +5162,18 @@
         <v>1064</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J66" s="10">
         <v>0</v>
@@ -4880,7 +5188,7 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
     </row>
-    <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" ht="16.5" spans="1:17">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -4891,20 +5199,20 @@
         <v>1065</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G67" s="10">
         <v>5000</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J67" s="10">
         <v>0</v>
@@ -4919,7 +5227,7 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
     </row>
-    <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" ht="16.5" spans="1:17">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -4930,18 +5238,18 @@
         <v>1066</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J68" s="10">
         <v>0</v>
@@ -4956,7 +5264,7 @@
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
     </row>
-    <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" ht="16.5" spans="1:17">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -4967,13 +5275,13 @@
         <v>1067</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G69" s="10">
         <v>1000</v>
@@ -4982,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J69" s="10">
         <v>0</v>
@@ -4997,7 +5305,7 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
     </row>
-    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" ht="16.5" spans="1:17">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -5008,18 +5316,18 @@
         <v>1068</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J70" s="10">
         <v>0</v>
@@ -5034,7 +5342,7 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
     </row>
-    <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" ht="16.5" spans="1:17">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -5045,13 +5353,13 @@
         <v>1069</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G71" s="10">
         <v>1000</v>
@@ -5060,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J71" s="10">
         <v>0</v>
@@ -5075,7 +5383,7 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
     </row>
-    <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" ht="16.5" spans="1:17">
       <c r="A72" s="10">
         <v>69</v>
       </c>
@@ -5086,20 +5394,20 @@
         <v>1070</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G72" s="10">
         <v>5000</v>
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J72" s="10">
         <v>0</v>
@@ -5114,7 +5422,7 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" ht="16.5" spans="1:17">
       <c r="A73" s="10">
         <v>70</v>
       </c>
@@ -5125,18 +5433,18 @@
         <v>1071</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J73" s="10">
         <v>0</v>
@@ -5151,7 +5459,7 @@
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" ht="16.5" spans="1:17">
       <c r="A74" s="10">
         <v>71</v>
       </c>
@@ -5159,23 +5467,23 @@
         <v>1071</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G74" s="10">
         <v>5000</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J74" s="10">
         <v>0</v>
@@ -5191,21 +5499,22 @@
       <c r="Q74" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA14BC4-7BFE-4ECA-964B-51DFC6516EC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
@@ -5224,166 +5533,166 @@
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:17">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
       <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:17">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -5394,18 +5703,18 @@
         <v>1002</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>301</v>
+        <v>53</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J4" s="10">
         <v>0</v>
@@ -5420,7 +5729,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:17">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -5431,18 +5740,18 @@
         <v>1003</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" s="10">
         <v>1</v>
@@ -5457,7 +5766,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:17">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -5468,13 +5777,13 @@
         <v>1004</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="10">
         <v>1000</v>
@@ -5483,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" s="10">
         <v>0</v>
@@ -5498,7 +5807,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:17">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -5509,18 +5818,18 @@
         <v>1005</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>389</v>
+        <v>65</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" s="10">
         <v>0</v>
@@ -5535,7 +5844,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -5546,18 +5855,18 @@
         <v>1006</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>390</v>
+        <v>71</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="10">
         <v>0</v>
@@ -5572,7 +5881,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:17">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -5583,18 +5892,18 @@
         <v>1007</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>391</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="10">
         <v>0</v>
@@ -5609,7 +5918,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:17">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -5620,18 +5929,18 @@
         <v>1008</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="10">
         <v>0</v>
@@ -5646,7 +5955,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -5657,18 +5966,18 @@
         <v>1009</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J11" s="10">
         <v>1</v>
@@ -5683,7 +5992,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:17">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -5694,13 +6003,13 @@
         <v>1010</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>478</v>
+        <v>283</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>479</v>
+        <v>284</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -5709,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="10">
         <v>0</v>
@@ -5724,7 +6033,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:17">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -5735,18 +6044,18 @@
         <v>1011</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="10">
         <v>0</v>
@@ -5761,7 +6070,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:17">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -5772,18 +6081,18 @@
         <v>1012</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>395</v>
+        <v>90</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="10">
         <v>0</v>
@@ -5792,7 +6101,7 @@
         <v>1000</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>457</v>
+        <v>84</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
@@ -5804,7 +6113,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:17">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -5815,13 +6124,13 @@
         <v>1013</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>396</v>
       </c>
       <c r="G15" s="10">
         <v>1000</v>
@@ -5830,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" s="10">
         <v>0</v>
@@ -5845,7 +6154,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:17">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -5856,18 +6165,18 @@
         <v>1014</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>397</v>
+        <v>96</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16" s="10">
         <v>0</v>
@@ -5882,7 +6191,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:17">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -5893,18 +6202,18 @@
         <v>1015</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="10">
         <v>0</v>
@@ -5919,7 +6228,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:17">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -5930,18 +6239,18 @@
         <v>1016</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" s="10">
         <v>0</v>
@@ -5956,7 +6265,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:17">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -5967,13 +6276,13 @@
         <v>1017</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>400</v>
+        <v>93</v>
       </c>
       <c r="G19" s="10">
         <v>5000</v>
@@ -5982,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19" s="10">
         <v>0</v>
@@ -5997,7 +6306,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -6008,18 +6317,18 @@
         <v>1018</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>401</v>
+        <v>106</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="10">
         <v>0</v>
@@ -6028,7 +6337,7 @@
         <v>2000</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>458</v>
+        <v>293</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -6040,7 +6349,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:17">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -6051,18 +6360,18 @@
         <v>1019</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="10">
         <v>0</v>
@@ -6077,7 +6386,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:17">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -6088,18 +6397,18 @@
         <v>1020</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>402</v>
+        <v>113</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="10">
         <v>0</v>
@@ -6108,7 +6417,7 @@
         <v>2000</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>459</v>
+        <v>107</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -6120,7 +6429,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -6131,18 +6440,18 @@
         <v>1021</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>403</v>
+        <v>110</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J23" s="10">
         <v>0</v>
@@ -6157,7 +6466,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:17">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -6168,18 +6477,18 @@
         <v>1022</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>404</v>
+        <v>120</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J24" s="10">
         <v>0</v>
@@ -6188,7 +6497,7 @@
         <v>2000</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>460</v>
+        <v>114</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -6200,7 +6509,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:17">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -6211,18 +6520,18 @@
         <v>1023</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>405</v>
+        <v>117</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J25" s="10">
         <v>0</v>
@@ -6237,7 +6546,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:17">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -6248,18 +6557,18 @@
         <v>1024</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>406</v>
+        <v>127</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J26" s="10">
         <v>0</v>
@@ -6268,7 +6577,7 @@
         <v>2000</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>461</v>
+        <v>121</v>
       </c>
       <c r="M26" s="10">
         <v>0</v>
@@ -6280,7 +6589,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="18.75" customHeight="1" spans="1:17">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -6291,18 +6600,18 @@
         <v>1025</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>407</v>
+        <v>124</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J27" s="10">
         <v>0</v>
@@ -6317,7 +6626,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:17">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -6328,18 +6637,18 @@
         <v>1026</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>408</v>
+        <v>134</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28" s="10">
         <v>0</v>
@@ -6348,7 +6657,7 @@
         <v>2000</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
       <c r="M28" s="10">
         <v>0</v>
@@ -6360,7 +6669,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:17">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -6371,18 +6680,18 @@
         <v>1027</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>409</v>
+        <v>131</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29" s="10">
         <v>0</v>
@@ -6397,7 +6706,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:17">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -6408,18 +6717,18 @@
         <v>1028</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>410</v>
+        <v>141</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -6434,7 +6743,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:17">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -6445,18 +6754,22 @@
         <v>1029</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+        <v>144</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
       <c r="I31" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J31" s="10">
         <v>0</v>
@@ -6471,7 +6784,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:17">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -6482,18 +6795,18 @@
         <v>1030</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>412</v>
+        <v>147</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J32" s="10">
         <v>0</v>
@@ -6508,7 +6821,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:17">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -6519,13 +6832,13 @@
         <v>1031</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="G33" s="10">
         <v>1001</v>
@@ -6534,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J33" s="10">
         <v>0</v>
@@ -6549,7 +6862,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:17">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -6560,18 +6873,18 @@
         <v>1032</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>414</v>
+        <v>153</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J34" s="10">
         <v>0</v>
@@ -6586,7 +6899,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:17">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -6597,13 +6910,13 @@
         <v>1033</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -6612,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J35" s="10">
         <v>0</v>
@@ -6627,7 +6940,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:17">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -6638,18 +6951,18 @@
         <v>1034</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>416</v>
+        <v>159</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J36" s="10">
         <v>0</v>
@@ -6664,7 +6977,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:17">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -6675,18 +6988,18 @@
         <v>1035</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>417</v>
+        <v>162</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J37" s="10">
         <v>0</v>
@@ -6701,7 +7014,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="18.75" customHeight="1" spans="1:17">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -6712,18 +7025,18 @@
         <v>1036</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>418</v>
+        <v>165</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
@@ -6738,7 +7051,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:17">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -6749,18 +7062,18 @@
         <v>1037</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>419</v>
+        <v>168</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
@@ -6775,7 +7088,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:17">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -6786,13 +7099,13 @@
         <v>1038</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>468</v>
+        <v>171</v>
       </c>
       <c r="G40" s="10">
         <v>5000</v>
@@ -6801,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J40" s="10">
         <v>0</v>
@@ -6816,7 +7129,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="17.25" customHeight="1" spans="1:17">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -6827,18 +7140,18 @@
         <v>1039</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>420</v>
+        <v>174</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
@@ -6853,7 +7166,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="18.75" customHeight="1" spans="1:17">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -6864,18 +7177,18 @@
         <v>1040</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>421</v>
+        <v>177</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -6890,7 +7203,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:17">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -6898,21 +7211,25 @@
         <v>1040</v>
       </c>
       <c r="C43" s="10">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+        <v>180</v>
+      </c>
+      <c r="G43" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
       <c r="I43" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J43" s="10">
         <v>0</v>
@@ -6927,7 +7244,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:17">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -6935,25 +7252,21 @@
         <v>1041</v>
       </c>
       <c r="C44" s="10">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G44" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J44" s="10">
         <v>0</v>
@@ -6968,7 +7281,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:17">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -6979,18 +7292,18 @@
         <v>1043</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>423</v>
+        <v>189</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J45" s="10">
         <v>0</v>
@@ -7005,7 +7318,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
     </row>
-    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:17">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -7016,18 +7329,18 @@
         <v>1044</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>424</v>
+        <v>195</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J46" s="10">
         <v>0</v>
@@ -7042,7 +7355,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
     </row>
-    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="16.5" spans="1:17">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -7053,13 +7366,13 @@
         <v>1045</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G47" s="10">
         <v>2000</v>
@@ -7068,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J47" s="10">
         <v>0</v>
@@ -7083,7 +7396,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="16.5" spans="1:17">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -7094,18 +7407,22 @@
         <v>1046</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+        <v>201</v>
+      </c>
+      <c r="G48" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1</v>
+      </c>
       <c r="I48" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J48" s="10">
         <v>0</v>
@@ -7120,7 +7437,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
     </row>
-    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" ht="16.5" spans="1:17">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -7131,18 +7448,18 @@
         <v>1047</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>426</v>
+        <v>204</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J49" s="10">
         <v>0</v>
@@ -7157,7 +7474,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" ht="16.5" spans="1:17">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -7168,13 +7485,13 @@
         <v>1048</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G50" s="10">
         <v>2000</v>
@@ -7183,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J50" s="10">
         <v>0</v>
@@ -7198,7 +7515,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
     </row>
-    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" ht="16.5" spans="1:17">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -7209,18 +7526,18 @@
         <v>1049</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>427</v>
+        <v>213</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J51" s="10">
         <v>0</v>
@@ -7235,7 +7552,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
     </row>
-    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" ht="16.5" spans="1:17">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -7246,13 +7563,13 @@
         <v>1050</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="G52" s="10">
         <v>1001</v>
@@ -7261,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J52" s="10">
         <v>0</v>
@@ -7276,7 +7593,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
     </row>
-    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" ht="16.5" spans="1:17">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -7287,18 +7604,18 @@
         <v>1051</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J53" s="10">
         <v>0</v>
@@ -7313,7 +7630,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
     </row>
-    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" ht="16.5" spans="1:17">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -7324,18 +7641,18 @@
         <v>1052</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J54" s="10">
         <v>0</v>
@@ -7350,7 +7667,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
     </row>
-    <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" ht="16.5" spans="1:17">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -7361,18 +7678,18 @@
         <v>1053</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J55" s="10">
         <v>0</v>
@@ -7387,7 +7704,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
     </row>
-    <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" ht="16.5" spans="1:17">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -7398,18 +7715,22 @@
         <v>1054</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+        <v>333</v>
+      </c>
+      <c r="G56" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H56" s="10">
+        <v>1</v>
+      </c>
       <c r="I56" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J56" s="10">
         <v>0</v>
@@ -7424,7 +7745,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
     </row>
-    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" ht="16.5" spans="1:17">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -7435,18 +7756,18 @@
         <v>1055</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>430</v>
+        <v>231</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J57" s="10">
         <v>0</v>
@@ -7461,7 +7782,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" ht="16.5" spans="1:17">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -7472,13 +7793,13 @@
         <v>1056</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G58" s="10">
         <v>6000</v>
@@ -7487,7 +7808,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J58" s="10">
         <v>0</v>
@@ -7502,7 +7823,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
     </row>
-    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" ht="16.5" spans="1:17">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -7513,18 +7834,18 @@
         <v>1057</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>431</v>
+        <v>234</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J59" s="10">
         <v>0</v>
@@ -7539,7 +7860,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" ht="16.5" spans="1:17">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -7550,13 +7871,13 @@
         <v>1058</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>432</v>
       </c>
       <c r="G60" s="10">
         <v>5000</v>
@@ -7565,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J60" s="10">
         <v>0</v>
@@ -7580,7 +7901,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
     </row>
-    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" ht="16.5" spans="1:17">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -7591,18 +7912,18 @@
         <v>1059</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J61" s="10">
         <v>0</v>
@@ -7617,7 +7938,7 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
     </row>
-    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" ht="16.5" spans="1:17">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -7628,13 +7949,13 @@
         <v>1060</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="G62" s="10">
         <v>2000</v>
@@ -7643,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J62" s="10">
         <v>0</v>
@@ -7658,7 +7979,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" ht="16.5" spans="1:17">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -7669,18 +7990,18 @@
         <v>1061</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>435</v>
+        <v>343</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J63" s="10">
         <v>0</v>
@@ -7695,7 +8016,7 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
     </row>
-    <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" ht="16.5" spans="1:17">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -7706,18 +8027,18 @@
         <v>1062</v>
       </c>
       <c r="D64" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>436</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J64" s="10">
         <v>0</v>
@@ -7732,7 +8053,7 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
     </row>
-    <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" ht="16.5" spans="1:17">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -7743,13 +8064,13 @@
         <v>1063</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="G65" s="10">
         <v>1000</v>
@@ -7758,7 +8079,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J65" s="10">
         <v>0</v>
@@ -7773,7 +8094,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" ht="16.5" spans="1:17">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -7784,18 +8105,18 @@
         <v>1064</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J66" s="10">
         <v>0</v>
@@ -7810,7 +8131,7 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
     </row>
-    <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" ht="16.5" spans="1:17">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -7821,13 +8142,13 @@
         <v>1065</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>463</v>
+        <v>348</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>448</v>
+        <v>210</v>
       </c>
       <c r="G67" s="10">
         <v>1000</v>
@@ -7836,7 +8157,7 @@
         <v>2</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J67" s="10">
         <v>0</v>
@@ -7851,7 +8172,7 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
     </row>
-    <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" ht="16.5" spans="1:17">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -7862,18 +8183,18 @@
         <v>1066</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>439</v>
+        <v>350</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J68" s="10">
         <v>0</v>
@@ -7888,7 +8209,7 @@
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
     </row>
-    <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" ht="16.5" spans="1:17">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -7899,18 +8220,18 @@
         <v>1067</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J69" s="10">
         <v>0</v>
@@ -7925,7 +8246,7 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
     </row>
-    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" ht="16.5" spans="1:17">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -7936,18 +8257,18 @@
         <v>1068</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J70" s="10">
         <v>0</v>
@@ -7962,7 +8283,7 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
     </row>
-    <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" ht="16.5" spans="1:17">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -7973,18 +8294,18 @@
         <v>1069</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J71" s="10">
         <v>0</v>
@@ -7999,7 +8320,7 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
     </row>
-    <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" ht="16.5" spans="1:17">
       <c r="A72" s="10">
         <v>69</v>
       </c>
@@ -8010,13 +8331,13 @@
         <v>1070</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>443</v>
+        <v>358</v>
       </c>
       <c r="G72" s="10">
         <v>2000</v>
@@ -8025,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J72" s="10">
         <v>0</v>
@@ -8040,7 +8361,7 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" ht="16.5" spans="1:17">
       <c r="A73" s="10">
         <v>70</v>
       </c>
@@ -8051,18 +8372,18 @@
         <v>1071</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J73" s="10">
         <v>0</v>
@@ -8077,7 +8398,7 @@
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" ht="16.5" spans="1:17">
       <c r="A74" s="10">
         <v>71</v>
       </c>
@@ -8088,18 +8409,18 @@
         <v>1072</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>445</v>
+        <v>243</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J74" s="10">
         <v>0</v>
@@ -8114,7 +8435,7 @@
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
     </row>
-    <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" ht="16.5" spans="1:17">
       <c r="A75" s="10">
         <v>72</v>
       </c>
@@ -8125,13 +8446,13 @@
         <v>1073</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>236</v>
+        <v>363</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="G75" s="10">
         <v>6000</v>
@@ -8140,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J75" s="10">
         <v>0</v>
@@ -8155,7 +8476,7 @@
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
     </row>
-    <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" ht="16.5" spans="1:17">
       <c r="A76" s="10">
         <v>73</v>
       </c>
@@ -8166,13 +8487,13 @@
         <v>1074</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>446</v>
+        <v>252</v>
       </c>
       <c r="G76" s="10">
         <v>5000</v>
@@ -8181,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J76" s="10">
         <v>0</v>
@@ -8196,7 +8517,7 @@
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
     </row>
-    <row r="77" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" ht="16.5" spans="1:17">
       <c r="A77" s="10">
         <v>74</v>
       </c>
@@ -8207,18 +8528,18 @@
         <v>1075</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>447</v>
+        <v>249</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J77" s="10">
         <v>0</v>
@@ -8227,7 +8548,7 @@
         <v>5000</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>457</v>
+        <v>84</v>
       </c>
       <c r="M77" s="10">
         <v>0</v>
@@ -8239,7 +8560,7 @@
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
     </row>
-    <row r="78" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" ht="16.5" spans="1:17">
       <c r="A78" s="10">
         <v>75</v>
       </c>
@@ -8250,13 +8571,13 @@
         <v>1076</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>464</v>
+        <v>369</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="G78" s="10">
         <v>1001</v>
@@ -8265,7 +8586,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J78" s="10">
         <v>0</v>
@@ -8280,7 +8601,7 @@
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
     </row>
-    <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" ht="16.5" spans="1:17">
       <c r="A79" s="10">
         <v>76</v>
       </c>
@@ -8291,18 +8612,18 @@
         <v>1077</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>449</v>
+        <v>373</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J79" s="10">
         <v>1</v>
@@ -8317,7 +8638,7 @@
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
     </row>
-    <row r="80" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" ht="16.5" spans="1:17">
       <c r="A80" s="10">
         <v>77</v>
       </c>
@@ -8328,18 +8649,18 @@
         <v>1078</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J80" s="10">
         <v>1</v>
@@ -8354,7 +8675,7 @@
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
     </row>
-    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" ht="16.5" spans="1:17">
       <c r="A81" s="10">
         <v>78</v>
       </c>
@@ -8365,13 +8686,13 @@
         <v>1079</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>473</v>
+        <v>377</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>451</v>
+        <v>267</v>
       </c>
       <c r="G81" s="10">
         <v>5000</v>
@@ -8380,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J81" s="10">
         <v>1</v>
@@ -8395,7 +8716,7 @@
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
     </row>
-    <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" ht="16.5" spans="1:17">
       <c r="A82" s="10">
         <v>79</v>
       </c>
@@ -8406,13 +8727,13 @@
         <v>1080</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>452</v>
+        <v>379</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="G82" s="10">
         <v>2000</v>
@@ -8421,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J82" s="10">
         <v>1</v>
@@ -8436,7 +8757,7 @@
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
     </row>
-    <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" ht="16.5" spans="1:17">
       <c r="A83" s="10">
         <v>80</v>
       </c>
@@ -8447,18 +8768,18 @@
         <v>1081</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>453</v>
+        <v>261</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J83" s="10">
         <v>1</v>
@@ -8473,7 +8794,7 @@
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
     </row>
-    <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" ht="16.5" spans="1:17">
       <c r="A84" s="10">
         <v>81</v>
       </c>
@@ -8484,13 +8805,13 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="G84" s="10">
         <v>1000</v>
@@ -8499,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J84" s="10">
         <v>1</v>
@@ -8514,7 +8835,7 @@
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
     </row>
-    <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" ht="16.5" spans="1:17">
       <c r="A85" s="10">
         <v>82</v>
       </c>
@@ -8525,18 +8846,18 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>454</v>
+        <v>270</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J85" s="10">
         <v>1</v>
@@ -8551,7 +8872,7 @@
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
     </row>
-    <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" ht="16.5" spans="1:17">
       <c r="A86" s="10">
         <v>83</v>
       </c>
@@ -8562,13 +8883,13 @@
         <v>1084</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>455</v>
+        <v>274</v>
       </c>
       <c r="G86" s="10">
         <v>5000</v>
@@ -8577,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J86" s="10">
         <v>1</v>
@@ -8592,7 +8913,7 @@
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
     </row>
-    <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" ht="16.5" spans="1:17">
       <c r="A87" s="10">
         <v>84</v>
       </c>
@@ -8600,16 +8921,16 @@
         <v>1084</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>469</v>
+        <v>390</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="G87" s="10">
         <v>5000</v>
@@ -8618,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J87" s="10">
         <v>1</v>
@@ -8633,7 +8954,7 @@
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
     </row>
-    <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" ht="16.5" spans="1:17">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -8652,7 +8973,7 @@
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
     </row>
-    <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" ht="16.5" spans="1:17">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -8671,7 +8992,7 @@
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
     </row>
-    <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" ht="16.5" spans="1:17">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -8690,7 +9011,7 @@
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
     </row>
-    <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" ht="16.5" spans="1:17">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -8709,7 +9030,7 @@
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
     </row>
-    <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" ht="16.5" spans="1:17">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -8728,7 +9049,7 @@
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
     </row>
-    <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" ht="16.5" spans="1:17">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -8747,7 +9068,7 @@
       <c r="P93" s="10"/>
       <c r="Q93" s="10"/>
     </row>
-    <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" ht="16.5" spans="1:17">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -8766,7 +9087,7 @@
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
     </row>
-    <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" ht="16.5" spans="1:17">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -8785,7 +9106,7 @@
       <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
     </row>
-    <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" ht="16.5" spans="1:17">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -8804,7 +9125,7 @@
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
     </row>
-    <row r="97" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" ht="16.5" spans="1:17">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -8823,7 +9144,7 @@
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
     </row>
-    <row r="98" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" ht="16.5" spans="1:17">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -8842,7 +9163,7 @@
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
     </row>
-    <row r="99" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" ht="16.5" spans="1:17">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -8861,7 +9182,7 @@
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
     </row>
-    <row r="100" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" ht="16.5" spans="1:17">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -8880,7 +9201,7 @@
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
     </row>
-    <row r="101" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" ht="16.5" spans="1:17">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -8899,7 +9220,7 @@
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
     </row>
-    <row r="102" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" ht="16.5" spans="1:17">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -8918,7 +9239,7 @@
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
     </row>
-    <row r="103" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" ht="16.5" spans="1:17">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -8937,7 +9258,7 @@
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
     </row>
-    <row r="104" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" ht="16.5" spans="1:17">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -8956,7 +9277,7 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" ht="16.5" spans="1:17">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -8975,7 +9296,7 @@
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
     </row>
-    <row r="106" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" ht="16.5" spans="1:17">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -8994,7 +9315,7 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
     </row>
-    <row r="107" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" ht="16.5" spans="1:17">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -9013,7 +9334,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
     </row>
-    <row r="108" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" ht="16.5" spans="1:17">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -9032,7 +9353,7 @@
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
     </row>
-    <row r="109" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" ht="16.5" spans="1:17">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -9051,7 +9372,7 @@
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
     </row>
-    <row r="110" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" ht="16.5" spans="1:17">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -9070,7 +9391,7 @@
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
     </row>
-    <row r="111" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" ht="16.5" spans="1:17">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -9089,7 +9410,7 @@
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
     </row>
-    <row r="112" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" ht="16.5" spans="1:17">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -9108,7 +9429,7 @@
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
     </row>
-    <row r="113" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" ht="16.5" spans="1:17">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -9127,7 +9448,7 @@
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
     </row>
-    <row r="114" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" ht="16.5" spans="1:17">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -9146,7 +9467,7 @@
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
     </row>
-    <row r="115" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" ht="16.5" spans="1:17">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -9166,21 +9487,22 @@
       <c r="Q115" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
@@ -9191,121 +9513,121 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>283</v>
+        <v>402</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>285</v>
+        <v>404</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>286</v>
+        <v>405</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>287</v>
+        <v>406</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:12">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9314,7 +9636,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -9331,7 +9653,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:12">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9340,7 +9662,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -9357,7 +9679,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:12">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9366,7 +9688,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>292</v>
+        <v>411</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -9383,7 +9705,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:12">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9392,7 +9714,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>293</v>
+        <v>412</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -9409,7 +9731,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:12">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -9418,7 +9740,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>294</v>
+        <v>413</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -9435,7 +9757,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:12">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -9444,7 +9766,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>295</v>
+        <v>414</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -9461,7 +9783,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:12">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -9470,7 +9792,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -9487,7 +9809,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:12">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -9496,7 +9818,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -9513,7 +9835,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:12">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -9522,7 +9844,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -9539,7 +9861,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:12">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -9548,7 +9870,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -9565,7 +9887,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:12">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -9574,7 +9896,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -9592,8 +9914,8 @@
       <c r="L14" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DBCABF-D8A4-473F-816E-56E4075C462F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17940" windowHeight="11355" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="新手任务" sheetId="26" r:id="rId2"/>
-    <sheet name="新新手任务" sheetId="28" r:id="rId3"/>
-    <sheet name="日常任务" sheetId="27" r:id="rId4"/>
+    <sheet name="新手任务" sheetId="28" r:id="rId2"/>
+    <sheet name="日常任务" sheetId="27" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="340">
   <si>
     <t>sheet名</t>
   </si>
@@ -40,9 +45,6 @@
     <t>是否导出</t>
   </si>
   <si>
-    <t>新新手任务</t>
-  </si>
-  <si>
     <t>newbieTask.json</t>
   </si>
   <si>
@@ -181,9 +183,6 @@
     <t>新手任务1</t>
   </si>
   <si>
-    <t>新手任务-1:通过第1关</t>
-  </si>
-  <si>
     <t>通过1关</t>
   </si>
   <si>
@@ -193,81 +192,51 @@
     <t>新手任务2</t>
   </si>
   <si>
-    <t>新手任务-2:通过第2关</t>
-  </si>
-  <si>
     <t>通过2关</t>
   </si>
   <si>
     <t>新手任务3</t>
   </si>
   <si>
-    <t>新手任务-3:主舰升级到5级</t>
-  </si>
-  <si>
     <t>主舰5级</t>
   </si>
   <si>
     <t>新手任务4</t>
   </si>
   <si>
-    <t>新手任务-4:通过第3关</t>
-  </si>
-  <si>
     <t>通过3关</t>
   </si>
   <si>
     <t>新手任务5</t>
   </si>
   <si>
-    <t>新手任务-5:主舰升级到7级</t>
-  </si>
-  <si>
     <t>主舰7级</t>
   </si>
   <si>
     <t>新手任务6</t>
   </si>
   <si>
-    <t>新手任务-6:通过第4关</t>
-  </si>
-  <si>
     <t>通过4关</t>
   </si>
   <si>
     <t>新手任务7</t>
   </si>
   <si>
-    <t>新手任务-7:通过第5关</t>
-  </si>
-  <si>
     <t>通过5关</t>
   </si>
   <si>
     <t>新手任务8</t>
   </si>
   <si>
-    <t>新手任务-8:通过第6关</t>
-  </si>
-  <si>
     <t>通过6关</t>
   </si>
   <si>
     <t>新手任务9</t>
   </si>
   <si>
-    <t>新手任务-9:主舰升级到10级</t>
-  </si>
-  <si>
-    <t>主舰10级</t>
-  </si>
-  <si>
     <t>新手任务10</t>
   </si>
   <si>
-    <t>新手任务-10:通过第7关</t>
-  </si>
-  <si>
     <t>通过7关</t>
   </si>
   <si>
@@ -277,66 +246,42 @@
     <t>新手任务11</t>
   </si>
   <si>
-    <t>新手任务-11:主舰进行第1次突破</t>
-  </si>
-  <si>
     <t>主舰1突</t>
   </si>
   <si>
     <t>新手任务12</t>
   </si>
   <si>
-    <t>新手任务-12:通过第8关</t>
-  </si>
-  <si>
     <t>通过8关</t>
   </si>
   <si>
     <t>新手任务13</t>
   </si>
   <si>
-    <t>新手任务-13:升级军阶至二等兵</t>
-  </si>
-  <si>
     <t>军阶1</t>
   </si>
   <si>
     <t>新手任务14</t>
   </si>
   <si>
-    <t>新手任务-14:通过第9关</t>
-  </si>
-  <si>
     <t>通过9关</t>
   </si>
   <si>
     <t>新手任务15</t>
   </si>
   <si>
-    <t>新手任务-15:通过第10关</t>
-  </si>
-  <si>
     <t>通过10关</t>
   </si>
   <si>
-    <t>武器S1</t>
-  </si>
-  <si>
     <t>新手任务16</t>
   </si>
   <si>
-    <t>新手任务-16:装备1个火力装置</t>
-  </si>
-  <si>
     <t>武器1阶</t>
   </si>
   <si>
     <t>新手任务17</t>
   </si>
   <si>
-    <t>新手任务-17:通过第11关</t>
-  </si>
-  <si>
     <t>通过11关</t>
   </si>
   <si>
@@ -346,18 +291,12 @@
     <t>新手任务18</t>
   </si>
   <si>
-    <t>新手任务-18:装备1个能量线圈</t>
-  </si>
-  <si>
     <t>肩甲1阶</t>
   </si>
   <si>
     <t>新手任务19</t>
   </si>
   <si>
-    <t>新手任务-19:通过12关</t>
-  </si>
-  <si>
     <t>通过12关</t>
   </si>
   <si>
@@ -367,18 +306,12 @@
     <t>新手任务20</t>
   </si>
   <si>
-    <t>新手任务-20:装备1个电压附甲</t>
-  </si>
-  <si>
     <t>衣服1阶</t>
   </si>
   <si>
     <t>新手任务21</t>
   </si>
   <si>
-    <t>新手任务-21:通过13关</t>
-  </si>
-  <si>
     <t>通过13关</t>
   </si>
   <si>
@@ -388,18 +321,12 @@
     <t>新手任务22</t>
   </si>
   <si>
-    <t>新手任务-22:装备1个磁力稳定装置</t>
-  </si>
-  <si>
     <t>裤子1阶</t>
   </si>
   <si>
     <t>新手任务23</t>
   </si>
   <si>
-    <t>新手任务-23:通过14关</t>
-  </si>
-  <si>
     <t>通过14关</t>
   </si>
   <si>
@@ -409,443 +336,264 @@
     <t>新手任务24</t>
   </si>
   <si>
-    <t>新手任务-24:装备1个护盾阵列</t>
-  </si>
-  <si>
     <t>鞋子1阶</t>
   </si>
   <si>
     <t>新手任务25</t>
   </si>
   <si>
-    <t>新手任务-25:通过15关</t>
-  </si>
-  <si>
     <t>通过15关</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头盔S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
     <t>新手任务26</t>
   </si>
   <si>
-    <t>新手任务-26:装备1个装甲附甲</t>
-  </si>
-  <si>
     <t>头盔1阶</t>
   </si>
   <si>
     <t>新手任务27</t>
   </si>
   <si>
-    <t>新手任务-27:通过16关</t>
-  </si>
-  <si>
     <t>通过16关</t>
   </si>
   <si>
     <t>新手任务28</t>
   </si>
   <si>
-    <t>新手任务-28:解锁导弹炮</t>
-  </si>
-  <si>
     <t>解锁僚炮1</t>
   </si>
   <si>
     <t>新手任务29</t>
   </si>
   <si>
-    <t>新手任务-29:通过17关</t>
-  </si>
-  <si>
     <t>通过17关</t>
   </si>
   <si>
     <t>新手任务30</t>
   </si>
   <si>
-    <t>新手任务-30:导弹炮升级到15级</t>
-  </si>
-  <si>
-    <t>导弹炮15级</t>
-  </si>
-  <si>
     <t>新手任务31</t>
   </si>
   <si>
-    <t>新手任务-31:通过18关</t>
-  </si>
-  <si>
     <t>通过18关</t>
   </si>
   <si>
     <t>新手任务32</t>
   </si>
   <si>
-    <t>新手任务-32:导弹炮进行第1次突破</t>
-  </si>
-  <si>
-    <t>导弹炮1突</t>
-  </si>
-  <si>
     <t>新手任务33</t>
   </si>
   <si>
-    <t>新手任务-33:通过19关</t>
-  </si>
-  <si>
     <t>通过19关</t>
   </si>
   <si>
     <t>新手任务34</t>
   </si>
   <si>
-    <t>新手任务-34:通过20关</t>
-  </si>
-  <si>
     <t>通过20关</t>
   </si>
   <si>
     <t>新手任务35</t>
   </si>
   <si>
-    <t>新手任务-35:装备一个电磁增强器</t>
-  </si>
-  <si>
     <t>项链1阶</t>
   </si>
   <si>
     <t>新手任务36</t>
   </si>
   <si>
-    <t>新手任务-36:通过21关</t>
-  </si>
-  <si>
     <t>通过21关</t>
   </si>
   <si>
     <t>新手任务37</t>
   </si>
   <si>
-    <t>新手任务-37:升级军阶至一等兵</t>
-  </si>
-  <si>
     <t>军阶2</t>
   </si>
   <si>
     <t>新手任务38</t>
   </si>
   <si>
-    <t>新手任务-38:装备一个索敌增强器</t>
-  </si>
-  <si>
     <t>戒指1阶</t>
   </si>
   <si>
     <t>新手任务39</t>
   </si>
   <si>
-    <t>新手任务-39:通过22关</t>
-  </si>
-  <si>
     <t>通过22关</t>
   </si>
   <si>
     <t>新手任务40</t>
   </si>
   <si>
-    <t>新手任务-40:火力装置强化到10级</t>
-  </si>
-  <si>
     <t>装备槽强10</t>
   </si>
   <si>
     <t>新手任务41</t>
   </si>
   <si>
-    <t>新手任务-41:通过23关</t>
-  </si>
-  <si>
     <t>通过23关</t>
   </si>
   <si>
     <t>新手任务42</t>
   </si>
   <si>
-    <t>新手任务-42:所有装备强化到10级</t>
-  </si>
-  <si>
     <t>装备全体强化+10</t>
   </si>
   <si>
     <t>新手任务43</t>
   </si>
   <si>
-    <t>新手任务-43:通过24关</t>
-  </si>
-  <si>
     <t>通过24关</t>
   </si>
   <si>
     <t>新手任务44</t>
   </si>
   <si>
-    <t>新手任务-44:战力达到60000</t>
-  </si>
-  <si>
-    <t>战力达到60000</t>
-  </si>
-  <si>
     <t>新手任务45</t>
   </si>
   <si>
-    <t>新手任务-45:通过25关</t>
-  </si>
-  <si>
     <t>通过25关</t>
   </si>
   <si>
     <t>新手任务46</t>
   </si>
   <si>
-    <t>新手任务-46:进行一次装备合成</t>
-  </si>
-  <si>
     <t>合成装备1</t>
   </si>
   <si>
     <t>新手任务47</t>
   </si>
   <si>
-    <t>新手任务-47:装备1件2阶火力装置</t>
-  </si>
-  <si>
     <t>武器2阶</t>
   </si>
   <si>
     <t>新手任务48</t>
   </si>
   <si>
-    <t>新手任务-48:通过26关</t>
-  </si>
-  <si>
     <t>通过26关</t>
   </si>
   <si>
     <t>新手任务49</t>
   </si>
   <si>
-    <t>新手任务-49:在商店购买一次商品</t>
-  </si>
-  <si>
-    <t>商店购买1</t>
-  </si>
-  <si>
     <t>新手任务50</t>
   </si>
   <si>
-    <t>新手任务-50:主舰进行第2次突破</t>
-  </si>
-  <si>
     <t>主舰2突</t>
   </si>
   <si>
     <t>新手任务51</t>
   </si>
   <si>
-    <t>新手任务-51:通过27关</t>
-  </si>
-  <si>
     <t>通过27关</t>
   </si>
   <si>
     <t>新手任务52</t>
   </si>
   <si>
-    <t>新手任务-52:进行一次装备抽取</t>
-  </si>
-  <si>
     <t>装备单抽1</t>
   </si>
   <si>
     <t>新手任务53</t>
   </si>
   <si>
-    <t>新手任务-53:通过28关</t>
-  </si>
-  <si>
     <t>通过28关</t>
   </si>
   <si>
     <t>新手任务54</t>
   </si>
   <si>
-    <t>新手任务-54:通过29关</t>
-  </si>
-  <si>
     <t>通过29关</t>
   </si>
   <si>
     <t>新手任务55</t>
   </si>
   <si>
-    <t>新手任务-55:通过30关</t>
-  </si>
-  <si>
     <t>通过30关</t>
   </si>
   <si>
     <t>新手任务56</t>
   </si>
   <si>
-    <t>新手任务-56:升级军阶至下士</t>
-  </si>
-  <si>
     <t>军阶3</t>
   </si>
   <si>
     <t>新手任务57</t>
   </si>
   <si>
-    <t>新手任务-57:通过31关</t>
-  </si>
-  <si>
     <t>通过31关</t>
   </si>
   <si>
     <t>新手任务58</t>
   </si>
   <si>
-    <t>新手任务-58:通过32关</t>
-  </si>
-  <si>
     <t>通过32关</t>
   </si>
   <si>
     <t>新手任务59</t>
   </si>
   <si>
-    <t>新手任务-59:进行一次符文抽奖</t>
-  </si>
-  <si>
     <t>符文单抽1</t>
   </si>
   <si>
     <t>新手任务60</t>
   </si>
   <si>
-    <t>新手任务-60:通过35关</t>
-  </si>
-  <si>
     <t>通过35关</t>
   </si>
   <si>
     <t>新手任务61</t>
   </si>
   <si>
-    <t>新手任务-61:通过40关</t>
-  </si>
-  <si>
     <t>通过40关</t>
   </si>
   <si>
     <t>新手任务62</t>
   </si>
   <si>
-    <t>新手任务-62:火力装置精炼到达1级</t>
-  </si>
-  <si>
-    <t>精炼大师beg</t>
-  </si>
-  <si>
     <t>新手任务63</t>
   </si>
   <si>
-    <t>新手任务-63:通过45关</t>
-  </si>
-  <si>
     <t>通过45关</t>
   </si>
   <si>
     <t>新手任务64</t>
   </si>
   <si>
-    <t>新手任务-64:升级军阶至中士</t>
-  </si>
-  <si>
     <t>军阶4</t>
   </si>
   <si>
     <t>新手任务65</t>
   </si>
   <si>
-    <t>新手任务-65:通过50关</t>
-  </si>
-  <si>
     <t>通过50关</t>
   </si>
   <si>
     <t>新手任务66</t>
   </si>
   <si>
-    <t>新手任务-66:主舰核能升级到1级</t>
-  </si>
-  <si>
     <t>主舰核能1</t>
   </si>
   <si>
     <t>新手任务67</t>
   </si>
   <si>
-    <t>新手任务-67:通过55关</t>
-  </si>
-  <si>
     <t>通过55关</t>
   </si>
   <si>
     <t>新手任务68</t>
   </si>
   <si>
-    <t>新手任务-68:主舰进行第3次突破</t>
-  </si>
-  <si>
-    <t>主舰3突</t>
-  </si>
-  <si>
     <t>新手任务69</t>
   </si>
   <si>
-    <t>新手任务-69:升级军阶至参谋军士</t>
-  </si>
-  <si>
     <t>军阶5</t>
   </si>
   <si>
     <t>新手任务70</t>
   </si>
   <si>
-    <t>新手任务-70:通过60关</t>
-  </si>
-  <si>
     <t>通过60关</t>
   </si>
   <si>
@@ -855,9 +603,6 @@
     <t>新手任务71</t>
   </si>
   <si>
-    <t>新手任务-71:升级军阶至上士</t>
-  </si>
-  <si>
     <t>军阶6</t>
   </si>
   <si>
@@ -1176,9 +921,6 @@
     <t>新手任务79：火控系统精炼至5级</t>
   </si>
   <si>
-    <t>装备精炼到5级</t>
-  </si>
-  <si>
     <t>新手任务80</t>
   </si>
   <si>
@@ -1294,19 +1036,21 @@
   </si>
   <si>
     <t>扫荡3次</t>
+  </si>
+  <si>
+    <t>新手任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼5级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1341,101 +1085,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1449,52 +1102,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1520,8 +1127,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1536,151 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,37 +1161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,18 +1173,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1782,104 +1215,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1891,296 +1226,108 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="58" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="62">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="14">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="56">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="15">
+    <cellStyle name="Grid" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Grid 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="Grid 2" xfId="12"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="18" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="19" builtinId="11"/>
-    <cellStyle name="标题" xfId="20" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
-    <cellStyle name="输出" xfId="28" builtinId="21"/>
-    <cellStyle name="计算" xfId="29" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="31" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="33" builtinId="24"/>
-    <cellStyle name="Grid" xfId="34"/>
-    <cellStyle name="汇总" xfId="35" builtinId="25"/>
-    <cellStyle name="好" xfId="36" builtinId="26"/>
-    <cellStyle name="适中" xfId="37" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="38" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="39" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="大标题" xfId="49"/>
-    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="51" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="54" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
-    <cellStyle name="Normal" xfId="56"/>
-    <cellStyle name="常规 2" xfId="57"/>
-    <cellStyle name="常规 3" xfId="58"/>
-    <cellStyle name="文本" xfId="59"/>
-    <cellStyle name="超链接 2" xfId="60"/>
-    <cellStyle name="无效" xfId="61"/>
-    <cellStyle name="中文标题" xfId="62"/>
+    <cellStyle name="常规 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="超链接 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="无效" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="中文标题" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="纵向标题" xfId="6" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2438,19 +1585,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2461,7 +1608,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2484,49 +1631,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2535,7 +1682,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2544,2977 +1691,25 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="16.125" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:17">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1002</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:17">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1003</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:17">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1004</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>5</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:17">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1005</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:17">
-      <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1006</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:17">
-      <c r="A9" s="10">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1006</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1007</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:17">
-      <c r="A10" s="10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1007</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1008</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:17">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1008</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1009</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:17">
-      <c r="A12" s="10">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1009</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1010</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:17">
-      <c r="A13" s="10">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1010</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1011</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10">
-        <v>5000</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>40</v>
-      </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:17">
-      <c r="A14" s="10">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1011</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1012</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:17">
-      <c r="A15" s="10">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1012</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1013</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0</v>
-      </c>
-      <c r="K15" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:17">
-      <c r="A16" s="10">
-        <v>13</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1013</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1014</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0</v>
-      </c>
-      <c r="K16" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:17">
-      <c r="A17" s="10">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1014</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1015</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:17">
-      <c r="A18" s="10">
-        <v>15</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1015</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1016</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>1</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:17">
-      <c r="A19" s="10">
-        <v>16</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1016</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1017</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:17">
-      <c r="A20" s="10">
-        <v>17</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1017</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1018</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0</v>
-      </c>
-      <c r="K20" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10">
-        <v>1</v>
-      </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:17">
-      <c r="A21" s="10">
-        <v>18</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1018</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1019</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="10">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:17">
-      <c r="A22" s="10">
-        <v>19</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1019</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1020</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10">
-        <v>1</v>
-      </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:17">
-      <c r="A23" s="10">
-        <v>20</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1020</v>
-      </c>
-      <c r="C23" s="10">
-        <v>1021</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="10">
-        <v>0</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:17">
-      <c r="A24" s="10">
-        <v>21</v>
-      </c>
-      <c r="B24" s="10">
-        <v>1021</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1022</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="10">
-        <v>1</v>
-      </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:17">
-      <c r="A25" s="10">
-        <v>22</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1022</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1023</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0</v>
-      </c>
-      <c r="K25" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:17">
-      <c r="A26" s="10">
-        <v>23</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1023</v>
-      </c>
-      <c r="C26" s="10">
-        <v>1024</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <v>1</v>
-      </c>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:17">
-      <c r="A27" s="10">
-        <v>24</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1024</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1025</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:17">
-      <c r="A28" s="10">
-        <v>25</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1025</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1026</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0</v>
-      </c>
-      <c r="K28" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="10">
-        <v>1</v>
-      </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:17">
-      <c r="A29" s="10">
-        <v>26</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1026</v>
-      </c>
-      <c r="C29" s="10">
-        <v>1027</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0</v>
-      </c>
-      <c r="K29" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:17">
-      <c r="A30" s="10">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1027</v>
-      </c>
-      <c r="C30" s="10">
-        <v>1028</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0</v>
-      </c>
-      <c r="K30" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:17">
-      <c r="A31" s="10">
-        <v>28</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1028</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1029</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="10">
-        <v>1</v>
-      </c>
-      <c r="K31" s="10">
-        <v>35</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:17">
-      <c r="A32" s="10">
-        <v>29</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1029</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1030</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:17">
-      <c r="A33" s="10">
-        <v>30</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1030</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1031</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1001</v>
-      </c>
-      <c r="H33" s="10">
-        <v>1</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0</v>
-      </c>
-      <c r="K33" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:17">
-      <c r="A34" s="10">
-        <v>31</v>
-      </c>
-      <c r="B34" s="10">
-        <v>1031</v>
-      </c>
-      <c r="C34" s="10">
-        <v>1032</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0</v>
-      </c>
-      <c r="N34" s="10">
-        <v>30</v>
-      </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:17">
-      <c r="A35" s="10">
-        <v>32</v>
-      </c>
-      <c r="B35" s="10">
-        <v>1032</v>
-      </c>
-      <c r="C35" s="10">
-        <v>1033</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1001</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:17">
-      <c r="A36" s="10">
-        <v>33</v>
-      </c>
-      <c r="B36" s="10">
-        <v>1033</v>
-      </c>
-      <c r="C36" s="10">
-        <v>1034</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:17">
-      <c r="A37" s="10">
-        <v>34</v>
-      </c>
-      <c r="B37" s="10">
-        <v>1034</v>
-      </c>
-      <c r="C37" s="10">
-        <v>1035</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:17">
-      <c r="A38" s="10">
-        <v>35</v>
-      </c>
-      <c r="B38" s="10">
-        <v>1035</v>
-      </c>
-      <c r="C38" s="10">
-        <v>1036</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0</v>
-      </c>
-      <c r="K38" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:17">
-      <c r="A39" s="10">
-        <v>36</v>
-      </c>
-      <c r="B39" s="10">
-        <v>1036</v>
-      </c>
-      <c r="C39" s="10">
-        <v>1037</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="10">
-        <v>0</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:17">
-      <c r="A40" s="10">
-        <v>37</v>
-      </c>
-      <c r="B40" s="10">
-        <v>1037</v>
-      </c>
-      <c r="C40" s="10">
-        <v>1038</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0</v>
-      </c>
-      <c r="K40" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:17">
-      <c r="A41" s="10">
-        <v>38</v>
-      </c>
-      <c r="B41" s="10">
-        <v>1038</v>
-      </c>
-      <c r="C41" s="10">
-        <v>1039</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="10">
-        <v>0</v>
-      </c>
-      <c r="K41" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:17">
-      <c r="A42" s="10">
-        <v>39</v>
-      </c>
-      <c r="B42" s="10">
-        <v>1039</v>
-      </c>
-      <c r="C42" s="10">
-        <v>1040</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" s="10">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:17">
-      <c r="A43" s="10">
-        <v>40</v>
-      </c>
-      <c r="B43" s="10">
-        <v>1040</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1041</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H43" s="10">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="10">
-        <v>0</v>
-      </c>
-      <c r="K43" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" ht="16.5" spans="1:17">
-      <c r="A44" s="10">
-        <v>41</v>
-      </c>
-      <c r="B44" s="10">
-        <v>1041</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1042</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0</v>
-      </c>
-      <c r="K44" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" ht="16.5" spans="1:17">
-      <c r="A45" s="10">
-        <v>42</v>
-      </c>
-      <c r="B45" s="10">
-        <v>1042</v>
-      </c>
-      <c r="C45" s="10">
-        <v>1043</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G45" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H45" s="10">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="10">
-        <v>0</v>
-      </c>
-      <c r="K45" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" ht="16.5" spans="1:17">
-      <c r="A46" s="10">
-        <v>43</v>
-      </c>
-      <c r="B46" s="10">
-        <v>1043</v>
-      </c>
-      <c r="C46" s="10">
-        <v>1044</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J46" s="10">
-        <v>0</v>
-      </c>
-      <c r="K46" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" ht="16.5" spans="1:17">
-      <c r="A47" s="10">
-        <v>44</v>
-      </c>
-      <c r="B47" s="10">
-        <v>1044</v>
-      </c>
-      <c r="C47" s="10">
-        <v>1045</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J47" s="10">
-        <v>0</v>
-      </c>
-      <c r="K47" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" ht="16.5" spans="1:17">
-      <c r="A48" s="10">
-        <v>45</v>
-      </c>
-      <c r="B48" s="10">
-        <v>1045</v>
-      </c>
-      <c r="C48" s="10">
-        <v>1046</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="10">
-        <v>0</v>
-      </c>
-      <c r="K48" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-    </row>
-    <row r="49" ht="16.5" spans="1:17">
-      <c r="A49" s="10">
-        <v>46</v>
-      </c>
-      <c r="B49" s="10">
-        <v>1046</v>
-      </c>
-      <c r="C49" s="10">
-        <v>1047</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H49" s="10">
-        <v>1</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J49" s="10">
-        <v>0</v>
-      </c>
-      <c r="K49" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" ht="16.5" spans="1:17">
-      <c r="A50" s="10">
-        <v>47</v>
-      </c>
-      <c r="B50" s="10">
-        <v>1047</v>
-      </c>
-      <c r="C50" s="10">
-        <v>1048</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0</v>
-      </c>
-      <c r="K50" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" ht="16.5" spans="1:17">
-      <c r="A51" s="10">
-        <v>48</v>
-      </c>
-      <c r="B51" s="10">
-        <v>1048</v>
-      </c>
-      <c r="C51" s="10">
-        <v>1049</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J51" s="10">
-        <v>0</v>
-      </c>
-      <c r="K51" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-    </row>
-    <row r="52" ht="16.5" spans="1:17">
-      <c r="A52" s="10">
-        <v>49</v>
-      </c>
-      <c r="B52" s="10">
-        <v>1049</v>
-      </c>
-      <c r="C52" s="10">
-        <v>1050</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G52" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H52" s="10">
-        <v>0</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J52" s="10">
-        <v>0</v>
-      </c>
-      <c r="K52" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M52" s="10">
-        <v>0</v>
-      </c>
-      <c r="N52" s="10">
-        <v>30</v>
-      </c>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" ht="16.5" spans="1:17">
-      <c r="A53" s="10">
-        <v>50</v>
-      </c>
-      <c r="B53" s="10">
-        <v>1050</v>
-      </c>
-      <c r="C53" s="10">
-        <v>1051</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G53" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H53" s="10">
-        <v>1</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J53" s="10">
-        <v>0</v>
-      </c>
-      <c r="K53" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" ht="16.5" spans="1:17">
-      <c r="A54" s="10">
-        <v>51</v>
-      </c>
-      <c r="B54" s="10">
-        <v>1051</v>
-      </c>
-      <c r="C54" s="10">
-        <v>1052</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="10">
-        <v>0</v>
-      </c>
-      <c r="K54" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-    </row>
-    <row r="55" ht="16.5" spans="1:17">
-      <c r="A55" s="10">
-        <v>52</v>
-      </c>
-      <c r="B55" s="10">
-        <v>1052</v>
-      </c>
-      <c r="C55" s="10">
-        <v>1053</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G55" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H55" s="10">
-        <v>2</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" s="10">
-        <v>0</v>
-      </c>
-      <c r="K55" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" ht="16.5" spans="1:17">
-      <c r="A56" s="10">
-        <v>53</v>
-      </c>
-      <c r="B56" s="10">
-        <v>1053</v>
-      </c>
-      <c r="C56" s="10">
-        <v>1054</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" s="10">
-        <v>0</v>
-      </c>
-      <c r="K56" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" ht="16.5" spans="1:17">
-      <c r="A57" s="10">
-        <v>54</v>
-      </c>
-      <c r="B57" s="10">
-        <v>1054</v>
-      </c>
-      <c r="C57" s="10">
-        <v>1055</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" s="10">
-        <v>0</v>
-      </c>
-      <c r="K57" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" ht="16.5" spans="1:17">
-      <c r="A58" s="10">
-        <v>55</v>
-      </c>
-      <c r="B58" s="10">
-        <v>1055</v>
-      </c>
-      <c r="C58" s="10">
-        <v>1056</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="10">
-        <v>0</v>
-      </c>
-      <c r="K58" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" ht="16.5" spans="1:17">
-      <c r="A59" s="10">
-        <v>56</v>
-      </c>
-      <c r="B59" s="10">
-        <v>1056</v>
-      </c>
-      <c r="C59" s="10">
-        <v>1057</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G59" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J59" s="10">
-        <v>0</v>
-      </c>
-      <c r="K59" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" ht="16.5" spans="1:17">
-      <c r="A60" s="10">
-        <v>57</v>
-      </c>
-      <c r="B60" s="10">
-        <v>1057</v>
-      </c>
-      <c r="C60" s="10">
-        <v>1058</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J60" s="10">
-        <v>0</v>
-      </c>
-      <c r="K60" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" ht="16.5" spans="1:17">
-      <c r="A61" s="10">
-        <v>58</v>
-      </c>
-      <c r="B61" s="10">
-        <v>1058</v>
-      </c>
-      <c r="C61" s="10">
-        <v>1059</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J61" s="10">
-        <v>0</v>
-      </c>
-      <c r="K61" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-    </row>
-    <row r="62" ht="16.5" spans="1:17">
-      <c r="A62" s="10">
-        <v>59</v>
-      </c>
-      <c r="B62" s="10">
-        <v>1059</v>
-      </c>
-      <c r="C62" s="10">
-        <v>1060</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G62" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H62" s="10">
-        <v>1</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J62" s="10">
-        <v>0</v>
-      </c>
-      <c r="K62" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-    </row>
-    <row r="63" ht="16.5" spans="1:17">
-      <c r="A63" s="10">
-        <v>60</v>
-      </c>
-      <c r="B63" s="10">
-        <v>1060</v>
-      </c>
-      <c r="C63" s="10">
-        <v>1061</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J63" s="10">
-        <v>0</v>
-      </c>
-      <c r="K63" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-    </row>
-    <row r="64" ht="16.5" spans="1:17">
-      <c r="A64" s="10">
-        <v>61</v>
-      </c>
-      <c r="B64" s="10">
-        <v>1061</v>
-      </c>
-      <c r="C64" s="10">
-        <v>1062</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J64" s="10">
-        <v>0</v>
-      </c>
-      <c r="K64" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-    </row>
-    <row r="65" ht="16.5" spans="1:17">
-      <c r="A65" s="10">
-        <v>62</v>
-      </c>
-      <c r="B65" s="10">
-        <v>1062</v>
-      </c>
-      <c r="C65" s="10">
-        <v>1063</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G65" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H65" s="10">
-        <v>2</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J65" s="10">
-        <v>0</v>
-      </c>
-      <c r="K65" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-    </row>
-    <row r="66" ht="16.5" spans="1:17">
-      <c r="A66" s="10">
-        <v>63</v>
-      </c>
-      <c r="B66" s="10">
-        <v>1063</v>
-      </c>
-      <c r="C66" s="10">
-        <v>1064</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J66" s="10">
-        <v>0</v>
-      </c>
-      <c r="K66" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-    </row>
-    <row r="67" ht="16.5" spans="1:17">
-      <c r="A67" s="10">
-        <v>64</v>
-      </c>
-      <c r="B67" s="10">
-        <v>1064</v>
-      </c>
-      <c r="C67" s="10">
-        <v>1065</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G67" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J67" s="10">
-        <v>0</v>
-      </c>
-      <c r="K67" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-    </row>
-    <row r="68" ht="16.5" spans="1:17">
-      <c r="A68" s="10">
-        <v>65</v>
-      </c>
-      <c r="B68" s="10">
-        <v>1065</v>
-      </c>
-      <c r="C68" s="10">
-        <v>1066</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J68" s="10">
-        <v>0</v>
-      </c>
-      <c r="K68" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-    </row>
-    <row r="69" ht="16.5" spans="1:17">
-      <c r="A69" s="10">
-        <v>66</v>
-      </c>
-      <c r="B69" s="10">
-        <v>1066</v>
-      </c>
-      <c r="C69" s="10">
-        <v>1067</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G69" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H69" s="10">
-        <v>3</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J69" s="10">
-        <v>0</v>
-      </c>
-      <c r="K69" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-    </row>
-    <row r="70" ht="16.5" spans="1:17">
-      <c r="A70" s="10">
-        <v>67</v>
-      </c>
-      <c r="B70" s="10">
-        <v>1067</v>
-      </c>
-      <c r="C70" s="10">
-        <v>1068</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J70" s="10">
-        <v>0</v>
-      </c>
-      <c r="K70" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-    </row>
-    <row r="71" ht="16.5" spans="1:17">
-      <c r="A71" s="10">
-        <v>68</v>
-      </c>
-      <c r="B71" s="10">
-        <v>1068</v>
-      </c>
-      <c r="C71" s="10">
-        <v>1069</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G71" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H71" s="10">
-        <v>1</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J71" s="10">
-        <v>0</v>
-      </c>
-      <c r="K71" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-    </row>
-    <row r="72" ht="16.5" spans="1:17">
-      <c r="A72" s="10">
-        <v>69</v>
-      </c>
-      <c r="B72" s="10">
-        <v>1069</v>
-      </c>
-      <c r="C72" s="10">
-        <v>1070</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G72" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J72" s="10">
-        <v>0</v>
-      </c>
-      <c r="K72" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-    </row>
-    <row r="73" ht="16.5" spans="1:17">
-      <c r="A73" s="10">
-        <v>70</v>
-      </c>
-      <c r="B73" s="10">
-        <v>1070</v>
-      </c>
-      <c r="C73" s="10">
-        <v>1071</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J73" s="10">
-        <v>0</v>
-      </c>
-      <c r="K73" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-    </row>
-    <row r="74" ht="16.5" spans="1:17">
-      <c r="A74" s="10">
-        <v>71</v>
-      </c>
-      <c r="B74" s="10">
-        <v>1071</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G74" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J74" s="10">
-        <v>0</v>
-      </c>
-      <c r="K74" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q115"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
@@ -5533,166 +1728,166 @@
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:17">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:17">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:17">
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -5703,18 +1898,18 @@
         <v>1002</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" s="10">
         <v>0</v>
@@ -5729,7 +1924,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" ht="16.5" spans="1:17">
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -5740,18 +1935,18 @@
         <v>1003</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5" s="10">
         <v>1</v>
@@ -5766,7 +1961,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" ht="16.5" spans="1:17">
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -5777,13 +1972,13 @@
         <v>1004</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6" s="10">
         <v>1000</v>
@@ -5792,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6" s="10">
         <v>0</v>
@@ -5807,7 +2002,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" ht="16.5" spans="1:17">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -5818,18 +2013,18 @@
         <v>1005</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7" s="10">
         <v>0</v>
@@ -5844,7 +2039,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" ht="16.5" spans="1:17">
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -5855,18 +2050,18 @@
         <v>1006</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J8" s="10">
         <v>0</v>
@@ -5881,7 +2076,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" ht="16.5" spans="1:17">
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -5892,18 +2087,18 @@
         <v>1007</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="10">
         <v>0</v>
@@ -5918,7 +2113,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" ht="16.5" spans="1:17">
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -5929,18 +2124,18 @@
         <v>1008</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J10" s="10">
         <v>0</v>
@@ -5955,7 +2150,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" ht="16.5" spans="1:17">
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -5966,18 +2161,18 @@
         <v>1009</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J11" s="10">
         <v>1</v>
@@ -5992,7 +2187,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" ht="16.5" spans="1:17">
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -6003,13 +2198,13 @@
         <v>1010</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -6018,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J12" s="10">
         <v>0</v>
@@ -6033,7 +2228,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" ht="16.5" spans="1:17">
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -6044,18 +2239,18 @@
         <v>1011</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13" s="10">
         <v>0</v>
@@ -6070,7 +2265,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" ht="16.5" spans="1:17">
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -6081,18 +2276,18 @@
         <v>1012</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J14" s="10">
         <v>0</v>
@@ -6101,7 +2296,7 @@
         <v>1000</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
@@ -6113,7 +2308,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" ht="16.5" spans="1:17">
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -6124,13 +2319,13 @@
         <v>1013</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G15" s="10">
         <v>1000</v>
@@ -6139,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J15" s="10">
         <v>0</v>
@@ -6154,7 +2349,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" ht="16.5" spans="1:17">
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -6165,18 +2360,18 @@
         <v>1014</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J16" s="10">
         <v>0</v>
@@ -6191,7 +2386,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" ht="16.5" spans="1:17">
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -6202,18 +2397,18 @@
         <v>1015</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J17" s="10">
         <v>0</v>
@@ -6228,7 +2423,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" ht="16.5" spans="1:17">
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -6239,18 +2434,18 @@
         <v>1016</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J18" s="10">
         <v>0</v>
@@ -6265,7 +2460,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" ht="16.5" spans="1:17">
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -6276,13 +2471,13 @@
         <v>1017</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G19" s="10">
         <v>5000</v>
@@ -6291,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J19" s="10">
         <v>0</v>
@@ -6306,7 +2501,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" ht="16.5" spans="1:17">
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -6317,18 +2512,18 @@
         <v>1018</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" s="10">
         <v>0</v>
@@ -6337,7 +2532,7 @@
         <v>2000</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -6349,7 +2544,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" ht="16.5" spans="1:17">
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -6360,18 +2555,18 @@
         <v>1019</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J21" s="10">
         <v>0</v>
@@ -6386,7 +2581,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" ht="16.5" spans="1:17">
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -6397,18 +2592,18 @@
         <v>1020</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J22" s="10">
         <v>0</v>
@@ -6417,7 +2612,7 @@
         <v>2000</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -6429,7 +2624,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" ht="16.5" spans="1:17">
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -6440,18 +2635,18 @@
         <v>1021</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J23" s="10">
         <v>0</v>
@@ -6466,7 +2661,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" ht="16.5" spans="1:17">
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -6477,18 +2672,18 @@
         <v>1022</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J24" s="10">
         <v>0</v>
@@ -6497,7 +2692,7 @@
         <v>2000</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -6509,7 +2704,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" ht="16.5" spans="1:17">
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -6520,18 +2715,18 @@
         <v>1023</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J25" s="10">
         <v>0</v>
@@ -6546,7 +2741,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" ht="16.5" spans="1:17">
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -6557,18 +2752,18 @@
         <v>1024</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J26" s="10">
         <v>0</v>
@@ -6577,7 +2772,7 @@
         <v>2000</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="M26" s="10">
         <v>0</v>
@@ -6589,7 +2784,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" ht="18.75" customHeight="1" spans="1:17">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -6600,18 +2795,18 @@
         <v>1025</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J27" s="10">
         <v>0</v>
@@ -6626,7 +2821,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" ht="16.5" spans="1:17">
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -6637,18 +2832,18 @@
         <v>1026</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J28" s="10">
         <v>0</v>
@@ -6657,7 +2852,7 @@
         <v>2000</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="M28" s="10">
         <v>0</v>
@@ -6669,7 +2864,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" ht="16.5" spans="1:17">
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -6680,18 +2875,18 @@
         <v>1027</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J29" s="10">
         <v>0</v>
@@ -6706,7 +2901,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" ht="16.5" spans="1:17">
+    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -6717,18 +2912,18 @@
         <v>1028</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -6743,7 +2938,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" ht="16.5" spans="1:17">
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -6754,13 +2949,13 @@
         <v>1029</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="G31" s="10">
         <v>1000</v>
@@ -6769,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J31" s="10">
         <v>0</v>
@@ -6784,7 +2979,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" ht="16.5" spans="1:17">
+    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -6795,18 +2990,18 @@
         <v>1030</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J32" s="10">
         <v>0</v>
@@ -6821,7 +3016,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" ht="16.5" spans="1:17">
+    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -6832,13 +3027,13 @@
         <v>1031</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="G33" s="10">
         <v>1001</v>
@@ -6847,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J33" s="10">
         <v>0</v>
@@ -6862,7 +3057,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" ht="16.5" spans="1:17">
+    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -6873,18 +3068,18 @@
         <v>1032</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J34" s="10">
         <v>0</v>
@@ -6899,7 +3094,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" ht="16.5" spans="1:17">
+    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -6910,13 +3105,13 @@
         <v>1033</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -6925,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J35" s="10">
         <v>0</v>
@@ -6940,7 +3135,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" ht="16.5" spans="1:17">
+    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -6951,18 +3146,18 @@
         <v>1034</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J36" s="10">
         <v>0</v>
@@ -6977,7 +3172,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" ht="16.5" spans="1:17">
+    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -6988,18 +3183,18 @@
         <v>1035</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J37" s="10">
         <v>0</v>
@@ -7014,7 +3209,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" ht="18.75" customHeight="1" spans="1:17">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -7025,18 +3220,18 @@
         <v>1036</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
@@ -7051,7 +3246,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" ht="16.5" spans="1:17">
+    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -7062,18 +3257,18 @@
         <v>1037</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
@@ -7088,7 +3283,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" ht="16.5" spans="1:17">
+    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -7099,13 +3294,13 @@
         <v>1038</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="G40" s="10">
         <v>5000</v>
@@ -7114,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40" s="10">
         <v>0</v>
@@ -7129,7 +3324,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" ht="17.25" customHeight="1" spans="1:17">
+    <row r="41" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -7140,18 +3335,18 @@
         <v>1039</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
@@ -7166,7 +3361,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" ht="18.75" customHeight="1" spans="1:17">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -7177,18 +3372,18 @@
         <v>1040</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -7203,7 +3398,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" ht="16.5" spans="1:17">
+    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -7214,13 +3409,13 @@
         <v>1042</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="G43" s="10">
         <v>2000</v>
@@ -7229,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J43" s="10">
         <v>0</v>
@@ -7244,7 +3439,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" ht="16.5" spans="1:17">
+    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -7255,18 +3450,18 @@
         <v>1041</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J44" s="10">
         <v>0</v>
@@ -7281,7 +3476,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" ht="16.5" spans="1:17">
+    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -7292,18 +3487,18 @@
         <v>1043</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J45" s="10">
         <v>0</v>
@@ -7318,7 +3513,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
     </row>
-    <row r="46" ht="16.5" spans="1:17">
+    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -7329,18 +3524,18 @@
         <v>1044</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J46" s="10">
         <v>0</v>
@@ -7355,7 +3550,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
     </row>
-    <row r="47" ht="16.5" spans="1:17">
+    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -7366,13 +3561,13 @@
         <v>1045</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="G47" s="10">
         <v>2000</v>
@@ -7381,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J47" s="10">
         <v>0</v>
@@ -7396,7 +3591,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" ht="16.5" spans="1:17">
+    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -7407,13 +3602,13 @@
         <v>1046</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="G48" s="10">
         <v>2000</v>
@@ -7422,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J48" s="10">
         <v>0</v>
@@ -7437,7 +3632,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
     </row>
-    <row r="49" ht="16.5" spans="1:17">
+    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -7448,18 +3643,18 @@
         <v>1047</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J49" s="10">
         <v>0</v>
@@ -7474,7 +3669,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" ht="16.5" spans="1:17">
+    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -7485,13 +3680,13 @@
         <v>1048</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="G50" s="10">
         <v>2000</v>
@@ -7500,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J50" s="10">
         <v>0</v>
@@ -7515,7 +3710,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
     </row>
-    <row r="51" ht="16.5" spans="1:17">
+    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -7526,18 +3721,18 @@
         <v>1049</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J51" s="10">
         <v>0</v>
@@ -7552,7 +3747,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
     </row>
-    <row r="52" ht="16.5" spans="1:17">
+    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -7563,13 +3758,13 @@
         <v>1050</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="G52" s="10">
         <v>1001</v>
@@ -7578,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J52" s="10">
         <v>0</v>
@@ -7593,7 +3788,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
     </row>
-    <row r="53" ht="16.5" spans="1:17">
+    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -7604,18 +3799,18 @@
         <v>1051</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J53" s="10">
         <v>0</v>
@@ -7630,7 +3825,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
     </row>
-    <row r="54" ht="16.5" spans="1:17">
+    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -7641,18 +3836,18 @@
         <v>1052</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J54" s="10">
         <v>0</v>
@@ -7667,7 +3862,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
     </row>
-    <row r="55" ht="16.5" spans="1:17">
+    <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -7678,18 +3873,18 @@
         <v>1053</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J55" s="10">
         <v>0</v>
@@ -7704,7 +3899,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
     </row>
-    <row r="56" ht="16.5" spans="1:17">
+    <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -7715,13 +3910,13 @@
         <v>1054</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="G56" s="10">
         <v>2000</v>
@@ -7730,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J56" s="10">
         <v>0</v>
@@ -7745,7 +3940,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
     </row>
-    <row r="57" ht="16.5" spans="1:17">
+    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -7756,18 +3951,18 @@
         <v>1055</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J57" s="10">
         <v>0</v>
@@ -7782,7 +3977,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" ht="16.5" spans="1:17">
+    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -7793,13 +3988,13 @@
         <v>1056</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G58" s="10">
         <v>6000</v>
@@ -7808,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J58" s="10">
         <v>0</v>
@@ -7823,7 +4018,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
     </row>
-    <row r="59" ht="16.5" spans="1:17">
+    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -7834,18 +4029,18 @@
         <v>1057</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J59" s="10">
         <v>0</v>
@@ -7860,7 +4055,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" ht="16.5" spans="1:17">
+    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -7871,13 +4066,13 @@
         <v>1058</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="G60" s="10">
         <v>5000</v>
@@ -7886,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J60" s="10">
         <v>0</v>
@@ -7901,7 +4096,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
     </row>
-    <row r="61" ht="16.5" spans="1:17">
+    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -7912,18 +4107,18 @@
         <v>1059</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J61" s="10">
         <v>0</v>
@@ -7938,7 +4133,7 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
     </row>
-    <row r="62" ht="16.5" spans="1:17">
+    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -7949,13 +4144,13 @@
         <v>1060</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="G62" s="10">
         <v>2000</v>
@@ -7964,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J62" s="10">
         <v>0</v>
@@ -7979,7 +4174,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" ht="16.5" spans="1:17">
+    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -7990,18 +4185,18 @@
         <v>1061</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J63" s="10">
         <v>0</v>
@@ -8016,7 +4211,7 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
     </row>
-    <row r="64" ht="16.5" spans="1:17">
+    <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -8027,18 +4222,18 @@
         <v>1062</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J64" s="10">
         <v>0</v>
@@ -8053,7 +4248,7 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
     </row>
-    <row r="65" ht="16.5" spans="1:17">
+    <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -8064,13 +4259,13 @@
         <v>1063</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="G65" s="10">
         <v>1000</v>
@@ -8079,7 +4274,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J65" s="10">
         <v>0</v>
@@ -8094,7 +4289,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" ht="16.5" spans="1:17">
+    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -8105,18 +4300,18 @@
         <v>1064</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J66" s="10">
         <v>0</v>
@@ -8131,7 +4326,7 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
     </row>
-    <row r="67" ht="16.5" spans="1:17">
+    <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -8142,13 +4337,13 @@
         <v>1065</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="G67" s="10">
         <v>1000</v>
@@ -8157,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J67" s="10">
         <v>0</v>
@@ -8172,7 +4367,7 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
     </row>
-    <row r="68" ht="16.5" spans="1:17">
+    <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -8183,18 +4378,18 @@
         <v>1066</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J68" s="10">
         <v>0</v>
@@ -8209,7 +4404,7 @@
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
     </row>
-    <row r="69" ht="16.5" spans="1:17">
+    <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -8220,18 +4415,18 @@
         <v>1067</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J69" s="10">
         <v>0</v>
@@ -8246,7 +4441,7 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
     </row>
-    <row r="70" ht="16.5" spans="1:17">
+    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -8257,18 +4452,18 @@
         <v>1068</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J70" s="10">
         <v>0</v>
@@ -8283,7 +4478,7 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
     </row>
-    <row r="71" ht="16.5" spans="1:17">
+    <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -8294,18 +4489,18 @@
         <v>1069</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J71" s="10">
         <v>0</v>
@@ -8320,7 +4515,7 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
     </row>
-    <row r="72" ht="16.5" spans="1:17">
+    <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>69</v>
       </c>
@@ -8331,13 +4526,13 @@
         <v>1070</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="G72" s="10">
         <v>2000</v>
@@ -8346,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J72" s="10">
         <v>0</v>
@@ -8361,7 +4556,7 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" ht="16.5" spans="1:17">
+    <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>70</v>
       </c>
@@ -8372,18 +4567,18 @@
         <v>1071</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J73" s="10">
         <v>0</v>
@@ -8398,7 +4593,7 @@
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" ht="16.5" spans="1:17">
+    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>71</v>
       </c>
@@ -8409,18 +4604,18 @@
         <v>1072</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J74" s="10">
         <v>0</v>
@@ -8435,7 +4630,7 @@
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
     </row>
-    <row r="75" ht="16.5" spans="1:17">
+    <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>72</v>
       </c>
@@ -8446,13 +4641,13 @@
         <v>1073</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G75" s="10">
         <v>6000</v>
@@ -8461,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J75" s="10">
         <v>0</v>
@@ -8476,7 +4671,7 @@
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
     </row>
-    <row r="76" ht="16.5" spans="1:17">
+    <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>73</v>
       </c>
@@ -8487,13 +4682,13 @@
         <v>1074</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>364</v>
+        <v>283</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="G76" s="10">
         <v>5000</v>
@@ -8502,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J76" s="10">
         <v>0</v>
@@ -8517,7 +4712,7 @@
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
     </row>
-    <row r="77" ht="16.5" spans="1:17">
+    <row r="77" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>74</v>
       </c>
@@ -8528,18 +4723,18 @@
         <v>1075</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>366</v>
+        <v>285</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J77" s="10">
         <v>0</v>
@@ -8548,7 +4743,7 @@
         <v>5000</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M77" s="10">
         <v>0</v>
@@ -8560,7 +4755,7 @@
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
     </row>
-    <row r="78" ht="16.5" spans="1:17">
+    <row r="78" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>75</v>
       </c>
@@ -8571,13 +4766,13 @@
         <v>1076</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>370</v>
+        <v>289</v>
       </c>
       <c r="G78" s="10">
         <v>1001</v>
@@ -8586,7 +4781,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J78" s="10">
         <v>0</v>
@@ -8601,7 +4796,7 @@
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
     </row>
-    <row r="79" ht="16.5" spans="1:17">
+    <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>76</v>
       </c>
@@ -8612,18 +4807,18 @@
         <v>1077</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J79" s="10">
         <v>1</v>
@@ -8638,7 +4833,7 @@
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
     </row>
-    <row r="80" ht="16.5" spans="1:17">
+    <row r="80" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>77</v>
       </c>
@@ -8649,18 +4844,18 @@
         <v>1078</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>374</v>
+        <v>293</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J80" s="10">
         <v>1</v>
@@ -8675,7 +4870,7 @@
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
     </row>
-    <row r="81" ht="16.5" spans="1:17">
+    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>78</v>
       </c>
@@ -8686,13 +4881,13 @@
         <v>1079</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="G81" s="10">
         <v>5000</v>
@@ -8701,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J81" s="10">
         <v>1</v>
@@ -8716,7 +4911,7 @@
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
     </row>
-    <row r="82" ht="16.5" spans="1:17">
+    <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>79</v>
       </c>
@@ -8727,13 +4922,13 @@
         <v>1080</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="G82" s="10">
         <v>2000</v>
@@ -8742,7 +4937,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J82" s="10">
         <v>1</v>
@@ -8757,7 +4952,7 @@
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
     </row>
-    <row r="83" ht="16.5" spans="1:17">
+    <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>80</v>
       </c>
@@ -8768,18 +4963,18 @@
         <v>1081</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>381</v>
+        <v>299</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J83" s="10">
         <v>1</v>
@@ -8794,7 +4989,7 @@
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
     </row>
-    <row r="84" ht="16.5" spans="1:17">
+    <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>81</v>
       </c>
@@ -8805,13 +5000,13 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>383</v>
+        <v>301</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>384</v>
+        <v>302</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>385</v>
+        <v>303</v>
       </c>
       <c r="G84" s="10">
         <v>1000</v>
@@ -8820,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J84" s="10">
         <v>1</v>
@@ -8835,7 +5030,7 @@
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
     </row>
-    <row r="85" ht="16.5" spans="1:17">
+    <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>82</v>
       </c>
@@ -8846,18 +5041,18 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J85" s="10">
         <v>1</v>
@@ -8872,7 +5067,7 @@
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
     </row>
-    <row r="86" ht="16.5" spans="1:17">
+    <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>83</v>
       </c>
@@ -8883,13 +5078,13 @@
         <v>1084</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>388</v>
+        <v>306</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="G86" s="10">
         <v>5000</v>
@@ -8898,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J86" s="10">
         <v>1</v>
@@ -8913,7 +5108,7 @@
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
     </row>
-    <row r="87" ht="16.5" spans="1:17">
+    <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>84</v>
       </c>
@@ -8921,16 +5116,16 @@
         <v>1084</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>391</v>
+        <v>309</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>392</v>
+        <v>310</v>
       </c>
       <c r="G87" s="10">
         <v>5000</v>
@@ -8939,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J87" s="10">
         <v>1</v>
@@ -8954,7 +5149,7 @@
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
     </row>
-    <row r="88" ht="16.5" spans="1:17">
+    <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -8973,7 +5168,7 @@
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
     </row>
-    <row r="89" ht="16.5" spans="1:17">
+    <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -8992,7 +5187,7 @@
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
     </row>
-    <row r="90" ht="16.5" spans="1:17">
+    <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -9011,7 +5206,7 @@
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
     </row>
-    <row r="91" ht="16.5" spans="1:17">
+    <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -9030,7 +5225,7 @@
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
     </row>
-    <row r="92" ht="16.5" spans="1:17">
+    <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -9049,7 +5244,7 @@
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
     </row>
-    <row r="93" ht="16.5" spans="1:17">
+    <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -9068,7 +5263,7 @@
       <c r="P93" s="10"/>
       <c r="Q93" s="10"/>
     </row>
-    <row r="94" ht="16.5" spans="1:17">
+    <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -9087,7 +5282,7 @@
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
     </row>
-    <row r="95" ht="16.5" spans="1:17">
+    <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -9106,7 +5301,7 @@
       <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
     </row>
-    <row r="96" ht="16.5" spans="1:17">
+    <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -9125,7 +5320,7 @@
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
     </row>
-    <row r="97" ht="16.5" spans="1:17">
+    <row r="97" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -9144,7 +5339,7 @@
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
     </row>
-    <row r="98" ht="16.5" spans="1:17">
+    <row r="98" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -9163,7 +5358,7 @@
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
     </row>
-    <row r="99" ht="16.5" spans="1:17">
+    <row r="99" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -9182,7 +5377,7 @@
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
     </row>
-    <row r="100" ht="16.5" spans="1:17">
+    <row r="100" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -9201,7 +5396,7 @@
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
     </row>
-    <row r="101" ht="16.5" spans="1:17">
+    <row r="101" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -9220,7 +5415,7 @@
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
     </row>
-    <row r="102" ht="16.5" spans="1:17">
+    <row r="102" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -9239,7 +5434,7 @@
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
     </row>
-    <row r="103" ht="16.5" spans="1:17">
+    <row r="103" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -9258,7 +5453,7 @@
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
     </row>
-    <row r="104" ht="16.5" spans="1:17">
+    <row r="104" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -9277,7 +5472,7 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" ht="16.5" spans="1:17">
+    <row r="105" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -9296,7 +5491,7 @@
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
     </row>
-    <row r="106" ht="16.5" spans="1:17">
+    <row r="106" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -9315,7 +5510,7 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
     </row>
-    <row r="107" ht="16.5" spans="1:17">
+    <row r="107" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -9334,7 +5529,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
     </row>
-    <row r="108" ht="16.5" spans="1:17">
+    <row r="108" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -9353,7 +5548,7 @@
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
     </row>
-    <row r="109" ht="16.5" spans="1:17">
+    <row r="109" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -9372,7 +5567,7 @@
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
     </row>
-    <row r="110" ht="16.5" spans="1:17">
+    <row r="110" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -9391,7 +5586,7 @@
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
     </row>
-    <row r="111" ht="16.5" spans="1:17">
+    <row r="111" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -9410,7 +5605,7 @@
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
     </row>
-    <row r="112" ht="16.5" spans="1:17">
+    <row r="112" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -9429,7 +5624,7 @@
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
     </row>
-    <row r="113" ht="16.5" spans="1:17">
+    <row r="113" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -9448,7 +5643,7 @@
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
     </row>
-    <row r="114" ht="16.5" spans="1:17">
+    <row r="114" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -9467,7 +5662,7 @@
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
     </row>
-    <row r="115" ht="16.5" spans="1:17">
+    <row r="115" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -9487,22 +5682,21 @@
       <c r="Q115" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
@@ -9513,121 +5707,121 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:12">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>393</v>
+        <v>311</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>394</v>
+        <v>312</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:12">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>399</v>
+        <v>317</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>400</v>
+        <v>318</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>401</v>
+        <v>319</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>406</v>
+        <v>324</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:12">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9636,7 +5830,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -9653,7 +5847,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" ht="16.5" spans="1:12">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9662,7 +5856,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -9679,7 +5873,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" ht="16.5" spans="1:12">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9688,7 +5882,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -9705,7 +5899,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" ht="16.5" spans="1:12">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9714,7 +5908,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>412</v>
+        <v>330</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -9731,7 +5925,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" ht="16.5" spans="1:12">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -9740,7 +5934,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>413</v>
+        <v>331</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -9757,7 +5951,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" ht="16.5" spans="1:12">
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -9766,7 +5960,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -9783,7 +5977,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" ht="16.5" spans="1:12">
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -9792,7 +5986,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -9809,7 +6003,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" ht="16.5" spans="1:12">
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -9818,7 +6012,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -9835,7 +6029,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" ht="16.5" spans="1:12">
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -9844,7 +6038,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -9861,7 +6055,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" ht="16.5" spans="1:12">
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -9870,7 +6064,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -9887,7 +6081,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" ht="16.5" spans="1:12">
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -9896,7 +6090,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -9914,8 +6108,8 @@
       <c r="L14" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DBCABF-D8A4-473F-816E-56E4075C462F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C905D-5779-4FFE-8955-1A6F93787DAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,6 +1063,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1070,6 +1071,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1077,17 +1079,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1095,12 +1100,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1108,6 +1115,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1116,6 +1124,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1124,12 +1133,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1705,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4778,7 +4789,7 @@
         <v>1001</v>
       </c>
       <c r="H78" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>54</v>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C905D-5779-4FFE-8955-1A6F93787DAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18322A-CE05-448B-88C0-204F3406452B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1716,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2453,7 +2453,9 @@
       <c r="F18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10">
+        <v>8000</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
         <v>54</v>
@@ -4434,7 +4436,9 @@
       <c r="F69" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G69" s="10"/>
+      <c r="G69" s="10">
+        <v>9000</v>
+      </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
         <v>54</v>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18322A-CE05-448B-88C0-204F3406452B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455695EC-EF5F-4F29-8851-8A6270F5EFB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="339">
   <si>
     <t>sheet名</t>
   </si>
@@ -328,9 +328,6 @@
   </si>
   <si>
     <t>通过14关</t>
-  </si>
-  <si>
-    <t>鞋子S1</t>
   </si>
   <si>
     <t>新手任务24</t>
@@ -1644,7 +1641,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
@@ -1716,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1912,7 +1909,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>53</v>
@@ -1949,7 +1946,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>56</v>
@@ -1986,7 +1983,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>58</v>
@@ -2027,7 +2024,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>60</v>
@@ -2064,7 +2061,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>64</v>
@@ -2101,7 +2098,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>62</v>
@@ -2138,7 +2135,7 @@
         <v>65</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>66</v>
@@ -2175,7 +2172,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>68</v>
@@ -2212,10 +2209,10 @@
         <v>69</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -2253,7 +2250,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>71</v>
@@ -2290,7 +2287,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>76</v>
@@ -2333,7 +2330,7 @@
         <v>75</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>74</v>
@@ -2374,7 +2371,7 @@
         <v>77</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>80</v>
@@ -2411,7 +2408,7 @@
         <v>79</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>82</v>
@@ -2448,7 +2445,7 @@
         <v>81</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>84</v>
@@ -2487,7 +2484,7 @@
         <v>83</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>78</v>
@@ -2528,7 +2525,7 @@
         <v>85</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>86</v>
@@ -2545,7 +2542,7 @@
         <v>2000</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -2571,10 +2568,10 @@
         <v>88</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2608,7 +2605,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>91</v>
@@ -2651,7 +2648,7 @@
         <v>93</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>89</v>
@@ -2688,7 +2685,7 @@
         <v>95</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>96</v>
@@ -2731,7 +2728,7 @@
         <v>98</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>94</v>
@@ -2768,7 +2765,7 @@
         <v>100</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>101</v>
@@ -2808,10 +2805,10 @@
         <v>1025</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>99</v>
@@ -2845,13 +2842,13 @@
         <v>1026</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2864,15 +2861,9 @@
       <c r="K28" s="10">
         <v>2000</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="10">
-        <v>1</v>
-      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -2888,13 +2879,13 @@
         <v>1027</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -2925,13 +2916,13 @@
         <v>1028</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -2962,13 +2953,13 @@
         <v>1029</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="G31" s="10">
         <v>1000</v>
@@ -3003,13 +2994,13 @@
         <v>1030</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -3040,13 +3031,13 @@
         <v>1031</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="G33" s="10">
         <v>1001</v>
@@ -3081,13 +3072,13 @@
         <v>1032</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -3118,13 +3109,13 @@
         <v>1033</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -3159,13 +3150,13 @@
         <v>1034</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -3196,13 +3187,13 @@
         <v>1035</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -3233,13 +3224,13 @@
         <v>1036</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -3270,13 +3261,13 @@
         <v>1037</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -3307,13 +3298,13 @@
         <v>1038</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="G40" s="10">
         <v>5000</v>
@@ -3348,13 +3339,13 @@
         <v>1039</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -3385,13 +3376,13 @@
         <v>1040</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -3422,13 +3413,13 @@
         <v>1042</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="G43" s="10">
         <v>2000</v>
@@ -3463,13 +3454,13 @@
         <v>1041</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -3500,13 +3491,13 @@
         <v>1043</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -3537,13 +3528,13 @@
         <v>1044</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -3574,13 +3565,13 @@
         <v>1045</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" s="10">
         <v>2000</v>
@@ -3615,13 +3606,13 @@
         <v>1046</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G48" s="10">
         <v>2000</v>
@@ -3656,13 +3647,13 @@
         <v>1047</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -3693,13 +3684,13 @@
         <v>1048</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G50" s="10">
         <v>2000</v>
@@ -3734,13 +3725,13 @@
         <v>1049</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -3771,13 +3762,13 @@
         <v>1050</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="G52" s="10">
         <v>1001</v>
@@ -3812,13 +3803,13 @@
         <v>1051</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -3849,13 +3840,13 @@
         <v>1052</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -3886,13 +3877,13 @@
         <v>1053</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -3923,13 +3914,13 @@
         <v>1054</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E56" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="G56" s="10">
         <v>2000</v>
@@ -3964,13 +3955,13 @@
         <v>1055</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -4001,13 +3992,13 @@
         <v>1056</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G58" s="10">
         <v>6000</v>
@@ -4042,13 +4033,13 @@
         <v>1057</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -4079,13 +4070,13 @@
         <v>1058</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G60" s="10">
         <v>5000</v>
@@ -4120,13 +4111,13 @@
         <v>1059</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E61" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4157,13 +4148,13 @@
         <v>1060</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E62" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="G62" s="10">
         <v>2000</v>
@@ -4198,13 +4189,13 @@
         <v>1061</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E63" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -4235,13 +4226,13 @@
         <v>1062</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -4272,13 +4263,13 @@
         <v>1063</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G65" s="10">
         <v>1000</v>
@@ -4313,13 +4304,13 @@
         <v>1064</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E66" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4350,13 +4341,13 @@
         <v>1065</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G67" s="10">
         <v>1000</v>
@@ -4391,13 +4382,13 @@
         <v>1066</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -4428,13 +4419,13 @@
         <v>1067</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E69" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="G69" s="10">
         <v>9000</v>
@@ -4467,13 +4458,13 @@
         <v>1068</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E70" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -4504,13 +4495,13 @@
         <v>1069</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -4541,13 +4532,13 @@
         <v>1070</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F72" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="G72" s="10">
         <v>2000</v>
@@ -4582,13 +4573,13 @@
         <v>1071</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -4619,13 +4610,13 @@
         <v>1072</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -4656,13 +4647,13 @@
         <v>1073</v>
       </c>
       <c r="D75" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>282</v>
-      </c>
       <c r="F75" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G75" s="10">
         <v>6000</v>
@@ -4697,13 +4688,13 @@
         <v>1074</v>
       </c>
       <c r="D76" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E76" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>284</v>
-      </c>
       <c r="F76" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G76" s="10">
         <v>5000</v>
@@ -4738,13 +4729,13 @@
         <v>1075</v>
       </c>
       <c r="D77" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>286</v>
-      </c>
       <c r="F77" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -4781,13 +4772,13 @@
         <v>1076</v>
       </c>
       <c r="D78" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="F78" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="G78" s="10">
         <v>1001</v>
@@ -4822,13 +4813,13 @@
         <v>1077</v>
       </c>
       <c r="D79" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="F79" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -4859,13 +4850,13 @@
         <v>1078</v>
       </c>
       <c r="D80" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="F80" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -4896,13 +4887,13 @@
         <v>1079</v>
       </c>
       <c r="D81" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>296</v>
-      </c>
       <c r="F81" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G81" s="10">
         <v>5000</v>
@@ -4937,13 +4928,13 @@
         <v>1080</v>
       </c>
       <c r="D82" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>298</v>
-      </c>
       <c r="F82" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G82" s="10">
         <v>2000</v>
@@ -4978,13 +4969,13 @@
         <v>1081</v>
       </c>
       <c r="D83" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>300</v>
-      </c>
       <c r="F83" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -5015,13 +5006,13 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="F84" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>303</v>
       </c>
       <c r="G84" s="10">
         <v>1000</v>
@@ -5056,13 +5047,13 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>305</v>
-      </c>
       <c r="F85" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -5093,13 +5084,13 @@
         <v>1084</v>
       </c>
       <c r="D86" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>307</v>
-      </c>
       <c r="F86" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G86" s="10">
         <v>5000</v>
@@ -5131,16 +5122,16 @@
         <v>1084</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D87" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="F87" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>310</v>
       </c>
       <c r="G87" s="10">
         <v>5000</v>
@@ -5730,16 +5721,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -5768,16 +5759,16 @@
         <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>33</v>
@@ -5806,34 +5797,34 @@
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5845,7 +5836,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -5871,7 +5862,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -5897,7 +5888,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5923,7 +5914,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5949,7 +5940,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5975,7 +5966,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6001,7 +5992,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6027,7 +6018,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6053,7 +6044,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6079,7 +6070,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6105,7 +6096,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455695EC-EF5F-4F29-8851-8A6270F5EFB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328B987-7E3C-4D21-9897-3D2D6CC6413F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>新手任务5</t>
   </si>
   <si>
-    <t>主舰7级</t>
-  </si>
-  <si>
     <t>新手任务6</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
   </si>
   <si>
     <t>新手任务50</t>
-  </si>
-  <si>
-    <t>主舰2突</t>
   </si>
   <si>
     <t>新手任务51</t>
@@ -1041,6 +1035,13 @@
   <si>
     <t>精炼5级</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮2突</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能1次</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1642,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
@@ -1662,7 +1663,7 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
@@ -1713,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1910,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>53</v>
@@ -1946,7 +1947,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>56</v>
@@ -1983,7 +1984,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>58</v>
@@ -2024,7 +2025,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>60</v>
@@ -2061,10 +2062,10 @@
         <v>61</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2095,13 +2096,13 @@
         <v>1007</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2132,13 +2133,13 @@
         <v>1008</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2169,13 +2170,13 @@
         <v>1009</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2206,13 +2207,13 @@
         <v>1010</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -2247,13 +2248,13 @@
         <v>1011</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2284,13 +2285,13 @@
         <v>1012</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2304,7 +2305,7 @@
         <v>1000</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
@@ -2327,13 +2328,13 @@
         <v>1013</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="10">
         <v>1000</v>
@@ -2368,13 +2369,13 @@
         <v>1014</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -2405,13 +2406,13 @@
         <v>1015</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -2442,13 +2443,13 @@
         <v>1016</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="10">
         <v>8000</v>
@@ -2481,13 +2482,13 @@
         <v>1017</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="10">
         <v>5000</v>
@@ -2522,13 +2523,13 @@
         <v>1018</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2542,7 +2543,7 @@
         <v>2000</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -2565,13 +2566,13 @@
         <v>1019</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2602,13 +2603,13 @@
         <v>1020</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -2622,7 +2623,7 @@
         <v>2000</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -2645,13 +2646,13 @@
         <v>1021</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -2682,13 +2683,13 @@
         <v>1022</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -2702,7 +2703,7 @@
         <v>2000</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -2725,13 +2726,13 @@
         <v>1023</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -2762,13 +2763,13 @@
         <v>1024</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -2782,7 +2783,7 @@
         <v>2000</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M26" s="10">
         <v>0</v>
@@ -2805,13 +2806,13 @@
         <v>1025</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -2842,13 +2843,13 @@
         <v>1026</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2879,13 +2880,13 @@
         <v>1027</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -2916,13 +2917,13 @@
         <v>1028</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -2953,13 +2954,13 @@
         <v>1029</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="G31" s="10">
         <v>1000</v>
@@ -2994,13 +2995,13 @@
         <v>1030</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -3031,13 +3032,13 @@
         <v>1031</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G33" s="10">
         <v>1001</v>
@@ -3072,13 +3073,13 @@
         <v>1032</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -3109,13 +3110,13 @@
         <v>1033</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -3150,13 +3151,13 @@
         <v>1034</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -3187,13 +3188,13 @@
         <v>1035</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -3224,13 +3225,13 @@
         <v>1036</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -3261,13 +3262,13 @@
         <v>1037</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -3298,13 +3299,13 @@
         <v>1038</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="G40" s="10">
         <v>5000</v>
@@ -3339,13 +3340,13 @@
         <v>1039</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -3376,13 +3377,13 @@
         <v>1040</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -3413,13 +3414,13 @@
         <v>1042</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="G43" s="10">
         <v>2000</v>
@@ -3454,13 +3455,13 @@
         <v>1041</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -3491,13 +3492,13 @@
         <v>1043</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -3528,13 +3529,13 @@
         <v>1044</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -3565,13 +3566,13 @@
         <v>1045</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G47" s="10">
         <v>2000</v>
@@ -3606,13 +3607,13 @@
         <v>1046</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" s="10">
         <v>2000</v>
@@ -3647,13 +3648,13 @@
         <v>1047</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -3684,13 +3685,13 @@
         <v>1048</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G50" s="10">
         <v>2000</v>
@@ -3725,13 +3726,13 @@
         <v>1049</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -3762,13 +3763,13 @@
         <v>1050</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G52" s="10">
         <v>1001</v>
@@ -3803,13 +3804,13 @@
         <v>1051</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -3840,13 +3841,13 @@
         <v>1052</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -3877,13 +3878,13 @@
         <v>1053</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -3914,13 +3915,13 @@
         <v>1054</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G56" s="10">
         <v>2000</v>
@@ -3955,13 +3956,13 @@
         <v>1055</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -3992,13 +3993,13 @@
         <v>1056</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G58" s="10">
         <v>6000</v>
@@ -4033,13 +4034,13 @@
         <v>1057</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -4070,13 +4071,13 @@
         <v>1058</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G60" s="10">
         <v>5000</v>
@@ -4111,13 +4112,13 @@
         <v>1059</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4148,13 +4149,13 @@
         <v>1060</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G62" s="10">
         <v>2000</v>
@@ -4189,13 +4190,13 @@
         <v>1061</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -4226,13 +4227,13 @@
         <v>1062</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -4263,13 +4264,13 @@
         <v>1063</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G65" s="10">
         <v>1000</v>
@@ -4304,13 +4305,13 @@
         <v>1064</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4341,19 +4342,19 @@
         <v>1065</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="G67" s="10">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H67" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>54</v>
@@ -4382,13 +4383,13 @@
         <v>1066</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -4419,13 +4420,13 @@
         <v>1067</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G69" s="10">
         <v>9000</v>
@@ -4458,13 +4459,13 @@
         <v>1068</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -4495,13 +4496,13 @@
         <v>1069</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -4532,13 +4533,13 @@
         <v>1070</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G72" s="10">
         <v>2000</v>
@@ -4573,13 +4574,13 @@
         <v>1071</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -4610,13 +4611,13 @@
         <v>1072</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -4647,13 +4648,13 @@
         <v>1073</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G75" s="10">
         <v>6000</v>
@@ -4688,13 +4689,13 @@
         <v>1074</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G76" s="10">
         <v>5000</v>
@@ -4729,13 +4730,13 @@
         <v>1075</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -4749,7 +4750,7 @@
         <v>5000</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M77" s="10">
         <v>0</v>
@@ -4772,13 +4773,13 @@
         <v>1076</v>
       </c>
       <c r="D78" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>288</v>
       </c>
       <c r="G78" s="10">
         <v>1001</v>
@@ -4813,13 +4814,13 @@
         <v>1077</v>
       </c>
       <c r="D79" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -4850,13 +4851,13 @@
         <v>1078</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -4887,13 +4888,13 @@
         <v>1079</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G81" s="10">
         <v>5000</v>
@@ -4928,13 +4929,13 @@
         <v>1080</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G82" s="10">
         <v>2000</v>
@@ -4969,13 +4970,13 @@
         <v>1081</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -5006,13 +5007,13 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="G84" s="10">
         <v>1000</v>
@@ -5047,13 +5048,13 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -5084,13 +5085,13 @@
         <v>1084</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G86" s="10">
         <v>5000</v>
@@ -5122,16 +5123,16 @@
         <v>1084</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D87" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>309</v>
       </c>
       <c r="G87" s="10">
         <v>5000</v>
@@ -5721,16 +5722,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -5759,16 +5760,16 @@
         <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>33</v>
@@ -5797,34 +5798,34 @@
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5836,7 +5837,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -5862,7 +5863,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -5888,7 +5889,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5914,7 +5915,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5940,7 +5941,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5966,7 +5967,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5992,7 +5993,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6018,7 +6019,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6044,7 +6045,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6070,7 +6071,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328B987-7E3C-4D21-9897-3D2D6CC6413F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B5E635-4192-4DBB-BA46-C41D045C62D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,7 +1048,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1141,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1270,7 +1276,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1311,6 +1317,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Grid" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
@@ -1715,7 +1722,7 @@
   <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2869,7 +2876,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -2888,7 +2895,9 @@
       <c r="F29" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="16">
+        <v>8000</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
         <v>54</v>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B5E635-4192-4DBB-BA46-C41D045C62D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD2CB3-0EF9-4788-ACD1-A23B95E151A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="新手任务" sheetId="28" r:id="rId2"/>
     <sheet name="日常任务" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="348">
   <si>
     <t>sheet名</t>
   </si>
@@ -642,307 +642,97 @@
     <t>新手任务14：通过第10关</t>
   </si>
   <si>
-    <t>新手任务15：装备火控系统装置</t>
-  </si>
-  <si>
-    <t>新手任务16：军阶升级至二等兵</t>
-  </si>
-  <si>
-    <t>新手任务17：通过11关</t>
-  </si>
-  <si>
     <t>头盔S1</t>
   </si>
   <si>
-    <t>新手任务18：装备装甲附甲装置</t>
-  </si>
-  <si>
-    <t>新手任务19：通过12关</t>
-  </si>
-  <si>
-    <t>新手任务20：装备能量线圈装置</t>
-  </si>
-  <si>
-    <t>新手任务21：通过13关</t>
-  </si>
-  <si>
-    <t>新手任务22：装备电压附甲装置</t>
-  </si>
-  <si>
-    <t>新手任务23：通过14关</t>
-  </si>
-  <si>
-    <t>新手任务24：装备磁力稳定器装置</t>
-  </si>
-  <si>
-    <t>新手任务25：通过15关</t>
-  </si>
-  <si>
-    <t>新手任务26：装备护盾阵列装置</t>
-  </si>
-  <si>
-    <t>新手任务27：通过16关</t>
-  </si>
-  <si>
-    <t>新手任务28：解锁导弹炮</t>
-  </si>
-  <si>
-    <t>新手任务29：通过17关</t>
-  </si>
-  <si>
-    <t>新手任务30：导弹炮升级至5级</t>
-  </si>
-  <si>
     <t>导弹炮5级</t>
   </si>
   <si>
-    <t>新手任务31：通过18关</t>
-  </si>
-  <si>
-    <t>新手任务32：导弹炮升级至10级</t>
-  </si>
-  <si>
     <t>导弹炮10级</t>
   </si>
   <si>
-    <t>新手任务33：通过19关</t>
-  </si>
-  <si>
-    <t>新手任务34：通过20关</t>
-  </si>
-  <si>
-    <t>新手任务35：装备电磁增强装置</t>
-  </si>
-  <si>
-    <t>新手任务36：通过21关</t>
-  </si>
-  <si>
-    <t>新手任务37：军阶晋升至一等兵</t>
-  </si>
-  <si>
-    <t>新手任务38：装备索敌增强器装置</t>
-  </si>
-  <si>
-    <t>新手任务39：通过22关</t>
-  </si>
-  <si>
-    <t>新手任务40：火力装置升级至10级</t>
-  </si>
-  <si>
-    <t>新手任务41：通过23关</t>
-  </si>
-  <si>
-    <t>新手任务42：通过24关</t>
-  </si>
-  <si>
-    <t>新手任务43：通过25关</t>
-  </si>
-  <si>
-    <t>新手任务44：进行一次装备合成</t>
-  </si>
-  <si>
-    <t>新手任务45：火控系统装置达到2阶</t>
-  </si>
-  <si>
-    <t>新手任务46：通过26关</t>
-  </si>
-  <si>
-    <t>新手任务47：所有装置强化至10级</t>
-  </si>
-  <si>
-    <t>新手任务48：通过27关</t>
-  </si>
-  <si>
-    <t>新手任务49：导弹炮升级至20级</t>
-  </si>
-  <si>
     <t>导弹炮20级</t>
   </si>
   <si>
-    <t>新手任务50：通过28关</t>
-  </si>
-  <si>
-    <t>新手任务51：通过29关</t>
-  </si>
-  <si>
-    <t>新手任务52：通过30关</t>
-  </si>
-  <si>
-    <t>新手任务53：能量线圈装置达到2阶</t>
-  </si>
-  <si>
     <t>肩甲2阶</t>
   </si>
   <si>
-    <t>新手任务54：通过31关</t>
-  </si>
-  <si>
-    <t>新手任务55：进行一次装备抽取</t>
-  </si>
-  <si>
-    <t>新手任务56：通过32关</t>
-  </si>
-  <si>
-    <t>新手任务57：军阶晋升至下士</t>
-  </si>
-  <si>
-    <t>新手任务58：通过33关</t>
-  </si>
-  <si>
     <t>通过33关</t>
   </si>
   <si>
-    <t>新手任务59：所有装置强化至20级</t>
-  </si>
-  <si>
     <t>装备全体强化+20</t>
   </si>
   <si>
-    <t>新手任务60：通过34关</t>
-  </si>
-  <si>
     <t>通过34关</t>
   </si>
   <si>
-    <t>新手任务61：通过35关</t>
-  </si>
-  <si>
-    <t>新手任务62：主舰核能升至1重</t>
-  </si>
-  <si>
-    <t>新手任务63：通过36关</t>
-  </si>
-  <si>
     <t>通过36关</t>
   </si>
   <si>
-    <t>新手任务64：导弹炮进阶至2代</t>
-  </si>
-  <si>
-    <t>新手任务65：通过37关</t>
-  </si>
-  <si>
     <t>通过37关</t>
   </si>
   <si>
-    <t>新手任务66：进行1次关卡扫荡</t>
-  </si>
-  <si>
     <t>进行1次扫荡</t>
   </si>
   <si>
-    <t>新手任务67：主舰升级至30级</t>
-  </si>
-  <si>
     <t>主舰30级</t>
   </si>
   <si>
-    <t>新手任务68：通过38关</t>
-  </si>
-  <si>
     <t>通过38关</t>
   </si>
   <si>
-    <t>新手任务69：装备全部强化至40级</t>
-  </si>
-  <si>
     <t>装备全体强化+40</t>
   </si>
   <si>
-    <t>新手任务70：通过39关</t>
-  </si>
-  <si>
     <t>通过39关</t>
   </si>
   <si>
-    <t>新手任务71：通过40关</t>
-  </si>
-  <si>
     <t>新手任务72</t>
   </si>
   <si>
-    <t>新手任务72：进行1次晶片抽取</t>
-  </si>
-  <si>
     <t>新手任务73</t>
   </si>
   <si>
-    <t>新手任务73：军阶晋升至中士</t>
-  </si>
-  <si>
     <t>新手任务74</t>
   </si>
   <si>
-    <t>新手任务74：通过45关</t>
-  </si>
-  <si>
     <t>新手任务75</t>
   </si>
   <si>
-    <t>新手任务75：导弹炮进阶至2代</t>
-  </si>
-  <si>
     <t>导弹炮2突</t>
   </si>
   <si>
     <t>新手任务76</t>
   </si>
   <si>
-    <t>新手任务76：主舰升级至40级</t>
-  </si>
-  <si>
     <t>主舰40级</t>
   </si>
   <si>
     <t>新手任务77</t>
   </si>
   <si>
-    <t>新手任务77：通过50关</t>
-  </si>
-  <si>
     <t>新手任务78</t>
   </si>
   <si>
-    <t>新手任务78：军阶晋升至参谋军士</t>
-  </si>
-  <si>
     <t>新手任务79</t>
   </si>
   <si>
-    <t>新手任务79：火控系统精炼至5级</t>
-  </si>
-  <si>
     <t>新手任务80</t>
   </si>
   <si>
-    <t>新手任务80：通过55关</t>
-  </si>
-  <si>
     <t>新手任务81</t>
   </si>
   <si>
-    <t>新手任务81：激光炮升级至50级</t>
-  </si>
-  <si>
     <t>激光炮50级</t>
   </si>
   <si>
     <t>新手任务82</t>
   </si>
   <si>
-    <t>新手任务82：通过60关</t>
-  </si>
-  <si>
     <t>新手任务83</t>
   </si>
   <si>
-    <t>新手任务83：军阶晋升至上士</t>
-  </si>
-  <si>
     <t>新手任务84</t>
-  </si>
-  <si>
-    <t>新手任务84：军阶晋升至一级士官</t>
   </si>
   <si>
     <t>军阶7</t>
@@ -1042,6 +832,246 @@
   </si>
   <si>
     <t>释放技能1次</t>
+  </si>
+  <si>
+    <t>新手任务85</t>
+  </si>
+  <si>
+    <t>新手任务86</t>
+  </si>
+  <si>
+    <t>新手任务87</t>
+  </si>
+  <si>
+    <t>新手任务15：领取关卡奖励1-10</t>
+  </si>
+  <si>
+    <t>领取1-2奖励</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取2-1奖励</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取2-2奖励</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务16：装备火力装置</t>
+  </si>
+  <si>
+    <t>新手任务17：军阶升级至二等兵</t>
+  </si>
+  <si>
+    <t>新手任务18：通过11关</t>
+  </si>
+  <si>
+    <t>新手任务19：装备装甲附甲装置</t>
+  </si>
+  <si>
+    <t>新手任务20：通过12关</t>
+  </si>
+  <si>
+    <t>新手任务21：装备能量线圈装置</t>
+  </si>
+  <si>
+    <t>新手任务22：通过13关</t>
+  </si>
+  <si>
+    <t>新手任务23：装备电压附甲装置</t>
+  </si>
+  <si>
+    <t>新手任务24：通过14关</t>
+  </si>
+  <si>
+    <t>新手任务25：装备磁力稳定器装置</t>
+  </si>
+  <si>
+    <t>新手任务26：通过15关</t>
+  </si>
+  <si>
+    <t>新手任务27：领取关卡奖励2-5</t>
+  </si>
+  <si>
+    <t>新手任务28：装备护盾阵列装置</t>
+  </si>
+  <si>
+    <t>新手任务29：通过16关</t>
+  </si>
+  <si>
+    <t>新手任务30：解锁导弹炮</t>
+  </si>
+  <si>
+    <t>新手任务31：通过17关</t>
+  </si>
+  <si>
+    <t>新手任务32：导弹炮升级至5级</t>
+  </si>
+  <si>
+    <t>新手任务33：通过18关</t>
+  </si>
+  <si>
+    <t>新手任务34：导弹炮升级至10级</t>
+  </si>
+  <si>
+    <t>新手任务35：通过19关</t>
+  </si>
+  <si>
+    <t>新手任务36：通过20关</t>
+  </si>
+  <si>
+    <t>新手任务37：领取关卡奖励2-10</t>
+  </si>
+  <si>
+    <t>新手任务38：装备电磁增强装置</t>
+  </si>
+  <si>
+    <t>新手任务39：通过21关</t>
+  </si>
+  <si>
+    <t>新手任务40：军阶晋升至一等兵</t>
+  </si>
+  <si>
+    <t>新手任务41：装备索敌增强器装置</t>
+  </si>
+  <si>
+    <t>新手任务42：通过22关</t>
+  </si>
+  <si>
+    <t>新手任务43：火力装置升级至10级</t>
+  </si>
+  <si>
+    <t>新手任务44：通过23关</t>
+  </si>
+  <si>
+    <t>新手任务45：通过24关</t>
+  </si>
+  <si>
+    <t>新手任务46：通过25关</t>
+  </si>
+  <si>
+    <t>新手任务47：进行一次装备合成</t>
+  </si>
+  <si>
+    <t>新手任务48：火控系统装置达到2阶</t>
+  </si>
+  <si>
+    <t>新手任务49：通过26关</t>
+  </si>
+  <si>
+    <t>新手任务50：所有装置强化至10级</t>
+  </si>
+  <si>
+    <t>新手任务51：通过27关</t>
+  </si>
+  <si>
+    <t>新手任务52：导弹炮升级至20级</t>
+  </si>
+  <si>
+    <t>新手任务53：通过28关</t>
+  </si>
+  <si>
+    <t>新手任务54：通过29关</t>
+  </si>
+  <si>
+    <t>新手任务55：通过30关</t>
+  </si>
+  <si>
+    <t>新手任务56：能量线圈装置达到2阶</t>
+  </si>
+  <si>
+    <t>新手任务57：通过31关</t>
+  </si>
+  <si>
+    <t>新手任务58：进行一次装备抽取</t>
+  </si>
+  <si>
+    <t>新手任务59：通过32关</t>
+  </si>
+  <si>
+    <t>新手任务60：军阶晋升至下士</t>
+  </si>
+  <si>
+    <t>新手任务61：通过33关</t>
+  </si>
+  <si>
+    <t>新手任务62：所有装置强化至20级</t>
+  </si>
+  <si>
+    <t>新手任务63：通过34关</t>
+  </si>
+  <si>
+    <t>新手任务64：通过35关</t>
+  </si>
+  <si>
+    <t>新手任务65：主舰核能升至1重</t>
+  </si>
+  <si>
+    <t>新手任务66：通过36关</t>
+  </si>
+  <si>
+    <t>新手任务67：导弹炮进阶至2代</t>
+  </si>
+  <si>
+    <t>新手任务68：通过37关</t>
+  </si>
+  <si>
+    <t>新手任务69：进行1次关卡扫荡</t>
+  </si>
+  <si>
+    <t>新手任务70：主舰升级至30级</t>
+  </si>
+  <si>
+    <t>新手任务71：通过38关</t>
+  </si>
+  <si>
+    <t>新手任务72：装备全部强化至40级</t>
+  </si>
+  <si>
+    <t>新手任务73：通过39关</t>
+  </si>
+  <si>
+    <t>新手任务74：通过40关</t>
+  </si>
+  <si>
+    <t>新手任务75：进行1次晶片抽取</t>
+  </si>
+  <si>
+    <t>新手任务76：军阶晋升至中士</t>
+  </si>
+  <si>
+    <t>新手任务77：通过45关</t>
+  </si>
+  <si>
+    <t>新手任务78：导弹炮进阶至2代</t>
+  </si>
+  <si>
+    <t>新手任务79：主舰升级至40级</t>
+  </si>
+  <si>
+    <t>新手任务80：通过50关</t>
+  </si>
+  <si>
+    <t>新手任务81：军阶晋升至参谋军士</t>
+  </si>
+  <si>
+    <t>新手任务82：火控系统精炼至5级</t>
+  </si>
+  <si>
+    <t>新手任务83：通过55关</t>
+  </si>
+  <si>
+    <t>新手任务84：激光炮升级至50级</t>
+  </si>
+  <si>
+    <t>新手任务85：通过60关</t>
+  </si>
+  <si>
+    <t>新手任务86：军阶晋升至上士</t>
+  </si>
+  <si>
+    <t>新手任务87：军阶晋升至一级士官</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1679,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
@@ -1670,7 +1700,7 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
@@ -1719,17 +1749,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="34.375" customWidth="1"/>
+    <col min="5" max="5" width="36.375" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
@@ -2109,7 +2139,7 @@
         <v>196</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2453,10 +2483,10 @@
         <v>80</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="G18" s="10">
         <v>8000</v>
@@ -2492,17 +2522,13 @@
         <v>82</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
         <v>54</v>
       </c>
@@ -2510,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -2533,13 +2559,17 @@
         <v>84</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="G20" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
       <c r="I20" s="10" t="s">
         <v>54</v>
       </c>
@@ -2549,15 +2579,9 @@
       <c r="K20" s="10">
         <v>2000</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10">
-        <v>1</v>
-      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -2576,10 +2600,10 @@
         <v>87</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2592,9 +2616,15 @@
       <c r="K21" s="10">
         <v>2000</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
@@ -2613,10 +2643,10 @@
         <v>89</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -2629,15 +2659,9 @@
       <c r="K22" s="10">
         <v>2000</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10">
-        <v>1</v>
-      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -2656,10 +2680,10 @@
         <v>92</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -2672,9 +2696,15 @@
       <c r="K23" s="10">
         <v>2000</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <v>1</v>
+      </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
@@ -2693,10 +2723,10 @@
         <v>94</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -2709,15 +2739,9 @@
       <c r="K24" s="10">
         <v>2000</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="10">
-        <v>1</v>
-      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
@@ -2736,10 +2760,10 @@
         <v>97</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -2752,9 +2776,15 @@
       <c r="K25" s="10">
         <v>2000</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="L25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <v>1</v>
+      </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -2773,10 +2803,10 @@
         <v>99</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -2789,20 +2819,14 @@
       <c r="K26" s="10">
         <v>2000</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <v>1</v>
-      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -2816,10 +2840,10 @@
         <v>101</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -2832,14 +2856,20 @@
       <c r="K27" s="10">
         <v>2000</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="L27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>1</v>
+      </c>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -2853,10 +2883,10 @@
         <v>103</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2869,14 +2899,14 @@
       <c r="K28" s="10">
         <v>2000</v>
       </c>
-      <c r="L28" s="11"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -2890,14 +2920,12 @@
         <v>105</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="16">
-        <v>8000</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
         <v>54</v>
@@ -2908,7 +2936,7 @@
       <c r="K29" s="10">
         <v>2000</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -2929,30 +2957,32 @@
         <v>107</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="10"/>
+        <v>274</v>
+      </c>
+      <c r="G30" s="10">
+        <v>8000</v>
+      </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J30" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="10">
-        <v>10</v>
-      </c>
-      <c r="L30" s="10"/>
+        <v>2000</v>
+      </c>
+      <c r="L30" s="11"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -2966,17 +2996,13 @@
         <v>109</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
         <v>54</v>
       </c>
@@ -3007,10 +3033,10 @@
         <v>111</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -3018,10 +3044,10 @@
         <v>54</v>
       </c>
       <c r="J32" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="10">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -3044,13 +3070,13 @@
         <v>113</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="G33" s="10">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H33" s="10">
         <v>1</v>
@@ -3085,10 +3111,10 @@
         <v>114</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -3122,10 +3148,10 @@
         <v>116</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -3163,10 +3189,10 @@
         <v>117</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -3200,13 +3226,17 @@
         <v>119</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+        <v>208</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
       <c r="I37" s="10" t="s">
         <v>54</v>
       </c>
@@ -3223,7 +3253,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -3237,10 +3267,10 @@
         <v>121</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -3274,10 +3304,10 @@
         <v>123</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -3288,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -3311,17 +3341,15 @@
         <v>125</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="G40" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
         <v>54</v>
       </c>
@@ -3329,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -3338,7 +3366,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -3352,10 +3380,10 @@
         <v>127</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -3366,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -3375,7 +3403,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -3389,10 +3417,10 @@
         <v>129</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -3420,19 +3448,19 @@
         <v>1040</v>
       </c>
       <c r="C43" s="10">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G43" s="10">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
@@ -3453,7 +3481,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -3461,16 +3489,16 @@
         <v>1041</v>
       </c>
       <c r="C44" s="10">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -3490,7 +3518,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -3504,10 +3532,10 @@
         <v>135</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -3541,13 +3569,17 @@
         <v>137</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+        <v>132</v>
+      </c>
+      <c r="G46" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
       <c r="I46" s="10" t="s">
         <v>54</v>
       </c>
@@ -3578,17 +3610,13 @@
         <v>139</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H47" s="10">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="10" t="s">
         <v>54</v>
       </c>
@@ -3619,17 +3647,13 @@
         <v>140</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H48" s="10">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="10" t="s">
         <v>54</v>
       </c>
@@ -3660,10 +3684,10 @@
         <v>142</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -3697,16 +3721,16 @@
         <v>144</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G50" s="10">
         <v>2000</v>
       </c>
       <c r="H50" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>54</v>
@@ -3738,13 +3762,17 @@
         <v>146</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+        <v>145</v>
+      </c>
+      <c r="G51" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H51" s="10">
+        <v>1</v>
+      </c>
       <c r="I51" s="10" t="s">
         <v>54</v>
       </c>
@@ -3775,17 +3803,13 @@
         <v>148</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G52" s="10">
-        <v>1001</v>
-      </c>
-      <c r="H52" s="10">
-        <v>1</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
       <c r="I52" s="10" t="s">
         <v>54</v>
       </c>
@@ -3816,13 +3840,17 @@
         <v>149</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="G53" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
       <c r="I53" s="10" t="s">
         <v>54</v>
       </c>
@@ -3853,10 +3881,10 @@
         <v>150</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -3890,13 +3918,17 @@
         <v>152</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+        <v>209</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1</v>
+      </c>
       <c r="I55" s="10" t="s">
         <v>54</v>
       </c>
@@ -3927,17 +3959,13 @@
         <v>154</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G56" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H56" s="10">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="10" t="s">
         <v>54</v>
       </c>
@@ -3968,10 +3996,10 @@
         <v>156</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -3982,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="10">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
@@ -4005,17 +4033,13 @@
         <v>158</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H58" s="10">
-        <v>2</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="10" t="s">
         <v>54</v>
       </c>
@@ -4023,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="10">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -4046,13 +4070,17 @@
         <v>160</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+        <v>210</v>
+      </c>
+      <c r="G59" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H59" s="10">
+        <v>1</v>
+      </c>
       <c r="I59" s="10" t="s">
         <v>54</v>
       </c>
@@ -4060,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="10">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -4083,17 +4111,13 @@
         <v>162</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G60" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H60" s="10">
-        <v>0</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
         <v>54</v>
       </c>
@@ -4124,13 +4148,17 @@
         <v>164</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+        <v>153</v>
+      </c>
+      <c r="G61" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H61" s="10">
+        <v>2</v>
+      </c>
       <c r="I61" s="10" t="s">
         <v>54</v>
       </c>
@@ -4161,17 +4189,13 @@
         <v>166</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G62" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H62" s="10">
-        <v>0</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="10" t="s">
         <v>54</v>
       </c>
@@ -4202,13 +4226,17 @@
         <v>168</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="G63" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
       <c r="I63" s="10" t="s">
         <v>54</v>
       </c>
@@ -4239,10 +4267,10 @@
         <v>170</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -4276,16 +4304,16 @@
         <v>172</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>180</v>
+        <v>322</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="G65" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H65" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>54</v>
@@ -4317,10 +4345,10 @@
         <v>173</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4354,17 +4382,13 @@
         <v>175</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="G67" s="10">
-        <v>1001</v>
-      </c>
-      <c r="H67" s="10">
-        <v>1</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
         <v>54</v>
       </c>
@@ -4395,13 +4419,17 @@
         <v>177</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G68" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H68" s="10">
+        <v>3</v>
+      </c>
       <c r="I68" s="10" t="s">
         <v>54</v>
       </c>
@@ -4432,14 +4460,12 @@
         <v>179</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="G69" s="10">
-        <v>9000</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
         <v>54</v>
@@ -4471,13 +4497,17 @@
         <v>181</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
+        <v>327</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G70" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H70" s="10">
+        <v>1</v>
+      </c>
       <c r="I70" s="10" t="s">
         <v>54</v>
       </c>
@@ -4508,10 +4538,10 @@
         <v>183</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -4545,17 +4575,15 @@
         <v>184</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="G72" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H72" s="10">
-        <v>0</v>
-      </c>
+        <v>9000</v>
+      </c>
+      <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
         <v>54</v>
       </c>
@@ -4586,10 +4614,10 @@
         <v>186</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>276</v>
+        <v>330</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -4623,10 +4651,10 @@
         <v>189</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -4637,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
@@ -4657,19 +4685,19 @@
         <v>1073</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>167</v>
+        <v>332</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="G75" s="10">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="H75" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>54</v>
@@ -4678,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
@@ -4698,20 +4726,16 @@
         <v>1074</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G76" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H76" s="10">
-        <v>0</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
       <c r="I76" s="10" t="s">
         <v>54</v>
       </c>
@@ -4719,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
@@ -4739,13 +4763,13 @@
         <v>1075</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -4758,15 +4782,9 @@
       <c r="K77" s="10">
         <v>5000</v>
       </c>
-      <c r="L77" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M77" s="10">
-        <v>0</v>
-      </c>
-      <c r="N77" s="10">
-        <v>40</v>
-      </c>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
@@ -4782,16 +4800,16 @@
         <v>1076</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>286</v>
+        <v>335</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="G78" s="10">
-        <v>1001</v>
+        <v>6000</v>
       </c>
       <c r="H78" s="10">
         <v>1</v>
@@ -4823,24 +4841,28 @@
         <v>1077</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
+        <v>336</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
       <c r="I79" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J79" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="10">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
@@ -4860,13 +4882,13 @@
         <v>1078</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -4874,14 +4896,20 @@
         <v>54</v>
       </c>
       <c r="J80" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="10">
-        <v>10</v>
-      </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
+        <v>5000</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M80" s="10">
+        <v>0</v>
+      </c>
+      <c r="N80" s="10">
+        <v>40</v>
+      </c>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
@@ -4897,28 +4925,28 @@
         <v>1079</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="G81" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H81" s="10">
+        <v>1</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J81" s="10">
+        <v>0</v>
+      </c>
+      <c r="K81" s="10">
         <v>5000</v>
-      </c>
-      <c r="H81" s="10">
-        <v>0</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J81" s="10">
-        <v>1</v>
-      </c>
-      <c r="K81" s="10">
-        <v>10</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
@@ -4938,20 +4966,16 @@
         <v>1080</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="G82" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H82" s="10">
-        <v>2</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="10" t="s">
         <v>54</v>
       </c>
@@ -4979,13 +5003,13 @@
         <v>1081</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -5016,19 +5040,19 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="G84" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H84" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>54</v>
@@ -5057,16 +5081,20 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+        <v>342</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G85" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H85" s="10">
+        <v>2</v>
+      </c>
       <c r="I85" s="10" t="s">
         <v>54</v>
       </c>
@@ -5094,20 +5122,16 @@
         <v>1084</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G86" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H86" s="10">
-        <v>0</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
       <c r="I86" s="10" t="s">
         <v>54</v>
       </c>
@@ -5131,23 +5155,23 @@
       <c r="B87" s="10">
         <v>1084</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>188</v>
+      <c r="C87" s="10">
+        <v>1085</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="G87" s="10">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H87" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>54</v>
@@ -5166,17 +5190,35 @@
       <c r="Q87" s="10"/>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
+      <c r="A88" s="10">
+        <v>85</v>
+      </c>
+      <c r="B88" s="10">
+        <v>1085</v>
+      </c>
+      <c r="C88" s="10">
+        <v>1086</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
+      <c r="I88" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J88" s="10">
+        <v>1</v>
+      </c>
+      <c r="K88" s="10">
+        <v>10</v>
+      </c>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
@@ -5185,17 +5227,39 @@
       <c r="Q88" s="10"/>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
+      <c r="A89" s="10">
+        <v>86</v>
+      </c>
+      <c r="B89" s="10">
+        <v>1086</v>
+      </c>
+      <c r="C89" s="10">
+        <v>1087</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G89" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H89" s="10">
+        <v>0</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J89" s="10">
+        <v>1</v>
+      </c>
+      <c r="K89" s="10">
+        <v>10</v>
+      </c>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
@@ -5204,17 +5268,39 @@
       <c r="Q89" s="10"/>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
+      <c r="A90" s="10">
+        <v>87</v>
+      </c>
+      <c r="B90" s="10">
+        <v>1087</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G90" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J90" s="10">
+        <v>1</v>
+      </c>
+      <c r="K90" s="10">
+        <v>10</v>
+      </c>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -5696,6 +5782,63 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
+    </row>
+    <row r="116" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+    </row>
+    <row r="117" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+    </row>
+    <row r="118" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -5731,16 +5874,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -5769,16 +5912,16 @@
         <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>33</v>
@@ -5807,34 +5950,34 @@
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5846,7 +5989,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -5872,7 +6015,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -5898,7 +6041,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5924,7 +6067,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5950,7 +6093,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5976,7 +6119,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6002,7 +6145,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6028,7 +6171,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6054,7 +6197,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6080,7 +6223,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6106,7 +6249,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD2CB3-0EF9-4788-ACD1-A23B95E151A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7619DF2-68F2-4E34-93D5-9EF25D31C697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1751,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3001,7 +3001,9 @@
       <c r="F31" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="16">
+        <v>8000</v>
+      </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
         <v>54</v>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7619DF2-68F2-4E34-93D5-9EF25D31C697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB488531-4C2E-49BD-8A60-6AE9F86E4196}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="355">
   <si>
     <t>sheet名</t>
   </si>
@@ -597,51 +597,9 @@
     <t>军阶6</t>
   </si>
   <si>
-    <t>新手任务1：通过第1关</t>
-  </si>
-  <si>
-    <t>新手任务2：通过第2关</t>
-  </si>
-  <si>
-    <t>新手任务3：主舰升级至5级</t>
-  </si>
-  <si>
-    <t>新手任务4：通过第3关</t>
-  </si>
-  <si>
-    <t>新手任务5：通过第4关</t>
-  </si>
-  <si>
-    <t>新手任务6：释放1次技能</t>
-  </si>
-  <si>
-    <t>新手任务7：通过第5关</t>
-  </si>
-  <si>
-    <t>新手任务8：通过第6关</t>
-  </si>
-  <si>
-    <t>新手任务9：主舰升级至9级</t>
-  </si>
-  <si>
     <t>主舰9级</t>
   </si>
   <si>
-    <t>新手任务10：通过第7关</t>
-  </si>
-  <si>
-    <t>新手任务11：通过第8关</t>
-  </si>
-  <si>
-    <t>新手任务12：主舰进阶至1代</t>
-  </si>
-  <si>
-    <t>新手任务13：通过第9关</t>
-  </si>
-  <si>
-    <t>新手任务14：通过第10关</t>
-  </si>
-  <si>
     <t>头盔S1</t>
   </si>
   <si>
@@ -699,9 +657,6 @@
     <t>新手任务75</t>
   </si>
   <si>
-    <t>导弹炮2突</t>
-  </si>
-  <si>
     <t>新手任务76</t>
   </si>
   <si>
@@ -715,9 +670,6 @@
   </si>
   <si>
     <t>新手任务79</t>
-  </si>
-  <si>
-    <t>新手任务80</t>
   </si>
   <si>
     <t>新手任务81</t>
@@ -827,10 +779,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>导弹炮2突</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>释放技能1次</t>
   </si>
   <si>
@@ -841,9 +789,6 @@
   </si>
   <si>
     <t>新手任务87</t>
-  </si>
-  <si>
-    <t>新手任务15：领取关卡奖励1-10</t>
   </si>
   <si>
     <t>领取1-2奖励</t>
@@ -858,6 +803,79 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>领取3-1奖励</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务88</t>
+  </si>
+  <si>
+    <t>商店购买金币2</t>
+  </si>
+  <si>
+    <t>新手任务89</t>
+  </si>
+  <si>
+    <t>主舰2突</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买突破丹2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务80</t>
+  </si>
+  <si>
+    <t>新手任务1：通过第1关</t>
+  </si>
+  <si>
+    <t>新手任务2：通过第2关</t>
+  </si>
+  <si>
+    <t>新手任务3：主舰升级至5级</t>
+  </si>
+  <si>
+    <t>新手任务4：通过第3关</t>
+  </si>
+  <si>
+    <t>新手任务5：通过第4关</t>
+  </si>
+  <si>
+    <t>新手任务6：释放1次技能</t>
+  </si>
+  <si>
+    <t>新手任务7：通过第5关</t>
+  </si>
+  <si>
+    <t>新手任务8：通过第6关</t>
+  </si>
+  <si>
+    <t>新手任务9：主舰升级至9级</t>
+  </si>
+  <si>
+    <t>新手任务10：通过第7关</t>
+  </si>
+  <si>
+    <t>新手任务11：通过第8关</t>
+  </si>
+  <si>
+    <t>新手任务12：主舰进阶至1代</t>
+  </si>
+  <si>
+    <t>新手任务13：通过第9关</t>
+  </si>
+  <si>
+    <t>新手任务14：通过第10关</t>
+  </si>
+  <si>
+    <t>新手任务15：领取关卡奖励1-10</t>
+  </si>
+  <si>
     <t>新手任务16：装备火力装置</t>
   </si>
   <si>
@@ -951,127 +969,133 @@
     <t>新手任务46：通过25关</t>
   </si>
   <si>
-    <t>新手任务47：进行一次装备合成</t>
-  </si>
-  <si>
-    <t>新手任务48：火控系统装置达到2阶</t>
-  </si>
-  <si>
-    <t>新手任务49：通过26关</t>
-  </si>
-  <si>
-    <t>新手任务50：所有装置强化至10级</t>
-  </si>
-  <si>
-    <t>新手任务51：通过27关</t>
-  </si>
-  <si>
-    <t>新手任务52：导弹炮升级至20级</t>
-  </si>
-  <si>
-    <t>新手任务53：通过28关</t>
-  </si>
-  <si>
-    <t>新手任务54：通过29关</t>
-  </si>
-  <si>
-    <t>新手任务55：通过30关</t>
-  </si>
-  <si>
-    <t>新手任务56：能量线圈装置达到2阶</t>
-  </si>
-  <si>
-    <t>新手任务57：通过31关</t>
-  </si>
-  <si>
-    <t>新手任务58：进行一次装备抽取</t>
-  </si>
-  <si>
-    <t>新手任务59：通过32关</t>
-  </si>
-  <si>
-    <t>新手任务60：军阶晋升至下士</t>
-  </si>
-  <si>
-    <t>新手任务61：通过33关</t>
-  </si>
-  <si>
-    <t>新手任务62：所有装置强化至20级</t>
-  </si>
-  <si>
-    <t>新手任务63：通过34关</t>
-  </si>
-  <si>
-    <t>新手任务64：通过35关</t>
-  </si>
-  <si>
-    <t>新手任务65：主舰核能升至1重</t>
-  </si>
-  <si>
-    <t>新手任务66：通过36关</t>
-  </si>
-  <si>
-    <t>新手任务67：导弹炮进阶至2代</t>
-  </si>
-  <si>
-    <t>新手任务68：通过37关</t>
-  </si>
-  <si>
-    <t>新手任务69：进行1次关卡扫荡</t>
-  </si>
-  <si>
-    <t>新手任务70：主舰升级至30级</t>
-  </si>
-  <si>
-    <t>新手任务71：通过38关</t>
-  </si>
-  <si>
-    <t>新手任务72：装备全部强化至40级</t>
-  </si>
-  <si>
-    <t>新手任务73：通过39关</t>
-  </si>
-  <si>
-    <t>新手任务74：通过40关</t>
-  </si>
-  <si>
-    <t>新手任务75：进行1次晶片抽取</t>
-  </si>
-  <si>
-    <t>新手任务76：军阶晋升至中士</t>
-  </si>
-  <si>
-    <t>新手任务77：通过45关</t>
-  </si>
-  <si>
-    <t>新手任务78：导弹炮进阶至2代</t>
-  </si>
-  <si>
-    <t>新手任务79：主舰升级至40级</t>
-  </si>
-  <si>
-    <t>新手任务80：通过50关</t>
-  </si>
-  <si>
-    <t>新手任务81：军阶晋升至参谋军士</t>
-  </si>
-  <si>
-    <t>新手任务82：火控系统精炼至5级</t>
-  </si>
-  <si>
-    <t>新手任务83：通过55关</t>
-  </si>
-  <si>
-    <t>新手任务84：激光炮升级至50级</t>
-  </si>
-  <si>
-    <t>新手任务85：通过60关</t>
-  </si>
-  <si>
-    <t>新手任务86：军阶晋升至上士</t>
-  </si>
-  <si>
-    <t>新手任务87：军阶晋升至一级士官</t>
+    <t>新手任务47：领取管卡奖励3-5</t>
+  </si>
+  <si>
+    <t>新手任务48：进行一次装备合成</t>
+  </si>
+  <si>
+    <t>新手任务49：火控系统装置达到2阶</t>
+  </si>
+  <si>
+    <t>新手任务50：通过26关</t>
+  </si>
+  <si>
+    <t>新手任务51：所有装置强化至10级</t>
+  </si>
+  <si>
+    <t>新手任务52：通过27关</t>
+  </si>
+  <si>
+    <t>新手任务53：导弹炮升级至20级</t>
+  </si>
+  <si>
+    <t>新手任务54：通过28关</t>
+  </si>
+  <si>
+    <t>新手任务55：通过29关</t>
+  </si>
+  <si>
+    <t>新手任务56：通过30关</t>
+  </si>
+  <si>
+    <t>新手任务57：能量线圈装置达到2阶</t>
+  </si>
+  <si>
+    <t>新手任务58：通过31关</t>
+  </si>
+  <si>
+    <t>新手任务59：进行一次装备抽取</t>
+  </si>
+  <si>
+    <t>新手任务60：通过32关</t>
+  </si>
+  <si>
+    <t>新手任务61：购买2次金币宝箱</t>
+  </si>
+  <si>
+    <t>新手任务62：军阶晋升至下士</t>
+  </si>
+  <si>
+    <t>新手任务63：通过33关</t>
+  </si>
+  <si>
+    <t>新手任务64：所有装置强化至20级</t>
+  </si>
+  <si>
+    <t>新手任务65：通过34关</t>
+  </si>
+  <si>
+    <t>新手任务66：通过35关</t>
+  </si>
+  <si>
+    <t>新手任务67：主舰核能升至1重</t>
+  </si>
+  <si>
+    <t>新手任务68：通过36关</t>
+  </si>
+  <si>
+    <t>新手任务69：商店购买2次智慧机体</t>
+  </si>
+  <si>
+    <t>新手任务70：主舰进阶至2代</t>
+  </si>
+  <si>
+    <t>新手任务71：通过37关</t>
+  </si>
+  <si>
+    <t>新手任务72：进行1次关卡扫荡</t>
+  </si>
+  <si>
+    <t>新手任务73：主舰升级至30级</t>
+  </si>
+  <si>
+    <t>新手任务74：通过38关</t>
+  </si>
+  <si>
+    <t>新手任务75：装备全部强化至40级</t>
+  </si>
+  <si>
+    <t>新手任务76：通过39关</t>
+  </si>
+  <si>
+    <t>新手任务77：通过40关</t>
+  </si>
+  <si>
+    <t>新手任务78：进行1次晶片抽取</t>
+  </si>
+  <si>
+    <t>新手任务79：军阶晋升至中士</t>
+  </si>
+  <si>
+    <t>新手任务80：通过45关</t>
+  </si>
+  <si>
+    <t>新手任务81：主舰升级至40级</t>
+  </si>
+  <si>
+    <t>新手任务82：通过50关</t>
+  </si>
+  <si>
+    <t>新手任务83：军阶晋升至参谋军士</t>
+  </si>
+  <si>
+    <t>新手任务84：火控系统精炼至5级</t>
+  </si>
+  <si>
+    <t>新手任务85：通过55关</t>
+  </si>
+  <si>
+    <t>新手任务86：激光炮升级至50级</t>
+  </si>
+  <si>
+    <t>新手任务87：通过60关</t>
+  </si>
+  <si>
+    <t>新手任务88：军阶晋升至上士</t>
+  </si>
+  <si>
+    <t>新手任务89：军阶晋升至一级士官</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1703,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
@@ -1700,7 +1724,7 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
@@ -1749,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1947,7 +1971,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>53</v>
@@ -1984,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>56</v>
@@ -2021,7 +2045,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>58</v>
@@ -2062,7 +2086,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>60</v>
@@ -2099,7 +2123,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>63</v>
@@ -2136,10 +2160,10 @@
         <v>62</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2173,7 +2197,7 @@
         <v>64</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>65</v>
@@ -2210,7 +2234,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>67</v>
@@ -2247,10 +2271,10 @@
         <v>68</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -2288,7 +2312,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>70</v>
@@ -2325,7 +2349,7 @@
         <v>72</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>75</v>
@@ -2368,7 +2392,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>73</v>
@@ -2409,7 +2433,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>79</v>
@@ -2446,7 +2470,7 @@
         <v>78</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>81</v>
@@ -2483,10 +2507,10 @@
         <v>80</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="G18" s="10">
         <v>8000</v>
@@ -2522,7 +2546,7 @@
         <v>82</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>83</v>
@@ -2559,7 +2583,7 @@
         <v>84</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>77</v>
@@ -2600,7 +2624,7 @@
         <v>87</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>85</v>
@@ -2617,7 +2641,7 @@
         <v>2000</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="M21" s="10">
         <v>0</v>
@@ -2643,7 +2667,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>106</v>
@@ -2680,7 +2704,7 @@
         <v>92</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>90</v>
@@ -2723,7 +2747,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>88</v>
@@ -2760,7 +2784,7 @@
         <v>97</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>95</v>
@@ -2803,7 +2827,7 @@
         <v>99</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>93</v>
@@ -2840,7 +2864,7 @@
         <v>101</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>100</v>
@@ -2883,7 +2907,7 @@
         <v>103</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>98</v>
@@ -2920,7 +2944,7 @@
         <v>105</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>104</v>
@@ -2957,10 +2981,10 @@
         <v>107</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G30" s="10">
         <v>8000</v>
@@ -2996,7 +3020,7 @@
         <v>109</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>102</v>
@@ -3035,7 +3059,7 @@
         <v>111</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>108</v>
@@ -3072,7 +3096,7 @@
         <v>113</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>110</v>
@@ -3113,7 +3137,7 @@
         <v>114</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>112</v>
@@ -3150,10 +3174,10 @@
         <v>116</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -3191,7 +3215,7 @@
         <v>117</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>115</v>
@@ -3228,10 +3252,10 @@
         <v>119</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G37" s="10">
         <v>1001</v>
@@ -3269,7 +3293,7 @@
         <v>121</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>118</v>
@@ -3306,7 +3330,7 @@
         <v>123</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>120</v>
@@ -3343,10 +3367,10 @@
         <v>125</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G40" s="10">
         <v>8000</v>
@@ -3382,7 +3406,7 @@
         <v>127</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>122</v>
@@ -3419,7 +3443,7 @@
         <v>129</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>124</v>
@@ -3456,7 +3480,7 @@
         <v>131</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>126</v>
@@ -3497,7 +3521,7 @@
         <v>133</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>128</v>
@@ -3534,7 +3558,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>130</v>
@@ -3571,7 +3595,7 @@
         <v>137</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>132</v>
@@ -3612,7 +3636,7 @@
         <v>139</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -3649,7 +3673,7 @@
         <v>140</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>138</v>
@@ -3686,7 +3710,7 @@
         <v>142</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>141</v>
@@ -3723,17 +3747,15 @@
         <v>144</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="G50" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H50" s="10">
-        <v>1</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
         <v>54</v>
       </c>
@@ -3764,10 +3786,10 @@
         <v>146</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G51" s="10">
         <v>2000</v>
@@ -3805,13 +3827,17 @@
         <v>148</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+        <v>145</v>
+      </c>
+      <c r="G52" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1</v>
+      </c>
       <c r="I52" s="10" t="s">
         <v>54</v>
       </c>
@@ -3842,17 +3868,13 @@
         <v>149</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G53" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H53" s="10">
-        <v>0</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
         <v>54</v>
       </c>
@@ -3883,13 +3905,17 @@
         <v>150</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="G54" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
       <c r="I54" s="10" t="s">
         <v>54</v>
       </c>
@@ -3920,17 +3946,13 @@
         <v>152</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G55" s="10">
-        <v>1001</v>
-      </c>
-      <c r="H55" s="10">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
         <v>54</v>
       </c>
@@ -3961,13 +3983,17 @@
         <v>154</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+        <v>195</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H56" s="10">
+        <v>1</v>
+      </c>
       <c r="I56" s="10" t="s">
         <v>54</v>
       </c>
@@ -3998,10 +4024,10 @@
         <v>156</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -4035,10 +4061,10 @@
         <v>158</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -4072,17 +4098,13 @@
         <v>160</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G59" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H59" s="10">
-        <v>1</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
         <v>54</v>
       </c>
@@ -4113,13 +4135,17 @@
         <v>162</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+        <v>196</v>
+      </c>
+      <c r="G60" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="10">
+        <v>1</v>
+      </c>
       <c r="I60" s="10" t="s">
         <v>54</v>
       </c>
@@ -4127,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="10">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
@@ -4150,17 +4176,13 @@
         <v>164</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G61" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H61" s="10">
-        <v>2</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
         <v>54</v>
       </c>
@@ -4191,13 +4213,17 @@
         <v>166</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+        <v>153</v>
+      </c>
+      <c r="G62" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H62" s="10">
+        <v>2</v>
+      </c>
       <c r="I62" s="10" t="s">
         <v>54</v>
       </c>
@@ -4228,17 +4254,13 @@
         <v>168</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G63" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H63" s="10">
-        <v>0</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
         <v>54</v>
       </c>
@@ -4269,21 +4291,25 @@
         <v>170</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+        <v>260</v>
+      </c>
+      <c r="G64" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
       <c r="I64" s="10" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="J64" s="10">
         <v>0</v>
       </c>
       <c r="K64" s="10">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
@@ -4306,13 +4332,13 @@
         <v>172</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="G65" s="10">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H65" s="10">
         <v>0</v>
@@ -4347,10 +4373,10 @@
         <v>173</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4384,13 +4410,17 @@
         <v>175</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+        <v>198</v>
+      </c>
+      <c r="G67" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
       <c r="I67" s="10" t="s">
         <v>54</v>
       </c>
@@ -4421,17 +4451,13 @@
         <v>177</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G68" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H68" s="10">
-        <v>3</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
         <v>54</v>
       </c>
@@ -4462,10 +4488,10 @@
         <v>179</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -4499,16 +4525,16 @@
         <v>181</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>267</v>
+        <v>332</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="G70" s="10">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H70" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>54</v>
@@ -4540,10 +4566,10 @@
         <v>183</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -4577,23 +4603,25 @@
         <v>184</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="G72" s="10">
-        <v>9000</v>
-      </c>
-      <c r="H72" s="10"/>
+        <v>6000</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
       <c r="I72" s="10" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="J72" s="10">
         <v>0</v>
       </c>
       <c r="K72" s="10">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
@@ -4616,13 +4644,17 @@
         <v>186</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
+        <v>335</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G73" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H73" s="10">
+        <v>1</v>
+      </c>
       <c r="I73" s="10" t="s">
         <v>54</v>
       </c>
@@ -4653,10 +4685,10 @@
         <v>189</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -4687,20 +4719,18 @@
         <v>1073</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G75" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H75" s="10">
-        <v>0</v>
-      </c>
+        <v>9000</v>
+      </c>
+      <c r="H75" s="10"/>
       <c r="I75" s="10" t="s">
         <v>54</v>
       </c>
@@ -4728,13 +4758,13 @@
         <v>1074</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>220</v>
+        <v>338</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -4765,13 +4795,13 @@
         <v>1075</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -4782,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
@@ -4802,19 +4832,19 @@
         <v>1076</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>167</v>
+        <v>340</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="G78" s="10">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="H78" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>54</v>
@@ -4823,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
@@ -4843,20 +4873,16 @@
         <v>1077</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G79" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H79" s="10">
-        <v>0</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
         <v>54</v>
       </c>
@@ -4864,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
@@ -4884,13 +4910,13 @@
         <v>1078</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -4903,15 +4929,9 @@
       <c r="K80" s="10">
         <v>5000</v>
       </c>
-      <c r="L80" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M80" s="10">
-        <v>0</v>
-      </c>
-      <c r="N80" s="10">
-        <v>40</v>
-      </c>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
@@ -4927,16 +4947,16 @@
         <v>1079</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>225</v>
+        <v>343</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="G81" s="10">
-        <v>1001</v>
+        <v>6000</v>
       </c>
       <c r="H81" s="10">
         <v>1</v>
@@ -4968,24 +4988,28 @@
         <v>1080</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+        <v>344</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G82" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
       <c r="I82" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J82" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="10">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
@@ -5005,13 +5029,13 @@
         <v>1081</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -5019,14 +5043,20 @@
         <v>54</v>
       </c>
       <c r="J83" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="10">
-        <v>10</v>
-      </c>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
+        <v>5000</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M83" s="10">
+        <v>0</v>
+      </c>
+      <c r="N83" s="10">
+        <v>40</v>
+      </c>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
@@ -5042,20 +5072,16 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G84" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H84" s="10">
-        <v>0</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="10" t="s">
         <v>54</v>
       </c>
@@ -5083,20 +5109,16 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="G85" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H85" s="10">
-        <v>2</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
         <v>54</v>
       </c>
@@ -5124,16 +5146,20 @@
         <v>1084</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
+        <v>185</v>
+      </c>
+      <c r="G86" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
       <c r="I86" s="10" t="s">
         <v>54</v>
       </c>
@@ -5161,16 +5187,16 @@
         <v>1085</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>233</v>
+        <v>349</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="G87" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H87" s="10">
         <v>2</v>
@@ -5202,13 +5228,13 @@
         <v>1086</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -5239,19 +5265,19 @@
         <v>1087</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="G89" s="10">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H89" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>54</v>
@@ -5276,24 +5302,20 @@
       <c r="B90" s="10">
         <v>1087</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>188</v>
+      <c r="C90" s="10">
+        <v>1088</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G90" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H90" s="10">
-        <v>0</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
       <c r="I90" s="10" t="s">
         <v>54</v>
       </c>
@@ -5311,17 +5333,39 @@
       <c r="Q90" s="10"/>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
+      <c r="A91" s="10">
+        <v>88</v>
+      </c>
+      <c r="B91" s="10">
+        <v>1088</v>
+      </c>
+      <c r="C91" s="10">
+        <v>1089</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" s="10">
+        <v>1</v>
+      </c>
+      <c r="K91" s="10">
+        <v>10</v>
+      </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
@@ -5330,17 +5374,39 @@
       <c r="Q91" s="10"/>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
+      <c r="A92" s="10">
+        <v>89</v>
+      </c>
+      <c r="B92" s="10">
+        <v>1089</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G92" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J92" s="10">
+        <v>1</v>
+      </c>
+      <c r="K92" s="10">
+        <v>10</v>
+      </c>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
@@ -5841,6 +5907,44 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
+    </row>
+    <row r="119" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+    </row>
+    <row r="120" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -5876,16 +5980,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -5914,16 +6018,16 @@
         <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>33</v>
@@ -5952,34 +6056,34 @@
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5991,7 +6095,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6017,7 +6121,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6043,7 +6147,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6069,7 +6173,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6095,7 +6199,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6121,7 +6225,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6147,7 +6251,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6173,7 +6277,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6199,7 +6303,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6225,7 +6329,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6251,7 +6355,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB488531-4C2E-49BD-8A60-6AE9F86E4196}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1CE728-6703-45E2-941D-015F0E1167B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,9 +660,6 @@
     <t>新手任务76</t>
   </si>
   <si>
-    <t>主舰40级</t>
-  </si>
-  <si>
     <t>新手任务77</t>
   </si>
   <si>
@@ -1071,9 +1068,6 @@
     <t>新手任务80：通过45关</t>
   </si>
   <si>
-    <t>新手任务81：主舰升级至40级</t>
-  </si>
-  <si>
     <t>新手任务82：通过50关</t>
   </si>
   <si>
@@ -1096,6 +1090,14 @@
   </si>
   <si>
     <t>新手任务89：军阶晋升至一级士官</t>
+  </si>
+  <si>
+    <t>新手任务81：导弹炮升至40级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮40级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1703,7 +1705,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
@@ -1724,7 +1726,7 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
@@ -1775,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1971,7 +1973,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>53</v>
@@ -2008,7 +2010,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>56</v>
@@ -2045,7 +2047,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>58</v>
@@ -2086,7 +2088,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>60</v>
@@ -2123,7 +2125,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>63</v>
@@ -2160,10 +2162,10 @@
         <v>62</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2197,7 +2199,7 @@
         <v>64</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>65</v>
@@ -2234,7 +2236,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>67</v>
@@ -2271,7 +2273,7 @@
         <v>68</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>191</v>
@@ -2312,7 +2314,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>70</v>
@@ -2349,7 +2351,7 @@
         <v>72</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>75</v>
@@ -2392,7 +2394,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>73</v>
@@ -2433,7 +2435,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>79</v>
@@ -2470,7 +2472,7 @@
         <v>78</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>81</v>
@@ -2507,10 +2509,10 @@
         <v>80</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" s="10">
         <v>8000</v>
@@ -2546,7 +2548,7 @@
         <v>82</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>83</v>
@@ -2583,7 +2585,7 @@
         <v>84</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>77</v>
@@ -2624,7 +2626,7 @@
         <v>87</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>85</v>
@@ -2667,7 +2669,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>106</v>
@@ -2704,7 +2706,7 @@
         <v>92</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>90</v>
@@ -2747,7 +2749,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>88</v>
@@ -2784,7 +2786,7 @@
         <v>97</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>95</v>
@@ -2827,7 +2829,7 @@
         <v>99</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>93</v>
@@ -2864,7 +2866,7 @@
         <v>101</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>100</v>
@@ -2907,7 +2909,7 @@
         <v>103</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>98</v>
@@ -2944,7 +2946,7 @@
         <v>105</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>104</v>
@@ -2981,10 +2983,10 @@
         <v>107</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G30" s="10">
         <v>8000</v>
@@ -3020,7 +3022,7 @@
         <v>109</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>102</v>
@@ -3059,7 +3061,7 @@
         <v>111</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>108</v>
@@ -3096,7 +3098,7 @@
         <v>113</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>110</v>
@@ -3137,7 +3139,7 @@
         <v>114</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>112</v>
@@ -3174,7 +3176,7 @@
         <v>116</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>193</v>
@@ -3215,7 +3217,7 @@
         <v>117</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>115</v>
@@ -3252,7 +3254,7 @@
         <v>119</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>194</v>
@@ -3293,7 +3295,7 @@
         <v>121</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>118</v>
@@ -3330,7 +3332,7 @@
         <v>123</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>120</v>
@@ -3367,10 +3369,10 @@
         <v>125</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G40" s="10">
         <v>8000</v>
@@ -3406,7 +3408,7 @@
         <v>127</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>122</v>
@@ -3443,7 +3445,7 @@
         <v>129</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>124</v>
@@ -3480,7 +3482,7 @@
         <v>131</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>126</v>
@@ -3521,7 +3523,7 @@
         <v>133</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>128</v>
@@ -3558,7 +3560,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>130</v>
@@ -3595,7 +3597,7 @@
         <v>137</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>132</v>
@@ -3636,7 +3638,7 @@
         <v>139</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -3673,7 +3675,7 @@
         <v>140</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>138</v>
@@ -3710,7 +3712,7 @@
         <v>142</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>141</v>
@@ -3747,10 +3749,10 @@
         <v>144</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G50" s="10">
         <v>8000</v>
@@ -3786,7 +3788,7 @@
         <v>146</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>143</v>
@@ -3827,7 +3829,7 @@
         <v>148</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>145</v>
@@ -3868,7 +3870,7 @@
         <v>149</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>147</v>
@@ -3905,7 +3907,7 @@
         <v>150</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>136</v>
@@ -3946,7 +3948,7 @@
         <v>152</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>151</v>
@@ -3983,7 +3985,7 @@
         <v>154</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>195</v>
@@ -4024,7 +4026,7 @@
         <v>156</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>155</v>
@@ -4061,7 +4063,7 @@
         <v>158</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>157</v>
@@ -4098,7 +4100,7 @@
         <v>160</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>159</v>
@@ -4135,7 +4137,7 @@
         <v>162</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>196</v>
@@ -4176,7 +4178,7 @@
         <v>164</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>163</v>
@@ -4213,7 +4215,7 @@
         <v>166</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>153</v>
@@ -4254,7 +4256,7 @@
         <v>168</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>165</v>
@@ -4291,10 +4293,10 @@
         <v>170</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G64" s="10">
         <v>6000</v>
@@ -4303,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J64" s="10">
         <v>0</v>
@@ -4332,7 +4334,7 @@
         <v>172</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>161</v>
@@ -4373,7 +4375,7 @@
         <v>173</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>197</v>
@@ -4410,7 +4412,7 @@
         <v>175</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>198</v>
@@ -4451,7 +4453,7 @@
         <v>177</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>199</v>
@@ -4488,7 +4490,7 @@
         <v>179</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>169</v>
@@ -4525,7 +4527,7 @@
         <v>181</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>180</v>
@@ -4566,7 +4568,7 @@
         <v>183</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>200</v>
@@ -4603,10 +4605,10 @@
         <v>184</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G72" s="10">
         <v>6000</v>
@@ -4615,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J72" s="10">
         <v>0</v>
@@ -4644,10 +4646,10 @@
         <v>186</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G73" s="10">
         <v>1000</v>
@@ -4685,7 +4687,7 @@
         <v>189</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>201</v>
@@ -4722,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>202</v>
@@ -4761,7 +4763,7 @@
         <v>208</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>203</v>
@@ -4798,7 +4800,7 @@
         <v>209</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>204</v>
@@ -4835,7 +4837,7 @@
         <v>210</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>205</v>
@@ -4876,7 +4878,7 @@
         <v>211</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>206</v>
@@ -4910,10 +4912,10 @@
         <v>1078</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>171</v>
@@ -4947,10 +4949,10 @@
         <v>1079</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>167</v>
@@ -4988,10 +4990,10 @@
         <v>1080</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>176</v>
@@ -5029,10 +5031,10 @@
         <v>1081</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>174</v>
@@ -5072,16 +5074,20 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+        <v>354</v>
+      </c>
+      <c r="G84" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H84" s="10">
+        <v>1</v>
+      </c>
       <c r="I84" s="10" t="s">
         <v>54</v>
       </c>
@@ -5109,10 +5115,10 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>178</v>
@@ -5146,10 +5152,10 @@
         <v>1084</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>185</v>
@@ -5187,13 +5193,13 @@
         <v>1085</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G87" s="10">
         <v>2000</v>
@@ -5228,10 +5234,10 @@
         <v>1086</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>182</v>
@@ -5265,13 +5271,13 @@
         <v>1087</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G89" s="10">
         <v>1000</v>
@@ -5306,10 +5312,10 @@
         <v>1088</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>187</v>
@@ -5343,10 +5349,10 @@
         <v>1089</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>190</v>
@@ -5384,13 +5390,13 @@
         <v>188</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G92" s="10">
         <v>5000</v>
@@ -5980,16 +5986,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -6018,16 +6024,16 @@
         <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>33</v>
@@ -6056,34 +6062,34 @@
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -6095,7 +6101,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6121,7 +6127,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6147,7 +6153,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6173,7 +6179,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6199,7 +6205,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6225,7 +6231,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6251,7 +6257,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6277,7 +6283,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6303,7 +6309,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6329,7 +6335,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6355,7 +6361,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1CE728-6703-45E2-941D-015F0E1167B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E9D5A7-D5B1-49D0-9FE0-B6B389FF163A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E9D5A7-D5B1-49D0-9FE0-B6B389FF163A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63A05BD-F322-4313-8AAD-E1452895BADD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="380">
   <si>
     <t>sheet名</t>
   </si>
@@ -586,9 +586,6 @@
   </si>
   <si>
     <t>通过60关</t>
-  </si>
-  <si>
-    <t>[nil]</t>
   </si>
   <si>
     <t>新手任务71</t>
@@ -828,283 +825,367 @@
     <t>新手任务80</t>
   </si>
   <si>
-    <t>新手任务1：通过第1关</t>
-  </si>
-  <si>
-    <t>新手任务2：通过第2关</t>
-  </si>
-  <si>
-    <t>新手任务3：主舰升级至5级</t>
-  </si>
-  <si>
-    <t>新手任务4：通过第3关</t>
-  </si>
-  <si>
-    <t>新手任务5：通过第4关</t>
-  </si>
-  <si>
-    <t>新手任务6：释放1次技能</t>
-  </si>
-  <si>
-    <t>新手任务7：通过第5关</t>
-  </si>
-  <si>
-    <t>新手任务8：通过第6关</t>
-  </si>
-  <si>
-    <t>新手任务9：主舰升级至9级</t>
-  </si>
-  <si>
-    <t>新手任务10：通过第7关</t>
-  </si>
-  <si>
-    <t>新手任务11：通过第8关</t>
-  </si>
-  <si>
-    <t>新手任务12：主舰进阶至1代</t>
-  </si>
-  <si>
-    <t>新手任务13：通过第9关</t>
-  </si>
-  <si>
-    <t>新手任务14：通过第10关</t>
-  </si>
-  <si>
-    <t>新手任务15：领取关卡奖励1-10</t>
-  </si>
-  <si>
-    <t>新手任务16：装备火力装置</t>
-  </si>
-  <si>
-    <t>新手任务17：军阶升级至二等兵</t>
-  </si>
-  <si>
-    <t>新手任务18：通过11关</t>
-  </si>
-  <si>
-    <t>新手任务19：装备装甲附甲装置</t>
-  </si>
-  <si>
-    <t>新手任务20：通过12关</t>
-  </si>
-  <si>
-    <t>新手任务21：装备能量线圈装置</t>
-  </si>
-  <si>
-    <t>新手任务22：通过13关</t>
-  </si>
-  <si>
-    <t>新手任务23：装备电压附甲装置</t>
-  </si>
-  <si>
-    <t>新手任务24：通过14关</t>
-  </si>
-  <si>
-    <t>新手任务25：装备磁力稳定器装置</t>
-  </si>
-  <si>
-    <t>新手任务26：通过15关</t>
-  </si>
-  <si>
-    <t>新手任务27：领取关卡奖励2-5</t>
-  </si>
-  <si>
-    <t>新手任务28：装备护盾阵列装置</t>
-  </si>
-  <si>
-    <t>新手任务29：通过16关</t>
-  </si>
-  <si>
-    <t>新手任务30：解锁导弹炮</t>
-  </si>
-  <si>
-    <t>新手任务31：通过17关</t>
-  </si>
-  <si>
-    <t>新手任务32：导弹炮升级至5级</t>
-  </si>
-  <si>
-    <t>新手任务33：通过18关</t>
-  </si>
-  <si>
-    <t>新手任务34：导弹炮升级至10级</t>
-  </si>
-  <si>
-    <t>新手任务35：通过19关</t>
-  </si>
-  <si>
-    <t>新手任务36：通过20关</t>
-  </si>
-  <si>
-    <t>新手任务37：领取关卡奖励2-10</t>
-  </si>
-  <si>
-    <t>新手任务38：装备电磁增强装置</t>
-  </si>
-  <si>
-    <t>新手任务39：通过21关</t>
-  </si>
-  <si>
-    <t>新手任务40：军阶晋升至一等兵</t>
-  </si>
-  <si>
-    <t>新手任务41：装备索敌增强器装置</t>
-  </si>
-  <si>
-    <t>新手任务42：通过22关</t>
-  </si>
-  <si>
-    <t>新手任务43：火力装置升级至10级</t>
-  </si>
-  <si>
-    <t>新手任务44：通过23关</t>
-  </si>
-  <si>
-    <t>新手任务45：通过24关</t>
-  </si>
-  <si>
-    <t>新手任务46：通过25关</t>
-  </si>
-  <si>
-    <t>新手任务47：领取管卡奖励3-5</t>
-  </si>
-  <si>
-    <t>新手任务48：进行一次装备合成</t>
-  </si>
-  <si>
-    <t>新手任务49：火控系统装置达到2阶</t>
-  </si>
-  <si>
-    <t>新手任务50：通过26关</t>
-  </si>
-  <si>
-    <t>新手任务51：所有装置强化至10级</t>
-  </si>
-  <si>
-    <t>新手任务52：通过27关</t>
-  </si>
-  <si>
-    <t>新手任务53：导弹炮升级至20级</t>
-  </si>
-  <si>
-    <t>新手任务54：通过28关</t>
-  </si>
-  <si>
-    <t>新手任务55：通过29关</t>
-  </si>
-  <si>
-    <t>新手任务56：通过30关</t>
-  </si>
-  <si>
-    <t>新手任务57：能量线圈装置达到2阶</t>
-  </si>
-  <si>
-    <t>新手任务58：通过31关</t>
-  </si>
-  <si>
-    <t>新手任务59：进行一次装备抽取</t>
-  </si>
-  <si>
-    <t>新手任务60：通过32关</t>
-  </si>
-  <si>
-    <t>新手任务61：购买2次金币宝箱</t>
-  </si>
-  <si>
-    <t>新手任务62：军阶晋升至下士</t>
-  </si>
-  <si>
-    <t>新手任务63：通过33关</t>
-  </si>
-  <si>
-    <t>新手任务64：所有装置强化至20级</t>
-  </si>
-  <si>
-    <t>新手任务65：通过34关</t>
-  </si>
-  <si>
-    <t>新手任务66：通过35关</t>
-  </si>
-  <si>
-    <t>新手任务67：主舰核能升至1重</t>
-  </si>
-  <si>
-    <t>新手任务68：通过36关</t>
-  </si>
-  <si>
-    <t>新手任务69：商店购买2次智慧机体</t>
-  </si>
-  <si>
-    <t>新手任务70：主舰进阶至2代</t>
-  </si>
-  <si>
-    <t>新手任务71：通过37关</t>
-  </si>
-  <si>
-    <t>新手任务72：进行1次关卡扫荡</t>
-  </si>
-  <si>
-    <t>新手任务73：主舰升级至30级</t>
-  </si>
-  <si>
-    <t>新手任务74：通过38关</t>
-  </si>
-  <si>
-    <t>新手任务75：装备全部强化至40级</t>
-  </si>
-  <si>
-    <t>新手任务76：通过39关</t>
-  </si>
-  <si>
-    <t>新手任务77：通过40关</t>
-  </si>
-  <si>
-    <t>新手任务78：进行1次晶片抽取</t>
-  </si>
-  <si>
-    <t>新手任务79：军阶晋升至中士</t>
-  </si>
-  <si>
-    <t>新手任务80：通过45关</t>
-  </si>
-  <si>
-    <t>新手任务82：通过50关</t>
-  </si>
-  <si>
-    <t>新手任务83：军阶晋升至参谋军士</t>
-  </si>
-  <si>
-    <t>新手任务84：火控系统精炼至5级</t>
-  </si>
-  <si>
-    <t>新手任务85：通过55关</t>
-  </si>
-  <si>
-    <t>新手任务86：激光炮升级至50级</t>
-  </si>
-  <si>
-    <t>新手任务87：通过60关</t>
-  </si>
-  <si>
-    <t>新手任务88：军阶晋升至上士</t>
-  </si>
-  <si>
-    <t>新手任务89：军阶晋升至一级士官</t>
-  </si>
-  <si>
-    <t>新手任务81：导弹炮升至40级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>导弹炮40级</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取3-1奖励</t>
+  </si>
+  <si>
+    <t>新手任务90</t>
+  </si>
+  <si>
+    <t>新手任务1：通过第一章第1关</t>
+  </si>
+  <si>
+    <t>新手任务2：通过第一章第2关</t>
+  </si>
+  <si>
+    <t>新手任务3：主舰升级至5级</t>
+  </si>
+  <si>
+    <t>新手任务4：通过第一章第3关</t>
+  </si>
+  <si>
+    <t>新手任务5：通过第一章第4关</t>
+  </si>
+  <si>
+    <t>新手任务6：释放1次技能</t>
+  </si>
+  <si>
+    <t>新手任务7：通过第一章第5关</t>
+  </si>
+  <si>
+    <t>新手任务8：通过第一章第6关</t>
+  </si>
+  <si>
+    <t>新手任务9：主舰升级至9级</t>
+  </si>
+  <si>
+    <t>新手任务10：通过第一章第7关</t>
+  </si>
+  <si>
+    <t>新手任务11：通过第一章第8关</t>
+  </si>
+  <si>
+    <t>新手任务12：主舰进阶至1代</t>
+  </si>
+  <si>
+    <t>新手任务13：通过第一章第9关</t>
+  </si>
+  <si>
+    <t>新手任务14：通过第一章第10关</t>
+  </si>
+  <si>
+    <t>新手任务15：领取关卡奖励1-10</t>
+  </si>
+  <si>
+    <t>新手任务16：装备火力装置</t>
+  </si>
+  <si>
+    <t>新手任务17：军阶升级至二等兵</t>
+  </si>
+  <si>
+    <t>新手任务18：通过第二章第1关</t>
+  </si>
+  <si>
+    <t>新手任务19：装备装甲附甲装置</t>
+  </si>
+  <si>
+    <t>新手任务20：通过第二章第2关</t>
+  </si>
+  <si>
+    <t>新手任务21：装备能量线圈装置</t>
+  </si>
+  <si>
+    <t>新手任务22：通过第二章第3关</t>
+  </si>
+  <si>
+    <t>新手任务23：装备电压附甲装置</t>
+  </si>
+  <si>
+    <t>新手任务24：通过第二章第4关</t>
+  </si>
+  <si>
+    <t>新手任务25：装备磁力稳定器装置</t>
+  </si>
+  <si>
+    <t>新手任务26：通过第二章第5关</t>
+  </si>
+  <si>
+    <t>新手任务27：领取关卡奖励2-5</t>
+  </si>
+  <si>
+    <t>新手任务28：装备护盾阵列装置</t>
+  </si>
+  <si>
+    <t>新手任务29：通过第二章第6关</t>
+  </si>
+  <si>
+    <t>新手任务30：解锁导弹炮</t>
+  </si>
+  <si>
+    <t>新手任务31：通过第二章第7关</t>
+  </si>
+  <si>
+    <t>新手任务32：导弹炮升级至5级</t>
+  </si>
+  <si>
+    <t>新手任务33：通过第二章第8关</t>
+  </si>
+  <si>
+    <t>新手任务34：导弹炮升级至10级</t>
+  </si>
+  <si>
+    <t>新手任务35：通过第二章第9关</t>
+  </si>
+  <si>
+    <t>新手任务36：通过第二章第10关</t>
+  </si>
+  <si>
+    <t>新手任务37：领取关卡奖励2-10</t>
+  </si>
+  <si>
+    <t>新手任务38：装备电磁增强装置</t>
+  </si>
+  <si>
+    <t>新手任务39：通过第三章第1关</t>
+  </si>
+  <si>
+    <t>新手任务40：军阶晋升至一等兵</t>
+  </si>
+  <si>
+    <t>新手任务41：装备索敌增强器装置</t>
+  </si>
+  <si>
+    <t>新手任务42：通过第三章第2关</t>
+  </si>
+  <si>
+    <t>新手任务43：火力装置升级至10级</t>
+  </si>
+  <si>
+    <t>新手任务44：通过第三章第3关</t>
+  </si>
+  <si>
+    <t>新手任务45：通过第三章第4关</t>
+  </si>
+  <si>
+    <t>新手任务46：通过第三章第5关</t>
+  </si>
+  <si>
+    <t>新手任务47：领取管卡奖励2-5</t>
+  </si>
+  <si>
+    <t>新手任务48：进行一次装备合成</t>
+  </si>
+  <si>
+    <t>新手任务49：火控系统装置达到2阶</t>
+  </si>
+  <si>
+    <t>新手任务50：通过第三章第6关</t>
+  </si>
+  <si>
+    <t>新手任务51：所有装置强化至10级</t>
+  </si>
+  <si>
+    <t>新手任务52：通过第三章第7关</t>
+  </si>
+  <si>
+    <t>新手任务53：导弹炮升级至20级</t>
+  </si>
+  <si>
+    <t>新手任务54：通过第三章第8关</t>
+  </si>
+  <si>
+    <t>新手任务55：通过第三章第9关</t>
+  </si>
+  <si>
+    <t>新手任务56：通过第三章第10关</t>
+  </si>
+  <si>
+    <t>新手任务57：领取关卡奖励3-1</t>
+  </si>
+  <si>
+    <t>新手任务58：能量线圈装置达到2阶</t>
+  </si>
+  <si>
+    <t>新手任务59：通过第四章第1关</t>
+  </si>
+  <si>
+    <t>新手任务60：进行一次装备抽取</t>
+  </si>
+  <si>
+    <t>新手任务61：通过第四章第2关</t>
+  </si>
+  <si>
+    <t>新手任务62：购买2次金币宝箱</t>
+  </si>
+  <si>
+    <t>新手任务63：军阶晋升至下士</t>
+  </si>
+  <si>
+    <t>新手任务64：通过第四章第3关</t>
+  </si>
+  <si>
+    <t>新手任务65：所有装置强化至20级</t>
+  </si>
+  <si>
+    <t>新手任务66：通过第四章第4关</t>
+  </si>
+  <si>
+    <t>新手任务67：通过第四章第5关</t>
+  </si>
+  <si>
+    <t>新手任务68：主舰核能升至1重</t>
+  </si>
+  <si>
+    <t>新手任务69：通过第四章第6关</t>
+  </si>
+  <si>
+    <t>新手任务70：商店购买2次智慧机体</t>
+  </si>
+  <si>
+    <t>新手任务71：主舰进阶至2代</t>
+  </si>
+  <si>
+    <t>新手任务72：通过第四章第7关</t>
+  </si>
+  <si>
+    <t>新手任务73：进行1次关卡扫荡</t>
+  </si>
+  <si>
+    <t>新手任务74：主舰升级至30级</t>
+  </si>
+  <si>
+    <t>新手任务75：通过第四章第8关</t>
+  </si>
+  <si>
+    <t>新手任务76：装备全部强化至40级</t>
+  </si>
+  <si>
+    <t>新手任务77：通过第四章第9关</t>
+  </si>
+  <si>
+    <t>新手任务78：通过第四章第10关</t>
+  </si>
+  <si>
+    <t>新手任务79：进行1次晶片抽取</t>
+  </si>
+  <si>
+    <t>新手任务80：军阶晋升至中士</t>
+  </si>
+  <si>
+    <t>新手任务81：通过第五章第5关</t>
+  </si>
+  <si>
+    <t>新手任务82：导弹炮升至40级</t>
+  </si>
+  <si>
+    <t>新手任务83：通过第六章</t>
+  </si>
+  <si>
+    <t>新手任务84：军阶晋升至参谋军士</t>
+  </si>
+  <si>
+    <t>新手任务85：火控系统精炼至5级</t>
+  </si>
+  <si>
+    <t>新手任务86：通过第六章第5关</t>
+  </si>
+  <si>
+    <t>新手任务87：激光炮升级至50级</t>
+  </si>
+  <si>
+    <t>新手任务89：军阶晋升至上士</t>
+  </si>
+  <si>
+    <t>新手任务90：军阶晋升至一级士官</t>
+  </si>
+  <si>
+    <t>新手任务91</t>
+  </si>
+  <si>
+    <t>突破大师3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务92</t>
+  </si>
+  <si>
+    <t>通过90关</t>
+  </si>
+  <si>
+    <t>新手任务93</t>
+  </si>
+  <si>
+    <t>军阶8</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务94</t>
+  </si>
+  <si>
+    <t>通过110关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务95</t>
+  </si>
+  <si>
+    <t>军阶9</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石VII</t>
+  </si>
+  <si>
+    <t>新手任务96</t>
+  </si>
+  <si>
+    <t>新手任务97</t>
+  </si>
+  <si>
+    <t>军阶10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nil]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务88：通过第七章</t>
+  </si>
+  <si>
+    <t>新手任务91：战舰和僚炮突破达到3阶</t>
+  </si>
+  <si>
+    <t>新手任务92：通过第九章</t>
+  </si>
+  <si>
+    <t>新手任务93：军阶晋升为二级士官</t>
+  </si>
+  <si>
+    <t>新手任务94：通过第十一章</t>
+  </si>
+  <si>
+    <t>新手任务95：军阶晋升为三级士官</t>
+  </si>
+  <si>
+    <t>新手任务96：花费3000钻石</t>
+  </si>
+  <si>
+    <t>新手任务97：军阶晋升为一级准尉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,12 +1278,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1332,7 +1407,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1373,7 +1448,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Grid" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
@@ -1705,7 +1779,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
@@ -1726,7 +1800,7 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
@@ -1775,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1959,7 +2033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1973,7 +2047,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>53</v>
@@ -1996,7 +2070,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -2010,7 +2084,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>56</v>
@@ -2033,7 +2107,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -2047,7 +2121,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>58</v>
@@ -2074,7 +2148,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -2088,7 +2162,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>60</v>
@@ -2111,7 +2185,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2125,7 +2199,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>63</v>
@@ -2148,7 +2222,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -2162,10 +2236,10 @@
         <v>62</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2185,7 +2259,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -2199,7 +2273,7 @@
         <v>64</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>65</v>
@@ -2222,7 +2296,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -2236,7 +2310,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>67</v>
@@ -2259,7 +2333,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -2273,10 +2347,10 @@
         <v>68</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="10">
         <v>1000</v>
@@ -2300,7 +2374,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -2314,7 +2388,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>70</v>
@@ -2337,7 +2411,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -2351,7 +2425,7 @@
         <v>72</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>75</v>
@@ -2380,7 +2454,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -2394,7 +2468,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>73</v>
@@ -2421,7 +2495,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -2435,7 +2509,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>79</v>
@@ -2458,7 +2532,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -2472,7 +2546,7 @@
         <v>78</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>81</v>
@@ -2495,7 +2569,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -2509,10 +2583,10 @@
         <v>80</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G18" s="10">
         <v>8000</v>
@@ -2534,7 +2608,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -2548,7 +2622,7 @@
         <v>82</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>83</v>
@@ -2571,7 +2645,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -2585,7 +2659,7 @@
         <v>84</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>77</v>
@@ -2612,7 +2686,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -2626,7 +2700,7 @@
         <v>87</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>85</v>
@@ -2643,7 +2717,7 @@
         <v>2000</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M21" s="10">
         <v>0</v>
@@ -2655,7 +2729,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -2669,7 +2743,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>106</v>
@@ -2692,7 +2766,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -2706,7 +2780,7 @@
         <v>92</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>90</v>
@@ -2735,7 +2809,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -2749,7 +2823,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>88</v>
@@ -2772,7 +2846,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -2786,7 +2860,7 @@
         <v>97</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>95</v>
@@ -2815,7 +2889,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -2829,7 +2903,7 @@
         <v>99</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>93</v>
@@ -2852,7 +2926,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -2866,7 +2940,7 @@
         <v>101</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>100</v>
@@ -2895,7 +2969,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -2909,7 +2983,7 @@
         <v>103</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>98</v>
@@ -2932,7 +3006,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -2946,7 +3020,7 @@
         <v>105</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>104</v>
@@ -2969,7 +3043,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -2983,10 +3057,10 @@
         <v>107</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G30" s="10">
         <v>8000</v>
@@ -3008,7 +3082,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -3022,12 +3096,12 @@
         <v>109</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="10">
         <v>8000</v>
       </c>
       <c r="H31" s="10"/>
@@ -3047,7 +3121,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -3061,7 +3135,7 @@
         <v>111</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>108</v>
@@ -3084,7 +3158,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -3098,7 +3172,7 @@
         <v>113</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>110</v>
@@ -3125,7 +3199,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -3139,7 +3213,7 @@
         <v>114</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>112</v>
@@ -3162,7 +3236,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -3176,10 +3250,10 @@
         <v>116</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G35" s="10">
         <v>1001</v>
@@ -3203,7 +3277,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -3217,7 +3291,7 @@
         <v>117</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>115</v>
@@ -3240,7 +3314,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -3254,10 +3328,10 @@
         <v>119</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G37" s="10">
         <v>1001</v>
@@ -3281,7 +3355,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -3295,7 +3369,7 @@
         <v>121</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>118</v>
@@ -3318,7 +3392,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -3332,7 +3406,7 @@
         <v>123</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>120</v>
@@ -3355,7 +3429,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -3369,10 +3443,10 @@
         <v>125</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G40" s="10">
         <v>8000</v>
@@ -3394,7 +3468,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -3408,7 +3482,7 @@
         <v>127</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>122</v>
@@ -3431,7 +3505,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -3445,7 +3519,7 @@
         <v>129</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>124</v>
@@ -3468,7 +3542,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -3482,7 +3556,7 @@
         <v>131</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>126</v>
@@ -3509,7 +3583,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -3523,7 +3597,7 @@
         <v>133</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>128</v>
@@ -3546,7 +3620,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -3560,7 +3634,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>130</v>
@@ -3583,7 +3657,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
     </row>
-    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -3597,7 +3671,7 @@
         <v>137</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>132</v>
@@ -3624,7 +3698,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
     </row>
-    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -3638,7 +3712,7 @@
         <v>139</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -3661,7 +3735,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -3675,7 +3749,7 @@
         <v>140</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>138</v>
@@ -3698,7 +3772,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
     </row>
-    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -3712,7 +3786,7 @@
         <v>142</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>141</v>
@@ -3735,7 +3809,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -3749,10 +3823,10 @@
         <v>144</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G50" s="10">
         <v>8000</v>
@@ -3774,7 +3848,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
     </row>
-    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -3788,7 +3862,7 @@
         <v>146</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>143</v>
@@ -3815,7 +3889,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
     </row>
-    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -3829,7 +3903,7 @@
         <v>148</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>145</v>
@@ -3856,7 +3930,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
     </row>
-    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -3870,7 +3944,7 @@
         <v>149</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>147</v>
@@ -3893,7 +3967,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
     </row>
-    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -3907,7 +3981,7 @@
         <v>150</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>136</v>
@@ -3934,7 +4008,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
     </row>
-    <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -3948,7 +4022,7 @@
         <v>152</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>151</v>
@@ -3971,7 +4045,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
     </row>
-    <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -3985,10 +4059,10 @@
         <v>154</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G56" s="10">
         <v>1001</v>
@@ -4012,7 +4086,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
     </row>
-    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -4026,7 +4100,7 @@
         <v>156</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>155</v>
@@ -4049,7 +4123,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -4063,7 +4137,7 @@
         <v>158</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>157</v>
@@ -4086,7 +4160,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
     </row>
-    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -4100,7 +4174,7 @@
         <v>160</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>159</v>
@@ -4123,7 +4197,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -4137,26 +4211,16 @@
         <v>162</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G60" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H60" s="10">
-        <v>1</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J60" s="10">
-        <v>0</v>
-      </c>
-      <c r="K60" s="10">
-        <v>3000</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -4164,7 +4228,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
     </row>
-    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -4178,10 +4242,10 @@
         <v>164</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4192,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="10">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -4201,7 +4265,7 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
     </row>
-    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -4215,17 +4279,13 @@
         <v>166</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G62" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H62" s="10">
-        <v>2</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="10" t="s">
         <v>54</v>
       </c>
@@ -4242,7 +4302,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -4256,13 +4316,17 @@
         <v>168</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+        <v>153</v>
+      </c>
+      <c r="G63" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H63" s="10">
+        <v>2</v>
+      </c>
       <c r="I63" s="10" t="s">
         <v>54</v>
       </c>
@@ -4279,7 +4343,7 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
     </row>
-    <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -4293,25 +4357,21 @@
         <v>170</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G64" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H64" s="10">
-        <v>0</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="J64" s="10">
         <v>0</v>
       </c>
       <c r="K64" s="10">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
@@ -4320,7 +4380,7 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
     </row>
-    <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -4334,25 +4394,25 @@
         <v>172</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="G65" s="10">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="H65" s="10">
         <v>0</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
       <c r="J65" s="10">
         <v>0</v>
       </c>
       <c r="K65" s="10">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
@@ -4361,7 +4421,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -4375,13 +4435,17 @@
         <v>173</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="G66" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
       <c r="I66" s="10" t="s">
         <v>54</v>
       </c>
@@ -4398,7 +4462,7 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
     </row>
-    <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -4412,17 +4476,13 @@
         <v>175</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G67" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H67" s="10">
-        <v>0</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
         <v>54</v>
       </c>
@@ -4439,7 +4499,7 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
     </row>
-    <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -4453,13 +4513,17 @@
         <v>177</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+        <v>197</v>
+      </c>
+      <c r="G68" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
       <c r="I68" s="10" t="s">
         <v>54</v>
       </c>
@@ -4476,7 +4540,7 @@
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
     </row>
-    <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -4490,10 +4554,10 @@
         <v>179</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -4513,7 +4577,7 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
     </row>
-    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -4527,17 +4591,13 @@
         <v>181</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G70" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H70" s="10">
-        <v>3</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
         <v>54</v>
       </c>
@@ -4554,7 +4614,7 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
     </row>
-    <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -4568,13 +4628,17 @@
         <v>183</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H71" s="10">
+        <v>3</v>
+      </c>
       <c r="I71" s="10" t="s">
         <v>54</v>
       </c>
@@ -4591,7 +4655,7 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
     </row>
-    <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>69</v>
       </c>
@@ -4605,25 +4669,21 @@
         <v>184</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G72" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H72" s="10">
-        <v>0</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="J72" s="10">
         <v>0</v>
       </c>
       <c r="K72" s="10">
-        <v>50</v>
+        <v>4000</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
@@ -4632,7 +4692,7 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>70</v>
       </c>
@@ -4646,25 +4706,25 @@
         <v>186</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>261</v>
       </c>
       <c r="G73" s="10">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="H73" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
       <c r="J73" s="10">
         <v>0</v>
       </c>
       <c r="K73" s="10">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
@@ -4673,7 +4733,7 @@
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>71</v>
       </c>
@@ -4684,16 +4744,20 @@
         <v>1072</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+        <v>260</v>
+      </c>
+      <c r="G74" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H74" s="10">
+        <v>1</v>
+      </c>
       <c r="I74" s="10" t="s">
         <v>54</v>
       </c>
@@ -4710,7 +4774,7 @@
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
     </row>
-    <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>72</v>
       </c>
@@ -4721,17 +4785,15 @@
         <v>1073</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G75" s="10">
-        <v>9000</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10" t="s">
         <v>54</v>
@@ -4749,7 +4811,7 @@
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
     </row>
-    <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>73</v>
       </c>
@@ -4760,15 +4822,17 @@
         <v>1074</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G76" s="10"/>
+        <v>339</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76" s="10">
+        <v>9000</v>
+      </c>
       <c r="H76" s="10"/>
       <c r="I76" s="10" t="s">
         <v>54</v>
@@ -4786,7 +4850,7 @@
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
     </row>
-    <row r="77" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>74</v>
       </c>
@@ -4797,13 +4861,13 @@
         <v>1075</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>204</v>
+        <v>340</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -4823,7 +4887,7 @@
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
     </row>
-    <row r="78" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>75</v>
       </c>
@@ -4834,20 +4898,16 @@
         <v>1076</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G78" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H78" s="10">
-        <v>0</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
       <c r="I78" s="10" t="s">
         <v>54</v>
       </c>
@@ -4864,7 +4924,7 @@
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
     </row>
-    <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>76</v>
       </c>
@@ -4875,16 +4935,20 @@
         <v>1077</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
+        <v>204</v>
+      </c>
+      <c r="G79" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
       <c r="I79" s="10" t="s">
         <v>54</v>
       </c>
@@ -4901,7 +4965,7 @@
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
     </row>
-    <row r="80" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>77</v>
       </c>
@@ -4912,13 +4976,13 @@
         <v>1078</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -4929,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="10">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
@@ -4938,7 +5002,7 @@
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
     </row>
-    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>78</v>
       </c>
@@ -4949,20 +5013,16 @@
         <v>1079</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G81" s="10">
-        <v>6000</v>
-      </c>
-      <c r="H81" s="10">
-        <v>1</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="10" t="s">
         <v>54</v>
       </c>
@@ -4979,7 +5039,7 @@
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
     </row>
-    <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>79</v>
       </c>
@@ -4990,19 +5050,19 @@
         <v>1080</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>176</v>
+        <v>345</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="G82" s="10">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="H82" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>54</v>
@@ -5020,7 +5080,7 @@
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
     </row>
-    <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>80</v>
       </c>
@@ -5031,16 +5091,20 @@
         <v>1081</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="G83" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
       <c r="I83" s="10" t="s">
         <v>54</v>
       </c>
@@ -5050,20 +5114,14 @@
       <c r="K83" s="10">
         <v>5000</v>
       </c>
-      <c r="L83" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M83" s="10">
-        <v>0</v>
-      </c>
-      <c r="N83" s="10">
-        <v>40</v>
-      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
     </row>
-    <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>81</v>
       </c>
@@ -5074,37 +5132,39 @@
         <v>1082</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="G84" s="10">
-        <v>1001</v>
-      </c>
-      <c r="H84" s="10">
-        <v>1</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J84" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="10">
-        <v>10</v>
-      </c>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
+        <v>5000</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M84" s="10">
+        <v>0</v>
+      </c>
+      <c r="N84" s="10">
+        <v>40</v>
+      </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
     </row>
-    <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>82</v>
       </c>
@@ -5115,16 +5175,20 @@
         <v>1083</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+        <v>348</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H85" s="10">
+        <v>1</v>
+      </c>
       <c r="I85" s="10" t="s">
         <v>54</v>
       </c>
@@ -5141,7 +5205,7 @@
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
     </row>
-    <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>83</v>
       </c>
@@ -5152,20 +5216,16 @@
         <v>1084</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G86" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H86" s="10">
-        <v>0</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
       <c r="I86" s="10" t="s">
         <v>54</v>
       </c>
@@ -5182,7 +5242,7 @@
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
     </row>
-    <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>84</v>
       </c>
@@ -5193,19 +5253,19 @@
         <v>1085</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>249</v>
+        <v>350</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="G87" s="10">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H87" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>54</v>
@@ -5223,7 +5283,7 @@
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
     </row>
-    <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>85</v>
       </c>
@@ -5234,16 +5294,20 @@
         <v>1086</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+        <v>351</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G88" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H88" s="10">
+        <v>2</v>
+      </c>
       <c r="I88" s="10" t="s">
         <v>54</v>
       </c>
@@ -5260,7 +5324,7 @@
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
     </row>
-    <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>86</v>
       </c>
@@ -5271,20 +5335,16 @@
         <v>1087</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G89" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H89" s="10">
-        <v>2</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
       <c r="I89" s="10" t="s">
         <v>54</v>
       </c>
@@ -5301,7 +5361,7 @@
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
     </row>
-    <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>87</v>
       </c>
@@ -5312,16 +5372,20 @@
         <v>1088</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
+        <v>215</v>
+      </c>
+      <c r="G90" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H90" s="10">
+        <v>2</v>
+      </c>
       <c r="I90" s="10" t="s">
         <v>54</v>
       </c>
@@ -5338,7 +5402,7 @@
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
     </row>
-    <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>88</v>
       </c>
@@ -5349,20 +5413,16 @@
         <v>1089</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G91" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H91" s="10">
-        <v>0</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="10" t="s">
         <v>54</v>
       </c>
@@ -5379,24 +5439,24 @@
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
     </row>
-    <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>89</v>
       </c>
       <c r="B92" s="10">
         <v>1089</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>188</v>
+      <c r="C92" s="10">
+        <v>1090</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="G92" s="10">
         <v>5000</v>
@@ -5420,18 +5480,40 @@
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
     </row>
-    <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
+    <row r="93" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="10">
+        <v>90</v>
+      </c>
+      <c r="B93" s="10">
+        <v>1090</v>
+      </c>
+      <c r="C93" s="10">
+        <v>1091</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G93" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H93" s="10">
+        <v>0</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J93" s="10">
+        <v>1</v>
+      </c>
+      <c r="K93" s="10">
+        <v>10</v>
+      </c>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
@@ -5440,17 +5522,39 @@
       <c r="Q93" s="10"/>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
+      <c r="A94" s="10">
+        <v>91</v>
+      </c>
+      <c r="B94" s="10">
+        <v>1091</v>
+      </c>
+      <c r="C94" s="10">
+        <v>1092</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G94" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H94" s="10">
+        <v>1</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="J94" s="10">
+        <v>0</v>
+      </c>
+      <c r="K94" s="10">
+        <v>100</v>
+      </c>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
@@ -5459,17 +5563,35 @@
       <c r="Q94" s="10"/>
     </row>
     <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
+      <c r="A95" s="10">
+        <v>92</v>
+      </c>
+      <c r="B95" s="10">
+        <v>1092</v>
+      </c>
+      <c r="C95" s="10">
+        <v>1093</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>360</v>
+      </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
+      <c r="I95" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J95" s="10">
+        <v>1</v>
+      </c>
+      <c r="K95" s="10">
+        <v>100</v>
+      </c>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
@@ -5478,17 +5600,39 @@
       <c r="Q95" s="10"/>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
+      <c r="A96" s="10">
+        <v>93</v>
+      </c>
+      <c r="B96" s="10">
+        <v>1093</v>
+      </c>
+      <c r="C96" s="10">
+        <v>1094</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G96" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J96" s="10">
+        <v>1</v>
+      </c>
+      <c r="K96" s="10">
+        <v>100</v>
+      </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
@@ -5497,17 +5641,35 @@
       <c r="Q96" s="10"/>
     </row>
     <row r="97" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
+      <c r="A97" s="10">
+        <v>94</v>
+      </c>
+      <c r="B97" s="10">
+        <v>1094</v>
+      </c>
+      <c r="C97" s="10">
+        <v>1095</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
+      <c r="I97" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J97" s="10">
+        <v>1</v>
+      </c>
+      <c r="K97" s="10">
+        <v>100</v>
+      </c>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
@@ -5516,17 +5678,39 @@
       <c r="Q97" s="10"/>
     </row>
     <row r="98" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
+      <c r="A98" s="10">
+        <v>95</v>
+      </c>
+      <c r="B98" s="10">
+        <v>1095</v>
+      </c>
+      <c r="C98" s="10">
+        <v>1096</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G98" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J98" s="10">
+        <v>1</v>
+      </c>
+      <c r="K98" s="10">
+        <v>100</v>
+      </c>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
@@ -5535,17 +5719,39 @@
       <c r="Q98" s="10"/>
     </row>
     <row r="99" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
+      <c r="A99" s="10">
+        <v>96</v>
+      </c>
+      <c r="B99" s="10">
+        <v>1096</v>
+      </c>
+      <c r="C99" s="10">
+        <v>1097</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G99" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H99" s="10">
+        <v>1</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J99" s="10">
+        <v>0</v>
+      </c>
+      <c r="K99" s="10">
+        <v>40</v>
+      </c>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
@@ -5554,17 +5760,39 @@
       <c r="Q99" s="10"/>
     </row>
     <row r="100" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
+      <c r="A100" s="10">
+        <v>97</v>
+      </c>
+      <c r="B100" s="10">
+        <v>1097</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G100" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H100" s="10">
+        <v>0</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="J100" s="10">
+        <v>0</v>
+      </c>
+      <c r="K100" s="10">
+        <v>100</v>
+      </c>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
@@ -5951,6 +6179,25 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
+    </row>
+    <row r="121" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -5986,16 +6233,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -6024,16 +6271,16 @@
         <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>33</v>
@@ -6062,34 +6309,34 @@
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -6101,7 +6348,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6127,7 +6374,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6153,7 +6400,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6179,7 +6426,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6205,7 +6452,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6231,7 +6478,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6257,7 +6504,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6283,7 +6530,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6309,7 +6556,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6335,7 +6582,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6361,7 +6608,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63A05BD-F322-4313-8AAD-E1452895BADD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C601A85-23A7-4C84-B515-DD716B982589}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="380">
   <si>
     <t>sheet名</t>
   </si>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4218,9 +4218,15 @@
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="I60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0</v>
+      </c>
+      <c r="K60" s="10">
+        <v>3000</v>
+      </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C601A85-23A7-4C84-B515-DD716B982589}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B066A48-72B9-483F-A582-52DF8BCB6EF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="380">
   <si>
     <t>sheet名</t>
   </si>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60:K60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5157,15 +5157,9 @@
       <c r="K84" s="10">
         <v>5000</v>
       </c>
-      <c r="L84" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M84" s="10">
-        <v>0</v>
-      </c>
-      <c r="N84" s="10">
-        <v>40</v>
-      </c>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B066A48-72B9-483F-A582-52DF8BCB6EF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D161DBB0-3D69-416F-91EE-0861E8C19AC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="383">
   <si>
     <t>sheet名</t>
   </si>
@@ -1179,6 +1179,31 @@
   </si>
   <si>
     <t>新手任务97：军阶晋升为一级准尉</t>
+  </si>
+  <si>
+    <t>isShowCharge</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ool:e&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>首冲乎脸</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1407,7 +1432,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1448,6 +1473,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Grid" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
@@ -1849,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,20 +1887,21 @@
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="36.375" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="16.125" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1894,40 +1921,43 @@
         <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1946,41 +1976,44 @@
       <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
+      <c r="G2" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
       <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -2000,40 +2033,43 @@
         <v>40</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2054,23 +2090,24 @@
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
         <v>1000</v>
       </c>
-      <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -2091,23 +2128,24 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>5</v>
       </c>
-      <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -2126,29 +2164,30 @@
       <c r="F6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
         <v>1000</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
+      <c r="J6" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
         <v>1000</v>
       </c>
-      <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -2169,23 +2208,24 @@
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
         <v>1000</v>
       </c>
-      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2206,23 +2246,24 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
         <v>1000</v>
       </c>
-      <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -2243,23 +2284,24 @@
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
         <v>1000</v>
       </c>
-      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -2280,23 +2322,24 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
         <v>1000</v>
       </c>
-      <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -2317,23 +2360,24 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="10">
         <v>5</v>
       </c>
-      <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -2352,29 +2396,30 @@
       <c r="F12" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>1000</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
+      <c r="J12" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
         <v>1000</v>
       </c>
-      <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -2395,23 +2440,24 @@
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0</v>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
         <v>5000</v>
       </c>
-      <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -2432,29 +2478,30 @@
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
         <v>1000</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
       <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
         <v>40</v>
       </c>
-      <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -2473,29 +2520,30 @@
       <c r="F15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>1000</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0</v>
+      <c r="J15" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
         <v>1000</v>
       </c>
-      <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -2516,23 +2564,24 @@
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0</v>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
         <v>1000</v>
       </c>
-      <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -2553,23 +2602,24 @@
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0</v>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
         <v>1000</v>
       </c>
-      <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -2588,27 +2638,28 @@
       <c r="F18" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>8000</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0</v>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
         <v>1000</v>
       </c>
-      <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -2629,23 +2680,24 @@
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
         <v>1000</v>
       </c>
-      <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -2664,29 +2716,30 @@
       <c r="F20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>5000</v>
       </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0</v>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K20" s="10">
+        <v>0</v>
+      </c>
+      <c r="L20" s="10">
         <v>2000</v>
       </c>
-      <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -2707,29 +2760,30 @@
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="10">
-        <v>0</v>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
         <v>2000</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
       <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
         <v>1</v>
       </c>
-      <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -2750,23 +2804,24 @@
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0</v>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
         <v>2000</v>
       </c>
-      <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -2787,29 +2842,30 @@
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="10">
-        <v>0</v>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
         <v>2000</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
       <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
         <v>1</v>
       </c>
-      <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -2830,23 +2886,24 @@
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0</v>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
         <v>2000</v>
       </c>
-      <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -2867,29 +2924,30 @@
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0</v>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="10">
         <v>2000</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="M25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
       <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
         <v>1</v>
       </c>
-      <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -2910,23 +2968,24 @@
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0</v>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K26" s="10">
+        <v>0</v>
+      </c>
+      <c r="L26" s="10">
         <v>2000</v>
       </c>
-      <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -2947,29 +3006,30 @@
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0</v>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
         <v>2000</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
       <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
         <v>1</v>
       </c>
-      <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -2990,23 +3050,24 @@
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0</v>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10">
         <v>2000</v>
       </c>
-      <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -3027,23 +3088,24 @@
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0</v>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10">
         <v>2000</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="10"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -3062,27 +3124,28 @@
       <c r="F30" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
         <v>8000</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0</v>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K30" s="10">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10">
         <v>2000</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="10"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -3101,27 +3164,28 @@
       <c r="F31" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
         <v>8000</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0</v>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
         <v>2000</v>
       </c>
-      <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -3142,23 +3206,24 @@
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32" s="10">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="10">
         <v>1</v>
       </c>
-      <c r="K32" s="10">
+      <c r="L32" s="10">
         <v>10</v>
       </c>
-      <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -3177,29 +3242,30 @@
       <c r="F33" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10">
         <v>1000</v>
       </c>
-      <c r="H33" s="10">
+      <c r="I33" s="10">
         <v>1</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0</v>
+      <c r="J33" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10">
         <v>2000</v>
       </c>
-      <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -3220,23 +3286,24 @@
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
         <v>2000</v>
       </c>
-      <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -3255,29 +3322,30 @@
       <c r="F35" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="10"/>
+      <c r="H35" s="10">
         <v>1001</v>
       </c>
-      <c r="H35" s="10">
+      <c r="I35" s="10">
         <v>1</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0</v>
+      <c r="J35" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
         <v>2000</v>
       </c>
-      <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -3298,23 +3366,24 @@
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0</v>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
         <v>2000</v>
       </c>
-      <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R36" s="10"/>
+    </row>
+    <row r="37" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -3333,29 +3402,30 @@
       <c r="F37" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10">
         <v>1001</v>
       </c>
-      <c r="H37" s="10">
+      <c r="I37" s="10">
         <v>1</v>
       </c>
-      <c r="I37" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0</v>
+      <c r="J37" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K37" s="10">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10">
         <v>2000</v>
       </c>
-      <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R37" s="10"/>
+    </row>
+    <row r="38" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -3376,23 +3446,24 @@
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0</v>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K38" s="10">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10">
         <v>2000</v>
       </c>
-      <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -3413,23 +3484,24 @@
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J39" s="10">
-        <v>0</v>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10">
         <v>2000</v>
       </c>
-      <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -3448,27 +3520,28 @@
       <c r="F40" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10">
         <v>8000</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0</v>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10">
         <v>2000</v>
       </c>
-      <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -3489,23 +3562,24 @@
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="10">
-        <v>0</v>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10">
         <v>2000</v>
       </c>
-      <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -3526,23 +3600,24 @@
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="10">
-        <v>0</v>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10">
         <v>3000</v>
       </c>
-      <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -3561,29 +3636,30 @@
       <c r="F43" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="10"/>
+      <c r="H43" s="10">
         <v>5000</v>
       </c>
-      <c r="H43" s="10">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="10">
-        <v>0</v>
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
         <v>3000</v>
       </c>
-      <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -3604,23 +3680,24 @@
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0</v>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K44" s="10">
+        <v>0</v>
+      </c>
+      <c r="L44" s="10">
         <v>3000</v>
       </c>
-      <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -3641,23 +3718,24 @@
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="10">
-        <v>0</v>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K45" s="10">
+        <v>0</v>
+      </c>
+      <c r="L45" s="10">
         <v>3000</v>
       </c>
-      <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -3676,29 +3754,32 @@
       <c r="F46" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10">
         <v>2000</v>
       </c>
-      <c r="H46" s="10">
-        <v>0</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="10">
-        <v>0</v>
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10">
         <v>3000</v>
       </c>
-      <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R46" s="10"/>
+    </row>
+    <row r="47" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -3719,23 +3800,24 @@
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J47" s="10">
-        <v>0</v>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K47" s="10">
+        <v>0</v>
+      </c>
+      <c r="L47" s="10">
         <v>3000</v>
       </c>
-      <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -3756,23 +3838,24 @@
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J48" s="10">
-        <v>0</v>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K48" s="10">
+        <v>0</v>
+      </c>
+      <c r="L48" s="10">
         <v>3000</v>
       </c>
-      <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
-    </row>
-    <row r="49" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R48" s="10"/>
+    </row>
+    <row r="49" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -3793,23 +3876,24 @@
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J49" s="10">
-        <v>0</v>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K49" s="10">
+        <v>0</v>
+      </c>
+      <c r="L49" s="10">
         <v>3000</v>
       </c>
-      <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R49" s="10"/>
+    </row>
+    <row r="50" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -3828,27 +3912,28 @@
       <c r="F50" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10">
         <v>8000</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0</v>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K50" s="10">
+        <v>0</v>
+      </c>
+      <c r="L50" s="10">
         <v>3000</v>
       </c>
-      <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R50" s="10"/>
+    </row>
+    <row r="51" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -3867,29 +3952,30 @@
       <c r="F51" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="10"/>
+      <c r="H51" s="10">
         <v>2000</v>
       </c>
-      <c r="H51" s="10">
+      <c r="I51" s="10">
         <v>1</v>
       </c>
-      <c r="I51" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J51" s="10">
-        <v>0</v>
+      <c r="J51" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K51" s="10">
+        <v>0</v>
+      </c>
+      <c r="L51" s="10">
         <v>3000</v>
       </c>
-      <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R51" s="10"/>
+    </row>
+    <row r="52" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -3908,29 +3994,30 @@
       <c r="F52" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="10"/>
+      <c r="H52" s="10">
         <v>2000</v>
       </c>
-      <c r="H52" s="10">
+      <c r="I52" s="10">
         <v>1</v>
       </c>
-      <c r="I52" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J52" s="10">
-        <v>0</v>
+      <c r="J52" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K52" s="10">
+        <v>0</v>
+      </c>
+      <c r="L52" s="10">
         <v>3000</v>
       </c>
-      <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R52" s="10"/>
+    </row>
+    <row r="53" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -3951,23 +4038,24 @@
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J53" s="10">
-        <v>0</v>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K53" s="10">
+        <v>0</v>
+      </c>
+      <c r="L53" s="10">
         <v>3000</v>
       </c>
-      <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R53" s="10"/>
+    </row>
+    <row r="54" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -3986,29 +4074,30 @@
       <c r="F54" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="10"/>
+      <c r="H54" s="10">
         <v>2000</v>
       </c>
-      <c r="H54" s="10">
-        <v>0</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J54" s="10">
-        <v>0</v>
+      <c r="I54" s="10">
+        <v>0</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K54" s="10">
+        <v>0</v>
+      </c>
+      <c r="L54" s="10">
         <v>3000</v>
       </c>
-      <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R54" s="10"/>
+    </row>
+    <row r="55" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -4029,23 +4118,24 @@
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" s="10">
-        <v>0</v>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K55" s="10">
+        <v>0</v>
+      </c>
+      <c r="L55" s="10">
         <v>3000</v>
       </c>
-      <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R55" s="10"/>
+    </row>
+    <row r="56" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -4064,29 +4154,30 @@
       <c r="F56" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="10"/>
+      <c r="H56" s="10">
         <v>1001</v>
       </c>
-      <c r="H56" s="10">
+      <c r="I56" s="10">
         <v>1</v>
       </c>
-      <c r="I56" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J56" s="10">
-        <v>0</v>
+      <c r="J56" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K56" s="10">
+        <v>0</v>
+      </c>
+      <c r="L56" s="10">
         <v>3000</v>
       </c>
-      <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R56" s="10"/>
+    </row>
+    <row r="57" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -4107,23 +4198,24 @@
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
-      <c r="I57" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J57" s="10">
-        <v>0</v>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K57" s="10">
+        <v>0</v>
+      </c>
+      <c r="L57" s="10">
         <v>3000</v>
       </c>
-      <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R57" s="10"/>
+    </row>
+    <row r="58" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -4144,23 +4236,24 @@
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
-      <c r="I58" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J58" s="10">
-        <v>0</v>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K58" s="10">
+        <v>0</v>
+      </c>
+      <c r="L58" s="10">
         <v>3000</v>
       </c>
-      <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R58" s="10"/>
+    </row>
+    <row r="59" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -4181,23 +4274,24 @@
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
-      <c r="I59" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J59" s="10">
-        <v>0</v>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K59" s="10">
+        <v>0</v>
+      </c>
+      <c r="L59" s="10">
         <v>3000</v>
       </c>
-      <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R59" s="10"/>
+    </row>
+    <row r="60" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -4218,23 +4312,24 @@
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J60" s="10">
-        <v>0</v>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K60" s="10">
+        <v>0</v>
+      </c>
+      <c r="L60" s="10">
         <v>3000</v>
       </c>
-      <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R60" s="10"/>
+    </row>
+    <row r="61" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -4255,23 +4350,24 @@
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
-      <c r="I61" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J61" s="10">
-        <v>0</v>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K61" s="10">
+        <v>0</v>
+      </c>
+      <c r="L61" s="10">
         <v>3000</v>
       </c>
-      <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
-    </row>
-    <row r="62" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R61" s="10"/>
+    </row>
+    <row r="62" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -4292,23 +4388,24 @@
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
-      <c r="I62" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J62" s="10">
-        <v>0</v>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K62" s="10">
+        <v>0</v>
+      </c>
+      <c r="L62" s="10">
         <v>4000</v>
       </c>
-      <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
-    </row>
-    <row r="63" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R62" s="10"/>
+    </row>
+    <row r="63" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -4327,29 +4424,30 @@
       <c r="F63" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="10"/>
+      <c r="H63" s="10">
         <v>6000</v>
       </c>
-      <c r="H63" s="10">
+      <c r="I63" s="10">
         <v>2</v>
       </c>
-      <c r="I63" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J63" s="10">
-        <v>0</v>
+      <c r="J63" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K63" s="10">
+        <v>0</v>
+      </c>
+      <c r="L63" s="10">
         <v>4000</v>
       </c>
-      <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R63" s="10"/>
+    </row>
+    <row r="64" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -4370,23 +4468,24 @@
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
-      <c r="I64" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J64" s="10">
-        <v>0</v>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K64" s="10">
+        <v>0</v>
+      </c>
+      <c r="L64" s="10">
         <v>4000</v>
       </c>
-      <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
-    </row>
-    <row r="65" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R64" s="10"/>
+    </row>
+    <row r="65" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -4405,29 +4504,30 @@
       <c r="F65" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="10"/>
+      <c r="H65" s="10">
         <v>6000</v>
       </c>
-      <c r="H65" s="10">
-        <v>0</v>
-      </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="10">
+        <v>0</v>
+      </c>
+      <c r="J65" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="J65" s="10">
-        <v>0</v>
-      </c>
       <c r="K65" s="10">
+        <v>0</v>
+      </c>
+      <c r="L65" s="10">
         <v>20</v>
       </c>
-      <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
-    </row>
-    <row r="66" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R65" s="10"/>
+    </row>
+    <row r="66" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -4446,29 +4546,32 @@
       <c r="F66" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="10">
         <v>5000</v>
       </c>
-      <c r="H66" s="10">
-        <v>0</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J66" s="10">
-        <v>0</v>
+      <c r="I66" s="10">
+        <v>0</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K66" s="10">
+        <v>0</v>
+      </c>
+      <c r="L66" s="10">
         <v>4000</v>
       </c>
-      <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R66" s="10"/>
+    </row>
+    <row r="67" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -4489,23 +4592,24 @@
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
-      <c r="I67" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J67" s="10">
-        <v>0</v>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K67" s="10">
+        <v>0</v>
+      </c>
+      <c r="L67" s="10">
         <v>4000</v>
       </c>
-      <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
-    </row>
-    <row r="68" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R67" s="10"/>
+    </row>
+    <row r="68" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -4524,29 +4628,30 @@
       <c r="F68" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="10"/>
+      <c r="H68" s="10">
         <v>2000</v>
       </c>
-      <c r="H68" s="10">
-        <v>0</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J68" s="10">
-        <v>0</v>
+      <c r="I68" s="10">
+        <v>0</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K68" s="10">
+        <v>0</v>
+      </c>
+      <c r="L68" s="10">
         <v>4000</v>
       </c>
-      <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
-    </row>
-    <row r="69" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R68" s="10"/>
+    </row>
+    <row r="69" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -4567,23 +4672,24 @@
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
-      <c r="I69" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J69" s="10">
-        <v>0</v>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K69" s="10">
+        <v>0</v>
+      </c>
+      <c r="L69" s="10">
         <v>4000</v>
       </c>
-      <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
-    </row>
-    <row r="70" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R69" s="10"/>
+    </row>
+    <row r="70" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -4604,23 +4710,24 @@
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
-      <c r="I70" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J70" s="10">
-        <v>0</v>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K70" s="10">
+        <v>0</v>
+      </c>
+      <c r="L70" s="10">
         <v>4000</v>
       </c>
-      <c r="L70" s="10"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
-    </row>
-    <row r="71" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R70" s="10"/>
+    </row>
+    <row r="71" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -4639,29 +4746,30 @@
       <c r="F71" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="12"/>
+      <c r="H71" s="10">
         <v>1000</v>
       </c>
-      <c r="H71" s="10">
+      <c r="I71" s="10">
         <v>3</v>
       </c>
-      <c r="I71" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J71" s="10">
-        <v>0</v>
+      <c r="J71" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K71" s="10">
+        <v>0</v>
+      </c>
+      <c r="L71" s="10">
         <v>4000</v>
       </c>
-      <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
-    </row>
-    <row r="72" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R71" s="10"/>
+    </row>
+    <row r="72" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>69</v>
       </c>
@@ -4682,23 +4790,24 @@
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
-      <c r="I72" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J72" s="10">
-        <v>0</v>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K72" s="10">
+        <v>0</v>
+      </c>
+      <c r="L72" s="10">
         <v>4000</v>
       </c>
-      <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
-    </row>
-    <row r="73" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R72" s="10"/>
+    </row>
+    <row r="73" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>70</v>
       </c>
@@ -4717,29 +4826,30 @@
       <c r="F73" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="10"/>
+      <c r="H73" s="10">
         <v>6000</v>
       </c>
-      <c r="H73" s="10">
-        <v>0</v>
-      </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="10">
+        <v>0</v>
+      </c>
+      <c r="J73" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="J73" s="10">
-        <v>0</v>
-      </c>
       <c r="K73" s="10">
+        <v>0</v>
+      </c>
+      <c r="L73" s="10">
         <v>50</v>
       </c>
-      <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
-    </row>
-    <row r="74" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R73" s="10"/>
+    </row>
+    <row r="74" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>71</v>
       </c>
@@ -4758,29 +4868,30 @@
       <c r="F74" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="10"/>
+      <c r="H74" s="10">
         <v>1000</v>
       </c>
-      <c r="H74" s="10">
+      <c r="I74" s="10">
         <v>1</v>
       </c>
-      <c r="I74" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J74" s="10">
-        <v>0</v>
+      <c r="J74" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K74" s="10">
+        <v>0</v>
+      </c>
+      <c r="L74" s="10">
         <v>4000</v>
       </c>
-      <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
-    </row>
-    <row r="75" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R74" s="10"/>
+    </row>
+    <row r="75" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>72</v>
       </c>
@@ -4801,23 +4912,24 @@
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
-      <c r="I75" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J75" s="10">
-        <v>0</v>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K75" s="10">
+        <v>0</v>
+      </c>
+      <c r="L75" s="10">
         <v>4000</v>
       </c>
-      <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
-    </row>
-    <row r="76" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R75" s="10"/>
+    </row>
+    <row r="76" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>73</v>
       </c>
@@ -4836,27 +4948,28 @@
       <c r="F76" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="10"/>
+      <c r="H76" s="10">
         <v>9000</v>
       </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J76" s="10">
-        <v>0</v>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K76" s="10">
+        <v>0</v>
+      </c>
+      <c r="L76" s="10">
         <v>4000</v>
       </c>
-      <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
-    </row>
-    <row r="77" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R76" s="10"/>
+    </row>
+    <row r="77" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>74</v>
       </c>
@@ -4875,25 +4988,26 @@
       <c r="F77" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G77" s="10"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="10"/>
-      <c r="I77" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J77" s="10">
-        <v>0</v>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K77" s="10">
+        <v>0</v>
+      </c>
+      <c r="L77" s="10">
         <v>4000</v>
       </c>
-      <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
-    </row>
-    <row r="78" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R77" s="10"/>
+    </row>
+    <row r="78" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>75</v>
       </c>
@@ -4914,23 +5028,24 @@
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
-      <c r="I78" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J78" s="10">
-        <v>0</v>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K78" s="10">
+        <v>0</v>
+      </c>
+      <c r="L78" s="10">
         <v>4000</v>
       </c>
-      <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
-    </row>
-    <row r="79" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R78" s="10"/>
+    </row>
+    <row r="79" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>76</v>
       </c>
@@ -4949,29 +5064,32 @@
       <c r="F79" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="10">
         <v>2000</v>
       </c>
-      <c r="H79" s="10">
-        <v>0</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J79" s="10">
-        <v>0</v>
+      <c r="I79" s="10">
+        <v>0</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K79" s="10">
+        <v>0</v>
+      </c>
+      <c r="L79" s="10">
         <v>4000</v>
       </c>
-      <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
-    </row>
-    <row r="80" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R79" s="10"/>
+    </row>
+    <row r="80" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>77</v>
       </c>
@@ -4992,23 +5110,24 @@
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
-      <c r="I80" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J80" s="10">
-        <v>0</v>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K80" s="10">
+        <v>0</v>
+      </c>
+      <c r="L80" s="10">
         <v>4000</v>
       </c>
-      <c r="L80" s="10"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
-    </row>
-    <row r="81" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R80" s="10"/>
+    </row>
+    <row r="81" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>78</v>
       </c>
@@ -5029,23 +5148,24 @@
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
-      <c r="I81" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J81" s="10">
-        <v>0</v>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K81" s="10">
+        <v>0</v>
+      </c>
+      <c r="L81" s="10">
         <v>5000</v>
       </c>
-      <c r="L81" s="10"/>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
-    </row>
-    <row r="82" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R81" s="10"/>
+    </row>
+    <row r="82" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>79</v>
       </c>
@@ -5064,29 +5184,30 @@
       <c r="F82" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="10"/>
+      <c r="H82" s="10">
         <v>6000</v>
       </c>
-      <c r="H82" s="10">
+      <c r="I82" s="10">
         <v>1</v>
       </c>
-      <c r="I82" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J82" s="10">
-        <v>0</v>
+      <c r="J82" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K82" s="10">
+        <v>0</v>
+      </c>
+      <c r="L82" s="10">
         <v>5000</v>
       </c>
-      <c r="L82" s="10"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
-    </row>
-    <row r="83" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R82" s="10"/>
+    </row>
+    <row r="83" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>80</v>
       </c>
@@ -5105,29 +5226,30 @@
       <c r="F83" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="10"/>
+      <c r="H83" s="10">
         <v>5000</v>
       </c>
-      <c r="H83" s="10">
-        <v>0</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J83" s="10">
-        <v>0</v>
+      <c r="I83" s="10">
+        <v>0</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K83" s="10">
+        <v>0</v>
+      </c>
+      <c r="L83" s="10">
         <v>5000</v>
       </c>
-      <c r="L83" s="10"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
-    </row>
-    <row r="84" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R83" s="10"/>
+    </row>
+    <row r="84" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>81</v>
       </c>
@@ -5148,23 +5270,24 @@
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
-      <c r="I84" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J84" s="10">
-        <v>0</v>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K84" s="10">
+        <v>0</v>
+      </c>
+      <c r="L84" s="10">
         <v>5000</v>
       </c>
-      <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
-    </row>
-    <row r="85" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R84" s="10"/>
+    </row>
+    <row r="85" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>82</v>
       </c>
@@ -5183,29 +5306,30 @@
       <c r="F85" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="11"/>
+      <c r="H85" s="10">
         <v>1001</v>
       </c>
-      <c r="H85" s="10">
+      <c r="I85" s="10">
         <v>1</v>
       </c>
-      <c r="I85" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J85" s="10">
+      <c r="J85" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K85" s="10">
         <v>1</v>
       </c>
-      <c r="K85" s="10">
+      <c r="L85" s="10">
         <v>10</v>
       </c>
-      <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
-    </row>
-    <row r="86" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R85" s="10"/>
+    </row>
+    <row r="86" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>83</v>
       </c>
@@ -5226,23 +5350,24 @@
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
-      <c r="I86" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J86" s="10">
+      <c r="I86" s="10"/>
+      <c r="J86" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K86" s="10">
         <v>1</v>
       </c>
-      <c r="K86" s="10">
+      <c r="L86" s="10">
         <v>10</v>
       </c>
-      <c r="L86" s="10"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
-    </row>
-    <row r="87" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R86" s="10"/>
+    </row>
+    <row r="87" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>84</v>
       </c>
@@ -5261,29 +5386,30 @@
       <c r="F87" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="10"/>
+      <c r="H87" s="10">
         <v>5000</v>
       </c>
-      <c r="H87" s="10">
-        <v>0</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J87" s="10">
+      <c r="I87" s="10">
+        <v>0</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K87" s="10">
         <v>1</v>
       </c>
-      <c r="K87" s="10">
+      <c r="L87" s="10">
         <v>10</v>
       </c>
-      <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
-    </row>
-    <row r="88" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R87" s="10"/>
+    </row>
+    <row r="88" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>85</v>
       </c>
@@ -5302,29 +5428,30 @@
       <c r="F88" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="14"/>
+      <c r="H88" s="10">
         <v>2000</v>
       </c>
-      <c r="H88" s="10">
+      <c r="I88" s="10">
         <v>2</v>
       </c>
-      <c r="I88" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J88" s="10">
+      <c r="J88" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K88" s="10">
         <v>1</v>
       </c>
-      <c r="K88" s="10">
+      <c r="L88" s="10">
         <v>10</v>
       </c>
-      <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
-    </row>
-    <row r="89" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R88" s="10"/>
+    </row>
+    <row r="89" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>86</v>
       </c>
@@ -5345,23 +5472,24 @@
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
-      <c r="I89" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J89" s="10">
+      <c r="I89" s="10"/>
+      <c r="J89" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K89" s="10">
         <v>1</v>
       </c>
-      <c r="K89" s="10">
+      <c r="L89" s="10">
         <v>10</v>
       </c>
-      <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
-    </row>
-    <row r="90" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R89" s="10"/>
+    </row>
+    <row r="90" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>87</v>
       </c>
@@ -5380,29 +5508,30 @@
       <c r="F90" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="10"/>
+      <c r="H90" s="10">
         <v>1000</v>
       </c>
-      <c r="H90" s="10">
+      <c r="I90" s="10">
         <v>2</v>
       </c>
-      <c r="I90" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J90" s="10">
+      <c r="J90" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K90" s="10">
         <v>1</v>
       </c>
-      <c r="K90" s="10">
+      <c r="L90" s="10">
         <v>10</v>
       </c>
-      <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
-    </row>
-    <row r="91" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R90" s="10"/>
+    </row>
+    <row r="91" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>88</v>
       </c>
@@ -5423,23 +5552,24 @@
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
-      <c r="I91" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J91" s="10">
+      <c r="I91" s="10"/>
+      <c r="J91" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K91" s="10">
         <v>1</v>
       </c>
-      <c r="K91" s="10">
+      <c r="L91" s="10">
         <v>10</v>
       </c>
-      <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
-    </row>
-    <row r="92" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R91" s="10"/>
+    </row>
+    <row r="92" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>89</v>
       </c>
@@ -5458,29 +5588,32 @@
       <c r="F92" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="10">
         <v>5000</v>
       </c>
-      <c r="H92" s="10">
-        <v>0</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J92" s="10">
+      <c r="I92" s="10">
+        <v>0</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K92" s="10">
         <v>1</v>
       </c>
-      <c r="K92" s="10">
+      <c r="L92" s="10">
         <v>10</v>
       </c>
-      <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
-    </row>
-    <row r="93" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R92" s="10"/>
+    </row>
+    <row r="93" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>90</v>
       </c>
@@ -5499,29 +5632,32 @@
       <c r="F93" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="10">
         <v>5000</v>
       </c>
-      <c r="H93" s="10">
-        <v>0</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J93" s="10">
+      <c r="I93" s="10">
+        <v>0</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K93" s="10">
         <v>1</v>
       </c>
-      <c r="K93" s="10">
+      <c r="L93" s="10">
         <v>10</v>
       </c>
-      <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="10"/>
-    </row>
-    <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R93" s="10"/>
+    </row>
+    <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <v>91</v>
       </c>
@@ -5540,29 +5676,30 @@
       <c r="F94" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="10"/>
+      <c r="H94" s="10">
         <v>1001</v>
       </c>
-      <c r="H94" s="10">
+      <c r="I94" s="10">
         <v>1</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="J94" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J94" s="10">
-        <v>0</v>
-      </c>
       <c r="K94" s="10">
+        <v>0</v>
+      </c>
+      <c r="L94" s="10">
         <v>100</v>
       </c>
-      <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
-    </row>
-    <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R94" s="10"/>
+    </row>
+    <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
         <v>92</v>
       </c>
@@ -5583,23 +5720,24 @@
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
-      <c r="I95" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J95" s="10">
+      <c r="I95" s="10"/>
+      <c r="J95" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K95" s="10">
         <v>1</v>
       </c>
-      <c r="K95" s="10">
+      <c r="L95" s="10">
         <v>100</v>
       </c>
-      <c r="L95" s="10"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
-    </row>
-    <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R95" s="10"/>
+    </row>
+    <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
         <v>93</v>
       </c>
@@ -5618,29 +5756,30 @@
       <c r="F96" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="10"/>
+      <c r="H96" s="10">
         <v>5000</v>
       </c>
-      <c r="H96" s="10">
-        <v>0</v>
-      </c>
-      <c r="I96" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J96" s="10">
+      <c r="I96" s="10">
+        <v>0</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K96" s="10">
         <v>1</v>
       </c>
-      <c r="K96" s="10">
+      <c r="L96" s="10">
         <v>100</v>
       </c>
-      <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
-    </row>
-    <row r="97" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R96" s="10"/>
+    </row>
+    <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>94</v>
       </c>
@@ -5661,23 +5800,24 @@
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
-      <c r="I97" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J97" s="10">
+      <c r="I97" s="10"/>
+      <c r="J97" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K97" s="10">
         <v>1</v>
       </c>
-      <c r="K97" s="10">
+      <c r="L97" s="10">
         <v>100</v>
       </c>
-      <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
-    </row>
-    <row r="98" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R97" s="10"/>
+    </row>
+    <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <v>95</v>
       </c>
@@ -5696,29 +5836,30 @@
       <c r="F98" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="10"/>
+      <c r="H98" s="10">
         <v>5000</v>
       </c>
-      <c r="H98" s="10">
-        <v>0</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J98" s="10">
+      <c r="I98" s="10">
+        <v>0</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K98" s="10">
         <v>1</v>
       </c>
-      <c r="K98" s="10">
+      <c r="L98" s="10">
         <v>100</v>
       </c>
-      <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
-    </row>
-    <row r="99" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R98" s="10"/>
+    </row>
+    <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
         <v>96</v>
       </c>
@@ -5737,29 +5878,30 @@
       <c r="F99" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="10"/>
+      <c r="H99" s="10">
         <v>6000</v>
       </c>
-      <c r="H99" s="10">
+      <c r="I99" s="10">
         <v>1</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="J99" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J99" s="10">
-        <v>0</v>
-      </c>
       <c r="K99" s="10">
+        <v>0</v>
+      </c>
+      <c r="L99" s="10">
         <v>40</v>
       </c>
-      <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
-    </row>
-    <row r="100" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R99" s="10"/>
+    </row>
+    <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <v>97</v>
       </c>
@@ -5778,29 +5920,30 @@
       <c r="F100" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="10"/>
+      <c r="H100" s="10">
         <v>5000</v>
       </c>
-      <c r="H100" s="10">
-        <v>0</v>
-      </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="10">
+        <v>0</v>
+      </c>
+      <c r="J100" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="J100" s="10">
-        <v>0</v>
-      </c>
       <c r="K100" s="10">
+        <v>0</v>
+      </c>
+      <c r="L100" s="10">
         <v>100</v>
       </c>
-      <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
-    </row>
-    <row r="101" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R100" s="10"/>
+    </row>
+    <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -5818,8 +5961,9 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
-    </row>
-    <row r="102" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R101" s="10"/>
+    </row>
+    <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -5837,8 +5981,9 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
-    </row>
-    <row r="103" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R102" s="10"/>
+    </row>
+    <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -5856,8 +6001,9 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
-    </row>
-    <row r="104" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R103" s="10"/>
+    </row>
+    <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -5875,8 +6021,9 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
-    </row>
-    <row r="105" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R104" s="10"/>
+    </row>
+    <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -5894,8 +6041,9 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
-    </row>
-    <row r="106" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R105" s="10"/>
+    </row>
+    <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -5913,8 +6061,9 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
-    </row>
-    <row r="107" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R106" s="10"/>
+    </row>
+    <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -5932,8 +6081,9 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
-    </row>
-    <row r="108" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R107" s="10"/>
+    </row>
+    <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -5951,8 +6101,9 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
-    </row>
-    <row r="109" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R108" s="10"/>
+    </row>
+    <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5970,8 +6121,9 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
-    </row>
-    <row r="110" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R109" s="10"/>
+    </row>
+    <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -5989,8 +6141,9 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
-    </row>
-    <row r="111" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R110" s="10"/>
+    </row>
+    <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -6008,8 +6161,9 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
-    </row>
-    <row r="112" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R111" s="10"/>
+    </row>
+    <row r="112" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -6027,8 +6181,9 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
-    </row>
-    <row r="113" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R112" s="10"/>
+    </row>
+    <row r="113" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -6046,8 +6201,9 @@
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
-    </row>
-    <row r="114" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R113" s="10"/>
+    </row>
+    <row r="114" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -6065,8 +6221,9 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
-    </row>
-    <row r="115" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R114" s="10"/>
+    </row>
+    <row r="115" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -6084,8 +6241,9 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
-    </row>
-    <row r="116" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R115" s="10"/>
+    </row>
+    <row r="116" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -6103,8 +6261,9 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
       <c r="Q116" s="10"/>
-    </row>
-    <row r="117" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R116" s="10"/>
+    </row>
+    <row r="117" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -6122,8 +6281,9 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
-    </row>
-    <row r="118" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R117" s="10"/>
+    </row>
+    <row r="118" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -6141,8 +6301,9 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
-    </row>
-    <row r="119" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R118" s="10"/>
+    </row>
+    <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -6160,8 +6321,9 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
-    </row>
-    <row r="120" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R119" s="10"/>
+    </row>
+    <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -6179,8 +6341,9 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
-    </row>
-    <row r="121" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R120" s="10"/>
+    </row>
+    <row r="121" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -6198,6 +6361,7 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16935" windowHeight="10800" activeTab="1"/>
+    <workbookView windowWidth="12555" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -658,7 +658,7 @@
     <t>新手任务49</t>
   </si>
   <si>
-    <t>新手任务49：火控系统装置达到2阶</t>
+    <t>新手任务49：火力装置达到2阶</t>
   </si>
   <si>
     <t>武器2阶</t>
@@ -772,7 +772,7 @@
     <t>新手任务62</t>
   </si>
   <si>
-    <t>新手任务62：购买2次金币宝箱</t>
+    <t>新手任务62：购买2次金币幸运宝箱</t>
   </si>
   <si>
     <t>商店购买金币2</t>
@@ -982,7 +982,7 @@
     <t>新手任务85</t>
   </si>
   <si>
-    <t>新手任务85：火控系统精炼至5级</t>
+    <t>新手任务85：火力装置精炼至5级</t>
   </si>
   <si>
     <t>精炼5级</t>
@@ -1186,18 +1186,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,32 +1225,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,107 +1240,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1382,11 +1256,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1405,14 +1292,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1427,25 +1420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,31 +1450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,13 +1468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,7 +1498,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,25 +1552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,19 +1582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,25 +1594,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,25 +1624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,41 +1666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1746,11 +1698,38 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1770,20 +1749,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1793,220 +1780,220 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="59" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="58" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="16">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="62">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="62">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="34">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="34" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="34" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="34" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="56">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="56">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2069,8 +2056,8 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
     <cellStyle name="Normal" xfId="56"/>
     <cellStyle name="常规 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="常规 3" xfId="59"/>
+    <cellStyle name="常规 3" xfId="58"/>
+    <cellStyle name="文本" xfId="59"/>
     <cellStyle name="超链接 2" xfId="60"/>
     <cellStyle name="无效" xfId="61"/>
     <cellStyle name="中文标题" xfId="62"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54DB33-FAB1-4874-A3EE-79F0F6371F12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="12555" windowHeight="10800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="381">
   <si>
     <t>sheet名</t>
   </si>
@@ -886,9 +892,6 @@
     <t>新手任务74：主舰升级至30级</t>
   </si>
   <si>
-    <t>主舰30级</t>
-  </si>
-  <si>
     <t>新手任务75</t>
   </si>
   <si>
@@ -1178,19 +1181,16 @@
   </si>
   <si>
     <t>扫荡3次</t>
+  </si>
+  <si>
+    <t>主舰40级</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1225,68 +1225,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1296,83 +1236,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
@@ -1404,8 +1267,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,193 +1289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,7 +1307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,7 +1318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1666,104 +1355,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1775,297 +1366,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="58" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="62">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="14">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="56">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="15">
+    <cellStyle name="Grid" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Grid 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="Grid 2" xfId="12"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="18" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="19" builtinId="11"/>
-    <cellStyle name="标题" xfId="20" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
-    <cellStyle name="输出" xfId="28" builtinId="21"/>
-    <cellStyle name="计算" xfId="29" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="31" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="33" builtinId="24"/>
-    <cellStyle name="Grid" xfId="34"/>
-    <cellStyle name="汇总" xfId="35" builtinId="25"/>
-    <cellStyle name="好" xfId="36" builtinId="26"/>
-    <cellStyle name="适中" xfId="37" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="38" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="39" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="大标题" xfId="49"/>
-    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="51" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="54" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
-    <cellStyle name="Normal" xfId="56"/>
-    <cellStyle name="常规 2" xfId="57"/>
-    <cellStyle name="常规 3" xfId="58"/>
-    <cellStyle name="文本" xfId="59"/>
-    <cellStyle name="超链接 2" xfId="60"/>
-    <cellStyle name="无效" xfId="61"/>
-    <cellStyle name="中文标题" xfId="62"/>
+    <cellStyle name="常规 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="超链接 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="无效" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="中文标题" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="纵向标题" xfId="6" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2323,19 +1726,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2346,7 +1749,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +1772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -2390,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2420,7 +1823,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2429,26 +1832,25 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
@@ -2468,7 +1870,7 @@
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:18">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -2524,7 +1926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2580,7 +1982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:18">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -2636,7 +2038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1" spans="1:18">
+    <row r="4" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2674,7 +2076,7 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1" spans="1:18">
+    <row r="5" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2712,7 +2114,7 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1" spans="1:18">
+    <row r="6" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2754,7 +2156,7 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1" spans="1:18">
+    <row r="7" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2792,7 +2194,7 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1" spans="1:18">
+    <row r="8" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2830,7 +2232,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1" spans="1:18">
+    <row r="9" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2868,7 +2270,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1" spans="1:18">
+    <row r="10" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2906,7 +2308,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" ht="17.1" customHeight="1" spans="1:18">
+    <row r="11" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2944,7 +2346,7 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" ht="17.1" customHeight="1" spans="1:18">
+    <row r="12" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -2986,7 +2388,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" ht="17.1" customHeight="1" spans="1:18">
+    <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3024,7 +2426,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" ht="17.1" customHeight="1" spans="1:18">
+    <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3053,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>90</v>
@@ -3068,7 +2470,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" ht="17.1" customHeight="1" spans="1:18">
+    <row r="15" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3101,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -3110,7 +2512,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" ht="17.1" customHeight="1" spans="1:18">
+    <row r="16" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3139,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -3148,7 +2550,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" ht="17.1" customHeight="1" spans="1:18">
+    <row r="17" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3167,7 +2569,9 @@
       <c r="F17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
@@ -3177,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -3186,7 +2590,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" ht="17.1" customHeight="1" spans="1:18">
+    <row r="18" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3217,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -3226,7 +2630,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" ht="17.1" customHeight="1" spans="1:18">
+    <row r="19" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3255,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -3264,7 +2668,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" ht="17.1" customHeight="1" spans="1:18">
+    <row r="20" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3297,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -3306,7 +2710,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" ht="17.1" customHeight="1" spans="1:18">
+    <row r="21" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3335,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>112</v>
@@ -3350,7 +2754,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" ht="17.1" customHeight="1" spans="1:18">
+    <row r="22" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3379,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -3388,7 +2792,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" ht="17.1" customHeight="1" spans="1:18">
+    <row r="23" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3417,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>119</v>
@@ -3432,7 +2836,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" ht="17.1" customHeight="1" spans="1:18">
+    <row r="24" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3461,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -3470,7 +2874,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" ht="17.1" customHeight="1" spans="1:18">
+    <row r="25" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3499,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>126</v>
@@ -3514,7 +2918,7 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" ht="17.1" customHeight="1" spans="1:18">
+    <row r="26" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3543,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -3552,7 +2956,7 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" ht="17.1" customHeight="1" spans="1:18">
+    <row r="27" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3581,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>133</v>
@@ -3596,7 +3000,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" ht="17.1" customHeight="1" spans="1:18">
+    <row r="28" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3625,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -3634,7 +3038,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" ht="17.1" customHeight="1" spans="1:18">
+    <row r="29" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3663,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="11"/>
@@ -3672,7 +3076,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" ht="17.1" customHeight="1" spans="1:18">
+    <row r="30" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3703,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="11"/>
@@ -3712,7 +3116,7 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" ht="17.1" customHeight="1" spans="1:18">
+    <row r="31" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3743,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -3752,7 +3156,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
     </row>
-    <row r="32" ht="17.1" customHeight="1" spans="1:18">
+    <row r="32" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3790,7 +3194,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" ht="17.1" customHeight="1" spans="1:18">
+    <row r="33" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3823,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -3832,7 +3236,7 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" ht="17.1" customHeight="1" spans="1:18">
+    <row r="34" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3861,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -3870,7 +3274,7 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" ht="17.1" customHeight="1" spans="1:18">
+    <row r="35" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3903,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -3912,7 +3316,7 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" ht="17.1" customHeight="1" spans="1:18">
+    <row r="36" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3941,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -3950,7 +3354,7 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" ht="17.1" customHeight="1" spans="1:18">
+    <row r="37" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -3983,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -3992,7 +3396,7 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" ht="17.1" customHeight="1" spans="1:18">
+    <row r="38" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -4021,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -4030,7 +3434,7 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
     </row>
-    <row r="39" ht="17.1" customHeight="1" spans="1:18">
+    <row r="39" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>36</v>
       </c>
@@ -4059,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -4068,7 +3472,7 @@
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
     </row>
-    <row r="40" ht="17.1" customHeight="1" spans="1:18">
+    <row r="40" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>37</v>
       </c>
@@ -4099,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -4108,7 +3512,7 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" ht="17.1" customHeight="1" spans="1:18">
+    <row r="41" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>38</v>
       </c>
@@ -4137,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -4146,7 +3550,7 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" ht="17.1" customHeight="1" spans="1:18">
+    <row r="42" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>39</v>
       </c>
@@ -4175,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -4184,7 +3588,7 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" ht="17.1" customHeight="1" spans="1:18">
+    <row r="43" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>40</v>
       </c>
@@ -4217,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -4226,7 +3630,7 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" ht="17.1" customHeight="1" spans="1:18">
+    <row r="44" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>41</v>
       </c>
@@ -4255,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -4264,7 +3668,7 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" ht="17.1" customHeight="1" spans="1:18">
+    <row r="45" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>42</v>
       </c>
@@ -4293,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -4302,7 +3706,7 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" ht="17.1" customHeight="1" spans="1:18">
+    <row r="46" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>43</v>
       </c>
@@ -4321,9 +3725,7 @@
       <c r="F46" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G46" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="G46" s="11"/>
       <c r="H46" s="11">
         <v>2000</v>
       </c>
@@ -4337,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -4346,7 +3748,7 @@
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" ht="17.1" customHeight="1" spans="1:18">
+    <row r="47" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>44</v>
       </c>
@@ -4375,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -4384,7 +3786,7 @@
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" ht="17.1" customHeight="1" spans="1:18">
+    <row r="48" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>45</v>
       </c>
@@ -4413,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -4422,7 +3824,7 @@
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
     </row>
-    <row r="49" ht="17.1" customHeight="1" spans="1:18">
+    <row r="49" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>46</v>
       </c>
@@ -4441,7 +3843,9 @@
       <c r="F49" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G49" s="11"/>
+      <c r="G49" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11" t="s">
@@ -4451,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -4460,7 +3864,7 @@
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
     </row>
-    <row r="50" ht="17.1" customHeight="1" spans="1:18">
+    <row r="50" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>47</v>
       </c>
@@ -4491,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4500,7 +3904,7 @@
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" ht="17.1" customHeight="1" spans="1:18">
+    <row r="51" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>48</v>
       </c>
@@ -4530,10 +3934,10 @@
         <v>59</v>
       </c>
       <c r="K51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
@@ -4542,7 +3946,7 @@
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
     </row>
-    <row r="52" ht="17.1" customHeight="1" spans="1:18">
+    <row r="52" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>49</v>
       </c>
@@ -4572,10 +3976,10 @@
         <v>59</v>
       </c>
       <c r="K52" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -4584,7 +3988,7 @@
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
     </row>
-    <row r="53" ht="17.1" customHeight="1" spans="1:18">
+    <row r="53" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>50</v>
       </c>
@@ -4610,10 +4014,10 @@
         <v>59</v>
       </c>
       <c r="K53" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
@@ -4622,7 +4026,7 @@
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
     </row>
-    <row r="54" ht="17.1" customHeight="1" spans="1:18">
+    <row r="54" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>51</v>
       </c>
@@ -4652,10 +4056,10 @@
         <v>59</v>
       </c>
       <c r="K54" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -4664,7 +4068,7 @@
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
     </row>
-    <row r="55" ht="17.1" customHeight="1" spans="1:18">
+    <row r="55" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>52</v>
       </c>
@@ -4690,10 +4094,10 @@
         <v>59</v>
       </c>
       <c r="K55" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
@@ -4702,7 +4106,7 @@
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
     </row>
-    <row r="56" ht="17.1" customHeight="1" spans="1:18">
+    <row r="56" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>53</v>
       </c>
@@ -4732,10 +4136,10 @@
         <v>59</v>
       </c>
       <c r="K56" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -4744,7 +4148,7 @@
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
     </row>
-    <row r="57" ht="17.1" customHeight="1" spans="1:18">
+    <row r="57" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>54</v>
       </c>
@@ -4770,10 +4174,10 @@
         <v>59</v>
       </c>
       <c r="K57" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -4782,7 +4186,7 @@
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
     </row>
-    <row r="58" ht="17.1" customHeight="1" spans="1:18">
+    <row r="58" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>55</v>
       </c>
@@ -4808,10 +4212,10 @@
         <v>59</v>
       </c>
       <c r="K58" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -4820,7 +4224,7 @@
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
     </row>
-    <row r="59" ht="17.1" customHeight="1" spans="1:18">
+    <row r="59" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>56</v>
       </c>
@@ -4846,10 +4250,10 @@
         <v>59</v>
       </c>
       <c r="K59" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
@@ -4858,7 +4262,7 @@
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
     </row>
-    <row r="60" ht="17.1" customHeight="1" spans="1:18">
+    <row r="60" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>57</v>
       </c>
@@ -4884,10 +4288,10 @@
         <v>59</v>
       </c>
       <c r="K60" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
@@ -4896,7 +4300,7 @@
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
     </row>
-    <row r="61" ht="17.1" customHeight="1" spans="1:18">
+    <row r="61" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>58</v>
       </c>
@@ -4922,10 +4326,10 @@
         <v>59</v>
       </c>
       <c r="K61" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
@@ -4934,7 +4338,7 @@
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
     </row>
-    <row r="62" ht="17.1" customHeight="1" spans="1:18">
+    <row r="62" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>59</v>
       </c>
@@ -4960,10 +4364,10 @@
         <v>59</v>
       </c>
       <c r="K62" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
@@ -4972,7 +4376,7 @@
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
     </row>
-    <row r="63" ht="17.1" customHeight="1" spans="1:18">
+    <row r="63" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>60</v>
       </c>
@@ -5002,10 +4406,10 @@
         <v>59</v>
       </c>
       <c r="K63" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -5014,7 +4418,7 @@
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
     </row>
-    <row r="64" ht="17.1" customHeight="1" spans="1:18">
+    <row r="64" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>61</v>
       </c>
@@ -5040,10 +4444,10 @@
         <v>59</v>
       </c>
       <c r="K64" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -5052,7 +4456,7 @@
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
     </row>
-    <row r="65" ht="17.1" customHeight="1" spans="1:18">
+    <row r="65" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>62</v>
       </c>
@@ -5094,7 +4498,7 @@
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
     </row>
-    <row r="66" ht="17.1" customHeight="1" spans="1:18">
+    <row r="66" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>63</v>
       </c>
@@ -5126,10 +4530,10 @@
         <v>59</v>
       </c>
       <c r="K66" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -5138,7 +4542,7 @@
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
     </row>
-    <row r="67" ht="17.1" customHeight="1" spans="1:18">
+    <row r="67" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>64</v>
       </c>
@@ -5164,10 +4568,10 @@
         <v>59</v>
       </c>
       <c r="K67" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -5176,7 +4580,7 @@
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
     </row>
-    <row r="68" ht="17.1" customHeight="1" spans="1:18">
+    <row r="68" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>65</v>
       </c>
@@ -5206,10 +4610,10 @@
         <v>59</v>
       </c>
       <c r="K68" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
@@ -5218,7 +4622,7 @@
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
     </row>
-    <row r="69" ht="17.1" customHeight="1" spans="1:18">
+    <row r="69" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>66</v>
       </c>
@@ -5244,10 +4648,10 @@
         <v>59</v>
       </c>
       <c r="K69" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
@@ -5256,7 +4660,7 @@
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
     </row>
-    <row r="70" ht="17.1" customHeight="1" spans="1:18">
+    <row r="70" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>67</v>
       </c>
@@ -5282,10 +4686,10 @@
         <v>59</v>
       </c>
       <c r="K70" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
@@ -5294,7 +4698,7 @@
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
     </row>
-    <row r="71" ht="17.1" customHeight="1" spans="1:18">
+    <row r="71" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>68</v>
       </c>
@@ -5324,10 +4728,10 @@
         <v>59</v>
       </c>
       <c r="K71" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -5336,7 +4740,7 @@
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
     </row>
-    <row r="72" ht="17.1" customHeight="1" spans="1:18">
+    <row r="72" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>69</v>
       </c>
@@ -5362,10 +4766,10 @@
         <v>59</v>
       </c>
       <c r="K72" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -5374,7 +4778,7 @@
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
     </row>
-    <row r="73" ht="17.1" customHeight="1" spans="1:18">
+    <row r="73" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>70</v>
       </c>
@@ -5416,7 +4820,7 @@
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
     </row>
-    <row r="74" ht="17.1" customHeight="1" spans="1:18">
+    <row r="74" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>71</v>
       </c>
@@ -5446,10 +4850,10 @@
         <v>59</v>
       </c>
       <c r="K74" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5458,7 +4862,7 @@
       <c r="Q74" s="11"/>
       <c r="R74" s="11"/>
     </row>
-    <row r="75" ht="17.1" customHeight="1" spans="1:18">
+    <row r="75" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>72</v>
       </c>
@@ -5484,10 +4888,10 @@
         <v>59</v>
       </c>
       <c r="K75" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -5496,7 +4900,7 @@
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
     </row>
-    <row r="76" ht="17.1" customHeight="1" spans="1:18">
+    <row r="76" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>73</v>
       </c>
@@ -5524,10 +4928,10 @@
         <v>59</v>
       </c>
       <c r="K76" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -5536,7 +4940,7 @@
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
     </row>
-    <row r="77" ht="17.1" customHeight="1" spans="1:18">
+    <row r="77" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>74</v>
       </c>
@@ -5553,7 +4957,7 @@
         <v>282</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="11"/>
@@ -5562,10 +4966,10 @@
         <v>59</v>
       </c>
       <c r="K77" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -5574,7 +4978,7 @@
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
     </row>
-    <row r="78" ht="17.1" customHeight="1" spans="1:18">
+    <row r="78" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>75</v>
       </c>
@@ -5585,13 +4989,13 @@
         <v>1076</v>
       </c>
       <c r="D78" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -5600,10 +5004,10 @@
         <v>59</v>
       </c>
       <c r="K78" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5612,7 +5016,7 @@
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
     </row>
-    <row r="79" ht="17.1" customHeight="1" spans="1:18">
+    <row r="79" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>76</v>
       </c>
@@ -5623,13 +5027,13 @@
         <v>1077</v>
       </c>
       <c r="D79" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="G79" s="11" t="b">
         <v>1</v>
@@ -5644,19 +5048,25 @@
         <v>59</v>
       </c>
       <c r="K79" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="11">
-        <v>4000</v>
-      </c>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N79" s="11">
+        <v>0</v>
+      </c>
+      <c r="O79" s="11">
+        <v>20</v>
+      </c>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
     </row>
-    <row r="80" ht="17.1" customHeight="1" spans="1:18">
+    <row r="80" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>77</v>
       </c>
@@ -5667,13 +5077,13 @@
         <v>1078</v>
       </c>
       <c r="D80" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="F80" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -5682,10 +5092,10 @@
         <v>59</v>
       </c>
       <c r="K80" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="11">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
@@ -5694,7 +5104,7 @@
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
     </row>
-    <row r="81" ht="17.1" customHeight="1" spans="1:18">
+    <row r="81" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>78</v>
       </c>
@@ -5705,13 +5115,13 @@
         <v>1079</v>
       </c>
       <c r="D81" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="F81" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>295</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -5720,10 +5130,10 @@
         <v>59</v>
       </c>
       <c r="K81" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="11">
-        <v>5000</v>
+        <v>30</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -5732,7 +5142,7 @@
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" ht="17.1" customHeight="1" spans="1:18">
+    <row r="82" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>79</v>
       </c>
@@ -5743,13 +5153,13 @@
         <v>1080</v>
       </c>
       <c r="D82" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="F82" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>298</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11">
@@ -5762,10 +5172,10 @@
         <v>59</v>
       </c>
       <c r="K82" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="11">
-        <v>5000</v>
+        <v>30</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -5774,7 +5184,7 @@
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
     </row>
-    <row r="83" ht="17.1" customHeight="1" spans="1:18">
+    <row r="83" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>80</v>
       </c>
@@ -5785,13 +5195,13 @@
         <v>1081</v>
       </c>
       <c r="D83" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11">
@@ -5804,19 +5214,25 @@
         <v>59</v>
       </c>
       <c r="K83" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="11">
-        <v>5000</v>
-      </c>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N83" s="11">
+        <v>0</v>
+      </c>
+      <c r="O83" s="11">
+        <v>20</v>
+      </c>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
     </row>
-    <row r="84" ht="17.1" customHeight="1" spans="1:18">
+    <row r="84" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>81</v>
       </c>
@@ -5827,13 +5243,13 @@
         <v>1082</v>
       </c>
       <c r="D84" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -5842,10 +5258,10 @@
         <v>59</v>
       </c>
       <c r="K84" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="11">
-        <v>5000</v>
+        <v>30</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -5854,7 +5270,7 @@
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
     </row>
-    <row r="85" ht="17.1" customHeight="1" spans="1:18">
+    <row r="85" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>82</v>
       </c>
@@ -5865,13 +5281,13 @@
         <v>1083</v>
       </c>
       <c r="D85" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="F85" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="11">
@@ -5887,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -5896,7 +5312,7 @@
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
     </row>
-    <row r="86" ht="17.1" customHeight="1" spans="1:18">
+    <row r="86" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>83</v>
       </c>
@@ -5907,13 +5323,13 @@
         <v>1084</v>
       </c>
       <c r="D86" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="F86" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -5925,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -5934,7 +5350,7 @@
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
     </row>
-    <row r="87" ht="17.1" customHeight="1" spans="1:18">
+    <row r="87" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>84</v>
       </c>
@@ -5945,13 +5361,13 @@
         <v>1085</v>
       </c>
       <c r="D87" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11">
@@ -5967,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -5976,7 +5392,7 @@
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
     </row>
-    <row r="88" ht="17.1" customHeight="1" spans="1:18">
+    <row r="88" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>85</v>
       </c>
@@ -5987,13 +5403,13 @@
         <v>1086</v>
       </c>
       <c r="D88" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="F88" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>316</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="11">
@@ -6009,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -6018,7 +5434,7 @@
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
     </row>
-    <row r="89" ht="17.1" customHeight="1" spans="1:18">
+    <row r="89" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>86</v>
       </c>
@@ -6029,13 +5445,13 @@
         <v>1087</v>
       </c>
       <c r="D89" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="F89" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -6047,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
@@ -6056,7 +5472,7 @@
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
     </row>
-    <row r="90" ht="17.1" customHeight="1" spans="1:18">
+    <row r="90" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>87</v>
       </c>
@@ -6067,13 +5483,13 @@
         <v>1088</v>
       </c>
       <c r="D90" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>322</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11">
@@ -6089,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
@@ -6098,7 +5514,7 @@
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
     </row>
-    <row r="91" ht="17.1" customHeight="1" spans="1:18">
+    <row r="91" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>88</v>
       </c>
@@ -6109,13 +5525,13 @@
         <v>1089</v>
       </c>
       <c r="D91" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="F91" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>325</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -6127,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
@@ -6136,7 +5552,7 @@
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
     </row>
-    <row r="92" ht="17.1" customHeight="1" spans="1:18">
+    <row r="92" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>89</v>
       </c>
@@ -6147,13 +5563,13 @@
         <v>1090</v>
       </c>
       <c r="D92" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E92" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>328</v>
       </c>
       <c r="G92" s="11" t="b">
         <v>1</v>
@@ -6171,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
@@ -6180,7 +5596,7 @@
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
     </row>
-    <row r="93" ht="17.1" customHeight="1" spans="1:18">
+    <row r="93" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>90</v>
       </c>
@@ -6191,13 +5607,13 @@
         <v>1091</v>
       </c>
       <c r="D93" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E93" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="F93" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="G93" s="11" t="b">
         <v>1</v>
@@ -6215,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
@@ -6224,7 +5640,7 @@
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
     </row>
-    <row r="94" ht="16.5" spans="1:18">
+    <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>91</v>
       </c>
@@ -6235,13 +5651,13 @@
         <v>1092</v>
       </c>
       <c r="D94" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="F94" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>334</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11">
@@ -6266,7 +5682,7 @@
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
     </row>
-    <row r="95" ht="16.5" spans="1:18">
+    <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>92</v>
       </c>
@@ -6277,13 +5693,13 @@
         <v>1093</v>
       </c>
       <c r="D95" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E95" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="F95" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -6304,7 +5720,7 @@
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
     </row>
-    <row r="96" ht="16.5" spans="1:18">
+    <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>93</v>
       </c>
@@ -6315,13 +5731,13 @@
         <v>1094</v>
       </c>
       <c r="D96" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="F96" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>340</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="11">
@@ -6346,7 +5762,7 @@
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
     </row>
-    <row r="97" ht="16.5" spans="1:18">
+    <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>94</v>
       </c>
@@ -6357,13 +5773,13 @@
         <v>1095</v>
       </c>
       <c r="D97" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E97" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="F97" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>343</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -6384,7 +5800,7 @@
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
     </row>
-    <row r="98" ht="16.5" spans="1:18">
+    <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>95</v>
       </c>
@@ -6395,13 +5811,13 @@
         <v>1096</v>
       </c>
       <c r="D98" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="F98" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11">
@@ -6426,7 +5842,7 @@
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
     </row>
-    <row r="99" ht="16.5" spans="1:18">
+    <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>96</v>
       </c>
@@ -6437,13 +5853,13 @@
         <v>1097</v>
       </c>
       <c r="D99" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="F99" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>349</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11">
@@ -6468,7 +5884,7 @@
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
     </row>
-    <row r="100" ht="16.5" spans="1:18">
+    <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>97</v>
       </c>
@@ -6476,16 +5892,16 @@
         <v>1097</v>
       </c>
       <c r="C100" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="E100" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="F100" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11">
@@ -6510,7 +5926,7 @@
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
     </row>
-    <row r="101" ht="16.5" spans="1:18">
+    <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -6530,7 +5946,7 @@
       <c r="Q101" s="11"/>
       <c r="R101" s="11"/>
     </row>
-    <row r="102" ht="16.5" spans="1:18">
+    <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6550,7 +5966,7 @@
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
     </row>
-    <row r="103" ht="16.5" spans="1:18">
+    <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6570,7 +5986,7 @@
       <c r="Q103" s="11"/>
       <c r="R103" s="11"/>
     </row>
-    <row r="104" ht="16.5" spans="1:18">
+    <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6590,7 +6006,7 @@
       <c r="Q104" s="11"/>
       <c r="R104" s="11"/>
     </row>
-    <row r="105" ht="16.5" spans="1:18">
+    <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6610,7 +6026,7 @@
       <c r="Q105" s="11"/>
       <c r="R105" s="11"/>
     </row>
-    <row r="106" ht="16.5" spans="1:18">
+    <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6630,7 +6046,7 @@
       <c r="Q106" s="11"/>
       <c r="R106" s="11"/>
     </row>
-    <row r="107" ht="16.5" spans="1:18">
+    <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6650,7 +6066,7 @@
       <c r="Q107" s="11"/>
       <c r="R107" s="11"/>
     </row>
-    <row r="108" ht="16.5" spans="1:18">
+    <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6670,7 +6086,7 @@
       <c r="Q108" s="11"/>
       <c r="R108" s="11"/>
     </row>
-    <row r="109" ht="16.5" spans="1:18">
+    <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6690,7 +6106,7 @@
       <c r="Q109" s="11"/>
       <c r="R109" s="11"/>
     </row>
-    <row r="110" ht="16.5" spans="1:18">
+    <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6710,7 +6126,7 @@
       <c r="Q110" s="11"/>
       <c r="R110" s="11"/>
     </row>
-    <row r="111" ht="16.5" spans="1:18">
+    <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6730,7 +6146,7 @@
       <c r="Q111" s="11"/>
       <c r="R111" s="11"/>
     </row>
-    <row r="112" ht="16.5" spans="1:18">
+    <row r="112" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6750,7 +6166,7 @@
       <c r="Q112" s="11"/>
       <c r="R112" s="11"/>
     </row>
-    <row r="113" ht="16.5" spans="1:18">
+    <row r="113" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6770,7 +6186,7 @@
       <c r="Q113" s="11"/>
       <c r="R113" s="11"/>
     </row>
-    <row r="114" ht="16.5" spans="1:18">
+    <row r="114" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6790,7 +6206,7 @@
       <c r="Q114" s="11"/>
       <c r="R114" s="11"/>
     </row>
-    <row r="115" ht="16.5" spans="1:18">
+    <row r="115" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6810,7 +6226,7 @@
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
     </row>
-    <row r="116" ht="16.5" spans="1:18">
+    <row r="116" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6830,7 +6246,7 @@
       <c r="Q116" s="11"/>
       <c r="R116" s="11"/>
     </row>
-    <row r="117" ht="16.5" spans="1:18">
+    <row r="117" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6850,7 +6266,7 @@
       <c r="Q117" s="11"/>
       <c r="R117" s="11"/>
     </row>
-    <row r="118" ht="16.5" spans="1:18">
+    <row r="118" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6870,7 +6286,7 @@
       <c r="Q118" s="11"/>
       <c r="R118" s="11"/>
     </row>
-    <row r="119" ht="16.5" spans="1:18">
+    <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6890,7 +6306,7 @@
       <c r="Q119" s="11"/>
       <c r="R119" s="11"/>
     </row>
-    <row r="120" ht="16.5" spans="1:18">
+    <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6910,7 +6326,7 @@
       <c r="Q120" s="11"/>
       <c r="R120" s="11"/>
     </row>
-    <row r="121" ht="16.5" spans="1:18">
+    <row r="121" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6931,22 +6347,21 @@
       <c r="R121" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
@@ -6957,7 +6372,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:12">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -6965,16 +6380,16 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
@@ -6995,7 +6410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -7003,16 +6418,16 @@
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>36</v>
@@ -7033,7 +6448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:12">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -7041,37 +6456,37 @@
         <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:12">
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7080,7 +6495,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -7097,7 +6512,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" ht="16.5" spans="1:12">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7106,7 +6521,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -7123,7 +6538,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" ht="16.5" spans="1:12">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7132,7 +6547,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -7149,7 +6564,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" ht="16.5" spans="1:12">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7158,7 +6573,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -7175,7 +6590,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" ht="16.5" spans="1:12">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -7184,7 +6599,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -7201,7 +6616,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" ht="16.5" spans="1:12">
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -7210,7 +6625,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -7227,7 +6642,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" ht="16.5" spans="1:12">
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -7236,7 +6651,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -7253,7 +6668,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" ht="16.5" spans="1:12">
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -7262,7 +6677,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -7279,7 +6694,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" ht="16.5" spans="1:12">
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -7288,7 +6703,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -7305,7 +6720,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" ht="16.5" spans="1:12">
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -7314,7 +6729,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -7331,7 +6746,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" ht="16.5" spans="1:12">
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -7340,7 +6755,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -7358,8 +6773,8 @@
       <c r="L14" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54DB33-FAB1-4874-A3EE-79F0F6371F12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA22D1D2-5525-4230-9757-F4ED383CFBF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,9 +889,6 @@
     <t>新手任务74</t>
   </si>
   <si>
-    <t>新手任务74：主舰升级至30级</t>
-  </si>
-  <si>
     <t>新手任务75</t>
   </si>
   <si>
@@ -1184,6 +1181,10 @@
   </si>
   <si>
     <t>主舰40级</t>
+  </si>
+  <si>
+    <t>新手任务74：主舰升级至40级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1846,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4954,14 +4955,18 @@
         <v>281</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>282</v>
+        <v>380</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G77" s="12"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="H77" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I77" s="11">
+        <v>1</v>
+      </c>
       <c r="J77" s="11" t="s">
         <v>59</v>
       </c>
@@ -4989,13 +4994,13 @@
         <v>1076</v>
       </c>
       <c r="D78" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -5027,13 +5032,13 @@
         <v>1077</v>
       </c>
       <c r="D79" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="G79" s="11" t="b">
         <v>1</v>
@@ -5077,13 +5082,13 @@
         <v>1078</v>
       </c>
       <c r="D80" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="F80" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -5115,13 +5120,13 @@
         <v>1079</v>
       </c>
       <c r="D81" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="F81" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -5153,13 +5158,13 @@
         <v>1080</v>
       </c>
       <c r="D82" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="F82" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>297</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11">
@@ -5195,13 +5200,13 @@
         <v>1081</v>
       </c>
       <c r="D83" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11">
@@ -5243,13 +5248,13 @@
         <v>1082</v>
       </c>
       <c r="D84" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>303</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -5281,13 +5286,13 @@
         <v>1083</v>
       </c>
       <c r="D85" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="F85" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="11">
@@ -5323,13 +5328,13 @@
         <v>1084</v>
       </c>
       <c r="D86" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="F86" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -5361,13 +5366,13 @@
         <v>1085</v>
       </c>
       <c r="D87" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11">
@@ -5403,13 +5408,13 @@
         <v>1086</v>
       </c>
       <c r="D88" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="F88" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="11">
@@ -5445,13 +5450,13 @@
         <v>1087</v>
       </c>
       <c r="D89" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="F89" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -5483,13 +5488,13 @@
         <v>1088</v>
       </c>
       <c r="D90" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>321</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11">
@@ -5525,13 +5530,13 @@
         <v>1089</v>
       </c>
       <c r="D91" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="F91" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>324</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -5563,13 +5568,13 @@
         <v>1090</v>
       </c>
       <c r="D92" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E92" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="G92" s="11" t="b">
         <v>1</v>
@@ -5607,13 +5612,13 @@
         <v>1091</v>
       </c>
       <c r="D93" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E93" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="F93" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>330</v>
       </c>
       <c r="G93" s="11" t="b">
         <v>1</v>
@@ -5651,13 +5656,13 @@
         <v>1092</v>
       </c>
       <c r="D94" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="F94" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11">
@@ -5693,13 +5698,13 @@
         <v>1093</v>
       </c>
       <c r="D95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E95" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="F95" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>336</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -5731,13 +5736,13 @@
         <v>1094</v>
       </c>
       <c r="D96" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="F96" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="11">
@@ -5773,13 +5778,13 @@
         <v>1095</v>
       </c>
       <c r="D97" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E97" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="F97" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -5811,13 +5816,13 @@
         <v>1096</v>
       </c>
       <c r="D98" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="F98" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11">
@@ -5853,13 +5858,13 @@
         <v>1097</v>
       </c>
       <c r="D99" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="F99" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>348</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11">
@@ -5892,16 +5897,16 @@
         <v>1097</v>
       </c>
       <c r="C100" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="E100" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="F100" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>352</v>
       </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11">
@@ -6380,16 +6385,16 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
@@ -6418,16 +6423,16 @@
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>36</v>
@@ -6456,34 +6461,34 @@
         <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -6495,7 +6500,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6521,7 +6526,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6547,7 +6552,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6573,7 +6578,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6599,7 +6604,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6625,7 +6630,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6651,7 +6656,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6677,7 +6682,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6703,7 +6708,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6729,7 +6734,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6755,7 +6760,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA22D1D2-5525-4230-9757-F4ED383CFBF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4410B3-B15D-47F0-A3F4-F7E7D3626E43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,6 +131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,6 +142,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1204,6 +1206,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1211,6 +1214,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1218,17 +1222,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1236,6 +1243,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1243,6 +1251,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1250,6 +1259,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1257,6 +1267,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1265,12 +1276,14 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1847,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4283,7 +4296,9 @@
         <v>202</v>
       </c>
       <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="H60" s="11">
+        <v>8000</v>
+      </c>
       <c r="I60" s="11"/>
       <c r="J60" s="11" t="s">
         <v>59</v>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4410B3-B15D-47F0-A3F4-F7E7D3626E43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269425FF-577F-472A-8AB5-43A1C3645124}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="378">
   <si>
     <t>sheet名</t>
   </si>
@@ -966,138 +966,87 @@
     <t>新手任务83</t>
   </si>
   <si>
-    <t>新手任务83：通过第5章-10关</t>
-  </si>
-  <si>
-    <t>通过50关</t>
-  </si>
-  <si>
     <t>新手任务84</t>
   </si>
   <si>
-    <t>新手任务84：军阶晋升至参谋军士</t>
-  </si>
-  <si>
     <t>军阶5</t>
   </si>
   <si>
     <t>新手任务85</t>
   </si>
   <si>
-    <t>新手任务85：火力装置精炼至5级</t>
-  </si>
-  <si>
     <t>精炼5级</t>
   </si>
   <si>
     <t>新手任务86</t>
   </si>
   <si>
-    <t>新手任务86：通过第6章-5关</t>
-  </si>
-  <si>
     <t>通过55关</t>
   </si>
   <si>
     <t>新手任务87</t>
   </si>
   <si>
-    <t>新手任务87：激光炮升级至50级</t>
-  </si>
-  <si>
     <t>激光炮50级</t>
   </si>
   <si>
     <t>新手任务88</t>
   </si>
   <si>
-    <t>新手任务88：通过第6章-10关</t>
-  </si>
-  <si>
     <t>通过60关</t>
   </si>
   <si>
     <t>新手任务89</t>
   </si>
   <si>
-    <t>新手任务89：军阶晋升至上士</t>
-  </si>
-  <si>
     <t>军阶6</t>
   </si>
   <si>
     <t>新手任务90</t>
   </si>
   <si>
-    <t>新手任务90：军阶晋升至一级士官</t>
-  </si>
-  <si>
     <t>军阶7</t>
   </si>
   <si>
     <t>新手任务91</t>
   </si>
   <si>
-    <t>新手任务91：战舰和僚炮突破达到3阶</t>
-  </si>
-  <si>
     <t>突破大师3</t>
   </si>
   <si>
     <t>新手任务92</t>
   </si>
   <si>
-    <t>新手任务92：通过第9章-10关</t>
-  </si>
-  <si>
     <t>通过90关</t>
   </si>
   <si>
     <t>新手任务93</t>
   </si>
   <si>
-    <t>新手任务93：军阶晋升为二级士官</t>
-  </si>
-  <si>
     <t>军阶8</t>
   </si>
   <si>
     <t>新手任务94</t>
   </si>
   <si>
-    <t>新手任务94：通过第11章-10关</t>
-  </si>
-  <si>
     <t>通过110关</t>
   </si>
   <si>
     <t>新手任务95</t>
   </si>
   <si>
-    <t>新手任务95：军阶晋升为三级士官</t>
-  </si>
-  <si>
     <t>军阶9</t>
   </si>
   <si>
     <t>新手任务96</t>
   </si>
   <si>
-    <t>新手任务96：花费3000钻石</t>
-  </si>
-  <si>
     <t>花费钻石VII</t>
   </si>
   <si>
     <t>[nil]</t>
   </si>
   <si>
-    <t>新手任务97</t>
-  </si>
-  <si>
-    <t>新手任务97：军阶晋升为一级准尉</t>
-  </si>
-  <si>
     <t>军阶10</t>
   </si>
   <si>
@@ -1186,6 +1135,62 @@
   </si>
   <si>
     <t>新手任务74：主舰升级至40级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务83：军阶晋升至参谋军士</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务84：火力装置精炼至5级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务85：通过第6章-5关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务86：激光炮升级至50级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务87：通过第6章-10关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务88：军阶晋升至上士</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务89：军阶晋升至一级士官</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务90：战舰和僚炮突破达到3阶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务91：通过第9章-10关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务92：军阶晋升为二级士官</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务93：通过第11章-10关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务94：军阶晋升为三级士官</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务95：花费3000钻石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务96：军阶晋升为一级准尉</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1858,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1869,22 +1874,23 @@
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="36.375" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1900,47 +1906,48 @@
       <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1956,47 +1963,47 @@
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
       </c>
       <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -2012,47 +2019,48 @@
       <c r="E3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2068,29 +2076,30 @@
       <c r="E4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
         <v>1000</v>
       </c>
-      <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2106,29 +2115,30 @@
       <c r="E5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1</v>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2144,33 +2154,34 @@
       <c r="E6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
         <v>1000</v>
       </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
         <v>1000</v>
       </c>
-      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2186,29 +2197,30 @@
       <c r="E7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <v>1000</v>
       </c>
-      <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2224,29 +2236,30 @@
       <c r="E8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <v>1000</v>
       </c>
-      <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2262,29 +2275,30 @@
       <c r="E9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
         <v>1000</v>
       </c>
-      <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2300,29 +2314,30 @@
       <c r="E10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
         <v>1000</v>
       </c>
-      <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2338,29 +2353,30 @@
       <c r="E11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1</v>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
         <v>5</v>
       </c>
-      <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -2376,33 +2392,34 @@
       <c r="E12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11">
         <v>1000</v>
       </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
         <v>1000</v>
       </c>
-      <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -2418,29 +2435,30 @@
       <c r="E13" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <v>5000</v>
       </c>
-      <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -2456,35 +2474,36 @@
       <c r="E14" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
         <v>2000</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="N14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
       <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
         <v>40</v>
       </c>
-      <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2500,33 +2519,34 @@
       <c r="E15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11">
         <v>1000</v>
       </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>2000</v>
       </c>
-      <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -2542,29 +2562,30 @@
       <c r="E16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
         <v>2000</v>
       </c>
-      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -2580,31 +2601,32 @@
       <c r="E17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>2000</v>
       </c>
-      <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2620,31 +2642,32 @@
       <c r="E18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11">
         <v>8000</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -2660,29 +2683,30 @@
       <c r="E19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>2000</v>
       </c>
-      <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -2698,33 +2722,34 @@
       <c r="E20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
         <v>5000</v>
       </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0</v>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
         <v>3000</v>
       </c>
-      <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -2740,35 +2765,36 @@
       <c r="E21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
         <v>3000</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="N21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
       <c r="O21" s="11">
-        <v>1</v>
-      </c>
-      <c r="P21" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>1</v>
+      </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -2784,29 +2810,30 @@
       <c r="E22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
         <v>3000</v>
       </c>
-      <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2822,35 +2849,36 @@
       <c r="E23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
         <v>3000</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="N23" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
       <c r="O23" s="11">
-        <v>1</v>
-      </c>
-      <c r="P23" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -2866,29 +2894,30 @@
       <c r="E24" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
         <v>3000</v>
       </c>
-      <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -2904,35 +2933,36 @@
       <c r="E25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
         <v>3000</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="N25" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
       <c r="O25" s="11">
-        <v>1</v>
-      </c>
-      <c r="P25" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>1</v>
+      </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -2948,29 +2978,30 @@
       <c r="E26" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0</v>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
         <v>3000</v>
       </c>
-      <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -2986,35 +3017,36 @@
       <c r="E27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
         <v>3000</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="N27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
       <c r="O27" s="11">
-        <v>1</v>
-      </c>
-      <c r="P27" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>1</v>
+      </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3030,29 +3062,30 @@
       <c r="E28" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0</v>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
         <v>3000</v>
       </c>
-      <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3068,29 +3101,30 @@
       <c r="E29" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
         <v>3000</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="11"/>
+      <c r="N29" s="12"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3106,31 +3140,32 @@
       <c r="E30" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11">
         <v>8000</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
         <v>3000</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="11"/>
+      <c r="N30" s="12"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3146,31 +3181,32 @@
       <c r="E31" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11">
         <v>8000</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
         <v>3000</v>
       </c>
-      <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3186,29 +3222,30 @@
       <c r="E32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1</v>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11">
         <v>10</v>
       </c>
-      <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-    </row>
-    <row r="33" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3224,33 +3261,34 @@
       <c r="E33" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11">
         <v>1000</v>
       </c>
-      <c r="I33" s="11">
-        <v>1</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
+      <c r="J33" s="11">
+        <v>1</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
         <v>5000</v>
       </c>
-      <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3266,29 +3304,30 @@
       <c r="E34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
         <v>5000</v>
       </c>
-      <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3304,33 +3343,34 @@
       <c r="E35" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11">
+      <c r="H35" s="11"/>
+      <c r="I35" s="11">
         <v>1001</v>
       </c>
-      <c r="I35" s="11">
-        <v>1</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
+      <c r="J35" s="11">
+        <v>1</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
         <v>5000</v>
       </c>
-      <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3346,29 +3386,30 @@
       <c r="E36" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
         <v>5000</v>
       </c>
-      <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-    </row>
-    <row r="37" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -3384,33 +3425,34 @@
       <c r="E37" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11">
         <v>1001</v>
       </c>
-      <c r="I37" s="11">
-        <v>1</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K37" s="11">
-        <v>0</v>
+      <c r="J37" s="11">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
         <v>5000</v>
       </c>
-      <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
-    </row>
-    <row r="38" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -3426,29 +3468,30 @@
       <c r="E38" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>5000</v>
       </c>
-      <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>36</v>
       </c>
@@ -3464,29 +3507,30 @@
       <c r="E39" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0</v>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
         <v>5000</v>
       </c>
-      <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-    </row>
-    <row r="40" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S39" s="11"/>
+    </row>
+    <row r="40" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>37</v>
       </c>
@@ -3502,31 +3546,32 @@
       <c r="E40" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11">
         <v>8000</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
         <v>5000</v>
       </c>
-      <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
-    </row>
-    <row r="41" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>38</v>
       </c>
@@ -3542,29 +3587,30 @@
       <c r="E41" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
         <v>5000</v>
       </c>
-      <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>39</v>
       </c>
@@ -3580,29 +3626,30 @@
       <c r="E42" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
         <v>7000</v>
       </c>
-      <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>40</v>
       </c>
@@ -3618,33 +3665,34 @@
       <c r="E43" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11">
         <v>5000</v>
       </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" s="11">
-        <v>0</v>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
         <v>7000</v>
       </c>
-      <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>41</v>
       </c>
@@ -3660,29 +3708,30 @@
       <c r="E44" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
         <v>7000</v>
       </c>
-      <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
-    </row>
-    <row r="45" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>42</v>
       </c>
@@ -3698,29 +3747,30 @@
       <c r="E45" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="11">
-        <v>0</v>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
         <v>7000</v>
       </c>
-      <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-    </row>
-    <row r="46" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="11"/>
+    </row>
+    <row r="46" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>43</v>
       </c>
@@ -3736,33 +3786,34 @@
       <c r="E46" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11">
         <v>2000</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
         <v>7000</v>
       </c>
-      <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>44</v>
       </c>
@@ -3778,29 +3829,30 @@
       <c r="E47" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K47" s="11">
-        <v>0</v>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
         <v>7000</v>
       </c>
-      <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>45</v>
       </c>
@@ -3816,29 +3868,30 @@
       <c r="E48" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
         <v>7000</v>
       </c>
-      <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
-    </row>
-    <row r="49" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>46</v>
       </c>
@@ -3854,31 +3907,32 @@
       <c r="E49" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G49" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="11"/>
+      <c r="H49" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K49" s="11">
-        <v>0</v>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
         <v>7000</v>
       </c>
-      <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
-    </row>
-    <row r="50" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>47</v>
       </c>
@@ -3894,31 +3948,32 @@
       <c r="E50" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11">
         <v>8000</v>
       </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K50" s="11">
-        <v>0</v>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
         <v>7000</v>
       </c>
-      <c r="M50" s="11"/>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
-    </row>
-    <row r="51" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>48</v>
       </c>
@@ -3934,33 +3989,34 @@
       <c r="E51" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11">
         <v>2000</v>
       </c>
-      <c r="I51" s="11">
-        <v>1</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K51" s="11">
-        <v>1</v>
+      <c r="J51" s="11">
+        <v>1</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L51" s="11">
+        <v>1</v>
+      </c>
+      <c r="M51" s="11">
         <v>10</v>
       </c>
-      <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
-    </row>
-    <row r="52" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>49</v>
       </c>
@@ -3976,33 +4032,34 @@
       <c r="E52" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11">
+      <c r="H52" s="11"/>
+      <c r="I52" s="11">
         <v>2000</v>
       </c>
-      <c r="I52" s="11">
-        <v>1</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K52" s="11">
-        <v>1</v>
+      <c r="J52" s="11">
+        <v>1</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L52" s="11">
+        <v>1</v>
+      </c>
+      <c r="M52" s="11">
         <v>10</v>
       </c>
-      <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
-    </row>
-    <row r="53" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>50</v>
       </c>
@@ -4018,29 +4075,30 @@
       <c r="E53" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K53" s="11">
-        <v>1</v>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L53" s="11">
+        <v>1</v>
+      </c>
+      <c r="M53" s="11">
         <v>10</v>
       </c>
-      <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
-    </row>
-    <row r="54" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>51</v>
       </c>
@@ -4056,33 +4114,34 @@
       <c r="E54" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11">
         <v>2000</v>
       </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K54" s="11">
-        <v>1</v>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L54" s="11">
+        <v>1</v>
+      </c>
+      <c r="M54" s="11">
         <v>10</v>
       </c>
-      <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
-    </row>
-    <row r="55" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>52</v>
       </c>
@@ -4098,29 +4157,30 @@
       <c r="E55" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" s="11">
-        <v>1</v>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L55" s="11">
+        <v>1</v>
+      </c>
+      <c r="M55" s="11">
         <v>10</v>
       </c>
-      <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
-    </row>
-    <row r="56" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>53</v>
       </c>
@@ -4136,33 +4196,34 @@
       <c r="E56" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11">
+      <c r="H56" s="11"/>
+      <c r="I56" s="11">
         <v>1001</v>
       </c>
-      <c r="I56" s="11">
-        <v>1</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K56" s="11">
-        <v>1</v>
+      <c r="J56" s="11">
+        <v>1</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L56" s="11">
+        <v>1</v>
+      </c>
+      <c r="M56" s="11">
         <v>10</v>
       </c>
-      <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
-    </row>
-    <row r="57" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>54</v>
       </c>
@@ -4178,29 +4239,30 @@
       <c r="E57" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K57" s="11">
-        <v>1</v>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L57" s="11">
+        <v>1</v>
+      </c>
+      <c r="M57" s="11">
         <v>10</v>
       </c>
-      <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
-    </row>
-    <row r="58" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S57" s="11"/>
+    </row>
+    <row r="58" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>55</v>
       </c>
@@ -4216,29 +4278,30 @@
       <c r="E58" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K58" s="11">
-        <v>1</v>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L58" s="11">
+        <v>1</v>
+      </c>
+      <c r="M58" s="11">
         <v>10</v>
       </c>
-      <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
-    </row>
-    <row r="59" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S58" s="11"/>
+    </row>
+    <row r="59" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>56</v>
       </c>
@@ -4254,29 +4317,30 @@
       <c r="E59" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K59" s="11">
-        <v>1</v>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L59" s="11">
+        <v>1</v>
+      </c>
+      <c r="M59" s="11">
         <v>10</v>
       </c>
-      <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S59" s="11"/>
+    </row>
+    <row r="60" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>57</v>
       </c>
@@ -4292,31 +4356,32 @@
       <c r="E60" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11">
+      <c r="H60" s="11"/>
+      <c r="I60" s="11">
         <v>8000</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K60" s="11">
-        <v>1</v>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L60" s="11">
+        <v>1</v>
+      </c>
+      <c r="M60" s="11">
         <v>10</v>
       </c>
-      <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>58</v>
       </c>
@@ -4332,29 +4397,30 @@
       <c r="E61" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K61" s="11">
-        <v>1</v>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L61" s="11">
+        <v>1</v>
+      </c>
+      <c r="M61" s="11">
         <v>10</v>
       </c>
-      <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-    </row>
-    <row r="62" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S61" s="11"/>
+    </row>
+    <row r="62" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>59</v>
       </c>
@@ -4370,29 +4436,30 @@
       <c r="E62" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="11"/>
+      <c r="G62" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K62" s="11">
-        <v>1</v>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L62" s="11">
+        <v>1</v>
+      </c>
+      <c r="M62" s="11">
         <v>20</v>
       </c>
-      <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
-    </row>
-    <row r="63" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>60</v>
       </c>
@@ -4408,33 +4475,34 @@
       <c r="E63" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11">
+      <c r="H63" s="11"/>
+      <c r="I63" s="11">
         <v>6000</v>
       </c>
-      <c r="I63" s="11">
+      <c r="J63" s="11">
         <v>2</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K63" s="11">
-        <v>1</v>
+      <c r="K63" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L63" s="11">
+        <v>1</v>
+      </c>
+      <c r="M63" s="11">
         <v>20</v>
       </c>
-      <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
-    </row>
-    <row r="64" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>61</v>
       </c>
@@ -4450,29 +4518,30 @@
       <c r="E64" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="11"/>
+      <c r="G64" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K64" s="11">
-        <v>1</v>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L64" s="11">
+        <v>1</v>
+      </c>
+      <c r="M64" s="11">
         <v>20</v>
       </c>
-      <c r="M64" s="11"/>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
-    </row>
-    <row r="65" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S64" s="11"/>
+    </row>
+    <row r="65" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>62</v>
       </c>
@@ -4488,33 +4557,34 @@
       <c r="E65" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11">
+      <c r="H65" s="11"/>
+      <c r="I65" s="11">
         <v>6000</v>
       </c>
-      <c r="I65" s="11">
-        <v>0</v>
-      </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="11">
+        <v>0</v>
+      </c>
+      <c r="K65" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="K65" s="11">
-        <v>0</v>
-      </c>
       <c r="L65" s="11">
+        <v>0</v>
+      </c>
+      <c r="M65" s="11">
         <v>20</v>
       </c>
-      <c r="M65" s="11"/>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
-    </row>
-    <row r="66" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S65" s="11"/>
+    </row>
+    <row r="66" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>63</v>
       </c>
@@ -4530,35 +4600,36 @@
       <c r="E66" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G66" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="11">
+      <c r="H66" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="11">
         <v>5000</v>
       </c>
-      <c r="I66" s="11">
-        <v>0</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K66" s="11">
-        <v>1</v>
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L66" s="11">
+        <v>1</v>
+      </c>
+      <c r="M66" s="11">
         <v>20</v>
       </c>
-      <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
-    </row>
-    <row r="67" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S66" s="11"/>
+    </row>
+    <row r="67" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>64</v>
       </c>
@@ -4574,29 +4645,30 @@
       <c r="E67" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="11"/>
+      <c r="G67" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K67" s="11">
-        <v>1</v>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L67" s="11">
+        <v>1</v>
+      </c>
+      <c r="M67" s="11">
         <v>20</v>
       </c>
-      <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
-    </row>
-    <row r="68" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S67" s="11"/>
+    </row>
+    <row r="68" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>65</v>
       </c>
@@ -4612,33 +4684,34 @@
       <c r="E68" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11">
+      <c r="H68" s="11"/>
+      <c r="I68" s="11">
         <v>2000</v>
       </c>
-      <c r="I68" s="11">
-        <v>0</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K68" s="11">
-        <v>1</v>
+      <c r="J68" s="11">
+        <v>0</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L68" s="11">
+        <v>1</v>
+      </c>
+      <c r="M68" s="11">
         <v>20</v>
       </c>
-      <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
-    </row>
-    <row r="69" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S68" s="11"/>
+    </row>
+    <row r="69" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>66</v>
       </c>
@@ -4654,29 +4727,30 @@
       <c r="E69" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K69" s="11">
-        <v>1</v>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L69" s="11">
+        <v>1</v>
+      </c>
+      <c r="M69" s="11">
         <v>20</v>
       </c>
-      <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
-    </row>
-    <row r="70" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S69" s="11"/>
+    </row>
+    <row r="70" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>67</v>
       </c>
@@ -4692,29 +4766,30 @@
       <c r="E70" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K70" s="11">
-        <v>1</v>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L70" s="11">
+        <v>1</v>
+      </c>
+      <c r="M70" s="11">
         <v>20</v>
       </c>
-      <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
-    </row>
-    <row r="71" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S70" s="11"/>
+    </row>
+    <row r="71" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>68</v>
       </c>
@@ -4730,33 +4805,34 @@
       <c r="E71" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="11"/>
+      <c r="G71" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="11">
+      <c r="H71" s="13"/>
+      <c r="I71" s="11">
         <v>1000</v>
       </c>
-      <c r="I71" s="11">
+      <c r="J71" s="11">
         <v>3</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K71" s="11">
-        <v>1</v>
+      <c r="K71" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L71" s="11">
+        <v>1</v>
+      </c>
+      <c r="M71" s="11">
         <v>20</v>
       </c>
-      <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
-    </row>
-    <row r="72" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S71" s="11"/>
+    </row>
+    <row r="72" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>69</v>
       </c>
@@ -4772,29 +4848,30 @@
       <c r="E72" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K72" s="11">
-        <v>1</v>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L72" s="11">
+        <v>1</v>
+      </c>
+      <c r="M72" s="11">
         <v>20</v>
       </c>
-      <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
-    </row>
-    <row r="73" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S72" s="11"/>
+    </row>
+    <row r="73" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>70</v>
       </c>
@@ -4810,33 +4887,34 @@
       <c r="E73" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11">
+      <c r="H73" s="11"/>
+      <c r="I73" s="11">
         <v>6000</v>
       </c>
-      <c r="I73" s="11">
-        <v>0</v>
-      </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="K73" s="11">
-        <v>0</v>
-      </c>
       <c r="L73" s="11">
+        <v>0</v>
+      </c>
+      <c r="M73" s="11">
         <v>50</v>
       </c>
-      <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
-    </row>
-    <row r="74" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S73" s="11"/>
+    </row>
+    <row r="74" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>71</v>
       </c>
@@ -4852,33 +4930,34 @@
       <c r="E74" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11">
+      <c r="H74" s="11"/>
+      <c r="I74" s="11">
         <v>1000</v>
       </c>
-      <c r="I74" s="11">
-        <v>1</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K74" s="11">
-        <v>1</v>
+      <c r="J74" s="11">
+        <v>1</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L74" s="11">
+        <v>1</v>
+      </c>
+      <c r="M74" s="11">
         <v>20</v>
       </c>
-      <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="11"/>
-    </row>
-    <row r="75" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S74" s="11"/>
+    </row>
+    <row r="75" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>72</v>
       </c>
@@ -4894,29 +4973,30 @@
       <c r="E75" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K75" s="11">
-        <v>1</v>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L75" s="11">
+        <v>1</v>
+      </c>
+      <c r="M75" s="11">
         <v>20</v>
       </c>
-      <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
-    </row>
-    <row r="76" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S75" s="11"/>
+    </row>
+    <row r="76" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>73</v>
       </c>
@@ -4932,31 +5012,32 @@
       <c r="E76" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11">
+      <c r="H76" s="11"/>
+      <c r="I76" s="11">
         <v>9000</v>
       </c>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K76" s="11">
-        <v>1</v>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L76" s="11">
+        <v>1</v>
+      </c>
+      <c r="M76" s="11">
         <v>20</v>
       </c>
-      <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
-    </row>
-    <row r="77" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S76" s="11"/>
+    </row>
+    <row r="77" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>74</v>
       </c>
@@ -4970,35 +5051,36 @@
         <v>281</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="11">
+        <v>363</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="11">
         <v>1000</v>
       </c>
-      <c r="I77" s="11">
-        <v>1</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K77" s="11">
-        <v>1</v>
+      <c r="J77" s="11">
+        <v>1</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L77" s="11">
+        <v>1</v>
+      </c>
+      <c r="M77" s="11">
         <v>20</v>
       </c>
-      <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
-    </row>
-    <row r="78" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S77" s="11"/>
+    </row>
+    <row r="78" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>75</v>
       </c>
@@ -5014,29 +5096,30 @@
       <c r="E78" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K78" s="11">
-        <v>1</v>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L78" s="11">
+        <v>1</v>
+      </c>
+      <c r="M78" s="11">
         <v>20</v>
       </c>
-      <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
-    </row>
-    <row r="79" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S78" s="11"/>
+    </row>
+    <row r="79" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>76</v>
       </c>
@@ -5052,41 +5135,42 @@
       <c r="E79" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="11"/>
+      <c r="G79" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="G79" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="11">
+      <c r="H79" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" s="11">
         <v>2000</v>
       </c>
-      <c r="I79" s="11">
-        <v>0</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K79" s="11">
-        <v>1</v>
+      <c r="J79" s="11">
+        <v>0</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L79" s="11">
+        <v>1</v>
+      </c>
+      <c r="M79" s="11">
         <v>20</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="N79" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N79" s="11">
-        <v>0</v>
-      </c>
       <c r="O79" s="11">
+        <v>0</v>
+      </c>
+      <c r="P79" s="11">
         <v>20</v>
       </c>
-      <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
-    </row>
-    <row r="80" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S79" s="11"/>
+    </row>
+    <row r="80" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>77</v>
       </c>
@@ -5102,29 +5186,30 @@
       <c r="E80" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="11"/>
+      <c r="G80" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K80" s="11">
-        <v>1</v>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L80" s="11">
+        <v>1</v>
+      </c>
+      <c r="M80" s="11">
         <v>20</v>
       </c>
-      <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
-    </row>
-    <row r="81" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S80" s="11"/>
+    </row>
+    <row r="81" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>78</v>
       </c>
@@ -5140,29 +5225,30 @@
       <c r="E81" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="11"/>
+      <c r="G81" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K81" s="11">
-        <v>1</v>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L81" s="11">
+        <v>1</v>
+      </c>
+      <c r="M81" s="11">
         <v>30</v>
       </c>
-      <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
-    </row>
-    <row r="82" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S81" s="11"/>
+    </row>
+    <row r="82" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>79</v>
       </c>
@@ -5178,33 +5264,34 @@
       <c r="E82" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="11"/>
+      <c r="G82" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11">
+      <c r="H82" s="11"/>
+      <c r="I82" s="11">
         <v>6000</v>
       </c>
-      <c r="I82" s="11">
-        <v>1</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K82" s="11">
-        <v>1</v>
+      <c r="J82" s="11">
+        <v>1</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L82" s="11">
+        <v>1</v>
+      </c>
+      <c r="M82" s="11">
         <v>30</v>
       </c>
-      <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
-    </row>
-    <row r="83" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S82" s="11"/>
+    </row>
+    <row r="83" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>80</v>
       </c>
@@ -5220,39 +5307,34 @@
       <c r="E83" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="11"/>
+      <c r="G83" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11">
+      <c r="H83" s="11"/>
+      <c r="I83" s="11">
         <v>5000</v>
       </c>
-      <c r="I83" s="11">
-        <v>0</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K83" s="11">
-        <v>1</v>
+      <c r="J83" s="11">
+        <v>0</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L83" s="11">
+        <v>1</v>
+      </c>
+      <c r="M83" s="11">
         <v>30</v>
       </c>
-      <c r="M83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N83" s="11">
-        <v>0</v>
-      </c>
-      <c r="O83" s="11">
-        <v>20</v>
-      </c>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
-    </row>
-    <row r="84" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S83" s="11"/>
+    </row>
+    <row r="84" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>81</v>
       </c>
@@ -5268,29 +5350,30 @@
       <c r="E84" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K84" s="11">
-        <v>1</v>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L84" s="11">
+        <v>1</v>
+      </c>
+      <c r="M84" s="11">
         <v>30</v>
       </c>
-      <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
-    </row>
-    <row r="85" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S84" s="11"/>
+    </row>
+    <row r="85" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>82</v>
       </c>
@@ -5306,33 +5389,34 @@
       <c r="E85" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="11"/>
+      <c r="G85" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="11">
+      <c r="H85" s="12"/>
+      <c r="I85" s="11">
         <v>1001</v>
       </c>
-      <c r="I85" s="11">
-        <v>1</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K85" s="11">
-        <v>1</v>
+      <c r="J85" s="11">
+        <v>1</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L85" s="11">
+        <v>1</v>
+      </c>
+      <c r="M85" s="11">
         <v>50</v>
       </c>
-      <c r="M85" s="11"/>
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
-    </row>
-    <row r="86" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S85" s="11"/>
+    </row>
+    <row r="86" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>83</v>
       </c>
@@ -5346,31 +5430,36 @@
         <v>306</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="F86" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="G86" s="11"/>
       <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K86" s="11">
-        <v>1</v>
+      <c r="I86" s="11">
+        <v>5000</v>
+      </c>
+      <c r="J86" s="11">
+        <v>0</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L86" s="11">
+        <v>1</v>
+      </c>
+      <c r="M86" s="11">
         <v>50</v>
       </c>
-      <c r="M86" s="11"/>
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
-    </row>
-    <row r="87" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S86" s="11"/>
+    </row>
+    <row r="87" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>84</v>
       </c>
@@ -5381,38 +5470,39 @@
         <v>1085</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E87" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11">
-        <v>5000</v>
-      </c>
+      <c r="H87" s="15"/>
       <c r="I87" s="11">
-        <v>0</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K87" s="11">
-        <v>1</v>
+        <v>2000</v>
+      </c>
+      <c r="J87" s="11">
+        <v>2</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L87" s="11">
+        <v>1</v>
+      </c>
+      <c r="M87" s="11">
         <v>50</v>
       </c>
-      <c r="M87" s="11"/>
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
-    </row>
-    <row r="88" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S87" s="11"/>
+    </row>
+    <row r="88" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>85</v>
       </c>
@@ -5423,38 +5513,35 @@
         <v>1086</v>
       </c>
       <c r="D88" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E88" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="G88" s="15"/>
-      <c r="H88" s="11">
-        <v>2000</v>
-      </c>
-      <c r="I88" s="11">
-        <v>2</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K88" s="11">
-        <v>1</v>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L88" s="11">
+        <v>1</v>
+      </c>
+      <c r="M88" s="11">
         <v>50</v>
       </c>
-      <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
-    </row>
-    <row r="89" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S88" s="11"/>
+    </row>
+    <row r="89" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>86</v>
       </c>
@@ -5465,34 +5552,39 @@
         <v>1087</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G89" s="11"/>
+        <v>367</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11" t="s">
+        <v>314</v>
+      </c>
       <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K89" s="11">
-        <v>1</v>
+      <c r="I89" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J89" s="11">
+        <v>2</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L89" s="11">
+        <v>1</v>
+      </c>
+      <c r="M89" s="11">
         <v>50</v>
       </c>
-      <c r="M89" s="11"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
-    </row>
-    <row r="90" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S89" s="11"/>
+    </row>
+    <row r="90" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>87</v>
       </c>
@@ -5503,38 +5595,35 @@
         <v>1088</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11">
-        <v>1000</v>
-      </c>
-      <c r="I90" s="11">
-        <v>2</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K90" s="11">
-        <v>1</v>
+        <v>368</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L90" s="11">
+        <v>1</v>
+      </c>
+      <c r="M90" s="11">
         <v>50</v>
       </c>
-      <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
-    </row>
-    <row r="91" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S90" s="11"/>
+    </row>
+    <row r="91" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>88</v>
       </c>
@@ -5545,34 +5634,41 @@
         <v>1089</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K91" s="11">
-        <v>1</v>
+        <v>369</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="H91" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="11">
+        <v>5000</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L91" s="11">
+        <v>1</v>
+      </c>
+      <c r="M91" s="11">
         <v>50</v>
       </c>
-      <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
-    </row>
-    <row r="92" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S91" s="11"/>
+    </row>
+    <row r="92" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>89</v>
       </c>
@@ -5583,40 +5679,41 @@
         <v>1090</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G92" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="11">
+        <v>370</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H92" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" s="11">
         <v>5000</v>
       </c>
-      <c r="I92" s="11">
-        <v>0</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K92" s="11">
-        <v>1</v>
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L92" s="11">
+        <v>1</v>
+      </c>
+      <c r="M92" s="11">
         <v>50</v>
       </c>
-      <c r="M92" s="11"/>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
-    </row>
-    <row r="93" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S92" s="11"/>
+    </row>
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>90</v>
       </c>
@@ -5627,40 +5724,39 @@
         <v>1091</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="G93" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="11">
-        <v>5000</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="H93" s="11"/>
       <c r="I93" s="11">
-        <v>0</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K93" s="11">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="J93" s="11">
+        <v>1</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="L93" s="11">
-        <v>50</v>
-      </c>
-      <c r="M93" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="11">
+        <v>100</v>
+      </c>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
-    </row>
-    <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S93" s="11"/>
+    </row>
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>91</v>
       </c>
@@ -5671,38 +5767,35 @@
         <v>1092</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11">
-        <v>1001</v>
-      </c>
-      <c r="I94" s="11">
-        <v>1</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="K94" s="11">
-        <v>0</v>
+        <v>372</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L94" s="11">
+        <v>1</v>
+      </c>
+      <c r="M94" s="11">
         <v>100</v>
       </c>
-      <c r="M94" s="11"/>
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
-    </row>
-    <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S94" s="11"/>
+    </row>
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>92</v>
       </c>
@@ -5713,34 +5806,39 @@
         <v>1093</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G95" s="11"/>
+        <v>373</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11" t="s">
+        <v>326</v>
+      </c>
       <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K95" s="11">
-        <v>1</v>
+      <c r="I95" s="11">
+        <v>5000</v>
+      </c>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L95" s="11">
+        <v>1</v>
+      </c>
+      <c r="M95" s="11">
         <v>100</v>
       </c>
-      <c r="M95" s="11"/>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
-    </row>
-    <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S95" s="11"/>
+    </row>
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>93</v>
       </c>
@@ -5751,38 +5849,35 @@
         <v>1094</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11">
-        <v>5000</v>
-      </c>
-      <c r="I96" s="11">
-        <v>0</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K96" s="11">
-        <v>1</v>
+        <v>374</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L96" s="11">
+        <v>1</v>
+      </c>
+      <c r="M96" s="11">
         <v>100</v>
       </c>
-      <c r="M96" s="11"/>
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
-    </row>
-    <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S96" s="11"/>
+    </row>
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>94</v>
       </c>
@@ -5793,34 +5888,39 @@
         <v>1095</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="G97" s="11"/>
+        <v>375</v>
+      </c>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11" t="s">
+        <v>330</v>
+      </c>
       <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K97" s="11">
-        <v>1</v>
+      <c r="I97" s="11">
+        <v>5000</v>
+      </c>
+      <c r="J97" s="11">
+        <v>0</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L97" s="11">
+        <v>1</v>
+      </c>
+      <c r="M97" s="11">
         <v>100</v>
       </c>
-      <c r="M97" s="11"/>
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
-    </row>
-    <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S97" s="11"/>
+    </row>
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>95</v>
       </c>
@@ -5831,122 +5931,103 @@
         <v>1096</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11">
-        <v>5000</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="H98" s="11"/>
       <c r="I98" s="11">
-        <v>0</v>
-      </c>
-      <c r="J98" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K98" s="11">
-        <v>1</v>
+        <v>6000</v>
+      </c>
+      <c r="J98" s="11">
+        <v>1</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="L98" s="11">
-        <v>100</v>
-      </c>
-      <c r="M98" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="11">
+        <v>40</v>
+      </c>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
-    </row>
-    <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S98" s="11"/>
+    </row>
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>96</v>
       </c>
       <c r="B99" s="11">
         <v>1096</v>
       </c>
-      <c r="C99" s="11">
-        <v>1097</v>
+      <c r="C99" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11">
-        <v>6000</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H99" s="11"/>
       <c r="I99" s="11">
-        <v>1</v>
-      </c>
-      <c r="J99" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K99" s="11">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="J99" s="11">
+        <v>0</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="L99" s="11">
-        <v>40</v>
-      </c>
-      <c r="M99" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="11">
+        <v>100</v>
+      </c>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
-    </row>
-    <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="11">
-        <v>97</v>
-      </c>
-      <c r="B100" s="11">
-        <v>1097</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>351</v>
-      </c>
+      <c r="S99" s="11"/>
+    </row>
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="11">
-        <v>5000</v>
-      </c>
-      <c r="I100" s="11">
-        <v>0</v>
-      </c>
-      <c r="J100" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="K100" s="11">
-        <v>0</v>
-      </c>
-      <c r="L100" s="11">
-        <v>100</v>
-      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
-    </row>
-    <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S100" s="11"/>
+    </row>
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -5965,8 +6046,9 @@
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
       <c r="R101" s="11"/>
-    </row>
-    <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S101" s="11"/>
+    </row>
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -5985,8 +6067,9 @@
       <c r="P102" s="11"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
-    </row>
-    <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S102" s="11"/>
+    </row>
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6005,8 +6088,9 @@
       <c r="P103" s="11"/>
       <c r="Q103" s="11"/>
       <c r="R103" s="11"/>
-    </row>
-    <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S103" s="11"/>
+    </row>
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6025,8 +6109,9 @@
       <c r="P104" s="11"/>
       <c r="Q104" s="11"/>
       <c r="R104" s="11"/>
-    </row>
-    <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S104" s="11"/>
+    </row>
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6045,8 +6130,9 @@
       <c r="P105" s="11"/>
       <c r="Q105" s="11"/>
       <c r="R105" s="11"/>
-    </row>
-    <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S105" s="11"/>
+    </row>
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6065,8 +6151,9 @@
       <c r="P106" s="11"/>
       <c r="Q106" s="11"/>
       <c r="R106" s="11"/>
-    </row>
-    <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S106" s="11"/>
+    </row>
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6085,8 +6172,9 @@
       <c r="P107" s="11"/>
       <c r="Q107" s="11"/>
       <c r="R107" s="11"/>
-    </row>
-    <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S107" s="11"/>
+    </row>
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6105,8 +6193,9 @@
       <c r="P108" s="11"/>
       <c r="Q108" s="11"/>
       <c r="R108" s="11"/>
-    </row>
-    <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S108" s="11"/>
+    </row>
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6125,8 +6214,9 @@
       <c r="P109" s="11"/>
       <c r="Q109" s="11"/>
       <c r="R109" s="11"/>
-    </row>
-    <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S109" s="11"/>
+    </row>
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6145,8 +6235,9 @@
       <c r="P110" s="11"/>
       <c r="Q110" s="11"/>
       <c r="R110" s="11"/>
-    </row>
-    <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S110" s="11"/>
+    </row>
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6165,8 +6256,9 @@
       <c r="P111" s="11"/>
       <c r="Q111" s="11"/>
       <c r="R111" s="11"/>
-    </row>
-    <row r="112" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S111" s="11"/>
+    </row>
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6185,8 +6277,9 @@
       <c r="P112" s="11"/>
       <c r="Q112" s="11"/>
       <c r="R112" s="11"/>
-    </row>
-    <row r="113" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S112" s="11"/>
+    </row>
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6205,8 +6298,9 @@
       <c r="P113" s="11"/>
       <c r="Q113" s="11"/>
       <c r="R113" s="11"/>
-    </row>
-    <row r="114" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S113" s="11"/>
+    </row>
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6225,8 +6319,9 @@
       <c r="P114" s="11"/>
       <c r="Q114" s="11"/>
       <c r="R114" s="11"/>
-    </row>
-    <row r="115" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S114" s="11"/>
+    </row>
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6245,8 +6340,9 @@
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
-    </row>
-    <row r="116" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S115" s="11"/>
+    </row>
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6265,8 +6361,9 @@
       <c r="P116" s="11"/>
       <c r="Q116" s="11"/>
       <c r="R116" s="11"/>
-    </row>
-    <row r="117" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S116" s="11"/>
+    </row>
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6285,8 +6382,9 @@
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
       <c r="R117" s="11"/>
-    </row>
-    <row r="118" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S117" s="11"/>
+    </row>
+    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6305,8 +6403,9 @@
       <c r="P118" s="11"/>
       <c r="Q118" s="11"/>
       <c r="R118" s="11"/>
-    </row>
-    <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S118" s="11"/>
+    </row>
+    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6325,8 +6424,9 @@
       <c r="P119" s="11"/>
       <c r="Q119" s="11"/>
       <c r="R119" s="11"/>
-    </row>
-    <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S119" s="11"/>
+    </row>
+    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6345,26 +6445,7 @@
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
       <c r="R120" s="11"/>
-    </row>
-    <row r="121" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="11"/>
+      <c r="S120" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -6400,16 +6481,16 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
@@ -6438,16 +6519,16 @@
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>36</v>
@@ -6476,34 +6557,34 @@
         <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -6515,7 +6596,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6541,7 +6622,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6567,7 +6648,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6593,7 +6674,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6619,7 +6700,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6645,7 +6726,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6671,7 +6752,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6697,7 +6778,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6723,7 +6804,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6749,7 +6830,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6775,7 +6856,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269425FF-577F-472A-8AB5-43A1C3645124}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EC8644-FB8F-43C4-B819-3146E96107F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="379">
   <si>
     <t>sheet名</t>
   </si>
@@ -131,7 +131,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -142,7 +141,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -648,7 +646,7 @@
     <t>新手任务47</t>
   </si>
   <si>
-    <t>新手任务47：领取关卡奖励2-5</t>
+    <t>新手任务47：领取关卡奖励3-5</t>
   </si>
   <si>
     <t>领取3-1奖励</t>
@@ -738,7 +736,10 @@
     <t>新手任务57</t>
   </si>
   <si>
-    <t>新手任务57：领取关卡奖励3-1</t>
+    <t>新手任务57：领取关卡奖励3-10</t>
+  </si>
+  <si>
+    <t>领取3-2奖励</t>
   </si>
   <si>
     <t>新手任务58</t>
@@ -891,6 +892,12 @@
     <t>新手任务74</t>
   </si>
   <si>
+    <t>新手任务74：主舰升级至40级</t>
+  </si>
+  <si>
+    <t>主舰40级</t>
+  </si>
+  <si>
     <t>新手任务75</t>
   </si>
   <si>
@@ -966,85 +973,127 @@
     <t>新手任务83</t>
   </si>
   <si>
+    <t>新手任务83：军阶晋升至参谋军士</t>
+  </si>
+  <si>
+    <t>军阶5</t>
+  </si>
+  <si>
     <t>新手任务84</t>
   </si>
   <si>
-    <t>军阶5</t>
+    <t>新手任务84：火力装置精炼至5级</t>
+  </si>
+  <si>
+    <t>精炼5级</t>
   </si>
   <si>
     <t>新手任务85</t>
   </si>
   <si>
-    <t>精炼5级</t>
+    <t>新手任务85：通过第6章-5关</t>
+  </si>
+  <si>
+    <t>通过55关</t>
   </si>
   <si>
     <t>新手任务86</t>
   </si>
   <si>
-    <t>通过55关</t>
+    <t>新手任务86：激光炮升级至50级</t>
+  </si>
+  <si>
+    <t>激光炮50级</t>
   </si>
   <si>
     <t>新手任务87</t>
   </si>
   <si>
-    <t>激光炮50级</t>
+    <t>新手任务87：通过第6章-10关</t>
+  </si>
+  <si>
+    <t>通过60关</t>
   </si>
   <si>
     <t>新手任务88</t>
   </si>
   <si>
-    <t>通过60关</t>
+    <t>新手任务88：军阶晋升至上士</t>
+  </si>
+  <si>
+    <t>军阶6</t>
   </si>
   <si>
     <t>新手任务89</t>
   </si>
   <si>
-    <t>军阶6</t>
+    <t>新手任务89：军阶晋升至一级士官</t>
+  </si>
+  <si>
+    <t>军阶7</t>
   </si>
   <si>
     <t>新手任务90</t>
   </si>
   <si>
-    <t>军阶7</t>
+    <t>新手任务90：战舰和僚炮突破达到3阶</t>
+  </si>
+  <si>
+    <t>突破大师3</t>
   </si>
   <si>
     <t>新手任务91</t>
   </si>
   <si>
-    <t>突破大师3</t>
+    <t>新手任务91：通过第9章-10关</t>
+  </si>
+  <si>
+    <t>通过90关</t>
   </si>
   <si>
     <t>新手任务92</t>
   </si>
   <si>
-    <t>通过90关</t>
+    <t>新手任务92：军阶晋升为二级士官</t>
+  </si>
+  <si>
+    <t>军阶8</t>
   </si>
   <si>
     <t>新手任务93</t>
   </si>
   <si>
-    <t>军阶8</t>
+    <t>新手任务93：通过第11章-10关</t>
+  </si>
+  <si>
+    <t>通过110关</t>
   </si>
   <si>
     <t>新手任务94</t>
   </si>
   <si>
-    <t>通过110关</t>
+    <t>新手任务94：军阶晋升为三级士官</t>
+  </si>
+  <si>
+    <t>军阶9</t>
   </si>
   <si>
     <t>新手任务95</t>
   </si>
   <si>
-    <t>军阶9</t>
+    <t>新手任务95：花费3000钻石</t>
+  </si>
+  <si>
+    <t>花费钻石VII</t>
+  </si>
+  <si>
+    <t>[nil]</t>
   </si>
   <si>
     <t>新手任务96</t>
   </si>
   <si>
-    <t>花费钻石VII</t>
-  </si>
-  <si>
-    <t>[nil]</t>
+    <t>新手任务96：军阶晋升为一级准尉</t>
   </si>
   <si>
     <t>军阶10</t>
@@ -1129,76 +1178,20 @@
   </si>
   <si>
     <t>扫荡3次</t>
-  </si>
-  <si>
-    <t>主舰40级</t>
-  </si>
-  <si>
-    <t>新手任务74：主舰升级至40级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务83：军阶晋升至参谋军士</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务84：火力装置精炼至5级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务85：通过第6章-5关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务86：激光炮升级至50级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务87：通过第6章-10关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务88：军阶晋升至上士</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务89：军阶晋升至一级士官</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务90：战舰和僚炮突破达到3阶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务91：通过第9章-10关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务92：军阶晋升为二级士官</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务93：通过第11章-10关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务94：军阶晋升为三级士官</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务95：花费3000钻石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务96：军阶晋升为一级准尉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1211,7 +1204,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1219,7 +1211,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1227,36 +1218,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1264,7 +1243,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1272,16 +1250,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1314,7 +1296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,7 +1308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498764000366222"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,76 +1372,76 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="14">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="14">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1469,11 +1451,11 @@
     <cellStyle name="Normal" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="常规 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="超链接 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="无效" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
@@ -1855,7 +1837,7 @@
       <c r="A9" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1863,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1874,23 +1856,22 @@
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="36.375" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="16.125" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1906,48 +1887,47 @@
       <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1963,47 +1943,47 @@
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
       </c>
       <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -2019,48 +1999,47 @@
       <c r="E3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="G3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2076,30 +2055,29 @@
       <c r="E4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
-        <v>59</v>
+      <c r="J4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
       </c>
       <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
         <v>1000</v>
       </c>
+      <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2115,30 +2093,29 @@
       <c r="E5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>62</v>
       </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
-        <v>59</v>
+      <c r="J5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
       </c>
       <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11">
         <v>5</v>
       </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2154,34 +2131,33 @@
       <c r="E6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>1000</v>
+      </c>
       <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
         <v>1000</v>
       </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>1000</v>
-      </c>
+      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-    </row>
-    <row r="7" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2197,30 +2173,29 @@
       <c r="E7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
-        <v>59</v>
+      <c r="J7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
       </c>
       <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
         <v>1000</v>
       </c>
+      <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-    </row>
-    <row r="8" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2236,30 +2211,29 @@
       <c r="E8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
-        <v>59</v>
+      <c r="J8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
       </c>
       <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
         <v>1000</v>
       </c>
+      <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2275,30 +2249,29 @@
       <c r="E9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>59</v>
+      <c r="J9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
       </c>
       <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
         <v>1000</v>
       </c>
+      <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-    </row>
-    <row r="10" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2314,30 +2287,29 @@
       <c r="E10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
-        <v>59</v>
+      <c r="J10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
       </c>
       <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
         <v>1000</v>
       </c>
+      <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2353,30 +2325,29 @@
       <c r="E11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
-        <v>59</v>
+      <c r="J11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1</v>
       </c>
       <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11">
         <v>5</v>
       </c>
+      <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -2392,34 +2363,33 @@
       <c r="E12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>1000</v>
+      </c>
       <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
         <v>1000</v>
       </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <v>1000</v>
-      </c>
+      <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -2435,30 +2405,29 @@
       <c r="E13" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
-        <v>59</v>
+      <c r="J13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
         <v>5000</v>
       </c>
+      <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -2474,36 +2443,35 @@
       <c r="E14" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>89</v>
       </c>
+      <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
-        <v>59</v>
+      <c r="J14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
       </c>
       <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
         <v>2000</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>90</v>
       </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
       <c r="O14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
         <v>40</v>
       </c>
+      <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-    </row>
-    <row r="15" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2519,34 +2487,33 @@
       <c r="E15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>1000</v>
+      </c>
       <c r="I15" s="11">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
         <v>2000</v>
       </c>
+      <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -2562,30 +2529,29 @@
       <c r="E16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>96</v>
       </c>
+      <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
-        <v>59</v>
+      <c r="J16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
       </c>
       <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
         <v>2000</v>
       </c>
+      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -2601,32 +2567,31 @@
       <c r="E17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="G17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
-        <v>59</v>
+      <c r="J17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
       </c>
       <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
         <v>2000</v>
       </c>
+      <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-    </row>
-    <row r="18" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2642,32 +2607,31 @@
       <c r="E18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11">
         <v>8000</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
-        <v>59</v>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
       </c>
       <c r="L18" s="11">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
         <v>2000</v>
       </c>
+      <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-    </row>
-    <row r="19" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -2683,30 +2647,29 @@
       <c r="E19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>105</v>
       </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11" t="s">
-        <v>59</v>
+      <c r="J19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
         <v>2000</v>
       </c>
+      <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-    </row>
-    <row r="20" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -2722,34 +2685,33 @@
       <c r="E20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
+        <v>5000</v>
+      </c>
       <c r="I20" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J20" s="11">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0</v>
       </c>
       <c r="L20" s="11">
-        <v>0</v>
-      </c>
-      <c r="M20" s="11">
         <v>3000</v>
       </c>
+      <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-    </row>
-    <row r="21" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -2765,36 +2727,35 @@
       <c r="E21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>111</v>
       </c>
+      <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
-        <v>59</v>
+      <c r="J21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
       </c>
       <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
         <v>3000</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>112</v>
       </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
       <c r="O21" s="11">
-        <v>0</v>
-      </c>
-      <c r="P21" s="11">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-    </row>
-    <row r="22" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -2810,30 +2771,29 @@
       <c r="E22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>115</v>
       </c>
+      <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
-        <v>59</v>
+      <c r="J22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
       </c>
       <c r="L22" s="11">
-        <v>0</v>
-      </c>
-      <c r="M22" s="11">
         <v>3000</v>
       </c>
+      <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-    </row>
-    <row r="23" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2849,36 +2809,35 @@
       <c r="E23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>118</v>
       </c>
+      <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11" t="s">
-        <v>59</v>
+      <c r="J23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
       </c>
       <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
         <v>3000</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="M23" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
       <c r="O23" s="11">
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-    </row>
-    <row r="24" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -2894,30 +2853,29 @@
       <c r="E24" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11" t="s">
-        <v>59</v>
+      <c r="J24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
       </c>
       <c r="L24" s="11">
-        <v>0</v>
-      </c>
-      <c r="M24" s="11">
         <v>3000</v>
       </c>
+      <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-    </row>
-    <row r="25" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -2933,36 +2891,35 @@
       <c r="E25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>125</v>
       </c>
+      <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11" t="s">
-        <v>59</v>
+      <c r="J25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
       </c>
       <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
         <v>3000</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>126</v>
       </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
       <c r="O25" s="11">
-        <v>0</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -2978,30 +2935,29 @@
       <c r="E26" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>129</v>
       </c>
+      <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11" t="s">
-        <v>59</v>
+      <c r="J26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
       </c>
       <c r="L26" s="11">
-        <v>0</v>
-      </c>
-      <c r="M26" s="11">
         <v>3000</v>
       </c>
+      <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-    </row>
-    <row r="27" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3017,36 +2973,35 @@
       <c r="E27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11" t="s">
-        <v>59</v>
+      <c r="J27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
       </c>
       <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
         <v>3000</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="M27" s="11" t="s">
         <v>133</v>
       </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
       <c r="O27" s="11">
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-    </row>
-    <row r="28" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3062,30 +3017,29 @@
       <c r="E28" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>136</v>
       </c>
+      <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11" t="s">
-        <v>59</v>
+      <c r="J28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
       </c>
       <c r="L28" s="11">
-        <v>0</v>
-      </c>
-      <c r="M28" s="11">
         <v>3000</v>
       </c>
+      <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-    </row>
-    <row r="29" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3101,30 +3055,29 @@
       <c r="E29" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11" t="s">
-        <v>59</v>
+      <c r="J29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
       </c>
       <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
         <v>3000</v>
       </c>
-      <c r="N29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-    </row>
-    <row r="30" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3140,32 +3093,31 @@
       <c r="E30" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11">
         <v>8000</v>
       </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11" t="s">
-        <v>59</v>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
       </c>
       <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
         <v>3000</v>
       </c>
-      <c r="N30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-    </row>
-    <row r="31" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3181,32 +3133,31 @@
       <c r="E31" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
         <v>8000</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11" t="s">
-        <v>59</v>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
       </c>
       <c r="L31" s="11">
-        <v>0</v>
-      </c>
-      <c r="M31" s="11">
         <v>3000</v>
       </c>
+      <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-    </row>
-    <row r="32" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3222,30 +3173,29 @@
       <c r="E32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>148</v>
       </c>
+      <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11" t="s">
-        <v>59</v>
+      <c r="J32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
       </c>
       <c r="L32" s="11">
-        <v>1</v>
-      </c>
-      <c r="M32" s="11">
         <v>10</v>
       </c>
+      <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-    </row>
-    <row r="33" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3261,34 +3211,33 @@
       <c r="E33" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11">
+        <v>1000</v>
+      </c>
       <c r="I33" s="11">
-        <v>1000</v>
-      </c>
-      <c r="J33" s="11">
-        <v>1</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
       </c>
       <c r="L33" s="11">
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
         <v>5000</v>
       </c>
+      <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-    </row>
-    <row r="34" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3304,30 +3253,29 @@
       <c r="E34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>154</v>
       </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11" t="s">
-        <v>59</v>
+      <c r="J34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
       </c>
       <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
         <v>5000</v>
       </c>
+      <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-    </row>
-    <row r="35" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3343,34 +3291,33 @@
       <c r="E35" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11">
+        <v>1001</v>
+      </c>
       <c r="I35" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J35" s="11">
-        <v>1</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
       </c>
       <c r="L35" s="11">
-        <v>0</v>
-      </c>
-      <c r="M35" s="11">
         <v>5000</v>
       </c>
+      <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-    </row>
-    <row r="36" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3386,30 +3333,29 @@
       <c r="E36" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>160</v>
       </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11" t="s">
-        <v>59</v>
+      <c r="J36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
       </c>
       <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
         <v>5000</v>
       </c>
+      <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-    </row>
-    <row r="37" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -3425,34 +3371,33 @@
       <c r="E37" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11">
+        <v>1001</v>
+      </c>
       <c r="I37" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
       </c>
       <c r="L37" s="11">
-        <v>0</v>
-      </c>
-      <c r="M37" s="11">
         <v>5000</v>
       </c>
+      <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-    </row>
-    <row r="38" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -3468,30 +3413,29 @@
       <c r="E38" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>166</v>
       </c>
+      <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11" t="s">
-        <v>59</v>
+      <c r="J38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
       </c>
       <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
         <v>5000</v>
       </c>
+      <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-    </row>
-    <row r="39" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>36</v>
       </c>
@@ -3507,30 +3451,29 @@
       <c r="E39" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>169</v>
       </c>
+      <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11" t="s">
-        <v>59</v>
+      <c r="J39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
       </c>
       <c r="L39" s="11">
-        <v>0</v>
-      </c>
-      <c r="M39" s="11">
         <v>5000</v>
       </c>
+      <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-    </row>
-    <row r="40" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>37</v>
       </c>
@@ -3546,32 +3489,31 @@
       <c r="E40" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11">
         <v>8000</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11" t="s">
-        <v>59</v>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
       </c>
       <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
         <v>5000</v>
       </c>
+      <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-    </row>
-    <row r="41" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>38</v>
       </c>
@@ -3587,30 +3529,29 @@
       <c r="E41" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11" t="s">
-        <v>59</v>
+      <c r="J41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
       </c>
       <c r="L41" s="11">
-        <v>0</v>
-      </c>
-      <c r="M41" s="11">
         <v>5000</v>
       </c>
+      <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-    </row>
-    <row r="42" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>39</v>
       </c>
@@ -3626,30 +3567,29 @@
       <c r="E42" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>178</v>
       </c>
+      <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11" t="s">
-        <v>59</v>
+      <c r="J42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
       </c>
       <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
         <v>7000</v>
       </c>
+      <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-    </row>
-    <row r="43" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>40</v>
       </c>
@@ -3665,34 +3605,33 @@
       <c r="E43" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11">
+        <v>5000</v>
+      </c>
       <c r="I43" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J43" s="11">
-        <v>0</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
       </c>
       <c r="L43" s="11">
-        <v>0</v>
-      </c>
-      <c r="M43" s="11">
         <v>7000</v>
       </c>
+      <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-    </row>
-    <row r="44" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>41</v>
       </c>
@@ -3708,30 +3647,29 @@
       <c r="E44" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>184</v>
       </c>
+      <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11" t="s">
-        <v>59</v>
+      <c r="J44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
       </c>
       <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
         <v>7000</v>
       </c>
+      <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-    </row>
-    <row r="45" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>42</v>
       </c>
@@ -3747,30 +3685,29 @@
       <c r="E45" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>187</v>
       </c>
+      <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11" t="s">
-        <v>59</v>
+      <c r="J45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
       </c>
       <c r="L45" s="11">
-        <v>0</v>
-      </c>
-      <c r="M45" s="11">
         <v>7000</v>
       </c>
+      <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-    </row>
-    <row r="46" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>43</v>
       </c>
@@ -3786,34 +3723,33 @@
       <c r="E46" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11">
+        <v>2000</v>
+      </c>
       <c r="I46" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
       </c>
       <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
         <v>7000</v>
       </c>
+      <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-    </row>
-    <row r="47" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>44</v>
       </c>
@@ -3829,30 +3765,29 @@
       <c r="E47" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>193</v>
       </c>
+      <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11" t="s">
-        <v>59</v>
+      <c r="J47" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
       </c>
       <c r="L47" s="11">
-        <v>0</v>
-      </c>
-      <c r="M47" s="11">
         <v>7000</v>
       </c>
+      <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-    </row>
-    <row r="48" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>45</v>
       </c>
@@ -3868,30 +3803,29 @@
       <c r="E48" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>196</v>
       </c>
+      <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11" t="s">
-        <v>59</v>
+      <c r="J48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
       </c>
       <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
         <v>7000</v>
       </c>
+      <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-    </row>
-    <row r="49" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>46</v>
       </c>
@@ -3907,32 +3841,31 @@
       <c r="E49" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H49" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="G49" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11" t="s">
-        <v>59</v>
+      <c r="J49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0</v>
       </c>
       <c r="L49" s="11">
-        <v>0</v>
-      </c>
-      <c r="M49" s="11">
         <v>7000</v>
       </c>
+      <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-    </row>
-    <row r="50" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>47</v>
       </c>
@@ -3948,32 +3881,31 @@
       <c r="E50" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11">
         <v>8000</v>
       </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11" t="s">
-        <v>59</v>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
       </c>
       <c r="L50" s="11">
-        <v>0</v>
-      </c>
-      <c r="M50" s="11">
         <v>7000</v>
       </c>
+      <c r="M50" s="11"/>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-    </row>
-    <row r="51" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>48</v>
       </c>
@@ -3989,34 +3921,33 @@
       <c r="E51" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11">
+        <v>2000</v>
+      </c>
       <c r="I51" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J51" s="11">
-        <v>1</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="11">
+        <v>1</v>
       </c>
       <c r="L51" s="11">
-        <v>1</v>
-      </c>
-      <c r="M51" s="11">
         <v>10</v>
       </c>
+      <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-    </row>
-    <row r="52" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>49</v>
       </c>
@@ -4032,34 +3963,33 @@
       <c r="E52" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11">
+        <v>2000</v>
+      </c>
       <c r="I52" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J52" s="11">
-        <v>1</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K52" s="11">
+        <v>1</v>
       </c>
       <c r="L52" s="11">
-        <v>1</v>
-      </c>
-      <c r="M52" s="11">
         <v>10</v>
       </c>
+      <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-    </row>
-    <row r="53" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>50</v>
       </c>
@@ -4075,30 +4005,29 @@
       <c r="E53" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>211</v>
       </c>
+      <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11" t="s">
-        <v>59</v>
+      <c r="J53" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="11">
+        <v>1</v>
       </c>
       <c r="L53" s="11">
-        <v>1</v>
-      </c>
-      <c r="M53" s="11">
         <v>10</v>
       </c>
+      <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-    </row>
-    <row r="54" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>51</v>
       </c>
@@ -4114,34 +4043,33 @@
       <c r="E54" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11">
+        <v>2000</v>
+      </c>
       <c r="I54" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="11">
+        <v>1</v>
       </c>
       <c r="L54" s="11">
-        <v>1</v>
-      </c>
-      <c r="M54" s="11">
         <v>10</v>
       </c>
+      <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-    </row>
-    <row r="55" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>52</v>
       </c>
@@ -4157,30 +4085,29 @@
       <c r="E55" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11" t="s">
+      <c r="F55" s="11" t="s">
         <v>217</v>
       </c>
+      <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11" t="s">
-        <v>59</v>
+      <c r="J55" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K55" s="11">
+        <v>1</v>
       </c>
       <c r="L55" s="11">
-        <v>1</v>
-      </c>
-      <c r="M55" s="11">
         <v>10</v>
       </c>
+      <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-    </row>
-    <row r="56" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>53</v>
       </c>
@@ -4196,34 +4123,33 @@
       <c r="E56" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11" t="s">
+      <c r="F56" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11">
+        <v>1001</v>
+      </c>
       <c r="I56" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J56" s="11">
-        <v>1</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K56" s="11">
+        <v>1</v>
       </c>
       <c r="L56" s="11">
-        <v>1</v>
-      </c>
-      <c r="M56" s="11">
         <v>10</v>
       </c>
+      <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-    </row>
-    <row r="57" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>54</v>
       </c>
@@ -4239,30 +4165,29 @@
       <c r="E57" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
+      <c r="F57" s="11" t="s">
         <v>223</v>
       </c>
+      <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11" t="s">
-        <v>59</v>
+      <c r="J57" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57" s="11">
+        <v>1</v>
       </c>
       <c r="L57" s="11">
-        <v>1</v>
-      </c>
-      <c r="M57" s="11">
         <v>10</v>
       </c>
+      <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-    </row>
-    <row r="58" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>55</v>
       </c>
@@ -4278,30 +4203,29 @@
       <c r="E58" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>226</v>
       </c>
+      <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11" t="s">
-        <v>59</v>
+      <c r="J58" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="11">
+        <v>1</v>
       </c>
       <c r="L58" s="11">
-        <v>1</v>
-      </c>
-      <c r="M58" s="11">
         <v>10</v>
       </c>
+      <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-    </row>
-    <row r="59" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>56</v>
       </c>
@@ -4317,30 +4241,29 @@
       <c r="E59" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
+      <c r="F59" s="11" t="s">
         <v>229</v>
       </c>
+      <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11" t="s">
-        <v>59</v>
+      <c r="J59" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="11">
+        <v>1</v>
       </c>
       <c r="L59" s="11">
-        <v>1</v>
-      </c>
-      <c r="M59" s="11">
         <v>10</v>
       </c>
+      <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-    </row>
-    <row r="60" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>57</v>
       </c>
@@ -4356,32 +4279,31 @@
       <c r="E60" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11">
+      <c r="F60" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11">
         <v>8000</v>
       </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11" t="s">
-        <v>59</v>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K60" s="11">
+        <v>1</v>
       </c>
       <c r="L60" s="11">
-        <v>1</v>
-      </c>
-      <c r="M60" s="11">
         <v>10</v>
       </c>
+      <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-    </row>
-    <row r="61" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>58</v>
       </c>
@@ -4392,35 +4314,34 @@
         <v>1059</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11" t="s">
         <v>234</v>
       </c>
+      <c r="F61" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11" t="s">
-        <v>59</v>
+      <c r="J61" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K61" s="11">
+        <v>1</v>
       </c>
       <c r="L61" s="11">
-        <v>1</v>
-      </c>
-      <c r="M61" s="11">
         <v>10</v>
       </c>
+      <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-    </row>
-    <row r="62" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>59</v>
       </c>
@@ -4431,35 +4352,34 @@
         <v>1060</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11" t="s">
         <v>237</v>
       </c>
+      <c r="F62" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11" t="s">
-        <v>59</v>
+      <c r="J62" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" s="11">
+        <v>1</v>
       </c>
       <c r="L62" s="11">
-        <v>1</v>
-      </c>
-      <c r="M62" s="11">
         <v>20</v>
       </c>
+      <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-    </row>
-    <row r="63" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>60</v>
       </c>
@@ -4470,39 +4390,38 @@
         <v>1061</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="H63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11">
+        <v>6000</v>
+      </c>
       <c r="I63" s="11">
-        <v>6000</v>
-      </c>
-      <c r="J63" s="11">
         <v>2</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>59</v>
+      <c r="J63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" s="11">
+        <v>1</v>
       </c>
       <c r="L63" s="11">
-        <v>1</v>
-      </c>
-      <c r="M63" s="11">
         <v>20</v>
       </c>
+      <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-    </row>
-    <row r="64" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>61</v>
       </c>
@@ -4513,35 +4432,34 @@
         <v>1062</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11" t="s">
         <v>243</v>
       </c>
+      <c r="F64" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11" t="s">
-        <v>59</v>
+      <c r="J64" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K64" s="11">
+        <v>1</v>
       </c>
       <c r="L64" s="11">
-        <v>1</v>
-      </c>
-      <c r="M64" s="11">
         <v>20</v>
       </c>
+      <c r="M64" s="11"/>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-    </row>
-    <row r="65" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>62</v>
       </c>
@@ -4552,39 +4470,38 @@
         <v>1063</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="H65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11">
+        <v>6000</v>
+      </c>
       <c r="I65" s="11">
-        <v>6000</v>
-      </c>
-      <c r="J65" s="11">
-        <v>0</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>247</v>
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
       </c>
       <c r="L65" s="11">
-        <v>0</v>
-      </c>
-      <c r="M65" s="11">
         <v>20</v>
       </c>
+      <c r="M65" s="11"/>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-    </row>
-    <row r="66" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>63</v>
       </c>
@@ -4595,41 +4512,40 @@
         <v>1064</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H66" s="11" t="b">
-        <v>1</v>
+      <c r="F66" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G66" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="11">
+        <v>5000</v>
       </c>
       <c r="I66" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J66" s="11">
-        <v>0</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="11">
+        <v>1</v>
       </c>
       <c r="L66" s="11">
-        <v>1</v>
-      </c>
-      <c r="M66" s="11">
         <v>20</v>
       </c>
+      <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-    </row>
-    <row r="67" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>64</v>
       </c>
@@ -4640,35 +4556,34 @@
         <v>1065</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11" t="s">
         <v>253</v>
       </c>
+      <c r="F67" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11" t="s">
-        <v>59</v>
+      <c r="J67" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K67" s="11">
+        <v>1</v>
       </c>
       <c r="L67" s="11">
-        <v>1</v>
-      </c>
-      <c r="M67" s="11">
         <v>20</v>
       </c>
+      <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-    </row>
-    <row r="68" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>65</v>
       </c>
@@ -4679,39 +4594,38 @@
         <v>1066</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="H68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11">
+        <v>2000</v>
+      </c>
       <c r="I68" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J68" s="11">
-        <v>0</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K68" s="11">
+        <v>1</v>
       </c>
       <c r="L68" s="11">
-        <v>1</v>
-      </c>
-      <c r="M68" s="11">
         <v>20</v>
       </c>
+      <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-    </row>
-    <row r="69" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>66</v>
       </c>
@@ -4722,35 +4636,34 @@
         <v>1067</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11" t="s">
         <v>259</v>
       </c>
+      <c r="F69" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11" t="s">
-        <v>59</v>
+      <c r="J69" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" s="11">
+        <v>1</v>
       </c>
       <c r="L69" s="11">
-        <v>1</v>
-      </c>
-      <c r="M69" s="11">
         <v>20</v>
       </c>
+      <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-    </row>
-    <row r="70" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>67</v>
       </c>
@@ -4761,35 +4674,34 @@
         <v>1068</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11" t="s">
         <v>262</v>
       </c>
+      <c r="F70" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11" t="s">
-        <v>59</v>
+      <c r="J70" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K70" s="11">
+        <v>1</v>
       </c>
       <c r="L70" s="11">
-        <v>1</v>
-      </c>
-      <c r="M70" s="11">
         <v>20</v>
       </c>
+      <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-    </row>
-    <row r="71" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>68</v>
       </c>
@@ -4800,39 +4712,38 @@
         <v>1069</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="H71" s="13"/>
+      <c r="F71" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G71" s="13"/>
+      <c r="H71" s="11">
+        <v>1000</v>
+      </c>
       <c r="I71" s="11">
-        <v>1000</v>
-      </c>
-      <c r="J71" s="11">
         <v>3</v>
       </c>
-      <c r="K71" s="11" t="s">
-        <v>59</v>
+      <c r="J71" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K71" s="11">
+        <v>1</v>
       </c>
       <c r="L71" s="11">
-        <v>1</v>
-      </c>
-      <c r="M71" s="11">
         <v>20</v>
       </c>
+      <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-    </row>
-    <row r="72" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>69</v>
       </c>
@@ -4843,35 +4754,34 @@
         <v>1070</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11" t="s">
         <v>268</v>
       </c>
+      <c r="F72" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11" t="s">
-        <v>59</v>
+      <c r="J72" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K72" s="11">
+        <v>1</v>
       </c>
       <c r="L72" s="11">
-        <v>1</v>
-      </c>
-      <c r="M72" s="11">
         <v>20</v>
       </c>
+      <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-    </row>
-    <row r="73" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>70</v>
       </c>
@@ -4882,39 +4792,38 @@
         <v>1071</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="H73" s="11"/>
+      <c r="F73" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11">
+        <v>6000</v>
+      </c>
       <c r="I73" s="11">
-        <v>6000</v>
-      </c>
-      <c r="J73" s="11">
-        <v>0</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>247</v>
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0</v>
       </c>
       <c r="L73" s="11">
-        <v>0</v>
-      </c>
-      <c r="M73" s="11">
         <v>50</v>
       </c>
+      <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-    </row>
-    <row r="74" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>71</v>
       </c>
@@ -4925,39 +4834,38 @@
         <v>1072</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="H74" s="11"/>
+      <c r="F74" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11">
+        <v>1000</v>
+      </c>
       <c r="I74" s="11">
-        <v>1000</v>
-      </c>
-      <c r="J74" s="11">
-        <v>1</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K74" s="11">
+        <v>1</v>
       </c>
       <c r="L74" s="11">
-        <v>1</v>
-      </c>
-      <c r="M74" s="11">
         <v>20</v>
       </c>
+      <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-    </row>
-    <row r="75" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>72</v>
       </c>
@@ -4968,35 +4876,34 @@
         <v>1073</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11" t="s">
         <v>277</v>
       </c>
+      <c r="F75" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11" t="s">
-        <v>59</v>
+      <c r="J75" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K75" s="11">
+        <v>1</v>
       </c>
       <c r="L75" s="11">
-        <v>1</v>
-      </c>
-      <c r="M75" s="11">
         <v>20</v>
       </c>
+      <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-    </row>
-    <row r="76" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>73</v>
       </c>
@@ -5007,37 +4914,36 @@
         <v>1074</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11">
+      <c r="F76" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11">
         <v>9000</v>
       </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11" t="s">
-        <v>59</v>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K76" s="11">
+        <v>1</v>
       </c>
       <c r="L76" s="11">
-        <v>1</v>
-      </c>
-      <c r="M76" s="11">
         <v>20</v>
       </c>
+      <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-    </row>
-    <row r="77" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>74</v>
       </c>
@@ -5048,39 +4954,38 @@
         <v>1075</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="H77" s="12"/>
+        <v>283</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="11">
+        <v>1000</v>
+      </c>
       <c r="I77" s="11">
-        <v>1000</v>
-      </c>
-      <c r="J77" s="11">
-        <v>1</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K77" s="11">
+        <v>1</v>
       </c>
       <c r="L77" s="11">
-        <v>1</v>
-      </c>
-      <c r="M77" s="11">
         <v>20</v>
       </c>
+      <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-    </row>
-    <row r="78" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>75</v>
       </c>
@@ -5091,35 +4996,34 @@
         <v>1076</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11" t="s">
-        <v>284</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11" t="s">
-        <v>59</v>
+      <c r="J78" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K78" s="11">
+        <v>1</v>
       </c>
       <c r="L78" s="11">
-        <v>1</v>
-      </c>
-      <c r="M78" s="11">
         <v>20</v>
       </c>
+      <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-    </row>
-    <row r="79" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>76</v>
       </c>
@@ -5130,47 +5034,46 @@
         <v>1077</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="H79" s="11" t="b">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G79" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="11">
+        <v>2000</v>
       </c>
       <c r="I79" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J79" s="11">
-        <v>0</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K79" s="11">
+        <v>1</v>
       </c>
       <c r="L79" s="11">
-        <v>1</v>
-      </c>
-      <c r="M79" s="11">
         <v>20</v>
       </c>
-      <c r="N79" s="11" t="s">
+      <c r="M79" s="11" t="s">
         <v>90</v>
       </c>
+      <c r="N79" s="11">
+        <v>0</v>
+      </c>
       <c r="O79" s="11">
-        <v>0</v>
-      </c>
-      <c r="P79" s="11">
         <v>20</v>
       </c>
+      <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-    </row>
-    <row r="80" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>77</v>
       </c>
@@ -5181,35 +5084,34 @@
         <v>1078</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11" t="s">
-        <v>290</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11" t="s">
-        <v>59</v>
+      <c r="J80" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K80" s="11">
+        <v>1</v>
       </c>
       <c r="L80" s="11">
-        <v>1</v>
-      </c>
-      <c r="M80" s="11">
         <v>20</v>
       </c>
+      <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-    </row>
-    <row r="81" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>78</v>
       </c>
@@ -5220,35 +5122,34 @@
         <v>1079</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11" t="s">
-        <v>293</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11" t="s">
-        <v>59</v>
+      <c r="J81" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K81" s="11">
+        <v>1</v>
       </c>
       <c r="L81" s="11">
-        <v>1</v>
-      </c>
-      <c r="M81" s="11">
         <v>30</v>
       </c>
+      <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-    </row>
-    <row r="82" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>79</v>
       </c>
@@ -5259,39 +5160,38 @@
         <v>1080</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H82" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11">
+        <v>6000</v>
+      </c>
       <c r="I82" s="11">
-        <v>6000</v>
-      </c>
-      <c r="J82" s="11">
-        <v>1</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K82" s="11">
+        <v>1</v>
       </c>
       <c r="L82" s="11">
-        <v>1</v>
-      </c>
-      <c r="M82" s="11">
         <v>30</v>
       </c>
+      <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-    </row>
-    <row r="83" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>80</v>
       </c>
@@ -5302,39 +5202,38 @@
         <v>1081</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H83" s="11"/>
+        <v>301</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11">
+        <v>5000</v>
+      </c>
       <c r="I83" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J83" s="11">
-        <v>0</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K83" s="11">
+        <v>1</v>
       </c>
       <c r="L83" s="11">
-        <v>1</v>
-      </c>
-      <c r="M83" s="11">
         <v>30</v>
       </c>
+      <c r="M83" s="11"/>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-    </row>
-    <row r="84" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>81</v>
       </c>
@@ -5345,35 +5244,34 @@
         <v>1082</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11" t="s">
-        <v>302</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11" t="s">
-        <v>59</v>
+      <c r="J84" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K84" s="11">
+        <v>1</v>
       </c>
       <c r="L84" s="11">
-        <v>1</v>
-      </c>
-      <c r="M84" s="11">
         <v>30</v>
       </c>
+      <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-    </row>
-    <row r="85" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>82</v>
       </c>
@@ -5384,39 +5282,38 @@
         <v>1083</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H85" s="12"/>
+        <v>307</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="G85" s="12"/>
+      <c r="H85" s="11">
+        <v>1001</v>
+      </c>
       <c r="I85" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J85" s="11">
-        <v>1</v>
-      </c>
-      <c r="K85" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K85" s="11">
+        <v>1</v>
       </c>
       <c r="L85" s="11">
-        <v>1</v>
-      </c>
-      <c r="M85" s="11">
         <v>50</v>
       </c>
+      <c r="M85" s="11"/>
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-    </row>
-    <row r="86" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>83</v>
       </c>
@@ -5427,39 +5324,38 @@
         <v>1084</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="H86" s="11"/>
+        <v>310</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11">
+        <v>5000</v>
+      </c>
       <c r="I86" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J86" s="11">
-        <v>0</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K86" s="11">
+        <v>1</v>
       </c>
       <c r="L86" s="11">
-        <v>1</v>
-      </c>
-      <c r="M86" s="11">
         <v>50</v>
       </c>
+      <c r="M86" s="11"/>
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-    </row>
-    <row r="87" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>84</v>
       </c>
@@ -5470,39 +5366,38 @@
         <v>1085</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="H87" s="15"/>
+        <v>313</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="11">
+        <v>2000</v>
+      </c>
       <c r="I87" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J87" s="11">
         <v>2</v>
       </c>
-      <c r="K87" s="11" t="s">
-        <v>59</v>
+      <c r="J87" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K87" s="11">
+        <v>1</v>
       </c>
       <c r="L87" s="11">
-        <v>1</v>
-      </c>
-      <c r="M87" s="11">
         <v>50</v>
       </c>
+      <c r="M87" s="11"/>
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-    </row>
-    <row r="88" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>85</v>
       </c>
@@ -5513,35 +5408,34 @@
         <v>1086</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11" t="s">
-        <v>59</v>
+      <c r="J88" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K88" s="11">
+        <v>1</v>
       </c>
       <c r="L88" s="11">
-        <v>1</v>
-      </c>
-      <c r="M88" s="11">
         <v>50</v>
       </c>
+      <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-    </row>
-    <row r="89" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>86</v>
       </c>
@@ -5552,39 +5446,38 @@
         <v>1087</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H89" s="11"/>
+        <v>319</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11">
+        <v>1002</v>
+      </c>
       <c r="I89" s="11">
-        <v>1000</v>
-      </c>
-      <c r="J89" s="11">
-        <v>2</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K89" s="11">
+        <v>1</v>
       </c>
       <c r="L89" s="11">
-        <v>1</v>
-      </c>
-      <c r="M89" s="11">
         <v>50</v>
       </c>
+      <c r="M89" s="11"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-    </row>
-    <row r="90" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>87</v>
       </c>
@@ -5595,35 +5488,34 @@
         <v>1088</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11" t="s">
-        <v>316</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11" t="s">
-        <v>59</v>
+      <c r="J90" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K90" s="11">
+        <v>1</v>
       </c>
       <c r="L90" s="11">
-        <v>1</v>
-      </c>
-      <c r="M90" s="11">
         <v>50</v>
       </c>
+      <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-    </row>
-    <row r="91" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>88</v>
       </c>
@@ -5634,41 +5526,40 @@
         <v>1089</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="H91" s="11" t="b">
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G91" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="11">
+        <v>5000</v>
       </c>
       <c r="I91" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J91" s="11">
-        <v>0</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K91" s="11">
+        <v>1</v>
       </c>
       <c r="L91" s="11">
-        <v>1</v>
-      </c>
-      <c r="M91" s="11">
         <v>50</v>
       </c>
+      <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-    </row>
-    <row r="92" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>89</v>
       </c>
@@ -5679,41 +5570,40 @@
         <v>1090</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="H92" s="11" t="b">
-        <v>1</v>
+        <v>328</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G92" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="11">
+        <v>5000</v>
       </c>
       <c r="I92" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J92" s="11">
-        <v>0</v>
-      </c>
-      <c r="K92" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K92" s="11">
+        <v>1</v>
       </c>
       <c r="L92" s="11">
-        <v>1</v>
-      </c>
-      <c r="M92" s="11">
         <v>50</v>
       </c>
+      <c r="M92" s="11"/>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-    </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>90</v>
       </c>
@@ -5724,39 +5614,38 @@
         <v>1091</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="H93" s="11"/>
+        <v>331</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11">
+        <v>1001</v>
+      </c>
       <c r="I93" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J93" s="11">
-        <v>1</v>
-      </c>
-      <c r="K93" s="11" t="s">
-        <v>247</v>
+        <v>1</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
       </c>
       <c r="L93" s="11">
-        <v>0</v>
-      </c>
-      <c r="M93" s="11">
         <v>100</v>
       </c>
+      <c r="M93" s="11"/>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-    </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>91</v>
       </c>
@@ -5767,35 +5656,34 @@
         <v>1092</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11" t="s">
-        <v>324</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11" t="s">
-        <v>59</v>
+      <c r="J94" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K94" s="11">
+        <v>1</v>
       </c>
       <c r="L94" s="11">
-        <v>1</v>
-      </c>
-      <c r="M94" s="11">
         <v>100</v>
       </c>
+      <c r="M94" s="11"/>
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-    </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>92</v>
       </c>
@@ -5806,39 +5694,38 @@
         <v>1093</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="H95" s="11"/>
+        <v>337</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11">
+        <v>5000</v>
+      </c>
       <c r="I95" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J95" s="11">
-        <v>0</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K95" s="11">
+        <v>1</v>
       </c>
       <c r="L95" s="11">
-        <v>1</v>
-      </c>
-      <c r="M95" s="11">
         <v>100</v>
       </c>
+      <c r="M95" s="11"/>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-    </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>93</v>
       </c>
@@ -5849,35 +5736,34 @@
         <v>1094</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11" t="s">
-        <v>328</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11" t="s">
-        <v>59</v>
+      <c r="J96" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K96" s="11">
+        <v>1</v>
       </c>
       <c r="L96" s="11">
-        <v>1</v>
-      </c>
-      <c r="M96" s="11">
         <v>100</v>
       </c>
+      <c r="M96" s="11"/>
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-    </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>94</v>
       </c>
@@ -5888,39 +5774,38 @@
         <v>1095</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="H97" s="11"/>
+        <v>343</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11">
+        <v>5000</v>
+      </c>
       <c r="I97" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J97" s="11">
-        <v>0</v>
-      </c>
-      <c r="K97" s="11" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K97" s="11">
+        <v>1</v>
       </c>
       <c r="L97" s="11">
-        <v>1</v>
-      </c>
-      <c r="M97" s="11">
         <v>100</v>
       </c>
+      <c r="M97" s="11"/>
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-    </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>95</v>
       </c>
@@ -5931,39 +5816,38 @@
         <v>1096</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="H98" s="11"/>
+        <v>346</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11">
+        <v>6000</v>
+      </c>
       <c r="I98" s="11">
-        <v>6000</v>
-      </c>
-      <c r="J98" s="11">
-        <v>1</v>
-      </c>
-      <c r="K98" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>90</v>
       </c>
+      <c r="K98" s="11">
+        <v>0</v>
+      </c>
       <c r="L98" s="11">
-        <v>0</v>
-      </c>
-      <c r="M98" s="11">
         <v>40</v>
       </c>
+      <c r="M98" s="11"/>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-    </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>96</v>
       </c>
@@ -5971,42 +5855,41 @@
         <v>1096</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="H99" s="11"/>
+        <v>350</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11">
+        <v>5000</v>
+      </c>
       <c r="I99" s="11">
-        <v>5000</v>
-      </c>
-      <c r="J99" s="11">
-        <v>0</v>
-      </c>
-      <c r="K99" s="11" t="s">
-        <v>247</v>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K99" s="11">
+        <v>0</v>
       </c>
       <c r="L99" s="11">
-        <v>0</v>
-      </c>
-      <c r="M99" s="11">
         <v>100</v>
       </c>
+      <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-    </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -6025,9 +5908,8 @@
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-    </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -6046,9 +5928,8 @@
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
       <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-    </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6067,9 +5948,8 @@
       <c r="P102" s="11"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-    </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6088,9 +5968,8 @@
       <c r="P103" s="11"/>
       <c r="Q103" s="11"/>
       <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-    </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6109,9 +5988,8 @@
       <c r="P104" s="11"/>
       <c r="Q104" s="11"/>
       <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-    </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6130,9 +6008,8 @@
       <c r="P105" s="11"/>
       <c r="Q105" s="11"/>
       <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-    </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6151,9 +6028,8 @@
       <c r="P106" s="11"/>
       <c r="Q106" s="11"/>
       <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-    </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6172,9 +6048,8 @@
       <c r="P107" s="11"/>
       <c r="Q107" s="11"/>
       <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-    </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6193,9 +6068,8 @@
       <c r="P108" s="11"/>
       <c r="Q108" s="11"/>
       <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-    </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6214,9 +6088,8 @@
       <c r="P109" s="11"/>
       <c r="Q109" s="11"/>
       <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-    </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6235,9 +6108,8 @@
       <c r="P110" s="11"/>
       <c r="Q110" s="11"/>
       <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-    </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6256,9 +6128,8 @@
       <c r="P111" s="11"/>
       <c r="Q111" s="11"/>
       <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-    </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6277,9 +6148,8 @@
       <c r="P112" s="11"/>
       <c r="Q112" s="11"/>
       <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-    </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6298,9 +6168,8 @@
       <c r="P113" s="11"/>
       <c r="Q113" s="11"/>
       <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-    </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6319,9 +6188,8 @@
       <c r="P114" s="11"/>
       <c r="Q114" s="11"/>
       <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-    </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6340,9 +6208,8 @@
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-    </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6361,9 +6228,8 @@
       <c r="P116" s="11"/>
       <c r="Q116" s="11"/>
       <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
-    </row>
-    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6382,9 +6248,8 @@
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
       <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
-    </row>
-    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6403,9 +6268,8 @@
       <c r="P118" s="11"/>
       <c r="Q118" s="11"/>
       <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
-    </row>
-    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6424,9 +6288,8 @@
       <c r="P119" s="11"/>
       <c r="Q119" s="11"/>
       <c r="R119" s="11"/>
-      <c r="S119" s="11"/>
-    </row>
-    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6445,7 +6308,6 @@
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
       <c r="R120" s="11"/>
-      <c r="S120" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -6481,16 +6343,16 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
@@ -6519,16 +6381,16 @@
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>36</v>
@@ -6557,34 +6419,34 @@
         <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -6596,7 +6458,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6622,7 +6484,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6648,7 +6510,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6674,7 +6536,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6700,7 +6562,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6726,7 +6588,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6752,7 +6614,7 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6778,7 +6640,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6804,7 +6666,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6830,7 +6692,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6856,7 +6718,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -6874,7 +6736,7 @@
       <c r="L14" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Excel/task.任务.xlsx
+++ b/Excel/task.任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EC8644-FB8F-43C4-B819-3146E96107F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E8E53-5429-44BF-BA06-9557C07A495C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="382">
   <si>
     <t>sheet名</t>
   </si>
@@ -131,6 +131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,6 +142,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1179,12 +1181,61 @@
   <si>
     <t>扫荡3次</t>
   </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:e&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tlist</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时直冲触发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1247,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1204,6 +1256,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1211,6 +1264,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1218,17 +1272,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1236,6 +1293,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1243,6 +1301,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1250,6 +1309,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1258,12 +1318,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1273,6 +1328,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1402,7 +1472,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1443,6 +1513,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="14" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1845,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1857,21 +1933,21 @@
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="36.375" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="7" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1893,41 +1969,44 @@
       <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1949,41 +2028,44 @@
       <c r="G2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
+      <c r="H2" s="9" t="s">
+        <v>379</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
       </c>
       <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -2005,41 +2087,44 @@
       <c r="G3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2061,23 +2146,24 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
         <v>1000</v>
       </c>
-      <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2099,23 +2185,24 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1</v>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2135,29 +2222,30 @@
         <v>65</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
         <v>1000</v>
       </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
         <v>1000</v>
       </c>
-      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2179,23 +2267,24 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <v>1000</v>
       </c>
-      <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2217,23 +2306,24 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <v>1000</v>
       </c>
-      <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2255,23 +2345,24 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
         <v>1000</v>
       </c>
-      <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -2293,23 +2384,24 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
         <v>1000</v>
       </c>
-      <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2331,23 +2423,24 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1</v>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
         <v>5</v>
       </c>
-      <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -2367,29 +2460,30 @@
         <v>83</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11">
         <v>1000</v>
       </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
         <v>1000</v>
       </c>
-      <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -2411,23 +2505,24 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <v>5000</v>
       </c>
-      <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -2449,29 +2544,30 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
         <v>2000</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="N14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
       <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
         <v>40</v>
       </c>
-      <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2491,29 +2587,30 @@
         <v>93</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11">
         <v>1000</v>
       </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>2000</v>
       </c>
-      <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -2535,23 +2632,24 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
         <v>2000</v>
       </c>
-      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -2575,23 +2673,24 @@
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>2000</v>
       </c>
-      <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2611,27 +2710,28 @@
         <v>102</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11">
         <v>8000</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -2653,23 +2753,24 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>2000</v>
       </c>
-      <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -2689,29 +2790,30 @@
         <v>108</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
         <v>5000</v>
       </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0</v>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
         <v>3000</v>
       </c>
-      <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -2733,29 +2835,30 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
         <v>3000</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="N21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
       <c r="O21" s="11">
-        <v>1</v>
-      </c>
-      <c r="P21" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>1</v>
+      </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -2777,23 +2880,24 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
         <v>3000</v>
       </c>
-      <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2815,29 +2919,30 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
         <v>3000</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="N23" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
       <c r="O23" s="11">
-        <v>1</v>
-      </c>
-      <c r="P23" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -2859,23 +2964,24 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
         <v>3000</v>
       </c>
-      <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -2897,29 +3003,30 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
         <v>3000</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="N25" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
       <c r="O25" s="11">
-        <v>1</v>
-      </c>
-      <c r="P25" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>1</v>
+      </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -2941,23 +3048,24 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0</v>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
         <v>3000</v>
       </c>
-      <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -2979,29 +3087,30 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
         <v>3000</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="N27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
       <c r="O27" s="11">
-        <v>1</v>
-      </c>
-      <c r="P27" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>1</v>
+      </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3023,23 +3132,24 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0</v>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
         <v>3000</v>
       </c>
-      <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3061,23 +3171,24 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
         <v>3000</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="11"/>
+      <c r="N29" s="12"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -3097,27 +3208,28 @@
         <v>142</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="11">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11">
         <v>8000</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
         <v>3000</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="11"/>
+      <c r="N30" s="12"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3137,27 +3249,28 @@
         <v>145</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="11">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11">
         <v>8000</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
         <v>3000</v>
       </c>
-      <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3179,23 +3292,24 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1</v>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11">
         <v>10</v>
       </c>
-      <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-    </row>
-    <row r="33" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3215,29 +3329,30 @@
         <v>151</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="11">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11">
         <v>1000</v>
       </c>
-      <c r="I33" s="11">
-        <v>1</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
+      <c r="J33" s="11">
+        <v>1</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
         <v>5000</v>
       </c>
-      <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3259,23 +3374,24 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
         <v>5000</v>
       </c>
-      <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -3295,29 +3411,30 @@
         <v>157</v>
       </c>
       <c r="G35" s="11"/>
-      <c r="H35" s="11">
+      <c r="H35" s="11"/>
+      <c r="I35" s="11">
         <v>1001</v>
       </c>
-      <c r="I35" s="11">
-        <v>1</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
+      <c r="J35" s="11">
+        <v>1</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
         <v>5000</v>
       </c>
-      <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -3339,23 +3456,24 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
         <v>5000</v>
       </c>
-      <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-    </row>
-    <row r="37" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -3375,29 +3493,30 @@
         <v>163</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="11">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11">
         <v>1001</v>
       </c>
-      <c r="I37" s="11">
-        <v>1</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K37" s="11">
-        <v>0</v>
+      <c r="J37" s="11">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
         <v>5000</v>
       </c>
-      <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
-    </row>
-    <row r="38" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -3419,23 +3538,24 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>5000</v>
       </c>
-      <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>36</v>
       </c>
@@ -3457,23 +3577,24 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0</v>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
         <v>5000</v>
       </c>
-      <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-    </row>
-    <row r="40" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S39" s="11"/>
+    </row>
+    <row r="40" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>37</v>
       </c>
@@ -3493,27 +3614,28 @@
         <v>172</v>
       </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="11">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11">
         <v>8000</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
         <v>5000</v>
       </c>
-      <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
-    </row>
-    <row r="41" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>38</v>
       </c>
@@ -3535,23 +3657,24 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
         <v>5000</v>
       </c>
-      <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>39</v>
       </c>
@@ -3573,23 +3696,24 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
         <v>7000</v>
       </c>
-      <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>40</v>
       </c>
@@ -3609,29 +3733,30 @@
         <v>181</v>
       </c>
       <c r="G43" s="11"/>
-      <c r="H43" s="11">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11">
         <v>5000</v>
       </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" s="11">
-        <v>0</v>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
         <v>7000</v>
       </c>
-      <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>41</v>
       </c>
@@ -3653,23 +3778,24 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
         <v>7000</v>
       </c>
-      <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
-    </row>
-    <row r="45" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>42</v>
       </c>
@@ -3691,23 +3817,24 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="11">
-        <v>0</v>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
         <v>7000</v>
       </c>
-      <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-    </row>
-    <row r="46" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="11"/>
+    </row>
+    <row r="46" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>43</v>
       </c>
@@ -3727,29 +3854,30 @@
         <v>190</v>
       </c>
       <c r="G46" s="11"/>
-      <c r="H46" s="11">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11">
         <v>2000</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
         <v>7000</v>
       </c>
-      <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>44</v>
       </c>
@@ -3771,23 +3899,24 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K47" s="11">
-        <v>0</v>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
         <v>7000</v>
       </c>
-      <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>45</v>
       </c>
@@ -3809,23 +3938,24 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
         <v>7000</v>
       </c>
-      <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
-    </row>
-    <row r="49" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>46</v>
       </c>
@@ -3849,23 +3979,24 @@
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K49" s="11">
-        <v>0</v>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
         <v>7000</v>
       </c>
-      <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
-    </row>
-    <row r="50" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>47</v>
       </c>
@@ -3885,27 +4016,28 @@
         <v>202</v>
       </c>
       <c r="G50" s="11"/>
-      <c r="H50" s="11">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11">
         <v>8000</v>
       </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K50" s="11">
-        <v>0</v>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
         <v>7000</v>
       </c>
-      <c r="M50" s="11"/>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
-    </row>
-    <row r="51" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>48</v>
       </c>
@@ -3925,29 +4057,30 @@
         <v>205</v>
       </c>
       <c r="G51" s="11"/>
-      <c r="H51" s="11">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11">
         <v>2000</v>
       </c>
-      <c r="I51" s="11">
-        <v>1</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K51" s="11">
-        <v>1</v>
+      <c r="J51" s="11">
+        <v>1</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L51" s="11">
+        <v>1</v>
+      </c>
+      <c r="M51" s="11">
         <v>10</v>
       </c>
-      <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
-    </row>
-    <row r="52" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>49</v>
       </c>
@@ -3967,29 +4100,30 @@
         <v>208</v>
       </c>
       <c r="G52" s="11"/>
-      <c r="H52" s="11">
+      <c r="H52" s="11"/>
+      <c r="I52" s="11">
         <v>2000</v>
       </c>
-      <c r="I52" s="11">
-        <v>1</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K52" s="11">
-        <v>1</v>
+      <c r="J52" s="11">
+        <v>1</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L52" s="11">
+        <v>1</v>
+      </c>
+      <c r="M52" s="11">
         <v>10</v>
       </c>
-      <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
-    </row>
-    <row r="53" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>50</v>
       </c>
@@ -4011,23 +4145,24 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K53" s="11">
-        <v>1</v>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L53" s="11">
+        <v>1</v>
+      </c>
+      <c r="M53" s="11">
         <v>10</v>
       </c>
-      <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
-    </row>
-    <row r="54" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>51</v>
       </c>
@@ -4047,29 +4182,30 @@
         <v>214</v>
       </c>
       <c r="G54" s="11"/>
-      <c r="H54" s="11">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11">
         <v>2000</v>
       </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K54" s="11">
-        <v>1</v>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L54" s="11">
+        <v>1</v>
+      </c>
+      <c r="M54" s="11">
         <v>10</v>
       </c>
-      <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
-    </row>
-    <row r="55" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>52</v>
       </c>
@@ -4091,23 +4227,24 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" s="11">
-        <v>1</v>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L55" s="11">
+        <v>1</v>
+      </c>
+      <c r="M55" s="11">
         <v>10</v>
       </c>
-      <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
-    </row>
-    <row r="56" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>53</v>
       </c>
@@ -4127,29 +4264,30 @@
         <v>220</v>
       </c>
       <c r="G56" s="11"/>
-      <c r="H56" s="11">
+      <c r="H56" s="11"/>
+      <c r="I56" s="11">
         <v>1001</v>
       </c>
-      <c r="I56" s="11">
-        <v>1</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K56" s="11">
-        <v>1</v>
+      <c r="J56" s="11">
+        <v>1</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L56" s="11">
+        <v>1</v>
+      </c>
+      <c r="M56" s="11">
         <v>10</v>
       </c>
-      <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
-    </row>
-    <row r="57" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>54</v>
       </c>
@@ -4171,23 +4309,24 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K57" s="11">
-        <v>1</v>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L57" s="11">
+        <v>1</v>
+      </c>
+      <c r="M57" s="11">
         <v>10</v>
       </c>
-      <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
-    </row>
-    <row r="58" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S57" s="11"/>
+    </row>
+    <row r="58" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>55</v>
       </c>
@@ -4209,23 +4348,24 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K58" s="11">
-        <v>1</v>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L58" s="11">
+        <v>1</v>
+      </c>
+      <c r="M58" s="11">
         <v>10</v>
       </c>
-      <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
-    </row>
-    <row r="59" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S58" s="11"/>
+    </row>
+    <row r="59" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>56</v>
       </c>
@@ -4247,23 +4387,24 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K59" s="11">
-        <v>1</v>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L59" s="11">
+        <v>1</v>
+      </c>
+      <c r="M59" s="11">
         <v>10</v>
       </c>
-      <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S59" s="11"/>
+    </row>
+    <row r="60" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>57</v>
       </c>
@@ -4283,27 +4424,28 @@
         <v>232</v>
       </c>
       <c r="G60" s="11"/>
-      <c r="H60" s="11">
+      <c r="H60" s="11"/>
+      <c r="I60" s="11">
         <v>8000</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K60" s="11">
-        <v>1</v>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L60" s="11">
+        <v>1</v>
+      </c>
+      <c r="M60" s="11">
         <v>10</v>
       </c>
-      <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>58</v>
       </c>
@@ -4325,23 +4467,24 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K61" s="11">
-        <v>1</v>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L61" s="11">
+        <v>1</v>
+      </c>
+      <c r="M61" s="11">
         <v>10</v>
       </c>
-      <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-    </row>
-    <row r="62" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S61" s="11"/>
+    </row>
+    <row r="62" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>59</v>
       </c>
@@ -4363,23 +4506,24 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K62" s="11">
-        <v>1</v>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L62" s="11">
+        <v>1</v>
+      </c>
+      <c r="M62" s="11">
         <v>20</v>
       </c>
-      <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
-    </row>
-    <row r="63" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>60</v>
       </c>
@@ -4399,29 +4543,30 @@
         <v>241</v>
       </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="11">
+      <c r="H63" s="11"/>
+      <c r="I63" s="11">
         <v>6000</v>
       </c>
-      <c r="I63" s="11">
+      <c r="J63" s="11">
         <v>2</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K63" s="11">
-        <v>1</v>
+      <c r="K63" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L63" s="11">
+        <v>1</v>
+      </c>
+      <c r="M63" s="11">
         <v>20</v>
       </c>
-      <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
-    </row>
-    <row r="64" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>61</v>
       </c>
@@ -4443,23 +4588,24 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K64" s="11">
-        <v>1</v>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L64" s="11">
+        <v>1</v>
+      </c>
+      <c r="M64" s="11">
         <v>20</v>
       </c>
-      <c r="M64" s="11"/>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
-    </row>
-    <row r="65" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S64" s="11"/>
+    </row>
+    <row r="65" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>62</v>
       </c>
@@ -4479,29 +4625,30 @@
         <v>247</v>
       </c>
       <c r="G65" s="11"/>
-      <c r="H65" s="11">
+      <c r="H65" s="11"/>
+      <c r="I65" s="11">
         <v>6000</v>
       </c>
-      <c r="I65" s="11">
-        <v>0</v>
-      </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="11">
+        <v>0</v>
+      </c>
+      <c r="K65" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="K65" s="11">
-        <v>0</v>
-      </c>
       <c r="L65" s="11">
+        <v>0</v>
+      </c>
+      <c r="M65" s="11">
         <v>20</v>
       </c>
-      <c r="M65" s="11"/>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
-    </row>
-    <row r="66" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S65" s="11"/>
+    </row>
+    <row r="66" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>63</v>
       </c>
@@ -4523,29 +4670,30 @@
       <c r="G66" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="11"/>
+      <c r="I66" s="11">
         <v>5000</v>
       </c>
-      <c r="I66" s="11">
-        <v>0</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K66" s="11">
-        <v>1</v>
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L66" s="11">
+        <v>1</v>
+      </c>
+      <c r="M66" s="11">
         <v>20</v>
       </c>
-      <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
-    </row>
-    <row r="67" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S66" s="11"/>
+    </row>
+    <row r="67" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>64</v>
       </c>
@@ -4567,23 +4715,24 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K67" s="11">
-        <v>1</v>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L67" s="11">
+        <v>1</v>
+      </c>
+      <c r="M67" s="11">
         <v>20</v>
       </c>
-      <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
-    </row>
-    <row r="68" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S67" s="11"/>
+    </row>
+    <row r="68" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>65</v>
       </c>
@@ -4603,29 +4752,30 @@
         <v>257</v>
       </c>
       <c r="G68" s="11"/>
-      <c r="H68" s="11">
+      <c r="H68" s="11"/>
+      <c r="I68" s="11">
         <v>2000</v>
       </c>
-      <c r="I68" s="11">
-        <v>0</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K68" s="11">
-        <v>1</v>
+      <c r="J68" s="11">
+        <v>0</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L68" s="11">
+        <v>1</v>
+      </c>
+      <c r="M68" s="11">
         <v>20</v>
       </c>
-      <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
-    </row>
-    <row r="69" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S68" s="11"/>
+    </row>
+    <row r="69" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>66</v>
       </c>
@@ -4647,23 +4797,24 @@
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K69" s="11">
-        <v>1</v>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L69" s="11">
+        <v>1</v>
+      </c>
+      <c r="M69" s="11">
         <v>20</v>
       </c>
-      <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
-    </row>
-    <row r="70" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S69" s="11"/>
+    </row>
+    <row r="70" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>67</v>
       </c>
@@ -4685,23 +4836,24 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K70" s="11">
-        <v>1</v>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L70" s="11">
+        <v>1</v>
+      </c>
+      <c r="M70" s="11">
         <v>20</v>
       </c>
-      <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
-    </row>
-    <row r="71" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S70" s="11"/>
+    </row>
+    <row r="71" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>68</v>
       </c>
@@ -4721,29 +4873,30 @@
         <v>266</v>
       </c>
       <c r="G71" s="13"/>
-      <c r="H71" s="11">
+      <c r="H71" s="13"/>
+      <c r="I71" s="11">
         <v>1000</v>
       </c>
-      <c r="I71" s="11">
+      <c r="J71" s="11">
         <v>3</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K71" s="11">
-        <v>1</v>
+      <c r="K71" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L71" s="11">
+        <v>1</v>
+      </c>
+      <c r="M71" s="11">
         <v>20</v>
       </c>
-      <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
-    </row>
-    <row r="72" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S71" s="11"/>
+    </row>
+    <row r="72" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>69</v>
       </c>
@@ -4765,23 +4918,24 @@
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K72" s="11">
-        <v>1</v>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L72" s="11">
+        <v>1</v>
+      </c>
+      <c r="M72" s="11">
         <v>20</v>
       </c>
-      <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
-    </row>
-    <row r="73" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S72" s="11"/>
+    </row>
+    <row r="73" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>70</v>
       </c>
@@ -4801,29 +4955,30 @@
         <v>272</v>
       </c>
       <c r="G73" s="11"/>
-      <c r="H73" s="11">
+      <c r="H73" s="11"/>
+      <c r="I73" s="11">
         <v>6000</v>
       </c>
-      <c r="I73" s="11">
-        <v>0</v>
-      </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="K73" s="11">
-        <v>0</v>
-      </c>
       <c r="L73" s="11">
+        <v>0</v>
+      </c>
+      <c r="M73" s="11">
         <v>50</v>
       </c>
-      <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
-    </row>
-    <row r="74" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S73" s="11"/>
+    </row>
+    <row r="74" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>71</v>
       </c>
@@ -4843,29 +4998,30 @@
         <v>275</v>
       </c>
       <c r="G74" s="11"/>
-      <c r="H74" s="11">
+      <c r="H74" s="11"/>
+      <c r="I74" s="11">
         <v>1000</v>
       </c>
-      <c r="I74" s="11">
-        <v>1</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K74" s="11">
-        <v>1</